--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -1,52 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView windowWidth="18450" windowHeight="12630" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="JAVA基础" sheetId="2" r:id="rId1"/>
     <sheet name="JAVA进阶" sheetId="3" r:id="rId2"/>
     <sheet name="JAVA高级" sheetId="4" r:id="rId3"/>
     <sheet name="架构师" sheetId="1" r:id="rId4"/>
-    <sheet name="扩展技术" sheetId="5" r:id="rId5"/>
-    <sheet name="数据库" sheetId="6" r:id="rId6"/>
+    <sheet name="数据库" sheetId="6" r:id="rId5"/>
+    <sheet name="扩展技术" sheetId="5" r:id="rId6"/>
+    <sheet name="面试技术要求" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
-  <si>
-    <t>技术类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>技术方向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>技术要点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习课程名称</t>
   </si>
   <si>
     <t>资源来源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成进度</t>
+  </si>
+  <si>
+    <t>课程详细进度</t>
   </si>
   <si>
     <t>笔记存放目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成进度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>未开始</t>
@@ -55,32 +52,42 @@
     <t>即将进行</t>
   </si>
   <si>
+    <t>已完成</t>
+  </si>
+  <si>
     <t>进行中</t>
   </si>
   <si>
-    <t>已完成</t>
-  </si>
-  <si>
-    <t>学习课程名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>公司</t>
+  </si>
+  <si>
+    <t>方向</t>
+  </si>
+  <si>
+    <t>基础技术</t>
+  </si>
+  <si>
+    <t>必备技术</t>
+  </si>
+  <si>
+    <t>加分技术</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -89,12 +96,170 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -103,12 +268,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="3" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -118,40 +469,332 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -200,7 +843,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -235,7 +878,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -438,187 +1081,424 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F$1:F$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="14.25" customWidth="1"/>
     <col min="2" max="2" width="16.875" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
     <col min="4" max="4" width="15.375" customWidth="1"/>
-    <col min="5" max="5" width="14.25" customWidth="1"/>
-    <col min="6" max="6" width="17.875" customWidth="1"/>
-    <col min="7" max="7" width="12.875" customWidth="1"/>
+    <col min="5" max="6" width="14.25" customWidth="1"/>
+    <col min="7" max="7" width="17.875" customWidth="1"/>
+    <col min="8" max="8" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:8">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="5:5">
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="5:5">
       <c r="E3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="5:5">
       <c r="E4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="5:5">
       <c r="E5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
       <formula1>"未开始,即将进行,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F$1:F$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="3" width="20.25" customWidth="1"/>
+    <col min="4" max="4" width="18.375" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="14.25" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:8">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1">
       <formula1>"未开始,即将进行,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F$1:F$1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
+    <col min="3" max="3" width="19.75" customWidth="1"/>
+    <col min="4" max="4" width="21.375" customWidth="1"/>
+    <col min="5" max="5" width="12.75" customWidth="1"/>
+    <col min="6" max="6" width="14.25" customWidth="1"/>
+    <col min="7" max="7" width="19.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="3" customFormat="1" spans="1:8">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1">
+      <formula1>"未开始,即将进行,进行中,已完成"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F$1:F$1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="12.375" customWidth="1"/>
+    <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="6" max="6" width="14.25" customWidth="1"/>
+    <col min="7" max="7" width="19.125" customWidth="1"/>
+    <col min="8" max="8" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:8">
+      <c r="A1" s="3" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1">
+      <formula1>"未开始,即将进行,进行中,已完成"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F$1:F$1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="11.25" customWidth="1"/>
+    <col min="3" max="3" width="19.625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="11.75" customWidth="1"/>
+    <col min="6" max="6" width="14.25" customWidth="1"/>
+    <col min="7" max="7" width="17.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="3" customFormat="1" spans="1:8">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1">
+      <formula1>"未开始,即将进行,进行中,已完成"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F$1:F$1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="16.75" customWidth="1"/>
+    <col min="6" max="6" width="14.25" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="3" customFormat="1" spans="1:8">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1">
+      <formula1>"未开始,即将进行,进行中,已完成"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="3" max="3" width="31.625" customWidth="1"/>
+    <col min="4" max="4" width="43.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18450" windowHeight="12630" activeTab="5"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="JAVA基础" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>技术方向</t>
   </si>
@@ -56,6 +56,24 @@
   </si>
   <si>
     <t>进行中</t>
+  </si>
+  <si>
+    <t>架构搭建</t>
+  </si>
+  <si>
+    <t>高可用，分布式</t>
+  </si>
+  <si>
+    <t>如何接手一个烂项目</t>
+  </si>
+  <si>
+    <t>bilibili</t>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>Helper\A.Java\D.架构篇\D.设计思想\A.高可用分布式</t>
   </si>
   <si>
     <t>公司</t>
@@ -78,12 +96,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,31 +118,90 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,63 +215,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -206,54 +255,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,187 +277,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,21 +486,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -507,17 +495,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,6 +522,54 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -551,193 +583,167 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1106,29 +1112,29 @@
     <col min="8" max="8" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="2" customFormat="1" spans="1:8">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1184,29 +1190,29 @@
     <col min="7" max="7" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="2" customFormat="1" spans="1:8">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1243,29 +1249,29 @@
     <col min="7" max="7" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="2" customFormat="1" spans="1:8">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1283,24 +1289,25 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F$1:F$1048576"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.125" customWidth="1"/>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="16.375" customWidth="1"/>
-    <col min="4" max="4" width="14.25" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
-    <col min="6" max="6" width="14.25" customWidth="1"/>
-    <col min="7" max="7" width="19.125" customWidth="1"/>
-    <col min="8" max="8" width="10.375" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="21.25" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.25" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14.25" style="4" customWidth="1"/>
+    <col min="7" max="7" width="19.125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" spans="1:8">
@@ -1327,6 +1334,26 @@
       </c>
       <c r="H1" s="3" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="40.5" spans="1:7">
+      <c r="A2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1363,29 +1390,29 @@
     <col min="7" max="7" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="2" customFormat="1" spans="1:8">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1405,7 +1432,7 @@
   <sheetPr/>
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="F1" sqref="F$1:F$1048576"/>
@@ -1422,29 +1449,29 @@
     <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="2" customFormat="1" spans="1:8">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1478,22 +1505,22 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
-      <c r="A1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
     </row>

--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="JAVA基础" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="51">
   <si>
     <t>技术方向</t>
   </si>
@@ -49,12 +49,6 @@
   </si>
   <si>
     <t>备注</t>
-  </si>
-  <si>
-    <t>未开始</t>
-  </si>
-  <si>
-    <t>即将进行</t>
   </si>
   <si>
     <t>已完成</t>
@@ -322,6 +316,18 @@
   </si>
   <si>
     <t>阿里架构师干货分享之——亿级大表分库分表解决方案</t>
+  </si>
+  <si>
+    <t>技术基础</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java8编程开发入门</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>网易云课堂</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -574,7 +580,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -609,7 +615,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -818,11 +824,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -833,7 +839,7 @@
     <col min="4" max="4" width="15.375" customWidth="1"/>
     <col min="5" max="6" width="14.25" customWidth="1"/>
     <col min="7" max="7" width="17.875" customWidth="1"/>
-    <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="13.125" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
     <col min="10" max="10" width="12.875" customWidth="1"/>
   </cols>
@@ -861,33 +867,31 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="E3" t="s">
+    <row r="2" spans="1:10" s="8" customFormat="1">
+      <c r="A2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="E5" t="s">
-        <v>11</v>
+      <c r="H2" s="12">
+        <f ca="1">TODAY()</f>
+        <v>43418</v>
       </c>
     </row>
   </sheetData>
@@ -943,13 +947,13 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1006,13 +1010,13 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1073,41 +1077,41 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="40.5">
       <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="H2" s="4">
         <f ca="1">TODAY()</f>
-        <v>43417</v>
+        <v>43418</v>
       </c>
       <c r="I2" s="4">
         <f ca="1">TODAY()</f>
-        <v>43417</v>
+        <v>43418</v>
       </c>
     </row>
   </sheetData>
@@ -1126,9 +1130,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J408"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1140,8 +1144,8 @@
     <col min="5" max="5" width="11.75" style="8" customWidth="1"/>
     <col min="6" max="6" width="14.25" style="8" customWidth="1"/>
     <col min="7" max="7" width="17.125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="11.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="8"/>
+    <col min="8" max="9" width="11.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="17" customFormat="1">
@@ -1167,40 +1171,44 @@
         <v>6</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="40.5">
       <c r="A2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="E2" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2" s="20">
         <v>3.5305555555555554</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H2" s="12">
         <f ca="1">TODAY()-1</f>
-        <v>43416</v>
+        <v>43417</v>
+      </c>
+      <c r="I2" s="12">
+        <f ca="1">TODAY()</f>
+        <v>43418</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2480,13 +2488,13 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2523,67 +2531,67 @@
   <sheetData>
     <row r="1" spans="1:8" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="280.5">
       <c r="A2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>36</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>38</v>
       </c>
       <c r="H2" s="12">
         <f ca="1">TODAY()</f>
-        <v>43417</v>
+        <v>43418</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="14" customFormat="1" ht="66">
       <c r="A3" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="E3" s="15" t="s">
         <v>41</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>43</v>
       </c>
       <c r="H3" s="16">
         <f ca="1">TODAY()</f>
-        <v>43417</v>
+        <v>43418</v>
       </c>
     </row>
     <row r="4" spans="1:8">

--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Helper\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="JAVA基础" sheetId="2" r:id="rId1"/>
@@ -20,12 +15,12 @@
     <sheet name="扩展技术" sheetId="5" r:id="rId6"/>
     <sheet name="面试技术要求" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
   <si>
     <t>技术方向</t>
   </si>
@@ -48,13 +43,34 @@
     <t>笔记存放目录</t>
   </si>
   <si>
+    <t>开始时间</t>
+  </si>
+  <si>
+    <t>结束时间</t>
+  </si>
+  <si>
     <t>备注</t>
   </si>
   <si>
-    <t>已完成</t>
+    <t>技术基础</t>
+  </si>
+  <si>
+    <t>尚硅谷_Java8新特性</t>
+  </si>
+  <si>
+    <t>BiLiBiLi</t>
   </si>
   <si>
     <t>进行中</t>
+  </si>
+  <si>
+    <t>创建Stream</t>
+  </si>
+  <si>
+    <t>Helper\A.Java\A.基础篇\E.Java8新特性</t>
+  </si>
+  <si>
+    <t>精通Spring、Mybatis等开源框架，了解其运作原理</t>
   </si>
   <si>
     <t>架构搭建</t>
@@ -69,13 +85,53 @@
     <t>bilibili</t>
   </si>
   <si>
+    <t>已完成</t>
+  </si>
+  <si>
     <t>Helper\A.Java\D.架构篇\D.设计思想\A.高可用分布式</t>
+  </si>
+  <si>
+    <t>数据库</t>
+  </si>
+  <si>
+    <t>分库分表</t>
+  </si>
+  <si>
+    <t>阿里架构师干货分享之——亿级大表分库分表解决方案</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iliBili</t>
+    </r>
+  </si>
+  <si>
+    <t>Helper\B.数据库\D.分库分表</t>
   </si>
   <si>
     <t>公司</t>
   </si>
   <si>
     <t>方向</t>
+  </si>
+  <si>
+    <t>关键字</t>
   </si>
   <si>
     <t>基础技术</t>
@@ -87,90 +143,17 @@
     <t>加分技术</t>
   </si>
   <si>
-    <t>开始时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>关键字</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>阿里巴巴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发工程师</t>
   </si>
   <si>
     <t xml:space="preserve"> 1：JAVA基础扎实，理解 io、多线程、集合等基础框架，对JVM原理有一定的了解；
 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1：能够独立完成单元测试和压力测试；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>研发工程师</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1：对常用的开源框架或者库，比如 SpringMVC、SpringBoot、ibatis 等有使用经验，并且了解其原理；（针对 Java 开发经验者）
@@ -180,35 +163,16 @@
 5：熟悉分布式系统的设计和应用，熟悉分布式、缓存、消息等机制；能对分布式常用技术进行合理应用，解决问题。 
 6： 掌握多线程及高性能的设计与编码及性能调优；有高并发应用开发经验
 7：掌握Linux 操作系统和大型数据库（Oracle、MySql）；对sql优化有丰富的经验。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>架构师</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿里巴巴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：熟悉MySQL/PostgreSQL数据库中的一种或多种，有数据库调优经验
-2：熟悉整个软件过程，能够沟通需求、控制项目进度，有良好的文档能力</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1：架构师要求有良好的组件级建模能力，熟悉</t>
-    </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Microsoft YaHei UI"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
-      <t>NoSQL</t>
+      <t>1：能够独立完成单元测试和压力测试；</t>
     </r>
     <r>
       <rPr>
@@ -218,123 +182,51 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>、</t>
+      <t xml:space="preserve"> </t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>MQ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cache</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TCP/IP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>原理，能够设计复杂业务、高并发、大数据量的系统</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Helper\B.数据库\D.分库分表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>架构师</t>
   </si>
   <si>
-    <t>数据库</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>1：架构师要求有良好的组件级建模能力，熟悉NoSQL、MQ、Cache、TCP/IP原理，能够设计复杂业务、高并发、大数据量的系统</t>
   </si>
   <si>
-    <t>分库分表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>1：熟悉MySQL/PostgreSQL数据库中的一种或多种，有数据库调优经验
+2：熟悉整个软件过程，能够沟通需求、控制项目进度，有良好的文档能力</t>
   </si>
   <si>
-    <r>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>iliBili</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>广州凡科互联网科技股份有限公司 </t>
   </si>
   <si>
-    <t>阿里架构师干货分享之——亿级大表分库分表解决方案</t>
+    <t>Java 开发工程师</t>
   </si>
   <si>
-    <t>技术基础</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>1：Java基础扎实，掌握多线程、NIO、Servlet开发技术
+2：扎实的java基础，良好的代码风格，善于使用设计模式重构代码结构，</t>
   </si>
   <si>
-    <t>Java8编程开发入门</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>1：精通Spring、Mybatis等开源框架，了解其运作原理；
+2：熟悉主流MQ，Kafka，Redis等分布式数据处理、消息队列、缓存系统；
+3：了解 Linux 服务器操作系统，熟悉MySQL数据库；
+4：熟悉基本软件开发流程和工具，例如单元测试、Git版本控制、Bug管理等；
+5：了解 tcp/ip、http协议，熟悉java网络/多线程等服务器端编程技术；</t>
   </si>
   <si>
-    <t>网易云课堂</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>1：熟悉linux环境基本操作，熟悉nginx、python者优先；</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,6 +243,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Microsoft yahei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -360,6 +279,52 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF999999"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -368,7 +333,44 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -377,32 +379,48 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Microsoft yahei"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Microsoft YaHei UI"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF999999"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -411,18 +429,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="3" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="0" tint="-0.0499893185216834"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -445,93 +649,384 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
-      <color rgb="FFE9F4FB"/>
+      <color rgb="00E9F4FB"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -580,7 +1075,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -615,7 +1110,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -818,20 +1313,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="14.25" customWidth="1"/>
     <col min="2" max="2" width="16.875" customWidth="1"/>
@@ -840,77 +1336,85 @@
     <col min="5" max="6" width="14.25" customWidth="1"/>
     <col min="7" max="7" width="17.875" customWidth="1"/>
     <col min="8" max="8" width="13.125" customWidth="1"/>
-    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="9" max="9" width="12.25" customWidth="1"/>
     <col min="10" max="10" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="13" customFormat="1" spans="1:10">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" s="8" customFormat="1">
-      <c r="A2" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="12">
+    </row>
+    <row r="2" s="3" customFormat="1" ht="40.5" spans="1:8">
+      <c r="A2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="8">
         <f ca="1">TODAY()</f>
-        <v>43418</v>
+        <v>43419</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
       <formula1>"未开始,即将进行,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
       <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
@@ -924,61 +1428,63 @@
     <col min="7" max="7" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="13" customFormat="1" spans="1:10">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>24</v>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
       <formula1>"未开始,即将进行,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
     <col min="2" max="2" width="16.375" customWidth="1"/>
     <col min="3" max="3" width="19.75" customWidth="1"/>
     <col min="4" max="4" width="21.375" customWidth="1"/>
@@ -987,1470 +1493,1490 @@
     <col min="7" max="7" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="13" customFormat="1" spans="1:10">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="H1" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" ht="27" spans="1:10">
+      <c r="A2" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
       <formula1>"未开始,即将进行,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
       <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="21.25" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="19.125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="11.625" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="21.125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="12" customWidth="1"/>
+    <col min="3" max="3" width="21.25" style="12" customWidth="1"/>
+    <col min="4" max="4" width="14.25" style="12" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="14.25" style="12" customWidth="1"/>
+    <col min="7" max="7" width="19.125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="12" customWidth="1"/>
+    <col min="9" max="9" width="11.875" style="12" customWidth="1"/>
+    <col min="10" max="10" width="11.625" style="12" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="19" customFormat="1" spans="1:10">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="40.5">
-      <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="H1" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="4">
+      <c r="J1" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" ht="40.5" spans="1:9">
+      <c r="A2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="20">
         <f ca="1">TODAY()</f>
-        <v>43418</v>
-      </c>
-      <c r="I2" s="4">
+        <v>43419</v>
+      </c>
+      <c r="I2" s="20">
         <f ca="1">TODAY()</f>
-        <v>43418</v>
+        <v>43419</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
       <formula1>"未开始,即将进行,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="8" customWidth="1"/>
-    <col min="3" max="3" width="19.625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="14" style="8" customWidth="1"/>
-    <col min="5" max="5" width="11.75" style="8" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="8" customWidth="1"/>
-    <col min="7" max="7" width="17.125" style="8" customWidth="1"/>
-    <col min="8" max="9" width="11.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="11.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.125" style="3" customWidth="1"/>
+    <col min="8" max="9" width="11.625" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="17" customFormat="1">
-      <c r="A1" s="17" t="s">
+    <row r="1" s="14" customFormat="1" spans="1:10">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="17" t="s">
+      <c r="H1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" ht="40.5" spans="1:9">
+      <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="40.5">
-      <c r="A2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="20">
-        <v>3.5305555555555554</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="12">
+      <c r="B2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="16">
+        <v>3.53055555555556</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="8">
         <f ca="1">TODAY()-1</f>
-        <v>43417</v>
-      </c>
-      <c r="I2" s="12">
+        <v>43418</v>
+      </c>
+      <c r="I2" s="8">
         <f ca="1">TODAY()</f>
-        <v>43418</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>43419</v>
+      </c>
+    </row>
+    <row r="3" spans="3:7">
       <c r="C3" s="18"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="G16" s="3"/>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="7:7">
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="7:7">
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="7:7">
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="7:7">
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="7:7">
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="7:7">
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="7:7">
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="7:7">
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="7:7">
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="7:7">
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="7:7">
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="7:7">
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="7:7">
+      <c r="G16" s="12"/>
     </row>
     <row r="17" spans="7:7">
-      <c r="G17" s="3"/>
+      <c r="G17" s="12"/>
     </row>
     <row r="18" spans="7:7">
-      <c r="G18" s="3"/>
+      <c r="G18" s="12"/>
     </row>
     <row r="19" spans="7:7">
-      <c r="G19" s="3"/>
+      <c r="G19" s="12"/>
     </row>
     <row r="20" spans="7:7">
-      <c r="G20" s="3"/>
+      <c r="G20" s="12"/>
     </row>
     <row r="21" spans="7:7">
-      <c r="G21" s="3"/>
+      <c r="G21" s="12"/>
     </row>
     <row r="22" spans="7:7">
-      <c r="G22" s="3"/>
+      <c r="G22" s="12"/>
     </row>
     <row r="23" spans="7:7">
-      <c r="G23" s="3"/>
+      <c r="G23" s="12"/>
     </row>
     <row r="24" spans="7:7">
-      <c r="G24" s="3"/>
+      <c r="G24" s="12"/>
     </row>
     <row r="25" spans="7:7">
-      <c r="G25" s="3"/>
+      <c r="G25" s="12"/>
     </row>
     <row r="26" spans="7:7">
-      <c r="G26" s="3"/>
+      <c r="G26" s="12"/>
     </row>
     <row r="27" spans="7:7">
-      <c r="G27" s="3"/>
+      <c r="G27" s="12"/>
     </row>
     <row r="28" spans="7:7">
-      <c r="G28" s="3"/>
+      <c r="G28" s="12"/>
     </row>
     <row r="29" spans="7:7">
-      <c r="G29" s="3"/>
+      <c r="G29" s="12"/>
     </row>
     <row r="30" spans="7:7">
-      <c r="G30" s="3"/>
+      <c r="G30" s="12"/>
     </row>
     <row r="31" spans="7:7">
-      <c r="G31" s="3"/>
+      <c r="G31" s="12"/>
     </row>
     <row r="32" spans="7:7">
-      <c r="G32" s="3"/>
+      <c r="G32" s="12"/>
     </row>
     <row r="33" spans="7:7">
-      <c r="G33" s="3"/>
+      <c r="G33" s="12"/>
     </row>
     <row r="34" spans="7:7">
-      <c r="G34" s="3"/>
+      <c r="G34" s="12"/>
     </row>
     <row r="35" spans="7:7">
-      <c r="G35" s="3"/>
+      <c r="G35" s="12"/>
     </row>
     <row r="36" spans="7:7">
-      <c r="G36" s="3"/>
+      <c r="G36" s="12"/>
     </row>
     <row r="37" spans="7:7">
-      <c r="G37" s="3"/>
+      <c r="G37" s="12"/>
     </row>
     <row r="38" spans="7:7">
-      <c r="G38" s="3"/>
+      <c r="G38" s="12"/>
     </row>
     <row r="39" spans="7:7">
-      <c r="G39" s="3"/>
+      <c r="G39" s="12"/>
     </row>
     <row r="40" spans="7:7">
-      <c r="G40" s="3"/>
+      <c r="G40" s="12"/>
     </row>
     <row r="41" spans="7:7">
-      <c r="G41" s="3"/>
+      <c r="G41" s="12"/>
     </row>
     <row r="42" spans="7:7">
-      <c r="G42" s="3"/>
+      <c r="G42" s="12"/>
     </row>
     <row r="43" spans="7:7">
-      <c r="G43" s="3"/>
+      <c r="G43" s="12"/>
     </row>
     <row r="44" spans="7:7">
-      <c r="G44" s="3"/>
+      <c r="G44" s="12"/>
     </row>
     <row r="45" spans="7:7">
-      <c r="G45" s="3"/>
+      <c r="G45" s="12"/>
     </row>
     <row r="46" spans="7:7">
-      <c r="G46" s="3"/>
+      <c r="G46" s="12"/>
     </row>
     <row r="47" spans="7:7">
-      <c r="G47" s="3"/>
+      <c r="G47" s="12"/>
     </row>
     <row r="48" spans="7:7">
-      <c r="G48" s="3"/>
+      <c r="G48" s="12"/>
     </row>
     <row r="49" spans="7:7">
-      <c r="G49" s="3"/>
+      <c r="G49" s="12"/>
     </row>
     <row r="50" spans="7:7">
-      <c r="G50" s="3"/>
+      <c r="G50" s="12"/>
     </row>
     <row r="51" spans="7:7">
-      <c r="G51" s="3"/>
+      <c r="G51" s="12"/>
     </row>
     <row r="52" spans="7:7">
-      <c r="G52" s="3"/>
+      <c r="G52" s="12"/>
     </row>
     <row r="53" spans="7:7">
-      <c r="G53" s="3"/>
+      <c r="G53" s="12"/>
     </row>
     <row r="54" spans="7:7">
-      <c r="G54" s="3"/>
+      <c r="G54" s="12"/>
     </row>
     <row r="55" spans="7:7">
-      <c r="G55" s="3"/>
+      <c r="G55" s="12"/>
     </row>
     <row r="56" spans="7:7">
-      <c r="G56" s="3"/>
+      <c r="G56" s="12"/>
     </row>
     <row r="57" spans="7:7">
-      <c r="G57" s="3"/>
+      <c r="G57" s="12"/>
     </row>
     <row r="58" spans="7:7">
-      <c r="G58" s="3"/>
+      <c r="G58" s="12"/>
     </row>
     <row r="59" spans="7:7">
-      <c r="G59" s="3"/>
+      <c r="G59" s="12"/>
     </row>
     <row r="60" spans="7:7">
-      <c r="G60" s="3"/>
+      <c r="G60" s="12"/>
     </row>
     <row r="61" spans="7:7">
-      <c r="G61" s="3"/>
+      <c r="G61" s="12"/>
     </row>
     <row r="62" spans="7:7">
-      <c r="G62" s="3"/>
+      <c r="G62" s="12"/>
     </row>
     <row r="63" spans="7:7">
-      <c r="G63" s="3"/>
+      <c r="G63" s="12"/>
     </row>
     <row r="64" spans="7:7">
-      <c r="G64" s="3"/>
+      <c r="G64" s="12"/>
     </row>
     <row r="65" spans="7:7">
-      <c r="G65" s="3"/>
+      <c r="G65" s="12"/>
     </row>
     <row r="66" spans="7:7">
-      <c r="G66" s="3"/>
+      <c r="G66" s="12"/>
     </row>
     <row r="67" spans="7:7">
-      <c r="G67" s="3"/>
+      <c r="G67" s="12"/>
     </row>
     <row r="68" spans="7:7">
-      <c r="G68" s="3"/>
+      <c r="G68" s="12"/>
     </row>
     <row r="69" spans="7:7">
-      <c r="G69" s="3"/>
+      <c r="G69" s="12"/>
     </row>
     <row r="70" spans="7:7">
-      <c r="G70" s="3"/>
+      <c r="G70" s="12"/>
     </row>
     <row r="71" spans="7:7">
-      <c r="G71" s="3"/>
+      <c r="G71" s="12"/>
     </row>
     <row r="72" spans="7:7">
-      <c r="G72" s="3"/>
+      <c r="G72" s="12"/>
     </row>
     <row r="73" spans="7:7">
-      <c r="G73" s="3"/>
+      <c r="G73" s="12"/>
     </row>
     <row r="74" spans="7:7">
-      <c r="G74" s="3"/>
+      <c r="G74" s="12"/>
     </row>
     <row r="75" spans="7:7">
-      <c r="G75" s="3"/>
+      <c r="G75" s="12"/>
     </row>
     <row r="76" spans="7:7">
-      <c r="G76" s="3"/>
+      <c r="G76" s="12"/>
     </row>
     <row r="77" spans="7:7">
-      <c r="G77" s="3"/>
+      <c r="G77" s="12"/>
     </row>
     <row r="78" spans="7:7">
-      <c r="G78" s="3"/>
+      <c r="G78" s="12"/>
     </row>
     <row r="79" spans="7:7">
-      <c r="G79" s="3"/>
+      <c r="G79" s="12"/>
     </row>
     <row r="80" spans="7:7">
-      <c r="G80" s="3"/>
+      <c r="G80" s="12"/>
     </row>
     <row r="81" spans="7:7">
-      <c r="G81" s="3"/>
+      <c r="G81" s="12"/>
     </row>
     <row r="82" spans="7:7">
-      <c r="G82" s="3"/>
+      <c r="G82" s="12"/>
     </row>
     <row r="83" spans="7:7">
-      <c r="G83" s="3"/>
+      <c r="G83" s="12"/>
     </row>
     <row r="84" spans="7:7">
-      <c r="G84" s="3"/>
+      <c r="G84" s="12"/>
     </row>
     <row r="85" spans="7:7">
-      <c r="G85" s="3"/>
+      <c r="G85" s="12"/>
     </row>
     <row r="86" spans="7:7">
-      <c r="G86" s="3"/>
+      <c r="G86" s="12"/>
     </row>
     <row r="87" spans="7:7">
-      <c r="G87" s="3"/>
+      <c r="G87" s="12"/>
     </row>
     <row r="88" spans="7:7">
-      <c r="G88" s="3"/>
+      <c r="G88" s="12"/>
     </row>
     <row r="89" spans="7:7">
-      <c r="G89" s="3"/>
+      <c r="G89" s="12"/>
     </row>
     <row r="90" spans="7:7">
-      <c r="G90" s="3"/>
+      <c r="G90" s="12"/>
     </row>
     <row r="91" spans="7:7">
-      <c r="G91" s="3"/>
+      <c r="G91" s="12"/>
     </row>
     <row r="92" spans="7:7">
-      <c r="G92" s="3"/>
+      <c r="G92" s="12"/>
     </row>
     <row r="93" spans="7:7">
-      <c r="G93" s="3"/>
+      <c r="G93" s="12"/>
     </row>
     <row r="94" spans="7:7">
-      <c r="G94" s="3"/>
+      <c r="G94" s="12"/>
     </row>
     <row r="95" spans="7:7">
-      <c r="G95" s="3"/>
+      <c r="G95" s="12"/>
     </row>
     <row r="96" spans="7:7">
-      <c r="G96" s="3"/>
+      <c r="G96" s="12"/>
     </row>
     <row r="97" spans="7:7">
-      <c r="G97" s="3"/>
+      <c r="G97" s="12"/>
     </row>
     <row r="98" spans="7:7">
-      <c r="G98" s="3"/>
+      <c r="G98" s="12"/>
     </row>
     <row r="99" spans="7:7">
-      <c r="G99" s="3"/>
+      <c r="G99" s="12"/>
     </row>
     <row r="100" spans="7:7">
-      <c r="G100" s="3"/>
+      <c r="G100" s="12"/>
     </row>
     <row r="101" spans="7:7">
-      <c r="G101" s="3"/>
+      <c r="G101" s="12"/>
     </row>
     <row r="102" spans="7:7">
-      <c r="G102" s="3"/>
+      <c r="G102" s="12"/>
     </row>
     <row r="103" spans="7:7">
-      <c r="G103" s="3"/>
+      <c r="G103" s="12"/>
     </row>
     <row r="104" spans="7:7">
-      <c r="G104" s="3"/>
+      <c r="G104" s="12"/>
     </row>
     <row r="105" spans="7:7">
-      <c r="G105" s="3"/>
+      <c r="G105" s="12"/>
     </row>
     <row r="106" spans="7:7">
-      <c r="G106" s="3"/>
+      <c r="G106" s="12"/>
     </row>
     <row r="107" spans="7:7">
-      <c r="G107" s="3"/>
+      <c r="G107" s="12"/>
     </row>
     <row r="108" spans="7:7">
-      <c r="G108" s="3"/>
+      <c r="G108" s="12"/>
     </row>
     <row r="109" spans="7:7">
-      <c r="G109" s="3"/>
+      <c r="G109" s="12"/>
     </row>
     <row r="110" spans="7:7">
-      <c r="G110" s="3"/>
+      <c r="G110" s="12"/>
     </row>
     <row r="111" spans="7:7">
-      <c r="G111" s="3"/>
+      <c r="G111" s="12"/>
     </row>
     <row r="112" spans="7:7">
-      <c r="G112" s="3"/>
+      <c r="G112" s="12"/>
     </row>
     <row r="113" spans="7:7">
-      <c r="G113" s="3"/>
+      <c r="G113" s="12"/>
     </row>
     <row r="114" spans="7:7">
-      <c r="G114" s="3"/>
+      <c r="G114" s="12"/>
     </row>
     <row r="115" spans="7:7">
-      <c r="G115" s="3"/>
+      <c r="G115" s="12"/>
     </row>
     <row r="116" spans="7:7">
-      <c r="G116" s="3"/>
+      <c r="G116" s="12"/>
     </row>
     <row r="117" spans="7:7">
-      <c r="G117" s="3"/>
+      <c r="G117" s="12"/>
     </row>
     <row r="118" spans="7:7">
-      <c r="G118" s="3"/>
+      <c r="G118" s="12"/>
     </row>
     <row r="119" spans="7:7">
-      <c r="G119" s="3"/>
+      <c r="G119" s="12"/>
     </row>
     <row r="120" spans="7:7">
-      <c r="G120" s="3"/>
+      <c r="G120" s="12"/>
     </row>
     <row r="121" spans="7:7">
-      <c r="G121" s="3"/>
+      <c r="G121" s="12"/>
     </row>
     <row r="122" spans="7:7">
-      <c r="G122" s="3"/>
+      <c r="G122" s="12"/>
     </row>
     <row r="123" spans="7:7">
-      <c r="G123" s="3"/>
+      <c r="G123" s="12"/>
     </row>
     <row r="124" spans="7:7">
-      <c r="G124" s="3"/>
+      <c r="G124" s="12"/>
     </row>
     <row r="125" spans="7:7">
-      <c r="G125" s="3"/>
+      <c r="G125" s="12"/>
     </row>
     <row r="126" spans="7:7">
-      <c r="G126" s="3"/>
+      <c r="G126" s="12"/>
     </row>
     <row r="127" spans="7:7">
-      <c r="G127" s="3"/>
+      <c r="G127" s="12"/>
     </row>
     <row r="128" spans="7:7">
-      <c r="G128" s="3"/>
+      <c r="G128" s="12"/>
     </row>
     <row r="129" spans="7:7">
-      <c r="G129" s="3"/>
+      <c r="G129" s="12"/>
     </row>
     <row r="130" spans="7:7">
-      <c r="G130" s="3"/>
+      <c r="G130" s="12"/>
     </row>
     <row r="131" spans="7:7">
-      <c r="G131" s="3"/>
+      <c r="G131" s="12"/>
     </row>
     <row r="132" spans="7:7">
-      <c r="G132" s="3"/>
+      <c r="G132" s="12"/>
     </row>
     <row r="133" spans="7:7">
-      <c r="G133" s="3"/>
+      <c r="G133" s="12"/>
     </row>
     <row r="134" spans="7:7">
-      <c r="G134" s="3"/>
+      <c r="G134" s="12"/>
     </row>
     <row r="135" spans="7:7">
-      <c r="G135" s="3"/>
+      <c r="G135" s="12"/>
     </row>
     <row r="136" spans="7:7">
-      <c r="G136" s="3"/>
+      <c r="G136" s="12"/>
     </row>
     <row r="137" spans="7:7">
-      <c r="G137" s="3"/>
+      <c r="G137" s="12"/>
     </row>
     <row r="138" spans="7:7">
-      <c r="G138" s="3"/>
+      <c r="G138" s="12"/>
     </row>
     <row r="139" spans="7:7">
-      <c r="G139" s="3"/>
+      <c r="G139" s="12"/>
     </row>
     <row r="140" spans="7:7">
-      <c r="G140" s="3"/>
+      <c r="G140" s="12"/>
     </row>
     <row r="141" spans="7:7">
-      <c r="G141" s="3"/>
+      <c r="G141" s="12"/>
     </row>
     <row r="142" spans="7:7">
-      <c r="G142" s="3"/>
+      <c r="G142" s="12"/>
     </row>
     <row r="143" spans="7:7">
-      <c r="G143" s="3"/>
+      <c r="G143" s="12"/>
     </row>
     <row r="144" spans="7:7">
-      <c r="G144" s="3"/>
+      <c r="G144" s="12"/>
     </row>
     <row r="145" spans="7:7">
-      <c r="G145" s="3"/>
+      <c r="G145" s="12"/>
     </row>
     <row r="146" spans="7:7">
-      <c r="G146" s="3"/>
+      <c r="G146" s="12"/>
     </row>
     <row r="147" spans="7:7">
-      <c r="G147" s="3"/>
+      <c r="G147" s="12"/>
     </row>
     <row r="148" spans="7:7">
-      <c r="G148" s="3"/>
+      <c r="G148" s="12"/>
     </row>
     <row r="149" spans="7:7">
-      <c r="G149" s="3"/>
+      <c r="G149" s="12"/>
     </row>
     <row r="150" spans="7:7">
-      <c r="G150" s="3"/>
+      <c r="G150" s="12"/>
     </row>
     <row r="151" spans="7:7">
-      <c r="G151" s="3"/>
+      <c r="G151" s="12"/>
     </row>
     <row r="152" spans="7:7">
-      <c r="G152" s="3"/>
+      <c r="G152" s="12"/>
     </row>
     <row r="153" spans="7:7">
-      <c r="G153" s="3"/>
+      <c r="G153" s="12"/>
     </row>
     <row r="154" spans="7:7">
-      <c r="G154" s="3"/>
+      <c r="G154" s="12"/>
     </row>
     <row r="155" spans="7:7">
-      <c r="G155" s="3"/>
+      <c r="G155" s="12"/>
     </row>
     <row r="156" spans="7:7">
-      <c r="G156" s="3"/>
+      <c r="G156" s="12"/>
     </row>
     <row r="157" spans="7:7">
-      <c r="G157" s="3"/>
+      <c r="G157" s="12"/>
     </row>
     <row r="158" spans="7:7">
-      <c r="G158" s="3"/>
+      <c r="G158" s="12"/>
     </row>
     <row r="159" spans="7:7">
-      <c r="G159" s="3"/>
+      <c r="G159" s="12"/>
     </row>
     <row r="160" spans="7:7">
-      <c r="G160" s="3"/>
+      <c r="G160" s="12"/>
     </row>
     <row r="161" spans="7:7">
-      <c r="G161" s="3"/>
+      <c r="G161" s="12"/>
     </row>
     <row r="162" spans="7:7">
-      <c r="G162" s="3"/>
+      <c r="G162" s="12"/>
     </row>
     <row r="163" spans="7:7">
-      <c r="G163" s="3"/>
+      <c r="G163" s="12"/>
     </row>
     <row r="164" spans="7:7">
-      <c r="G164" s="3"/>
+      <c r="G164" s="12"/>
     </row>
     <row r="165" spans="7:7">
-      <c r="G165" s="3"/>
+      <c r="G165" s="12"/>
     </row>
     <row r="166" spans="7:7">
-      <c r="G166" s="3"/>
+      <c r="G166" s="12"/>
     </row>
     <row r="167" spans="7:7">
-      <c r="G167" s="3"/>
+      <c r="G167" s="12"/>
     </row>
     <row r="168" spans="7:7">
-      <c r="G168" s="3"/>
+      <c r="G168" s="12"/>
     </row>
     <row r="169" spans="7:7">
-      <c r="G169" s="3"/>
+      <c r="G169" s="12"/>
     </row>
     <row r="170" spans="7:7">
-      <c r="G170" s="3"/>
+      <c r="G170" s="12"/>
     </row>
     <row r="171" spans="7:7">
-      <c r="G171" s="3"/>
+      <c r="G171" s="12"/>
     </row>
     <row r="172" spans="7:7">
-      <c r="G172" s="3"/>
+      <c r="G172" s="12"/>
     </row>
     <row r="173" spans="7:7">
-      <c r="G173" s="3"/>
+      <c r="G173" s="12"/>
     </row>
     <row r="174" spans="7:7">
-      <c r="G174" s="3"/>
+      <c r="G174" s="12"/>
     </row>
     <row r="175" spans="7:7">
-      <c r="G175" s="3"/>
+      <c r="G175" s="12"/>
     </row>
     <row r="176" spans="7:7">
-      <c r="G176" s="3"/>
+      <c r="G176" s="12"/>
     </row>
     <row r="177" spans="7:7">
-      <c r="G177" s="3"/>
+      <c r="G177" s="12"/>
     </row>
     <row r="178" spans="7:7">
-      <c r="G178" s="3"/>
+      <c r="G178" s="12"/>
     </row>
     <row r="179" spans="7:7">
-      <c r="G179" s="3"/>
+      <c r="G179" s="12"/>
     </row>
     <row r="180" spans="7:7">
-      <c r="G180" s="3"/>
+      <c r="G180" s="12"/>
     </row>
     <row r="181" spans="7:7">
-      <c r="G181" s="3"/>
+      <c r="G181" s="12"/>
     </row>
     <row r="182" spans="7:7">
-      <c r="G182" s="3"/>
+      <c r="G182" s="12"/>
     </row>
     <row r="183" spans="7:7">
-      <c r="G183" s="3"/>
+      <c r="G183" s="12"/>
     </row>
     <row r="184" spans="7:7">
-      <c r="G184" s="3"/>
+      <c r="G184" s="12"/>
     </row>
     <row r="185" spans="7:7">
-      <c r="G185" s="3"/>
+      <c r="G185" s="12"/>
     </row>
     <row r="186" spans="7:7">
-      <c r="G186" s="3"/>
+      <c r="G186" s="12"/>
     </row>
     <row r="187" spans="7:7">
-      <c r="G187" s="3"/>
+      <c r="G187" s="12"/>
     </row>
     <row r="188" spans="7:7">
-      <c r="G188" s="3"/>
+      <c r="G188" s="12"/>
     </row>
     <row r="189" spans="7:7">
-      <c r="G189" s="3"/>
+      <c r="G189" s="12"/>
     </row>
     <row r="190" spans="7:7">
-      <c r="G190" s="3"/>
+      <c r="G190" s="12"/>
     </row>
     <row r="191" spans="7:7">
-      <c r="G191" s="3"/>
+      <c r="G191" s="12"/>
     </row>
     <row r="192" spans="7:7">
-      <c r="G192" s="3"/>
+      <c r="G192" s="12"/>
     </row>
     <row r="193" spans="7:7">
-      <c r="G193" s="3"/>
+      <c r="G193" s="12"/>
     </row>
     <row r="194" spans="7:7">
-      <c r="G194" s="3"/>
+      <c r="G194" s="12"/>
     </row>
     <row r="195" spans="7:7">
-      <c r="G195" s="3"/>
+      <c r="G195" s="12"/>
     </row>
     <row r="196" spans="7:7">
-      <c r="G196" s="3"/>
+      <c r="G196" s="12"/>
     </row>
     <row r="197" spans="7:7">
-      <c r="G197" s="3"/>
+      <c r="G197" s="12"/>
     </row>
     <row r="198" spans="7:7">
-      <c r="G198" s="3"/>
+      <c r="G198" s="12"/>
     </row>
     <row r="199" spans="7:7">
-      <c r="G199" s="3"/>
+      <c r="G199" s="12"/>
     </row>
     <row r="200" spans="7:7">
-      <c r="G200" s="3"/>
+      <c r="G200" s="12"/>
     </row>
     <row r="201" spans="7:7">
-      <c r="G201" s="3"/>
+      <c r="G201" s="12"/>
     </row>
     <row r="202" spans="7:7">
-      <c r="G202" s="3"/>
+      <c r="G202" s="12"/>
     </row>
     <row r="203" spans="7:7">
-      <c r="G203" s="3"/>
+      <c r="G203" s="12"/>
     </row>
     <row r="204" spans="7:7">
-      <c r="G204" s="3"/>
+      <c r="G204" s="12"/>
     </row>
     <row r="205" spans="7:7">
-      <c r="G205" s="3"/>
+      <c r="G205" s="12"/>
     </row>
     <row r="206" spans="7:7">
-      <c r="G206" s="3"/>
+      <c r="G206" s="12"/>
     </row>
     <row r="207" spans="7:7">
-      <c r="G207" s="3"/>
+      <c r="G207" s="12"/>
     </row>
     <row r="208" spans="7:7">
-      <c r="G208" s="3"/>
+      <c r="G208" s="12"/>
     </row>
     <row r="209" spans="7:7">
-      <c r="G209" s="3"/>
+      <c r="G209" s="12"/>
     </row>
     <row r="210" spans="7:7">
-      <c r="G210" s="3"/>
+      <c r="G210" s="12"/>
     </row>
     <row r="211" spans="7:7">
-      <c r="G211" s="3"/>
+      <c r="G211" s="12"/>
     </row>
     <row r="212" spans="7:7">
-      <c r="G212" s="3"/>
+      <c r="G212" s="12"/>
     </row>
     <row r="213" spans="7:7">
-      <c r="G213" s="3"/>
+      <c r="G213" s="12"/>
     </row>
     <row r="214" spans="7:7">
-      <c r="G214" s="3"/>
+      <c r="G214" s="12"/>
     </row>
     <row r="215" spans="7:7">
-      <c r="G215" s="3"/>
+      <c r="G215" s="12"/>
     </row>
     <row r="216" spans="7:7">
-      <c r="G216" s="3"/>
+      <c r="G216" s="12"/>
     </row>
     <row r="217" spans="7:7">
-      <c r="G217" s="3"/>
+      <c r="G217" s="12"/>
     </row>
     <row r="218" spans="7:7">
-      <c r="G218" s="3"/>
+      <c r="G218" s="12"/>
     </row>
     <row r="219" spans="7:7">
-      <c r="G219" s="3"/>
+      <c r="G219" s="12"/>
     </row>
     <row r="220" spans="7:7">
-      <c r="G220" s="3"/>
+      <c r="G220" s="12"/>
     </row>
     <row r="221" spans="7:7">
-      <c r="G221" s="3"/>
+      <c r="G221" s="12"/>
     </row>
     <row r="222" spans="7:7">
-      <c r="G222" s="3"/>
+      <c r="G222" s="12"/>
     </row>
     <row r="223" spans="7:7">
-      <c r="G223" s="3"/>
+      <c r="G223" s="12"/>
     </row>
     <row r="224" spans="7:7">
-      <c r="G224" s="3"/>
+      <c r="G224" s="12"/>
     </row>
     <row r="225" spans="7:7">
-      <c r="G225" s="3"/>
+      <c r="G225" s="12"/>
     </row>
     <row r="226" spans="7:7">
-      <c r="G226" s="3"/>
+      <c r="G226" s="12"/>
     </row>
     <row r="227" spans="7:7">
-      <c r="G227" s="3"/>
+      <c r="G227" s="12"/>
     </row>
     <row r="228" spans="7:7">
-      <c r="G228" s="3"/>
+      <c r="G228" s="12"/>
     </row>
     <row r="229" spans="7:7">
-      <c r="G229" s="3"/>
+      <c r="G229" s="12"/>
     </row>
     <row r="230" spans="7:7">
-      <c r="G230" s="3"/>
+      <c r="G230" s="12"/>
     </row>
     <row r="231" spans="7:7">
-      <c r="G231" s="3"/>
+      <c r="G231" s="12"/>
     </row>
     <row r="232" spans="7:7">
-      <c r="G232" s="3"/>
+      <c r="G232" s="12"/>
     </row>
     <row r="233" spans="7:7">
-      <c r="G233" s="3"/>
+      <c r="G233" s="12"/>
     </row>
     <row r="234" spans="7:7">
-      <c r="G234" s="3"/>
+      <c r="G234" s="12"/>
     </row>
     <row r="235" spans="7:7">
-      <c r="G235" s="3"/>
+      <c r="G235" s="12"/>
     </row>
     <row r="236" spans="7:7">
-      <c r="G236" s="3"/>
+      <c r="G236" s="12"/>
     </row>
     <row r="237" spans="7:7">
-      <c r="G237" s="3"/>
+      <c r="G237" s="12"/>
     </row>
     <row r="238" spans="7:7">
-      <c r="G238" s="3"/>
+      <c r="G238" s="12"/>
     </row>
     <row r="239" spans="7:7">
-      <c r="G239" s="3"/>
+      <c r="G239" s="12"/>
     </row>
     <row r="240" spans="7:7">
-      <c r="G240" s="3"/>
+      <c r="G240" s="12"/>
     </row>
     <row r="241" spans="7:7">
-      <c r="G241" s="3"/>
+      <c r="G241" s="12"/>
     </row>
     <row r="242" spans="7:7">
-      <c r="G242" s="3"/>
+      <c r="G242" s="12"/>
     </row>
     <row r="243" spans="7:7">
-      <c r="G243" s="3"/>
+      <c r="G243" s="12"/>
     </row>
     <row r="244" spans="7:7">
-      <c r="G244" s="3"/>
+      <c r="G244" s="12"/>
     </row>
     <row r="245" spans="7:7">
-      <c r="G245" s="3"/>
+      <c r="G245" s="12"/>
     </row>
     <row r="246" spans="7:7">
-      <c r="G246" s="3"/>
+      <c r="G246" s="12"/>
     </row>
     <row r="247" spans="7:7">
-      <c r="G247" s="3"/>
+      <c r="G247" s="12"/>
     </row>
     <row r="248" spans="7:7">
-      <c r="G248" s="3"/>
+      <c r="G248" s="12"/>
     </row>
     <row r="249" spans="7:7">
-      <c r="G249" s="3"/>
+      <c r="G249" s="12"/>
     </row>
     <row r="250" spans="7:7">
-      <c r="G250" s="3"/>
+      <c r="G250" s="12"/>
     </row>
     <row r="251" spans="7:7">
-      <c r="G251" s="3"/>
+      <c r="G251" s="12"/>
     </row>
     <row r="252" spans="7:7">
-      <c r="G252" s="3"/>
+      <c r="G252" s="12"/>
     </row>
     <row r="253" spans="7:7">
-      <c r="G253" s="3"/>
+      <c r="G253" s="12"/>
     </row>
     <row r="254" spans="7:7">
-      <c r="G254" s="3"/>
+      <c r="G254" s="12"/>
     </row>
     <row r="255" spans="7:7">
-      <c r="G255" s="3"/>
+      <c r="G255" s="12"/>
     </row>
     <row r="256" spans="7:7">
-      <c r="G256" s="3"/>
+      <c r="G256" s="12"/>
     </row>
     <row r="257" spans="7:7">
-      <c r="G257" s="3"/>
+      <c r="G257" s="12"/>
     </row>
     <row r="258" spans="7:7">
-      <c r="G258" s="3"/>
+      <c r="G258" s="12"/>
     </row>
     <row r="259" spans="7:7">
-      <c r="G259" s="3"/>
+      <c r="G259" s="12"/>
     </row>
     <row r="260" spans="7:7">
-      <c r="G260" s="3"/>
+      <c r="G260" s="12"/>
     </row>
     <row r="261" spans="7:7">
-      <c r="G261" s="3"/>
+      <c r="G261" s="12"/>
     </row>
     <row r="262" spans="7:7">
-      <c r="G262" s="3"/>
+      <c r="G262" s="12"/>
     </row>
     <row r="263" spans="7:7">
-      <c r="G263" s="3"/>
+      <c r="G263" s="12"/>
     </row>
     <row r="264" spans="7:7">
-      <c r="G264" s="3"/>
+      <c r="G264" s="12"/>
     </row>
     <row r="265" spans="7:7">
-      <c r="G265" s="3"/>
+      <c r="G265" s="12"/>
     </row>
     <row r="266" spans="7:7">
-      <c r="G266" s="3"/>
+      <c r="G266" s="12"/>
     </row>
     <row r="267" spans="7:7">
-      <c r="G267" s="3"/>
+      <c r="G267" s="12"/>
     </row>
     <row r="268" spans="7:7">
-      <c r="G268" s="3"/>
+      <c r="G268" s="12"/>
     </row>
     <row r="269" spans="7:7">
-      <c r="G269" s="3"/>
+      <c r="G269" s="12"/>
     </row>
     <row r="270" spans="7:7">
-      <c r="G270" s="3"/>
+      <c r="G270" s="12"/>
     </row>
     <row r="271" spans="7:7">
-      <c r="G271" s="3"/>
+      <c r="G271" s="12"/>
     </row>
     <row r="272" spans="7:7">
-      <c r="G272" s="3"/>
+      <c r="G272" s="12"/>
     </row>
     <row r="273" spans="7:7">
-      <c r="G273" s="3"/>
+      <c r="G273" s="12"/>
     </row>
     <row r="274" spans="7:7">
-      <c r="G274" s="3"/>
+      <c r="G274" s="12"/>
     </row>
     <row r="275" spans="7:7">
-      <c r="G275" s="3"/>
+      <c r="G275" s="12"/>
     </row>
     <row r="276" spans="7:7">
-      <c r="G276" s="3"/>
+      <c r="G276" s="12"/>
     </row>
     <row r="277" spans="7:7">
-      <c r="G277" s="3"/>
+      <c r="G277" s="12"/>
     </row>
     <row r="278" spans="7:7">
-      <c r="G278" s="3"/>
+      <c r="G278" s="12"/>
     </row>
     <row r="279" spans="7:7">
-      <c r="G279" s="3"/>
+      <c r="G279" s="12"/>
     </row>
     <row r="280" spans="7:7">
-      <c r="G280" s="3"/>
+      <c r="G280" s="12"/>
     </row>
     <row r="281" spans="7:7">
-      <c r="G281" s="3"/>
+      <c r="G281" s="12"/>
     </row>
     <row r="282" spans="7:7">
-      <c r="G282" s="3"/>
+      <c r="G282" s="12"/>
     </row>
     <row r="283" spans="7:7">
-      <c r="G283" s="3"/>
+      <c r="G283" s="12"/>
     </row>
     <row r="284" spans="7:7">
-      <c r="G284" s="3"/>
+      <c r="G284" s="12"/>
     </row>
     <row r="285" spans="7:7">
-      <c r="G285" s="3"/>
+      <c r="G285" s="12"/>
     </row>
     <row r="286" spans="7:7">
-      <c r="G286" s="3"/>
+      <c r="G286" s="12"/>
     </row>
     <row r="287" spans="7:7">
-      <c r="G287" s="3"/>
+      <c r="G287" s="12"/>
     </row>
     <row r="288" spans="7:7">
-      <c r="G288" s="3"/>
+      <c r="G288" s="12"/>
     </row>
     <row r="289" spans="7:7">
-      <c r="G289" s="3"/>
+      <c r="G289" s="12"/>
     </row>
     <row r="290" spans="7:7">
-      <c r="G290" s="3"/>
+      <c r="G290" s="12"/>
     </row>
     <row r="291" spans="7:7">
-      <c r="G291" s="3"/>
+      <c r="G291" s="12"/>
     </row>
     <row r="292" spans="7:7">
-      <c r="G292" s="3"/>
+      <c r="G292" s="12"/>
     </row>
     <row r="293" spans="7:7">
-      <c r="G293" s="3"/>
+      <c r="G293" s="12"/>
     </row>
     <row r="294" spans="7:7">
-      <c r="G294" s="3"/>
+      <c r="G294" s="12"/>
     </row>
     <row r="295" spans="7:7">
-      <c r="G295" s="3"/>
+      <c r="G295" s="12"/>
     </row>
     <row r="296" spans="7:7">
-      <c r="G296" s="3"/>
+      <c r="G296" s="12"/>
     </row>
     <row r="297" spans="7:7">
-      <c r="G297" s="3"/>
+      <c r="G297" s="12"/>
     </row>
     <row r="298" spans="7:7">
-      <c r="G298" s="3"/>
+      <c r="G298" s="12"/>
     </row>
     <row r="299" spans="7:7">
-      <c r="G299" s="3"/>
+      <c r="G299" s="12"/>
     </row>
     <row r="300" spans="7:7">
-      <c r="G300" s="3"/>
+      <c r="G300" s="12"/>
     </row>
     <row r="301" spans="7:7">
-      <c r="G301" s="3"/>
+      <c r="G301" s="12"/>
     </row>
     <row r="302" spans="7:7">
-      <c r="G302" s="3"/>
+      <c r="G302" s="12"/>
     </row>
     <row r="303" spans="7:7">
-      <c r="G303" s="3"/>
+      <c r="G303" s="12"/>
     </row>
     <row r="304" spans="7:7">
-      <c r="G304" s="3"/>
+      <c r="G304" s="12"/>
     </row>
     <row r="305" spans="7:7">
-      <c r="G305" s="3"/>
+      <c r="G305" s="12"/>
     </row>
     <row r="306" spans="7:7">
-      <c r="G306" s="3"/>
+      <c r="G306" s="12"/>
     </row>
     <row r="307" spans="7:7">
-      <c r="G307" s="3"/>
+      <c r="G307" s="12"/>
     </row>
     <row r="308" spans="7:7">
-      <c r="G308" s="3"/>
+      <c r="G308" s="12"/>
     </row>
     <row r="309" spans="7:7">
-      <c r="G309" s="3"/>
+      <c r="G309" s="12"/>
     </row>
     <row r="310" spans="7:7">
-      <c r="G310" s="3"/>
+      <c r="G310" s="12"/>
     </row>
     <row r="311" spans="7:7">
-      <c r="G311" s="3"/>
+      <c r="G311" s="12"/>
     </row>
     <row r="312" spans="7:7">
-      <c r="G312" s="3"/>
+      <c r="G312" s="12"/>
     </row>
     <row r="313" spans="7:7">
-      <c r="G313" s="3"/>
+      <c r="G313" s="12"/>
     </row>
     <row r="314" spans="7:7">
-      <c r="G314" s="3"/>
+      <c r="G314" s="12"/>
     </row>
     <row r="315" spans="7:7">
-      <c r="G315" s="3"/>
+      <c r="G315" s="12"/>
     </row>
     <row r="316" spans="7:7">
-      <c r="G316" s="3"/>
+      <c r="G316" s="12"/>
     </row>
     <row r="317" spans="7:7">
-      <c r="G317" s="3"/>
+      <c r="G317" s="12"/>
     </row>
     <row r="318" spans="7:7">
-      <c r="G318" s="3"/>
+      <c r="G318" s="12"/>
     </row>
     <row r="319" spans="7:7">
-      <c r="G319" s="3"/>
+      <c r="G319" s="12"/>
     </row>
     <row r="320" spans="7:7">
-      <c r="G320" s="3"/>
+      <c r="G320" s="12"/>
     </row>
     <row r="321" spans="7:7">
-      <c r="G321" s="3"/>
+      <c r="G321" s="12"/>
     </row>
     <row r="322" spans="7:7">
-      <c r="G322" s="3"/>
+      <c r="G322" s="12"/>
     </row>
     <row r="323" spans="7:7">
-      <c r="G323" s="3"/>
+      <c r="G323" s="12"/>
     </row>
     <row r="324" spans="7:7">
-      <c r="G324" s="3"/>
+      <c r="G324" s="12"/>
     </row>
     <row r="325" spans="7:7">
-      <c r="G325" s="3"/>
+      <c r="G325" s="12"/>
     </row>
     <row r="326" spans="7:7">
-      <c r="G326" s="3"/>
+      <c r="G326" s="12"/>
     </row>
     <row r="327" spans="7:7">
-      <c r="G327" s="3"/>
+      <c r="G327" s="12"/>
     </row>
     <row r="328" spans="7:7">
-      <c r="G328" s="3"/>
+      <c r="G328" s="12"/>
     </row>
     <row r="329" spans="7:7">
-      <c r="G329" s="3"/>
+      <c r="G329" s="12"/>
     </row>
     <row r="330" spans="7:7">
-      <c r="G330" s="3"/>
+      <c r="G330" s="12"/>
     </row>
     <row r="331" spans="7:7">
-      <c r="G331" s="3"/>
+      <c r="G331" s="12"/>
     </row>
     <row r="332" spans="7:7">
-      <c r="G332" s="3"/>
+      <c r="G332" s="12"/>
     </row>
     <row r="333" spans="7:7">
-      <c r="G333" s="3"/>
+      <c r="G333" s="12"/>
     </row>
     <row r="334" spans="7:7">
-      <c r="G334" s="3"/>
+      <c r="G334" s="12"/>
     </row>
     <row r="335" spans="7:7">
-      <c r="G335" s="3"/>
+      <c r="G335" s="12"/>
     </row>
     <row r="336" spans="7:7">
-      <c r="G336" s="3"/>
+      <c r="G336" s="12"/>
     </row>
     <row r="337" spans="7:7">
-      <c r="G337" s="3"/>
+      <c r="G337" s="12"/>
     </row>
     <row r="338" spans="7:7">
-      <c r="G338" s="3"/>
+      <c r="G338" s="12"/>
     </row>
     <row r="339" spans="7:7">
-      <c r="G339" s="3"/>
+      <c r="G339" s="12"/>
     </row>
     <row r="340" spans="7:7">
-      <c r="G340" s="3"/>
+      <c r="G340" s="12"/>
     </row>
     <row r="341" spans="7:7">
-      <c r="G341" s="3"/>
+      <c r="G341" s="12"/>
     </row>
     <row r="342" spans="7:7">
-      <c r="G342" s="3"/>
+      <c r="G342" s="12"/>
     </row>
     <row r="343" spans="7:7">
-      <c r="G343" s="3"/>
+      <c r="G343" s="12"/>
     </row>
     <row r="344" spans="7:7">
-      <c r="G344" s="3"/>
+      <c r="G344" s="12"/>
     </row>
     <row r="345" spans="7:7">
-      <c r="G345" s="3"/>
+      <c r="G345" s="12"/>
     </row>
     <row r="346" spans="7:7">
-      <c r="G346" s="3"/>
+      <c r="G346" s="12"/>
     </row>
     <row r="347" spans="7:7">
-      <c r="G347" s="3"/>
+      <c r="G347" s="12"/>
     </row>
     <row r="348" spans="7:7">
-      <c r="G348" s="3"/>
+      <c r="G348" s="12"/>
     </row>
     <row r="349" spans="7:7">
-      <c r="G349" s="3"/>
+      <c r="G349" s="12"/>
     </row>
     <row r="350" spans="7:7">
-      <c r="G350" s="3"/>
+      <c r="G350" s="12"/>
     </row>
     <row r="351" spans="7:7">
-      <c r="G351" s="3"/>
+      <c r="G351" s="12"/>
     </row>
     <row r="352" spans="7:7">
-      <c r="G352" s="3"/>
+      <c r="G352" s="12"/>
     </row>
     <row r="353" spans="7:7">
-      <c r="G353" s="3"/>
+      <c r="G353" s="12"/>
     </row>
     <row r="354" spans="7:7">
-      <c r="G354" s="3"/>
+      <c r="G354" s="12"/>
     </row>
     <row r="355" spans="7:7">
-      <c r="G355" s="3"/>
+      <c r="G355" s="12"/>
     </row>
     <row r="356" spans="7:7">
-      <c r="G356" s="3"/>
+      <c r="G356" s="12"/>
     </row>
     <row r="357" spans="7:7">
-      <c r="G357" s="3"/>
+      <c r="G357" s="12"/>
     </row>
     <row r="358" spans="7:7">
-      <c r="G358" s="3"/>
+      <c r="G358" s="12"/>
     </row>
     <row r="359" spans="7:7">
-      <c r="G359" s="3"/>
+      <c r="G359" s="12"/>
     </row>
     <row r="360" spans="7:7">
-      <c r="G360" s="3"/>
+      <c r="G360" s="12"/>
     </row>
     <row r="361" spans="7:7">
-      <c r="G361" s="3"/>
+      <c r="G361" s="12"/>
     </row>
     <row r="362" spans="7:7">
-      <c r="G362" s="3"/>
+      <c r="G362" s="12"/>
     </row>
     <row r="363" spans="7:7">
-      <c r="G363" s="3"/>
+      <c r="G363" s="12"/>
     </row>
     <row r="364" spans="7:7">
-      <c r="G364" s="3"/>
+      <c r="G364" s="12"/>
     </row>
     <row r="365" spans="7:7">
-      <c r="G365" s="3"/>
+      <c r="G365" s="12"/>
     </row>
     <row r="366" spans="7:7">
-      <c r="G366" s="3"/>
+      <c r="G366" s="12"/>
     </row>
     <row r="367" spans="7:7">
-      <c r="G367" s="3"/>
+      <c r="G367" s="12"/>
     </row>
     <row r="368" spans="7:7">
-      <c r="G368" s="3"/>
+      <c r="G368" s="12"/>
     </row>
     <row r="369" spans="7:7">
-      <c r="G369" s="3"/>
+      <c r="G369" s="12"/>
     </row>
     <row r="370" spans="7:7">
-      <c r="G370" s="3"/>
+      <c r="G370" s="12"/>
     </row>
     <row r="371" spans="7:7">
-      <c r="G371" s="3"/>
+      <c r="G371" s="12"/>
     </row>
     <row r="372" spans="7:7">
-      <c r="G372" s="3"/>
+      <c r="G372" s="12"/>
     </row>
     <row r="373" spans="7:7">
-      <c r="G373" s="3"/>
+      <c r="G373" s="12"/>
     </row>
     <row r="374" spans="7:7">
-      <c r="G374" s="3"/>
+      <c r="G374" s="12"/>
     </row>
     <row r="375" spans="7:7">
-      <c r="G375" s="3"/>
+      <c r="G375" s="12"/>
     </row>
     <row r="376" spans="7:7">
-      <c r="G376" s="3"/>
+      <c r="G376" s="12"/>
     </row>
     <row r="377" spans="7:7">
-      <c r="G377" s="3"/>
+      <c r="G377" s="12"/>
     </row>
     <row r="378" spans="7:7">
-      <c r="G378" s="3"/>
+      <c r="G378" s="12"/>
     </row>
     <row r="379" spans="7:7">
-      <c r="G379" s="3"/>
+      <c r="G379" s="12"/>
     </row>
     <row r="380" spans="7:7">
-      <c r="G380" s="3"/>
+      <c r="G380" s="12"/>
     </row>
     <row r="381" spans="7:7">
-      <c r="G381" s="3"/>
+      <c r="G381" s="12"/>
     </row>
     <row r="382" spans="7:7">
-      <c r="G382" s="3"/>
+      <c r="G382" s="12"/>
     </row>
     <row r="383" spans="7:7">
-      <c r="G383" s="3"/>
+      <c r="G383" s="12"/>
     </row>
     <row r="384" spans="7:7">
-      <c r="G384" s="3"/>
+      <c r="G384" s="12"/>
     </row>
     <row r="385" spans="7:7">
-      <c r="G385" s="3"/>
+      <c r="G385" s="12"/>
     </row>
     <row r="386" spans="7:7">
-      <c r="G386" s="3"/>
+      <c r="G386" s="12"/>
     </row>
     <row r="387" spans="7:7">
-      <c r="G387" s="3"/>
+      <c r="G387" s="12"/>
     </row>
     <row r="388" spans="7:7">
-      <c r="G388" s="3"/>
+      <c r="G388" s="12"/>
     </row>
     <row r="389" spans="7:7">
-      <c r="G389" s="3"/>
+      <c r="G389" s="12"/>
     </row>
     <row r="390" spans="7:7">
-      <c r="G390" s="3"/>
+      <c r="G390" s="12"/>
     </row>
     <row r="391" spans="7:7">
-      <c r="G391" s="3"/>
+      <c r="G391" s="12"/>
     </row>
     <row r="392" spans="7:7">
-      <c r="G392" s="3"/>
+      <c r="G392" s="12"/>
     </row>
     <row r="393" spans="7:7">
-      <c r="G393" s="3"/>
+      <c r="G393" s="12"/>
     </row>
     <row r="394" spans="7:7">
-      <c r="G394" s="3"/>
+      <c r="G394" s="12"/>
     </row>
     <row r="395" spans="7:7">
-      <c r="G395" s="3"/>
+      <c r="G395" s="12"/>
     </row>
     <row r="396" spans="7:7">
-      <c r="G396" s="3"/>
+      <c r="G396" s="12"/>
     </row>
     <row r="397" spans="7:7">
-      <c r="G397" s="3"/>
+      <c r="G397" s="12"/>
     </row>
     <row r="398" spans="7:7">
-      <c r="G398" s="3"/>
+      <c r="G398" s="12"/>
     </row>
     <row r="399" spans="7:7">
-      <c r="G399" s="3"/>
+      <c r="G399" s="12"/>
     </row>
     <row r="400" spans="7:7">
-      <c r="G400" s="3"/>
+      <c r="G400" s="12"/>
     </row>
     <row r="401" spans="7:7">
-      <c r="G401" s="3"/>
+      <c r="G401" s="12"/>
     </row>
     <row r="402" spans="7:7">
-      <c r="G402" s="3"/>
+      <c r="G402" s="12"/>
     </row>
     <row r="403" spans="7:7">
-      <c r="G403" s="3"/>
+      <c r="G403" s="12"/>
     </row>
     <row r="404" spans="7:7">
-      <c r="G404" s="3"/>
+      <c r="G404" s="12"/>
     </row>
     <row r="405" spans="7:7">
-      <c r="G405" s="3"/>
+      <c r="G405" s="12"/>
     </row>
     <row r="406" spans="7:7">
-      <c r="G406" s="3"/>
+      <c r="G406" s="12"/>
     </row>
     <row r="407" spans="7:7">
-      <c r="G407" s="3"/>
+      <c r="G407" s="12"/>
     </row>
     <row r="408" spans="7:7">
-      <c r="G408" s="3"/>
+      <c r="G408" s="12"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
       <formula1>"未开始,即将进行,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" tooltip="阿里架构师干货分享之——亿级大表分库分表解决方案" display="https://www.bilibili.com/video/av32782483"/>
+    <hyperlink ref="C2" r:id="rId1" display="阿里架构师干货分享之——亿级大表分库分表解决方案" tooltip="阿里架构师干货分享之——亿级大表分库分表解决方案"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
       <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
@@ -2465,2309 +2991,2328 @@
     <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="13" customFormat="1" spans="1:10">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>24</v>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
       <formula1>"未开始,即将进行,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H546"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16" style="8" customWidth="1"/>
-    <col min="2" max="3" width="11.625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="41.25" style="8" customWidth="1"/>
-    <col min="5" max="5" width="43.875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="30.25" style="8" customWidth="1"/>
-    <col min="7" max="7" width="12" style="8" customWidth="1"/>
-    <col min="8" max="8" width="11.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="16" style="3" customWidth="1"/>
+    <col min="2" max="3" width="11.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="41.25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="43.875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="30.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1">
-      <c r="A1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="6" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="280.5">
-      <c r="A2" s="7" t="s">
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="7" t="s">
+    </row>
+    <row r="2" ht="280.5" spans="1:8">
+      <c r="A2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="8">
+        <f ca="1">TODAY()</f>
+        <v>43419</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="66" spans="1:8">
+      <c r="A3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="12">
+      <c r="B3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="11">
         <f ca="1">TODAY()</f>
-        <v>43418</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="14" customFormat="1" ht="66">
-      <c r="A3" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="16">
+        <v>43419</v>
+      </c>
+    </row>
+    <row r="4" ht="165" spans="1:8">
+      <c r="A4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="8">
         <f ca="1">TODAY()</f>
-        <v>43418</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+        <v>43419</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5">
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="4:5">
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="4:5">
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="4:5">
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="4:5">
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" spans="4:5">
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="4:5">
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" spans="4:5">
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" spans="4:5">
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" spans="4:5">
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="4:5">
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
     </row>
     <row r="17" spans="4:5">
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
     </row>
     <row r="18" spans="4:5">
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
     </row>
     <row r="19" spans="4:5">
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
     </row>
     <row r="20" spans="4:5">
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
     </row>
     <row r="21" spans="4:5">
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
     </row>
     <row r="22" spans="4:5">
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
     </row>
     <row r="23" spans="4:5">
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
     </row>
     <row r="24" spans="4:5">
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
     </row>
     <row r="25" spans="4:5">
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
     </row>
     <row r="26" spans="4:5">
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" spans="4:5">
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
     </row>
     <row r="28" spans="4:5">
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
     </row>
     <row r="29" spans="4:5">
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
     </row>
     <row r="30" spans="4:5">
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
     </row>
     <row r="31" spans="4:5">
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
     </row>
     <row r="32" spans="4:5">
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
     </row>
     <row r="33" spans="4:5">
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
     </row>
     <row r="34" spans="4:5">
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
     </row>
     <row r="35" spans="4:5">
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
     </row>
     <row r="36" spans="4:5">
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
     </row>
     <row r="37" spans="4:5">
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
     </row>
     <row r="38" spans="4:5">
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
     </row>
     <row r="39" spans="4:5">
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
     </row>
     <row r="40" spans="4:5">
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
     </row>
     <row r="41" spans="4:5">
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
     </row>
     <row r="42" spans="4:5">
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
     </row>
     <row r="43" spans="4:5">
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
     </row>
     <row r="44" spans="4:5">
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
     </row>
     <row r="45" spans="4:5">
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
     </row>
     <row r="46" spans="4:5">
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
     </row>
     <row r="47" spans="4:5">
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
     </row>
     <row r="48" spans="4:5">
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
     </row>
     <row r="49" spans="4:5">
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
     </row>
     <row r="50" spans="4:5">
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
     </row>
     <row r="51" spans="4:5">
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
     </row>
     <row r="52" spans="4:5">
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
     </row>
     <row r="53" spans="4:5">
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
     </row>
     <row r="54" spans="4:5">
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
     </row>
     <row r="55" spans="4:5">
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
     </row>
     <row r="56" spans="4:5">
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
     </row>
     <row r="57" spans="4:5">
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
     </row>
     <row r="58" spans="4:5">
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
     </row>
     <row r="59" spans="4:5">
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
     </row>
     <row r="60" spans="4:5">
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
     </row>
     <row r="61" spans="4:5">
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
     </row>
     <row r="62" spans="4:5">
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
     </row>
     <row r="63" spans="4:5">
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
     </row>
     <row r="64" spans="4:5">
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
     </row>
     <row r="65" spans="4:5">
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
     </row>
     <row r="66" spans="4:5">
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
     </row>
     <row r="67" spans="4:5">
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
     </row>
     <row r="68" spans="4:5">
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
     </row>
     <row r="69" spans="4:5">
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
     </row>
     <row r="70" spans="4:5">
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
     </row>
     <row r="71" spans="4:5">
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
     </row>
     <row r="72" spans="4:5">
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
     </row>
     <row r="73" spans="4:5">
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
     </row>
     <row r="74" spans="4:5">
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
     </row>
     <row r="75" spans="4:5">
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
     </row>
     <row r="76" spans="4:5">
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
     </row>
     <row r="77" spans="4:5">
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
     </row>
     <row r="78" spans="4:5">
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
     </row>
     <row r="79" spans="4:5">
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
     </row>
     <row r="80" spans="4:5">
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
     </row>
     <row r="81" spans="4:5">
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
     </row>
     <row r="82" spans="4:5">
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
     </row>
     <row r="83" spans="4:5">
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
     </row>
     <row r="84" spans="4:5">
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
     </row>
     <row r="85" spans="4:5">
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
     </row>
     <row r="86" spans="4:5">
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
     </row>
     <row r="87" spans="4:5">
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
     </row>
     <row r="88" spans="4:5">
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
     </row>
     <row r="89" spans="4:5">
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
     </row>
     <row r="90" spans="4:5">
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
     </row>
     <row r="91" spans="4:5">
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
     </row>
     <row r="92" spans="4:5">
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
     </row>
     <row r="93" spans="4:5">
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
     </row>
     <row r="94" spans="4:5">
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
     </row>
     <row r="95" spans="4:5">
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
     </row>
     <row r="96" spans="4:5">
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
     </row>
     <row r="97" spans="4:5">
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
     </row>
     <row r="98" spans="4:5">
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
     </row>
     <row r="99" spans="4:5">
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
     </row>
     <row r="100" spans="4:5">
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
     </row>
     <row r="101" spans="4:5">
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="12"/>
     </row>
     <row r="102" spans="4:5">
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
     </row>
     <row r="103" spans="4:5">
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
     </row>
     <row r="104" spans="4:5">
-      <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="12"/>
     </row>
     <row r="105" spans="4:5">
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
     </row>
     <row r="106" spans="4:5">
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
     </row>
     <row r="107" spans="4:5">
-      <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
     </row>
     <row r="108" spans="4:5">
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12"/>
     </row>
     <row r="109" spans="4:5">
-      <c r="D109" s="3"/>
-      <c r="E109" s="3"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
     </row>
     <row r="110" spans="4:5">
-      <c r="D110" s="3"/>
-      <c r="E110" s="3"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
     </row>
     <row r="111" spans="4:5">
-      <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="12"/>
     </row>
     <row r="112" spans="4:5">
-      <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="12"/>
     </row>
     <row r="113" spans="4:5">
-      <c r="D113" s="3"/>
-      <c r="E113" s="3"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="12"/>
     </row>
     <row r="114" spans="4:5">
-      <c r="D114" s="3"/>
-      <c r="E114" s="3"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="12"/>
     </row>
     <row r="115" spans="4:5">
-      <c r="D115" s="3"/>
-      <c r="E115" s="3"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="12"/>
     </row>
     <row r="116" spans="4:5">
-      <c r="D116" s="3"/>
-      <c r="E116" s="3"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
     </row>
     <row r="117" spans="4:5">
-      <c r="D117" s="3"/>
-      <c r="E117" s="3"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="12"/>
     </row>
     <row r="118" spans="4:5">
-      <c r="D118" s="3"/>
-      <c r="E118" s="3"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="12"/>
     </row>
     <row r="119" spans="4:5">
-      <c r="D119" s="3"/>
-      <c r="E119" s="3"/>
+      <c r="D119" s="12"/>
+      <c r="E119" s="12"/>
     </row>
     <row r="120" spans="4:5">
-      <c r="D120" s="3"/>
-      <c r="E120" s="3"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
     </row>
     <row r="121" spans="4:5">
-      <c r="D121" s="3"/>
-      <c r="E121" s="3"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="12"/>
     </row>
     <row r="122" spans="4:5">
-      <c r="D122" s="3"/>
-      <c r="E122" s="3"/>
+      <c r="D122" s="12"/>
+      <c r="E122" s="12"/>
     </row>
     <row r="123" spans="4:5">
-      <c r="D123" s="3"/>
-      <c r="E123" s="3"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="12"/>
     </row>
     <row r="124" spans="4:5">
-      <c r="D124" s="3"/>
-      <c r="E124" s="3"/>
+      <c r="D124" s="12"/>
+      <c r="E124" s="12"/>
     </row>
     <row r="125" spans="4:5">
-      <c r="D125" s="3"/>
-      <c r="E125" s="3"/>
+      <c r="D125" s="12"/>
+      <c r="E125" s="12"/>
     </row>
     <row r="126" spans="4:5">
-      <c r="D126" s="3"/>
-      <c r="E126" s="3"/>
+      <c r="D126" s="12"/>
+      <c r="E126" s="12"/>
     </row>
     <row r="127" spans="4:5">
-      <c r="D127" s="3"/>
-      <c r="E127" s="3"/>
+      <c r="D127" s="12"/>
+      <c r="E127" s="12"/>
     </row>
     <row r="128" spans="4:5">
-      <c r="D128" s="3"/>
-      <c r="E128" s="3"/>
+      <c r="D128" s="12"/>
+      <c r="E128" s="12"/>
     </row>
     <row r="129" spans="4:5">
-      <c r="D129" s="3"/>
-      <c r="E129" s="3"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="12"/>
     </row>
     <row r="130" spans="4:5">
-      <c r="D130" s="3"/>
-      <c r="E130" s="3"/>
+      <c r="D130" s="12"/>
+      <c r="E130" s="12"/>
     </row>
     <row r="131" spans="4:5">
-      <c r="D131" s="3"/>
-      <c r="E131" s="3"/>
+      <c r="D131" s="12"/>
+      <c r="E131" s="12"/>
     </row>
     <row r="132" spans="4:5">
-      <c r="D132" s="3"/>
-      <c r="E132" s="3"/>
+      <c r="D132" s="12"/>
+      <c r="E132" s="12"/>
     </row>
     <row r="133" spans="4:5">
-      <c r="D133" s="3"/>
-      <c r="E133" s="3"/>
+      <c r="D133" s="12"/>
+      <c r="E133" s="12"/>
     </row>
     <row r="134" spans="4:5">
-      <c r="D134" s="3"/>
-      <c r="E134" s="3"/>
+      <c r="D134" s="12"/>
+      <c r="E134" s="12"/>
     </row>
     <row r="135" spans="4:5">
-      <c r="D135" s="3"/>
-      <c r="E135" s="3"/>
+      <c r="D135" s="12"/>
+      <c r="E135" s="12"/>
     </row>
     <row r="136" spans="4:5">
-      <c r="D136" s="3"/>
-      <c r="E136" s="3"/>
+      <c r="D136" s="12"/>
+      <c r="E136" s="12"/>
     </row>
     <row r="137" spans="4:5">
-      <c r="D137" s="3"/>
-      <c r="E137" s="3"/>
+      <c r="D137" s="12"/>
+      <c r="E137" s="12"/>
     </row>
     <row r="138" spans="4:5">
-      <c r="D138" s="3"/>
-      <c r="E138" s="3"/>
+      <c r="D138" s="12"/>
+      <c r="E138" s="12"/>
     </row>
     <row r="139" spans="4:5">
-      <c r="D139" s="3"/>
-      <c r="E139" s="3"/>
+      <c r="D139" s="12"/>
+      <c r="E139" s="12"/>
     </row>
     <row r="140" spans="4:5">
-      <c r="D140" s="3"/>
-      <c r="E140" s="3"/>
+      <c r="D140" s="12"/>
+      <c r="E140" s="12"/>
     </row>
     <row r="141" spans="4:5">
-      <c r="D141" s="3"/>
-      <c r="E141" s="3"/>
+      <c r="D141" s="12"/>
+      <c r="E141" s="12"/>
     </row>
     <row r="142" spans="4:5">
-      <c r="D142" s="3"/>
-      <c r="E142" s="3"/>
+      <c r="D142" s="12"/>
+      <c r="E142" s="12"/>
     </row>
     <row r="143" spans="4:5">
-      <c r="D143" s="3"/>
-      <c r="E143" s="3"/>
+      <c r="D143" s="12"/>
+      <c r="E143" s="12"/>
     </row>
     <row r="144" spans="4:5">
-      <c r="D144" s="3"/>
-      <c r="E144" s="3"/>
+      <c r="D144" s="12"/>
+      <c r="E144" s="12"/>
     </row>
     <row r="145" spans="4:5">
-      <c r="D145" s="3"/>
-      <c r="E145" s="3"/>
+      <c r="D145" s="12"/>
+      <c r="E145" s="12"/>
     </row>
     <row r="146" spans="4:5">
-      <c r="D146" s="3"/>
-      <c r="E146" s="3"/>
+      <c r="D146" s="12"/>
+      <c r="E146" s="12"/>
     </row>
     <row r="147" spans="4:5">
-      <c r="D147" s="3"/>
-      <c r="E147" s="3"/>
+      <c r="D147" s="12"/>
+      <c r="E147" s="12"/>
     </row>
     <row r="148" spans="4:5">
-      <c r="D148" s="3"/>
-      <c r="E148" s="3"/>
+      <c r="D148" s="12"/>
+      <c r="E148" s="12"/>
     </row>
     <row r="149" spans="4:5">
-      <c r="D149" s="3"/>
-      <c r="E149" s="3"/>
+      <c r="D149" s="12"/>
+      <c r="E149" s="12"/>
     </row>
     <row r="150" spans="4:5">
-      <c r="D150" s="3"/>
-      <c r="E150" s="3"/>
+      <c r="D150" s="12"/>
+      <c r="E150" s="12"/>
     </row>
     <row r="151" spans="4:5">
-      <c r="D151" s="3"/>
-      <c r="E151" s="3"/>
+      <c r="D151" s="12"/>
+      <c r="E151" s="12"/>
     </row>
     <row r="152" spans="4:5">
-      <c r="D152" s="3"/>
-      <c r="E152" s="3"/>
+      <c r="D152" s="12"/>
+      <c r="E152" s="12"/>
     </row>
     <row r="153" spans="4:5">
-      <c r="D153" s="3"/>
-      <c r="E153" s="3"/>
+      <c r="D153" s="12"/>
+      <c r="E153" s="12"/>
     </row>
     <row r="154" spans="4:5">
-      <c r="D154" s="3"/>
-      <c r="E154" s="3"/>
+      <c r="D154" s="12"/>
+      <c r="E154" s="12"/>
     </row>
     <row r="155" spans="4:5">
-      <c r="D155" s="3"/>
-      <c r="E155" s="3"/>
+      <c r="D155" s="12"/>
+      <c r="E155" s="12"/>
     </row>
     <row r="156" spans="4:5">
-      <c r="D156" s="3"/>
-      <c r="E156" s="3"/>
+      <c r="D156" s="12"/>
+      <c r="E156" s="12"/>
     </row>
     <row r="157" spans="4:5">
-      <c r="D157" s="3"/>
-      <c r="E157" s="3"/>
+      <c r="D157" s="12"/>
+      <c r="E157" s="12"/>
     </row>
     <row r="158" spans="4:5">
-      <c r="D158" s="3"/>
-      <c r="E158" s="3"/>
+      <c r="D158" s="12"/>
+      <c r="E158" s="12"/>
     </row>
     <row r="159" spans="4:5">
-      <c r="D159" s="3"/>
-      <c r="E159" s="3"/>
+      <c r="D159" s="12"/>
+      <c r="E159" s="12"/>
     </row>
     <row r="160" spans="4:5">
-      <c r="D160" s="3"/>
-      <c r="E160" s="3"/>
+      <c r="D160" s="12"/>
+      <c r="E160" s="12"/>
     </row>
     <row r="161" spans="4:5">
-      <c r="D161" s="3"/>
-      <c r="E161" s="3"/>
+      <c r="D161" s="12"/>
+      <c r="E161" s="12"/>
     </row>
     <row r="162" spans="4:5">
-      <c r="D162" s="3"/>
-      <c r="E162" s="3"/>
+      <c r="D162" s="12"/>
+      <c r="E162" s="12"/>
     </row>
     <row r="163" spans="4:5">
-      <c r="D163" s="3"/>
-      <c r="E163" s="3"/>
+      <c r="D163" s="12"/>
+      <c r="E163" s="12"/>
     </row>
     <row r="164" spans="4:5">
-      <c r="D164" s="3"/>
-      <c r="E164" s="3"/>
+      <c r="D164" s="12"/>
+      <c r="E164" s="12"/>
     </row>
     <row r="165" spans="4:5">
-      <c r="D165" s="3"/>
-      <c r="E165" s="3"/>
+      <c r="D165" s="12"/>
+      <c r="E165" s="12"/>
     </row>
     <row r="166" spans="4:5">
-      <c r="D166" s="3"/>
-      <c r="E166" s="3"/>
+      <c r="D166" s="12"/>
+      <c r="E166" s="12"/>
     </row>
     <row r="167" spans="4:5">
-      <c r="D167" s="3"/>
-      <c r="E167" s="3"/>
+      <c r="D167" s="12"/>
+      <c r="E167" s="12"/>
     </row>
     <row r="168" spans="4:5">
-      <c r="D168" s="3"/>
-      <c r="E168" s="3"/>
+      <c r="D168" s="12"/>
+      <c r="E168" s="12"/>
     </row>
     <row r="169" spans="4:5">
-      <c r="D169" s="3"/>
-      <c r="E169" s="3"/>
+      <c r="D169" s="12"/>
+      <c r="E169" s="12"/>
     </row>
     <row r="170" spans="4:5">
-      <c r="D170" s="3"/>
-      <c r="E170" s="3"/>
+      <c r="D170" s="12"/>
+      <c r="E170" s="12"/>
     </row>
     <row r="171" spans="4:5">
-      <c r="D171" s="3"/>
-      <c r="E171" s="3"/>
+      <c r="D171" s="12"/>
+      <c r="E171" s="12"/>
     </row>
     <row r="172" spans="4:5">
-      <c r="D172" s="3"/>
-      <c r="E172" s="3"/>
+      <c r="D172" s="12"/>
+      <c r="E172" s="12"/>
     </row>
     <row r="173" spans="4:5">
-      <c r="D173" s="3"/>
-      <c r="E173" s="3"/>
+      <c r="D173" s="12"/>
+      <c r="E173" s="12"/>
     </row>
     <row r="174" spans="4:5">
-      <c r="D174" s="3"/>
-      <c r="E174" s="3"/>
+      <c r="D174" s="12"/>
+      <c r="E174" s="12"/>
     </row>
     <row r="175" spans="4:5">
-      <c r="D175" s="3"/>
-      <c r="E175" s="3"/>
+      <c r="D175" s="12"/>
+      <c r="E175" s="12"/>
     </row>
     <row r="176" spans="4:5">
-      <c r="D176" s="3"/>
-      <c r="E176" s="3"/>
+      <c r="D176" s="12"/>
+      <c r="E176" s="12"/>
     </row>
     <row r="177" spans="4:5">
-      <c r="D177" s="3"/>
-      <c r="E177" s="3"/>
+      <c r="D177" s="12"/>
+      <c r="E177" s="12"/>
     </row>
     <row r="178" spans="4:5">
-      <c r="D178" s="3"/>
-      <c r="E178" s="3"/>
+      <c r="D178" s="12"/>
+      <c r="E178" s="12"/>
     </row>
     <row r="179" spans="4:5">
-      <c r="D179" s="3"/>
-      <c r="E179" s="3"/>
+      <c r="D179" s="12"/>
+      <c r="E179" s="12"/>
     </row>
     <row r="180" spans="4:5">
-      <c r="D180" s="3"/>
-      <c r="E180" s="3"/>
+      <c r="D180" s="12"/>
+      <c r="E180" s="12"/>
     </row>
     <row r="181" spans="4:5">
-      <c r="D181" s="3"/>
-      <c r="E181" s="3"/>
+      <c r="D181" s="12"/>
+      <c r="E181" s="12"/>
     </row>
     <row r="182" spans="4:5">
-      <c r="D182" s="3"/>
-      <c r="E182" s="3"/>
+      <c r="D182" s="12"/>
+      <c r="E182" s="12"/>
     </row>
     <row r="183" spans="4:5">
-      <c r="D183" s="3"/>
-      <c r="E183" s="3"/>
+      <c r="D183" s="12"/>
+      <c r="E183" s="12"/>
     </row>
     <row r="184" spans="4:5">
-      <c r="D184" s="3"/>
-      <c r="E184" s="3"/>
+      <c r="D184" s="12"/>
+      <c r="E184" s="12"/>
     </row>
     <row r="185" spans="4:5">
-      <c r="D185" s="3"/>
-      <c r="E185" s="3"/>
+      <c r="D185" s="12"/>
+      <c r="E185" s="12"/>
     </row>
     <row r="186" spans="4:5">
-      <c r="D186" s="3"/>
-      <c r="E186" s="3"/>
+      <c r="D186" s="12"/>
+      <c r="E186" s="12"/>
     </row>
     <row r="187" spans="4:5">
-      <c r="D187" s="3"/>
-      <c r="E187" s="3"/>
+      <c r="D187" s="12"/>
+      <c r="E187" s="12"/>
     </row>
     <row r="188" spans="4:5">
-      <c r="D188" s="3"/>
-      <c r="E188" s="3"/>
+      <c r="D188" s="12"/>
+      <c r="E188" s="12"/>
     </row>
     <row r="189" spans="4:5">
-      <c r="D189" s="3"/>
-      <c r="E189" s="3"/>
+      <c r="D189" s="12"/>
+      <c r="E189" s="12"/>
     </row>
     <row r="190" spans="4:5">
-      <c r="D190" s="3"/>
-      <c r="E190" s="3"/>
+      <c r="D190" s="12"/>
+      <c r="E190" s="12"/>
     </row>
     <row r="191" spans="4:5">
-      <c r="D191" s="3"/>
-      <c r="E191" s="3"/>
+      <c r="D191" s="12"/>
+      <c r="E191" s="12"/>
     </row>
     <row r="192" spans="4:5">
-      <c r="D192" s="3"/>
-      <c r="E192" s="3"/>
+      <c r="D192" s="12"/>
+      <c r="E192" s="12"/>
     </row>
     <row r="193" spans="4:5">
-      <c r="D193" s="3"/>
-      <c r="E193" s="3"/>
+      <c r="D193" s="12"/>
+      <c r="E193" s="12"/>
     </row>
     <row r="194" spans="4:5">
-      <c r="D194" s="3"/>
-      <c r="E194" s="3"/>
+      <c r="D194" s="12"/>
+      <c r="E194" s="12"/>
     </row>
     <row r="195" spans="4:5">
-      <c r="D195" s="3"/>
-      <c r="E195" s="3"/>
+      <c r="D195" s="12"/>
+      <c r="E195" s="12"/>
     </row>
     <row r="196" spans="4:5">
-      <c r="D196" s="3"/>
-      <c r="E196" s="3"/>
+      <c r="D196" s="12"/>
+      <c r="E196" s="12"/>
     </row>
     <row r="197" spans="4:5">
-      <c r="D197" s="3"/>
-      <c r="E197" s="3"/>
+      <c r="D197" s="12"/>
+      <c r="E197" s="12"/>
     </row>
     <row r="198" spans="4:5">
-      <c r="D198" s="3"/>
-      <c r="E198" s="3"/>
+      <c r="D198" s="12"/>
+      <c r="E198" s="12"/>
     </row>
     <row r="199" spans="4:5">
-      <c r="D199" s="3"/>
-      <c r="E199" s="3"/>
+      <c r="D199" s="12"/>
+      <c r="E199" s="12"/>
     </row>
     <row r="200" spans="4:5">
-      <c r="D200" s="3"/>
-      <c r="E200" s="3"/>
+      <c r="D200" s="12"/>
+      <c r="E200" s="12"/>
     </row>
     <row r="201" spans="4:5">
-      <c r="D201" s="3"/>
-      <c r="E201" s="3"/>
+      <c r="D201" s="12"/>
+      <c r="E201" s="12"/>
     </row>
     <row r="202" spans="4:5">
-      <c r="D202" s="3"/>
-      <c r="E202" s="3"/>
+      <c r="D202" s="12"/>
+      <c r="E202" s="12"/>
     </row>
     <row r="203" spans="4:5">
-      <c r="D203" s="3"/>
-      <c r="E203" s="3"/>
+      <c r="D203" s="12"/>
+      <c r="E203" s="12"/>
     </row>
     <row r="204" spans="4:5">
-      <c r="D204" s="3"/>
-      <c r="E204" s="3"/>
+      <c r="D204" s="12"/>
+      <c r="E204" s="12"/>
     </row>
     <row r="205" spans="4:5">
-      <c r="D205" s="3"/>
-      <c r="E205" s="3"/>
+      <c r="D205" s="12"/>
+      <c r="E205" s="12"/>
     </row>
     <row r="206" spans="4:5">
-      <c r="D206" s="3"/>
-      <c r="E206" s="3"/>
+      <c r="D206" s="12"/>
+      <c r="E206" s="12"/>
     </row>
     <row r="207" spans="4:5">
-      <c r="D207" s="3"/>
-      <c r="E207" s="3"/>
+      <c r="D207" s="12"/>
+      <c r="E207" s="12"/>
     </row>
     <row r="208" spans="4:5">
-      <c r="D208" s="3"/>
-      <c r="E208" s="3"/>
+      <c r="D208" s="12"/>
+      <c r="E208" s="12"/>
     </row>
     <row r="209" spans="4:5">
-      <c r="D209" s="3"/>
-      <c r="E209" s="3"/>
+      <c r="D209" s="12"/>
+      <c r="E209" s="12"/>
     </row>
     <row r="210" spans="4:5">
-      <c r="D210" s="3"/>
-      <c r="E210" s="3"/>
+      <c r="D210" s="12"/>
+      <c r="E210" s="12"/>
     </row>
     <row r="211" spans="4:5">
-      <c r="D211" s="3"/>
-      <c r="E211" s="3"/>
+      <c r="D211" s="12"/>
+      <c r="E211" s="12"/>
     </row>
     <row r="212" spans="4:5">
-      <c r="D212" s="3"/>
-      <c r="E212" s="3"/>
+      <c r="D212" s="12"/>
+      <c r="E212" s="12"/>
     </row>
     <row r="213" spans="4:5">
-      <c r="D213" s="3"/>
-      <c r="E213" s="3"/>
+      <c r="D213" s="12"/>
+      <c r="E213" s="12"/>
     </row>
     <row r="214" spans="4:5">
-      <c r="D214" s="3"/>
-      <c r="E214" s="3"/>
+      <c r="D214" s="12"/>
+      <c r="E214" s="12"/>
     </row>
     <row r="215" spans="4:5">
-      <c r="D215" s="3"/>
-      <c r="E215" s="3"/>
+      <c r="D215" s="12"/>
+      <c r="E215" s="12"/>
     </row>
     <row r="216" spans="4:5">
-      <c r="D216" s="3"/>
-      <c r="E216" s="3"/>
+      <c r="D216" s="12"/>
+      <c r="E216" s="12"/>
     </row>
     <row r="217" spans="4:5">
-      <c r="D217" s="3"/>
-      <c r="E217" s="3"/>
+      <c r="D217" s="12"/>
+      <c r="E217" s="12"/>
     </row>
     <row r="218" spans="4:5">
-      <c r="D218" s="3"/>
-      <c r="E218" s="3"/>
+      <c r="D218" s="12"/>
+      <c r="E218" s="12"/>
     </row>
     <row r="219" spans="4:5">
-      <c r="D219" s="3"/>
-      <c r="E219" s="3"/>
+      <c r="D219" s="12"/>
+      <c r="E219" s="12"/>
     </row>
     <row r="220" spans="4:5">
-      <c r="D220" s="3"/>
-      <c r="E220" s="3"/>
+      <c r="D220" s="12"/>
+      <c r="E220" s="12"/>
     </row>
     <row r="221" spans="4:5">
-      <c r="D221" s="3"/>
-      <c r="E221" s="3"/>
+      <c r="D221" s="12"/>
+      <c r="E221" s="12"/>
     </row>
     <row r="222" spans="4:5">
-      <c r="D222" s="3"/>
-      <c r="E222" s="3"/>
+      <c r="D222" s="12"/>
+      <c r="E222" s="12"/>
     </row>
     <row r="223" spans="4:5">
-      <c r="D223" s="3"/>
-      <c r="E223" s="3"/>
+      <c r="D223" s="12"/>
+      <c r="E223" s="12"/>
     </row>
     <row r="224" spans="4:5">
-      <c r="D224" s="3"/>
-      <c r="E224" s="3"/>
+      <c r="D224" s="12"/>
+      <c r="E224" s="12"/>
     </row>
     <row r="225" spans="4:5">
-      <c r="D225" s="3"/>
-      <c r="E225" s="3"/>
+      <c r="D225" s="12"/>
+      <c r="E225" s="12"/>
     </row>
     <row r="226" spans="4:5">
-      <c r="D226" s="3"/>
-      <c r="E226" s="3"/>
+      <c r="D226" s="12"/>
+      <c r="E226" s="12"/>
     </row>
     <row r="227" spans="4:5">
-      <c r="D227" s="3"/>
-      <c r="E227" s="3"/>
+      <c r="D227" s="12"/>
+      <c r="E227" s="12"/>
     </row>
     <row r="228" spans="4:5">
-      <c r="D228" s="3"/>
-      <c r="E228" s="3"/>
+      <c r="D228" s="12"/>
+      <c r="E228" s="12"/>
     </row>
     <row r="229" spans="4:5">
-      <c r="D229" s="3"/>
-      <c r="E229" s="3"/>
+      <c r="D229" s="12"/>
+      <c r="E229" s="12"/>
     </row>
     <row r="230" spans="4:5">
-      <c r="D230" s="3"/>
-      <c r="E230" s="3"/>
+      <c r="D230" s="12"/>
+      <c r="E230" s="12"/>
     </row>
     <row r="231" spans="4:5">
-      <c r="D231" s="3"/>
-      <c r="E231" s="3"/>
+      <c r="D231" s="12"/>
+      <c r="E231" s="12"/>
     </row>
     <row r="232" spans="4:5">
-      <c r="D232" s="3"/>
-      <c r="E232" s="3"/>
+      <c r="D232" s="12"/>
+      <c r="E232" s="12"/>
     </row>
     <row r="233" spans="4:5">
-      <c r="D233" s="3"/>
-      <c r="E233" s="3"/>
+      <c r="D233" s="12"/>
+      <c r="E233" s="12"/>
     </row>
     <row r="234" spans="4:5">
-      <c r="D234" s="3"/>
-      <c r="E234" s="3"/>
+      <c r="D234" s="12"/>
+      <c r="E234" s="12"/>
     </row>
     <row r="235" spans="4:5">
-      <c r="D235" s="3"/>
-      <c r="E235" s="3"/>
+      <c r="D235" s="12"/>
+      <c r="E235" s="12"/>
     </row>
     <row r="236" spans="4:5">
-      <c r="D236" s="3"/>
-      <c r="E236" s="3"/>
+      <c r="D236" s="12"/>
+      <c r="E236" s="12"/>
     </row>
     <row r="237" spans="4:5">
-      <c r="D237" s="3"/>
-      <c r="E237" s="3"/>
+      <c r="D237" s="12"/>
+      <c r="E237" s="12"/>
     </row>
     <row r="238" spans="4:5">
-      <c r="D238" s="3"/>
-      <c r="E238" s="3"/>
+      <c r="D238" s="12"/>
+      <c r="E238" s="12"/>
     </row>
     <row r="239" spans="4:5">
-      <c r="D239" s="3"/>
-      <c r="E239" s="3"/>
+      <c r="D239" s="12"/>
+      <c r="E239" s="12"/>
     </row>
     <row r="240" spans="4:5">
-      <c r="D240" s="3"/>
-      <c r="E240" s="3"/>
+      <c r="D240" s="12"/>
+      <c r="E240" s="12"/>
     </row>
     <row r="241" spans="4:5">
-      <c r="D241" s="3"/>
-      <c r="E241" s="3"/>
+      <c r="D241" s="12"/>
+      <c r="E241" s="12"/>
     </row>
     <row r="242" spans="4:5">
-      <c r="D242" s="3"/>
-      <c r="E242" s="3"/>
+      <c r="D242" s="12"/>
+      <c r="E242" s="12"/>
     </row>
     <row r="243" spans="4:5">
-      <c r="D243" s="3"/>
-      <c r="E243" s="3"/>
+      <c r="D243" s="12"/>
+      <c r="E243" s="12"/>
     </row>
     <row r="244" spans="4:5">
-      <c r="D244" s="3"/>
-      <c r="E244" s="3"/>
+      <c r="D244" s="12"/>
+      <c r="E244" s="12"/>
     </row>
     <row r="245" spans="4:5">
-      <c r="D245" s="3"/>
-      <c r="E245" s="3"/>
+      <c r="D245" s="12"/>
+      <c r="E245" s="12"/>
     </row>
     <row r="246" spans="4:5">
-      <c r="D246" s="3"/>
-      <c r="E246" s="3"/>
+      <c r="D246" s="12"/>
+      <c r="E246" s="12"/>
     </row>
     <row r="247" spans="4:5">
-      <c r="D247" s="3"/>
-      <c r="E247" s="3"/>
+      <c r="D247" s="12"/>
+      <c r="E247" s="12"/>
     </row>
     <row r="248" spans="4:5">
-      <c r="D248" s="3"/>
-      <c r="E248" s="3"/>
+      <c r="D248" s="12"/>
+      <c r="E248" s="12"/>
     </row>
     <row r="249" spans="4:5">
-      <c r="D249" s="3"/>
-      <c r="E249" s="3"/>
+      <c r="D249" s="12"/>
+      <c r="E249" s="12"/>
     </row>
     <row r="250" spans="4:5">
-      <c r="D250" s="3"/>
-      <c r="E250" s="3"/>
+      <c r="D250" s="12"/>
+      <c r="E250" s="12"/>
     </row>
     <row r="251" spans="4:5">
-      <c r="D251" s="3"/>
-      <c r="E251" s="3"/>
+      <c r="D251" s="12"/>
+      <c r="E251" s="12"/>
     </row>
     <row r="252" spans="4:5">
-      <c r="D252" s="3"/>
-      <c r="E252" s="3"/>
+      <c r="D252" s="12"/>
+      <c r="E252" s="12"/>
     </row>
     <row r="253" spans="4:5">
-      <c r="D253" s="3"/>
-      <c r="E253" s="3"/>
+      <c r="D253" s="12"/>
+      <c r="E253" s="12"/>
     </row>
     <row r="254" spans="4:5">
-      <c r="D254" s="3"/>
-      <c r="E254" s="3"/>
+      <c r="D254" s="12"/>
+      <c r="E254" s="12"/>
     </row>
     <row r="255" spans="4:5">
-      <c r="D255" s="3"/>
-      <c r="E255" s="3"/>
+      <c r="D255" s="12"/>
+      <c r="E255" s="12"/>
     </row>
     <row r="256" spans="4:5">
-      <c r="D256" s="3"/>
-      <c r="E256" s="3"/>
+      <c r="D256" s="12"/>
+      <c r="E256" s="12"/>
     </row>
     <row r="257" spans="4:5">
-      <c r="D257" s="3"/>
-      <c r="E257" s="3"/>
+      <c r="D257" s="12"/>
+      <c r="E257" s="12"/>
     </row>
     <row r="258" spans="4:5">
-      <c r="D258" s="3"/>
-      <c r="E258" s="3"/>
+      <c r="D258" s="12"/>
+      <c r="E258" s="12"/>
     </row>
     <row r="259" spans="4:5">
-      <c r="D259" s="3"/>
-      <c r="E259" s="3"/>
+      <c r="D259" s="12"/>
+      <c r="E259" s="12"/>
     </row>
     <row r="260" spans="4:5">
-      <c r="D260" s="3"/>
-      <c r="E260" s="3"/>
+      <c r="D260" s="12"/>
+      <c r="E260" s="12"/>
     </row>
     <row r="261" spans="4:5">
-      <c r="D261" s="3"/>
-      <c r="E261" s="3"/>
+      <c r="D261" s="12"/>
+      <c r="E261" s="12"/>
     </row>
     <row r="262" spans="4:5">
-      <c r="D262" s="3"/>
-      <c r="E262" s="3"/>
+      <c r="D262" s="12"/>
+      <c r="E262" s="12"/>
     </row>
     <row r="263" spans="4:5">
-      <c r="D263" s="3"/>
-      <c r="E263" s="3"/>
+      <c r="D263" s="12"/>
+      <c r="E263" s="12"/>
     </row>
     <row r="264" spans="4:5">
-      <c r="D264" s="3"/>
-      <c r="E264" s="3"/>
+      <c r="D264" s="12"/>
+      <c r="E264" s="12"/>
     </row>
     <row r="265" spans="4:5">
-      <c r="D265" s="3"/>
-      <c r="E265" s="3"/>
+      <c r="D265" s="12"/>
+      <c r="E265" s="12"/>
     </row>
     <row r="266" spans="4:5">
-      <c r="D266" s="3"/>
-      <c r="E266" s="3"/>
+      <c r="D266" s="12"/>
+      <c r="E266" s="12"/>
     </row>
     <row r="267" spans="4:5">
-      <c r="D267" s="3"/>
-      <c r="E267" s="3"/>
+      <c r="D267" s="12"/>
+      <c r="E267" s="12"/>
     </row>
     <row r="268" spans="4:5">
-      <c r="D268" s="3"/>
-      <c r="E268" s="3"/>
+      <c r="D268" s="12"/>
+      <c r="E268" s="12"/>
     </row>
     <row r="269" spans="4:5">
-      <c r="D269" s="3"/>
-      <c r="E269" s="3"/>
+      <c r="D269" s="12"/>
+      <c r="E269" s="12"/>
     </row>
     <row r="270" spans="4:5">
-      <c r="D270" s="3"/>
-      <c r="E270" s="3"/>
+      <c r="D270" s="12"/>
+      <c r="E270" s="12"/>
     </row>
     <row r="271" spans="4:5">
-      <c r="D271" s="3"/>
-      <c r="E271" s="3"/>
+      <c r="D271" s="12"/>
+      <c r="E271" s="12"/>
     </row>
     <row r="272" spans="4:5">
-      <c r="D272" s="3"/>
-      <c r="E272" s="3"/>
+      <c r="D272" s="12"/>
+      <c r="E272" s="12"/>
     </row>
     <row r="273" spans="4:5">
-      <c r="D273" s="3"/>
-      <c r="E273" s="3"/>
+      <c r="D273" s="12"/>
+      <c r="E273" s="12"/>
     </row>
     <row r="274" spans="4:5">
-      <c r="D274" s="3"/>
-      <c r="E274" s="3"/>
+      <c r="D274" s="12"/>
+      <c r="E274" s="12"/>
     </row>
     <row r="275" spans="4:5">
-      <c r="D275" s="3"/>
-      <c r="E275" s="3"/>
+      <c r="D275" s="12"/>
+      <c r="E275" s="12"/>
     </row>
     <row r="276" spans="4:5">
-      <c r="D276" s="3"/>
-      <c r="E276" s="3"/>
+      <c r="D276" s="12"/>
+      <c r="E276" s="12"/>
     </row>
     <row r="277" spans="4:5">
-      <c r="D277" s="3"/>
-      <c r="E277" s="3"/>
+      <c r="D277" s="12"/>
+      <c r="E277" s="12"/>
     </row>
     <row r="278" spans="4:5">
-      <c r="D278" s="3"/>
-      <c r="E278" s="3"/>
+      <c r="D278" s="12"/>
+      <c r="E278" s="12"/>
     </row>
     <row r="279" spans="4:5">
-      <c r="D279" s="3"/>
-      <c r="E279" s="3"/>
+      <c r="D279" s="12"/>
+      <c r="E279" s="12"/>
     </row>
     <row r="280" spans="4:5">
-      <c r="D280" s="3"/>
-      <c r="E280" s="3"/>
+      <c r="D280" s="12"/>
+      <c r="E280" s="12"/>
     </row>
     <row r="281" spans="4:5">
-      <c r="D281" s="3"/>
-      <c r="E281" s="3"/>
+      <c r="D281" s="12"/>
+      <c r="E281" s="12"/>
     </row>
     <row r="282" spans="4:5">
-      <c r="D282" s="3"/>
-      <c r="E282" s="3"/>
+      <c r="D282" s="12"/>
+      <c r="E282" s="12"/>
     </row>
     <row r="283" spans="4:5">
-      <c r="D283" s="3"/>
-      <c r="E283" s="3"/>
+      <c r="D283" s="12"/>
+      <c r="E283" s="12"/>
     </row>
     <row r="284" spans="4:5">
-      <c r="D284" s="3"/>
-      <c r="E284" s="3"/>
+      <c r="D284" s="12"/>
+      <c r="E284" s="12"/>
     </row>
     <row r="285" spans="4:5">
-      <c r="D285" s="3"/>
-      <c r="E285" s="3"/>
+      <c r="D285" s="12"/>
+      <c r="E285" s="12"/>
     </row>
     <row r="286" spans="4:5">
-      <c r="D286" s="3"/>
-      <c r="E286" s="3"/>
+      <c r="D286" s="12"/>
+      <c r="E286" s="12"/>
     </row>
     <row r="287" spans="4:5">
-      <c r="D287" s="3"/>
-      <c r="E287" s="3"/>
+      <c r="D287" s="12"/>
+      <c r="E287" s="12"/>
     </row>
     <row r="288" spans="4:5">
-      <c r="D288" s="3"/>
-      <c r="E288" s="3"/>
+      <c r="D288" s="12"/>
+      <c r="E288" s="12"/>
     </row>
     <row r="289" spans="4:5">
-      <c r="D289" s="3"/>
-      <c r="E289" s="3"/>
+      <c r="D289" s="12"/>
+      <c r="E289" s="12"/>
     </row>
     <row r="290" spans="4:5">
-      <c r="D290" s="3"/>
-      <c r="E290" s="3"/>
+      <c r="D290" s="12"/>
+      <c r="E290" s="12"/>
     </row>
     <row r="291" spans="4:5">
-      <c r="D291" s="3"/>
-      <c r="E291" s="3"/>
+      <c r="D291" s="12"/>
+      <c r="E291" s="12"/>
     </row>
     <row r="292" spans="4:5">
-      <c r="D292" s="3"/>
-      <c r="E292" s="3"/>
+      <c r="D292" s="12"/>
+      <c r="E292" s="12"/>
     </row>
     <row r="293" spans="4:5">
-      <c r="D293" s="3"/>
-      <c r="E293" s="3"/>
+      <c r="D293" s="12"/>
+      <c r="E293" s="12"/>
     </row>
     <row r="294" spans="4:5">
-      <c r="D294" s="3"/>
-      <c r="E294" s="3"/>
+      <c r="D294" s="12"/>
+      <c r="E294" s="12"/>
     </row>
     <row r="295" spans="4:5">
-      <c r="D295" s="3"/>
-      <c r="E295" s="3"/>
+      <c r="D295" s="12"/>
+      <c r="E295" s="12"/>
     </row>
     <row r="296" spans="4:5">
-      <c r="D296" s="3"/>
-      <c r="E296" s="3"/>
+      <c r="D296" s="12"/>
+      <c r="E296" s="12"/>
     </row>
     <row r="297" spans="4:5">
-      <c r="D297" s="3"/>
-      <c r="E297" s="3"/>
+      <c r="D297" s="12"/>
+      <c r="E297" s="12"/>
     </row>
     <row r="298" spans="4:5">
-      <c r="D298" s="3"/>
-      <c r="E298" s="3"/>
+      <c r="D298" s="12"/>
+      <c r="E298" s="12"/>
     </row>
     <row r="299" spans="4:5">
-      <c r="D299" s="3"/>
-      <c r="E299" s="3"/>
+      <c r="D299" s="12"/>
+      <c r="E299" s="12"/>
     </row>
     <row r="300" spans="4:5">
-      <c r="D300" s="3"/>
-      <c r="E300" s="3"/>
+      <c r="D300" s="12"/>
+      <c r="E300" s="12"/>
     </row>
     <row r="301" spans="4:5">
-      <c r="D301" s="3"/>
-      <c r="E301" s="3"/>
+      <c r="D301" s="12"/>
+      <c r="E301" s="12"/>
     </row>
     <row r="302" spans="4:5">
-      <c r="D302" s="3"/>
-      <c r="E302" s="3"/>
+      <c r="D302" s="12"/>
+      <c r="E302" s="12"/>
     </row>
     <row r="303" spans="4:5">
-      <c r="D303" s="3"/>
-      <c r="E303" s="3"/>
+      <c r="D303" s="12"/>
+      <c r="E303" s="12"/>
     </row>
     <row r="304" spans="4:5">
-      <c r="D304" s="3"/>
-      <c r="E304" s="3"/>
+      <c r="D304" s="12"/>
+      <c r="E304" s="12"/>
     </row>
     <row r="305" spans="4:5">
-      <c r="D305" s="3"/>
-      <c r="E305" s="3"/>
+      <c r="D305" s="12"/>
+      <c r="E305" s="12"/>
     </row>
     <row r="306" spans="4:5">
-      <c r="D306" s="3"/>
-      <c r="E306" s="3"/>
+      <c r="D306" s="12"/>
+      <c r="E306" s="12"/>
     </row>
     <row r="307" spans="4:5">
-      <c r="D307" s="3"/>
-      <c r="E307" s="3"/>
+      <c r="D307" s="12"/>
+      <c r="E307" s="12"/>
     </row>
     <row r="308" spans="4:5">
-      <c r="D308" s="3"/>
-      <c r="E308" s="3"/>
+      <c r="D308" s="12"/>
+      <c r="E308" s="12"/>
     </row>
     <row r="309" spans="4:5">
-      <c r="D309" s="3"/>
-      <c r="E309" s="3"/>
+      <c r="D309" s="12"/>
+      <c r="E309" s="12"/>
     </row>
     <row r="310" spans="4:5">
-      <c r="D310" s="3"/>
-      <c r="E310" s="3"/>
+      <c r="D310" s="12"/>
+      <c r="E310" s="12"/>
     </row>
     <row r="311" spans="4:5">
-      <c r="D311" s="3"/>
-      <c r="E311" s="3"/>
+      <c r="D311" s="12"/>
+      <c r="E311" s="12"/>
     </row>
     <row r="312" spans="4:5">
-      <c r="D312" s="3"/>
-      <c r="E312" s="3"/>
+      <c r="D312" s="12"/>
+      <c r="E312" s="12"/>
     </row>
     <row r="313" spans="4:5">
-      <c r="D313" s="3"/>
-      <c r="E313" s="3"/>
+      <c r="D313" s="12"/>
+      <c r="E313" s="12"/>
     </row>
     <row r="314" spans="4:5">
-      <c r="D314" s="3"/>
-      <c r="E314" s="3"/>
+      <c r="D314" s="12"/>
+      <c r="E314" s="12"/>
     </row>
     <row r="315" spans="4:5">
-      <c r="D315" s="3"/>
-      <c r="E315" s="3"/>
+      <c r="D315" s="12"/>
+      <c r="E315" s="12"/>
     </row>
     <row r="316" spans="4:5">
-      <c r="D316" s="3"/>
-      <c r="E316" s="3"/>
+      <c r="D316" s="12"/>
+      <c r="E316" s="12"/>
     </row>
     <row r="317" spans="4:5">
-      <c r="D317" s="3"/>
-      <c r="E317" s="3"/>
+      <c r="D317" s="12"/>
+      <c r="E317" s="12"/>
     </row>
     <row r="318" spans="4:5">
-      <c r="D318" s="3"/>
-      <c r="E318" s="3"/>
+      <c r="D318" s="12"/>
+      <c r="E318" s="12"/>
     </row>
     <row r="319" spans="4:5">
-      <c r="D319" s="3"/>
-      <c r="E319" s="3"/>
+      <c r="D319" s="12"/>
+      <c r="E319" s="12"/>
     </row>
     <row r="320" spans="4:5">
-      <c r="D320" s="3"/>
-      <c r="E320" s="3"/>
+      <c r="D320" s="12"/>
+      <c r="E320" s="12"/>
     </row>
     <row r="321" spans="4:5">
-      <c r="D321" s="3"/>
-      <c r="E321" s="3"/>
+      <c r="D321" s="12"/>
+      <c r="E321" s="12"/>
     </row>
     <row r="322" spans="4:5">
-      <c r="D322" s="3"/>
-      <c r="E322" s="3"/>
+      <c r="D322" s="12"/>
+      <c r="E322" s="12"/>
     </row>
     <row r="323" spans="4:5">
-      <c r="D323" s="3"/>
-      <c r="E323" s="3"/>
+      <c r="D323" s="12"/>
+      <c r="E323" s="12"/>
     </row>
     <row r="324" spans="4:5">
-      <c r="D324" s="3"/>
-      <c r="E324" s="3"/>
+      <c r="D324" s="12"/>
+      <c r="E324" s="12"/>
     </row>
     <row r="325" spans="4:5">
-      <c r="D325" s="3"/>
-      <c r="E325" s="3"/>
+      <c r="D325" s="12"/>
+      <c r="E325" s="12"/>
     </row>
     <row r="326" spans="4:5">
-      <c r="D326" s="3"/>
-      <c r="E326" s="3"/>
+      <c r="D326" s="12"/>
+      <c r="E326" s="12"/>
     </row>
     <row r="327" spans="4:5">
-      <c r="D327" s="3"/>
-      <c r="E327" s="3"/>
+      <c r="D327" s="12"/>
+      <c r="E327" s="12"/>
     </row>
     <row r="328" spans="4:5">
-      <c r="D328" s="3"/>
-      <c r="E328" s="3"/>
+      <c r="D328" s="12"/>
+      <c r="E328" s="12"/>
     </row>
     <row r="329" spans="4:5">
-      <c r="D329" s="3"/>
-      <c r="E329" s="3"/>
+      <c r="D329" s="12"/>
+      <c r="E329" s="12"/>
     </row>
     <row r="330" spans="4:5">
-      <c r="D330" s="3"/>
-      <c r="E330" s="3"/>
+      <c r="D330" s="12"/>
+      <c r="E330" s="12"/>
     </row>
     <row r="331" spans="4:5">
-      <c r="D331" s="3"/>
-      <c r="E331" s="3"/>
+      <c r="D331" s="12"/>
+      <c r="E331" s="12"/>
     </row>
     <row r="332" spans="4:5">
-      <c r="D332" s="3"/>
-      <c r="E332" s="3"/>
+      <c r="D332" s="12"/>
+      <c r="E332" s="12"/>
     </row>
     <row r="333" spans="4:5">
-      <c r="D333" s="3"/>
-      <c r="E333" s="3"/>
+      <c r="D333" s="12"/>
+      <c r="E333" s="12"/>
     </row>
     <row r="334" spans="4:5">
-      <c r="D334" s="3"/>
-      <c r="E334" s="3"/>
+      <c r="D334" s="12"/>
+      <c r="E334" s="12"/>
     </row>
     <row r="335" spans="4:5">
-      <c r="D335" s="3"/>
-      <c r="E335" s="3"/>
+      <c r="D335" s="12"/>
+      <c r="E335" s="12"/>
     </row>
     <row r="336" spans="4:5">
-      <c r="D336" s="3"/>
-      <c r="E336" s="3"/>
+      <c r="D336" s="12"/>
+      <c r="E336" s="12"/>
     </row>
     <row r="337" spans="4:5">
-      <c r="D337" s="3"/>
-      <c r="E337" s="3"/>
+      <c r="D337" s="12"/>
+      <c r="E337" s="12"/>
     </row>
     <row r="338" spans="4:5">
-      <c r="D338" s="3"/>
-      <c r="E338" s="3"/>
+      <c r="D338" s="12"/>
+      <c r="E338" s="12"/>
     </row>
     <row r="339" spans="4:5">
-      <c r="D339" s="3"/>
-      <c r="E339" s="3"/>
+      <c r="D339" s="12"/>
+      <c r="E339" s="12"/>
     </row>
     <row r="340" spans="4:5">
-      <c r="D340" s="3"/>
-      <c r="E340" s="3"/>
+      <c r="D340" s="12"/>
+      <c r="E340" s="12"/>
     </row>
     <row r="341" spans="4:5">
-      <c r="D341" s="3"/>
-      <c r="E341" s="3"/>
+      <c r="D341" s="12"/>
+      <c r="E341" s="12"/>
     </row>
     <row r="342" spans="4:5">
-      <c r="D342" s="3"/>
-      <c r="E342" s="3"/>
+      <c r="D342" s="12"/>
+      <c r="E342" s="12"/>
     </row>
     <row r="343" spans="4:5">
-      <c r="D343" s="3"/>
-      <c r="E343" s="3"/>
+      <c r="D343" s="12"/>
+      <c r="E343" s="12"/>
     </row>
     <row r="344" spans="4:5">
-      <c r="D344" s="3"/>
-      <c r="E344" s="3"/>
+      <c r="D344" s="12"/>
+      <c r="E344" s="12"/>
     </row>
     <row r="345" spans="4:5">
-      <c r="D345" s="3"/>
-      <c r="E345" s="3"/>
+      <c r="D345" s="12"/>
+      <c r="E345" s="12"/>
     </row>
     <row r="346" spans="4:5">
-      <c r="D346" s="3"/>
-      <c r="E346" s="3"/>
+      <c r="D346" s="12"/>
+      <c r="E346" s="12"/>
     </row>
     <row r="347" spans="4:5">
-      <c r="D347" s="3"/>
-      <c r="E347" s="3"/>
+      <c r="D347" s="12"/>
+      <c r="E347" s="12"/>
     </row>
     <row r="348" spans="4:5">
-      <c r="D348" s="3"/>
-      <c r="E348" s="3"/>
+      <c r="D348" s="12"/>
+      <c r="E348" s="12"/>
     </row>
     <row r="349" spans="4:5">
-      <c r="D349" s="3"/>
-      <c r="E349" s="3"/>
+      <c r="D349" s="12"/>
+      <c r="E349" s="12"/>
     </row>
     <row r="350" spans="4:5">
-      <c r="D350" s="3"/>
-      <c r="E350" s="3"/>
+      <c r="D350" s="12"/>
+      <c r="E350" s="12"/>
     </row>
     <row r="351" spans="4:5">
-      <c r="D351" s="3"/>
-      <c r="E351" s="3"/>
+      <c r="D351" s="12"/>
+      <c r="E351" s="12"/>
     </row>
     <row r="352" spans="4:5">
-      <c r="D352" s="3"/>
-      <c r="E352" s="3"/>
+      <c r="D352" s="12"/>
+      <c r="E352" s="12"/>
     </row>
     <row r="353" spans="4:5">
-      <c r="D353" s="3"/>
-      <c r="E353" s="3"/>
+      <c r="D353" s="12"/>
+      <c r="E353" s="12"/>
     </row>
     <row r="354" spans="4:5">
-      <c r="D354" s="3"/>
-      <c r="E354" s="3"/>
+      <c r="D354" s="12"/>
+      <c r="E354" s="12"/>
     </row>
     <row r="355" spans="4:5">
-      <c r="D355" s="3"/>
-      <c r="E355" s="3"/>
+      <c r="D355" s="12"/>
+      <c r="E355" s="12"/>
     </row>
     <row r="356" spans="4:5">
-      <c r="D356" s="3"/>
-      <c r="E356" s="3"/>
+      <c r="D356" s="12"/>
+      <c r="E356" s="12"/>
     </row>
     <row r="357" spans="4:5">
-      <c r="D357" s="3"/>
-      <c r="E357" s="3"/>
+      <c r="D357" s="12"/>
+      <c r="E357" s="12"/>
     </row>
     <row r="358" spans="4:5">
-      <c r="D358" s="3"/>
-      <c r="E358" s="3"/>
+      <c r="D358" s="12"/>
+      <c r="E358" s="12"/>
     </row>
     <row r="359" spans="4:5">
-      <c r="D359" s="3"/>
-      <c r="E359" s="3"/>
+      <c r="D359" s="12"/>
+      <c r="E359" s="12"/>
     </row>
     <row r="360" spans="4:5">
-      <c r="D360" s="3"/>
-      <c r="E360" s="3"/>
+      <c r="D360" s="12"/>
+      <c r="E360" s="12"/>
     </row>
     <row r="361" spans="4:5">
-      <c r="D361" s="3"/>
-      <c r="E361" s="3"/>
+      <c r="D361" s="12"/>
+      <c r="E361" s="12"/>
     </row>
     <row r="362" spans="4:5">
-      <c r="D362" s="3"/>
-      <c r="E362" s="3"/>
+      <c r="D362" s="12"/>
+      <c r="E362" s="12"/>
     </row>
     <row r="363" spans="4:5">
-      <c r="D363" s="3"/>
-      <c r="E363" s="3"/>
+      <c r="D363" s="12"/>
+      <c r="E363" s="12"/>
     </row>
     <row r="364" spans="4:5">
-      <c r="D364" s="3"/>
-      <c r="E364" s="3"/>
+      <c r="D364" s="12"/>
+      <c r="E364" s="12"/>
     </row>
     <row r="365" spans="4:5">
-      <c r="D365" s="3"/>
-      <c r="E365" s="3"/>
+      <c r="D365" s="12"/>
+      <c r="E365" s="12"/>
     </row>
     <row r="366" spans="4:5">
-      <c r="D366" s="3"/>
-      <c r="E366" s="3"/>
+      <c r="D366" s="12"/>
+      <c r="E366" s="12"/>
     </row>
     <row r="367" spans="4:5">
-      <c r="D367" s="3"/>
-      <c r="E367" s="3"/>
+      <c r="D367" s="12"/>
+      <c r="E367" s="12"/>
     </row>
     <row r="368" spans="4:5">
-      <c r="D368" s="3"/>
-      <c r="E368" s="3"/>
+      <c r="D368" s="12"/>
+      <c r="E368" s="12"/>
     </row>
     <row r="369" spans="4:5">
-      <c r="D369" s="3"/>
-      <c r="E369" s="3"/>
+      <c r="D369" s="12"/>
+      <c r="E369" s="12"/>
     </row>
     <row r="370" spans="4:5">
-      <c r="D370" s="3"/>
-      <c r="E370" s="3"/>
+      <c r="D370" s="12"/>
+      <c r="E370" s="12"/>
     </row>
     <row r="371" spans="4:5">
-      <c r="D371" s="3"/>
-      <c r="E371" s="3"/>
+      <c r="D371" s="12"/>
+      <c r="E371" s="12"/>
     </row>
     <row r="372" spans="4:5">
-      <c r="D372" s="3"/>
-      <c r="E372" s="3"/>
+      <c r="D372" s="12"/>
+      <c r="E372" s="12"/>
     </row>
     <row r="373" spans="4:5">
-      <c r="D373" s="3"/>
-      <c r="E373" s="3"/>
+      <c r="D373" s="12"/>
+      <c r="E373" s="12"/>
     </row>
     <row r="374" spans="4:5">
-      <c r="D374" s="3"/>
-      <c r="E374" s="3"/>
+      <c r="D374" s="12"/>
+      <c r="E374" s="12"/>
     </row>
     <row r="375" spans="4:5">
-      <c r="D375" s="3"/>
-      <c r="E375" s="3"/>
+      <c r="D375" s="12"/>
+      <c r="E375" s="12"/>
     </row>
     <row r="376" spans="4:5">
-      <c r="D376" s="3"/>
-      <c r="E376" s="3"/>
+      <c r="D376" s="12"/>
+      <c r="E376" s="12"/>
     </row>
     <row r="377" spans="4:5">
-      <c r="D377" s="3"/>
-      <c r="E377" s="3"/>
+      <c r="D377" s="12"/>
+      <c r="E377" s="12"/>
     </row>
     <row r="378" spans="4:5">
-      <c r="D378" s="3"/>
-      <c r="E378" s="3"/>
+      <c r="D378" s="12"/>
+      <c r="E378" s="12"/>
     </row>
     <row r="379" spans="4:5">
-      <c r="D379" s="3"/>
-      <c r="E379" s="3"/>
+      <c r="D379" s="12"/>
+      <c r="E379" s="12"/>
     </row>
     <row r="380" spans="4:5">
-      <c r="D380" s="3"/>
-      <c r="E380" s="3"/>
+      <c r="D380" s="12"/>
+      <c r="E380" s="12"/>
     </row>
     <row r="381" spans="4:5">
-      <c r="D381" s="3"/>
-      <c r="E381" s="3"/>
+      <c r="D381" s="12"/>
+      <c r="E381" s="12"/>
     </row>
     <row r="382" spans="4:5">
-      <c r="D382" s="3"/>
-      <c r="E382" s="3"/>
+      <c r="D382" s="12"/>
+      <c r="E382" s="12"/>
     </row>
     <row r="383" spans="4:5">
-      <c r="D383" s="3"/>
-      <c r="E383" s="3"/>
+      <c r="D383" s="12"/>
+      <c r="E383" s="12"/>
     </row>
     <row r="384" spans="4:5">
-      <c r="D384" s="3"/>
-      <c r="E384" s="3"/>
+      <c r="D384" s="12"/>
+      <c r="E384" s="12"/>
     </row>
     <row r="385" spans="4:5">
-      <c r="D385" s="3"/>
-      <c r="E385" s="3"/>
+      <c r="D385" s="12"/>
+      <c r="E385" s="12"/>
     </row>
     <row r="386" spans="4:5">
-      <c r="D386" s="3"/>
-      <c r="E386" s="3"/>
+      <c r="D386" s="12"/>
+      <c r="E386" s="12"/>
     </row>
     <row r="387" spans="4:5">
-      <c r="D387" s="3"/>
-      <c r="E387" s="3"/>
+      <c r="D387" s="12"/>
+      <c r="E387" s="12"/>
     </row>
     <row r="388" spans="4:5">
-      <c r="D388" s="3"/>
-      <c r="E388" s="3"/>
+      <c r="D388" s="12"/>
+      <c r="E388" s="12"/>
     </row>
     <row r="389" spans="4:5">
-      <c r="D389" s="3"/>
-      <c r="E389" s="3"/>
+      <c r="D389" s="12"/>
+      <c r="E389" s="12"/>
     </row>
     <row r="390" spans="4:5">
-      <c r="D390" s="3"/>
-      <c r="E390" s="3"/>
+      <c r="D390" s="12"/>
+      <c r="E390" s="12"/>
     </row>
     <row r="391" spans="4:5">
-      <c r="D391" s="3"/>
-      <c r="E391" s="3"/>
+      <c r="D391" s="12"/>
+      <c r="E391" s="12"/>
     </row>
     <row r="392" spans="4:5">
-      <c r="D392" s="3"/>
-      <c r="E392" s="3"/>
+      <c r="D392" s="12"/>
+      <c r="E392" s="12"/>
     </row>
     <row r="393" spans="4:5">
-      <c r="D393" s="3"/>
-      <c r="E393" s="3"/>
+      <c r="D393" s="12"/>
+      <c r="E393" s="12"/>
     </row>
     <row r="394" spans="4:5">
-      <c r="D394" s="3"/>
-      <c r="E394" s="3"/>
+      <c r="D394" s="12"/>
+      <c r="E394" s="12"/>
     </row>
     <row r="395" spans="4:5">
-      <c r="D395" s="3"/>
-      <c r="E395" s="3"/>
+      <c r="D395" s="12"/>
+      <c r="E395" s="12"/>
     </row>
     <row r="396" spans="4:5">
-      <c r="D396" s="3"/>
-      <c r="E396" s="3"/>
+      <c r="D396" s="12"/>
+      <c r="E396" s="12"/>
     </row>
     <row r="397" spans="4:5">
-      <c r="D397" s="3"/>
-      <c r="E397" s="3"/>
+      <c r="D397" s="12"/>
+      <c r="E397" s="12"/>
     </row>
     <row r="398" spans="4:5">
-      <c r="D398" s="3"/>
-      <c r="E398" s="3"/>
+      <c r="D398" s="12"/>
+      <c r="E398" s="12"/>
     </row>
     <row r="399" spans="4:5">
-      <c r="D399" s="3"/>
-      <c r="E399" s="3"/>
+      <c r="D399" s="12"/>
+      <c r="E399" s="12"/>
     </row>
     <row r="400" spans="4:5">
-      <c r="D400" s="3"/>
-      <c r="E400" s="3"/>
+      <c r="D400" s="12"/>
+      <c r="E400" s="12"/>
     </row>
     <row r="401" spans="4:5">
-      <c r="D401" s="3"/>
-      <c r="E401" s="3"/>
+      <c r="D401" s="12"/>
+      <c r="E401" s="12"/>
     </row>
     <row r="402" spans="4:5">
-      <c r="D402" s="3"/>
-      <c r="E402" s="3"/>
+      <c r="D402" s="12"/>
+      <c r="E402" s="12"/>
     </row>
     <row r="403" spans="4:5">
-      <c r="D403" s="3"/>
-      <c r="E403" s="3"/>
+      <c r="D403" s="12"/>
+      <c r="E403" s="12"/>
     </row>
     <row r="404" spans="4:5">
-      <c r="D404" s="3"/>
-      <c r="E404" s="3"/>
+      <c r="D404" s="12"/>
+      <c r="E404" s="12"/>
     </row>
     <row r="405" spans="4:5">
-      <c r="D405" s="3"/>
-      <c r="E405" s="3"/>
+      <c r="D405" s="12"/>
+      <c r="E405" s="12"/>
     </row>
     <row r="406" spans="4:5">
-      <c r="D406" s="3"/>
-      <c r="E406" s="3"/>
+      <c r="D406" s="12"/>
+      <c r="E406" s="12"/>
     </row>
     <row r="407" spans="4:5">
-      <c r="D407" s="3"/>
-      <c r="E407" s="3"/>
+      <c r="D407" s="12"/>
+      <c r="E407" s="12"/>
     </row>
     <row r="408" spans="4:5">
-      <c r="D408" s="3"/>
-      <c r="E408" s="3"/>
+      <c r="D408" s="12"/>
+      <c r="E408" s="12"/>
     </row>
     <row r="409" spans="4:5">
-      <c r="D409" s="3"/>
-      <c r="E409" s="3"/>
+      <c r="D409" s="12"/>
+      <c r="E409" s="12"/>
     </row>
     <row r="410" spans="4:5">
-      <c r="D410" s="3"/>
-      <c r="E410" s="3"/>
+      <c r="D410" s="12"/>
+      <c r="E410" s="12"/>
     </row>
     <row r="411" spans="4:5">
-      <c r="D411" s="3"/>
-      <c r="E411" s="3"/>
+      <c r="D411" s="12"/>
+      <c r="E411" s="12"/>
     </row>
     <row r="412" spans="4:5">
-      <c r="D412" s="3"/>
-      <c r="E412" s="3"/>
+      <c r="D412" s="12"/>
+      <c r="E412" s="12"/>
     </row>
     <row r="413" spans="4:5">
-      <c r="D413" s="3"/>
-      <c r="E413" s="3"/>
+      <c r="D413" s="12"/>
+      <c r="E413" s="12"/>
     </row>
     <row r="414" spans="4:5">
-      <c r="D414" s="3"/>
-      <c r="E414" s="3"/>
+      <c r="D414" s="12"/>
+      <c r="E414" s="12"/>
     </row>
     <row r="415" spans="4:5">
-      <c r="D415" s="3"/>
-      <c r="E415" s="3"/>
+      <c r="D415" s="12"/>
+      <c r="E415" s="12"/>
     </row>
     <row r="416" spans="4:5">
-      <c r="D416" s="3"/>
-      <c r="E416" s="3"/>
+      <c r="D416" s="12"/>
+      <c r="E416" s="12"/>
     </row>
     <row r="417" spans="4:5">
-      <c r="D417" s="3"/>
-      <c r="E417" s="3"/>
+      <c r="D417" s="12"/>
+      <c r="E417" s="12"/>
     </row>
     <row r="418" spans="4:5">
-      <c r="D418" s="3"/>
-      <c r="E418" s="3"/>
+      <c r="D418" s="12"/>
+      <c r="E418" s="12"/>
     </row>
     <row r="419" spans="4:5">
-      <c r="D419" s="3"/>
-      <c r="E419" s="3"/>
+      <c r="D419" s="12"/>
+      <c r="E419" s="12"/>
     </row>
     <row r="420" spans="4:5">
-      <c r="D420" s="3"/>
-      <c r="E420" s="3"/>
+      <c r="D420" s="12"/>
+      <c r="E420" s="12"/>
     </row>
     <row r="421" spans="4:5">
-      <c r="D421" s="3"/>
-      <c r="E421" s="3"/>
+      <c r="D421" s="12"/>
+      <c r="E421" s="12"/>
     </row>
     <row r="422" spans="4:5">
-      <c r="D422" s="3"/>
-      <c r="E422" s="3"/>
+      <c r="D422" s="12"/>
+      <c r="E422" s="12"/>
     </row>
     <row r="423" spans="4:5">
-      <c r="D423" s="3"/>
-      <c r="E423" s="3"/>
+      <c r="D423" s="12"/>
+      <c r="E423" s="12"/>
     </row>
     <row r="424" spans="4:5">
-      <c r="D424" s="3"/>
-      <c r="E424" s="3"/>
+      <c r="D424" s="12"/>
+      <c r="E424" s="12"/>
     </row>
     <row r="425" spans="4:5">
-      <c r="D425" s="3"/>
-      <c r="E425" s="3"/>
+      <c r="D425" s="12"/>
+      <c r="E425" s="12"/>
     </row>
     <row r="426" spans="4:5">
-      <c r="D426" s="3"/>
-      <c r="E426" s="3"/>
+      <c r="D426" s="12"/>
+      <c r="E426" s="12"/>
     </row>
     <row r="427" spans="4:5">
-      <c r="D427" s="3"/>
-      <c r="E427" s="3"/>
+      <c r="D427" s="12"/>
+      <c r="E427" s="12"/>
     </row>
     <row r="428" spans="4:5">
-      <c r="D428" s="3"/>
-      <c r="E428" s="3"/>
+      <c r="D428" s="12"/>
+      <c r="E428" s="12"/>
     </row>
     <row r="429" spans="4:5">
-      <c r="D429" s="3"/>
-      <c r="E429" s="3"/>
+      <c r="D429" s="12"/>
+      <c r="E429" s="12"/>
     </row>
     <row r="430" spans="4:5">
-      <c r="D430" s="3"/>
-      <c r="E430" s="3"/>
+      <c r="D430" s="12"/>
+      <c r="E430" s="12"/>
     </row>
     <row r="431" spans="4:5">
-      <c r="D431" s="3"/>
-      <c r="E431" s="3"/>
+      <c r="D431" s="12"/>
+      <c r="E431" s="12"/>
     </row>
     <row r="432" spans="4:5">
-      <c r="D432" s="3"/>
-      <c r="E432" s="3"/>
+      <c r="D432" s="12"/>
+      <c r="E432" s="12"/>
     </row>
     <row r="433" spans="4:5">
-      <c r="D433" s="3"/>
-      <c r="E433" s="3"/>
+      <c r="D433" s="12"/>
+      <c r="E433" s="12"/>
     </row>
     <row r="434" spans="4:5">
-      <c r="D434" s="3"/>
-      <c r="E434" s="3"/>
+      <c r="D434" s="12"/>
+      <c r="E434" s="12"/>
     </row>
     <row r="435" spans="4:5">
-      <c r="D435" s="3"/>
-      <c r="E435" s="3"/>
+      <c r="D435" s="12"/>
+      <c r="E435" s="12"/>
     </row>
     <row r="436" spans="4:5">
-      <c r="D436" s="3"/>
-      <c r="E436" s="3"/>
+      <c r="D436" s="12"/>
+      <c r="E436" s="12"/>
     </row>
     <row r="437" spans="4:5">
-      <c r="D437" s="3"/>
-      <c r="E437" s="3"/>
+      <c r="D437" s="12"/>
+      <c r="E437" s="12"/>
     </row>
     <row r="438" spans="4:5">
-      <c r="D438" s="3"/>
-      <c r="E438" s="3"/>
+      <c r="D438" s="12"/>
+      <c r="E438" s="12"/>
     </row>
     <row r="439" spans="4:5">
-      <c r="D439" s="3"/>
-      <c r="E439" s="3"/>
+      <c r="D439" s="12"/>
+      <c r="E439" s="12"/>
     </row>
     <row r="440" spans="4:5">
-      <c r="D440" s="3"/>
-      <c r="E440" s="3"/>
+      <c r="D440" s="12"/>
+      <c r="E440" s="12"/>
     </row>
     <row r="441" spans="4:5">
-      <c r="D441" s="3"/>
-      <c r="E441" s="3"/>
+      <c r="D441" s="12"/>
+      <c r="E441" s="12"/>
     </row>
     <row r="442" spans="4:5">
-      <c r="D442" s="3"/>
-      <c r="E442" s="3"/>
+      <c r="D442" s="12"/>
+      <c r="E442" s="12"/>
     </row>
     <row r="443" spans="4:5">
-      <c r="D443" s="3"/>
-      <c r="E443" s="3"/>
+      <c r="D443" s="12"/>
+      <c r="E443" s="12"/>
     </row>
     <row r="444" spans="4:5">
-      <c r="D444" s="3"/>
-      <c r="E444" s="3"/>
+      <c r="D444" s="12"/>
+      <c r="E444" s="12"/>
     </row>
     <row r="445" spans="4:5">
-      <c r="D445" s="3"/>
-      <c r="E445" s="3"/>
+      <c r="D445" s="12"/>
+      <c r="E445" s="12"/>
     </row>
     <row r="446" spans="4:5">
-      <c r="D446" s="3"/>
-      <c r="E446" s="3"/>
+      <c r="D446" s="12"/>
+      <c r="E446" s="12"/>
     </row>
     <row r="447" spans="4:5">
-      <c r="D447" s="3"/>
-      <c r="E447" s="3"/>
+      <c r="D447" s="12"/>
+      <c r="E447" s="12"/>
     </row>
     <row r="448" spans="4:5">
-      <c r="D448" s="3"/>
-      <c r="E448" s="3"/>
+      <c r="D448" s="12"/>
+      <c r="E448" s="12"/>
     </row>
     <row r="449" spans="4:5">
-      <c r="D449" s="3"/>
-      <c r="E449" s="3"/>
+      <c r="D449" s="12"/>
+      <c r="E449" s="12"/>
     </row>
     <row r="450" spans="4:5">
-      <c r="D450" s="3"/>
-      <c r="E450" s="3"/>
+      <c r="D450" s="12"/>
+      <c r="E450" s="12"/>
     </row>
     <row r="451" spans="4:5">
-      <c r="D451" s="3"/>
-      <c r="E451" s="3"/>
+      <c r="D451" s="12"/>
+      <c r="E451" s="12"/>
     </row>
     <row r="452" spans="4:5">
-      <c r="D452" s="3"/>
-      <c r="E452" s="3"/>
+      <c r="D452" s="12"/>
+      <c r="E452" s="12"/>
     </row>
     <row r="453" spans="4:5">
-      <c r="D453" s="3"/>
-      <c r="E453" s="3"/>
+      <c r="D453" s="12"/>
+      <c r="E453" s="12"/>
     </row>
     <row r="454" spans="4:5">
-      <c r="D454" s="3"/>
-      <c r="E454" s="3"/>
+      <c r="D454" s="12"/>
+      <c r="E454" s="12"/>
     </row>
     <row r="455" spans="4:5">
-      <c r="D455" s="3"/>
-      <c r="E455" s="3"/>
+      <c r="D455" s="12"/>
+      <c r="E455" s="12"/>
     </row>
     <row r="456" spans="4:5">
-      <c r="D456" s="3"/>
-      <c r="E456" s="3"/>
+      <c r="D456" s="12"/>
+      <c r="E456" s="12"/>
     </row>
     <row r="457" spans="4:5">
-      <c r="D457" s="3"/>
-      <c r="E457" s="3"/>
+      <c r="D457" s="12"/>
+      <c r="E457" s="12"/>
     </row>
     <row r="458" spans="4:5">
-      <c r="D458" s="3"/>
-      <c r="E458" s="3"/>
+      <c r="D458" s="12"/>
+      <c r="E458" s="12"/>
     </row>
     <row r="459" spans="4:5">
-      <c r="D459" s="3"/>
-      <c r="E459" s="3"/>
+      <c r="D459" s="12"/>
+      <c r="E459" s="12"/>
     </row>
     <row r="460" spans="4:5">
-      <c r="D460" s="3"/>
-      <c r="E460" s="3"/>
+      <c r="D460" s="12"/>
+      <c r="E460" s="12"/>
     </row>
     <row r="461" spans="4:5">
-      <c r="D461" s="3"/>
-      <c r="E461" s="3"/>
+      <c r="D461" s="12"/>
+      <c r="E461" s="12"/>
     </row>
     <row r="462" spans="4:5">
-      <c r="D462" s="3"/>
-      <c r="E462" s="3"/>
+      <c r="D462" s="12"/>
+      <c r="E462" s="12"/>
     </row>
     <row r="463" spans="4:5">
-      <c r="D463" s="3"/>
-      <c r="E463" s="3"/>
+      <c r="D463" s="12"/>
+      <c r="E463" s="12"/>
     </row>
     <row r="464" spans="4:5">
-      <c r="D464" s="3"/>
-      <c r="E464" s="3"/>
+      <c r="D464" s="12"/>
+      <c r="E464" s="12"/>
     </row>
     <row r="465" spans="4:5">
-      <c r="D465" s="3"/>
-      <c r="E465" s="3"/>
+      <c r="D465" s="12"/>
+      <c r="E465" s="12"/>
     </row>
     <row r="466" spans="4:5">
-      <c r="D466" s="3"/>
-      <c r="E466" s="3"/>
+      <c r="D466" s="12"/>
+      <c r="E466" s="12"/>
     </row>
     <row r="467" spans="4:5">
-      <c r="D467" s="3"/>
-      <c r="E467" s="3"/>
+      <c r="D467" s="12"/>
+      <c r="E467" s="12"/>
     </row>
     <row r="468" spans="4:5">
-      <c r="D468" s="3"/>
-      <c r="E468" s="3"/>
+      <c r="D468" s="12"/>
+      <c r="E468" s="12"/>
     </row>
     <row r="469" spans="4:5">
-      <c r="D469" s="3"/>
-      <c r="E469" s="3"/>
+      <c r="D469" s="12"/>
+      <c r="E469" s="12"/>
     </row>
     <row r="470" spans="4:5">
-      <c r="D470" s="3"/>
-      <c r="E470" s="3"/>
+      <c r="D470" s="12"/>
+      <c r="E470" s="12"/>
     </row>
     <row r="471" spans="4:5">
-      <c r="D471" s="3"/>
-      <c r="E471" s="3"/>
+      <c r="D471" s="12"/>
+      <c r="E471" s="12"/>
     </row>
     <row r="472" spans="4:5">
-      <c r="D472" s="3"/>
-      <c r="E472" s="3"/>
+      <c r="D472" s="12"/>
+      <c r="E472" s="12"/>
     </row>
     <row r="473" spans="4:5">
-      <c r="D473" s="3"/>
-      <c r="E473" s="3"/>
+      <c r="D473" s="12"/>
+      <c r="E473" s="12"/>
     </row>
     <row r="474" spans="4:5">
-      <c r="D474" s="3"/>
-      <c r="E474" s="3"/>
+      <c r="D474" s="12"/>
+      <c r="E474" s="12"/>
     </row>
     <row r="475" spans="4:5">
-      <c r="D475" s="3"/>
-      <c r="E475" s="3"/>
+      <c r="D475" s="12"/>
+      <c r="E475" s="12"/>
     </row>
     <row r="476" spans="4:5">
-      <c r="D476" s="3"/>
-      <c r="E476" s="3"/>
+      <c r="D476" s="12"/>
+      <c r="E476" s="12"/>
     </row>
     <row r="477" spans="4:5">
-      <c r="D477" s="3"/>
-      <c r="E477" s="3"/>
+      <c r="D477" s="12"/>
+      <c r="E477" s="12"/>
     </row>
     <row r="478" spans="4:5">
-      <c r="D478" s="3"/>
-      <c r="E478" s="3"/>
+      <c r="D478" s="12"/>
+      <c r="E478" s="12"/>
     </row>
     <row r="479" spans="4:5">
-      <c r="D479" s="3"/>
-      <c r="E479" s="3"/>
+      <c r="D479" s="12"/>
+      <c r="E479" s="12"/>
     </row>
     <row r="480" spans="4:5">
-      <c r="D480" s="3"/>
-      <c r="E480" s="3"/>
+      <c r="D480" s="12"/>
+      <c r="E480" s="12"/>
     </row>
     <row r="481" spans="4:5">
-      <c r="D481" s="3"/>
-      <c r="E481" s="3"/>
+      <c r="D481" s="12"/>
+      <c r="E481" s="12"/>
     </row>
     <row r="482" spans="4:5">
-      <c r="D482" s="3"/>
-      <c r="E482" s="3"/>
+      <c r="D482" s="12"/>
+      <c r="E482" s="12"/>
     </row>
     <row r="483" spans="4:5">
-      <c r="D483" s="3"/>
-      <c r="E483" s="3"/>
+      <c r="D483" s="12"/>
+      <c r="E483" s="12"/>
     </row>
     <row r="484" spans="4:5">
-      <c r="D484" s="3"/>
-      <c r="E484" s="3"/>
+      <c r="D484" s="12"/>
+      <c r="E484" s="12"/>
     </row>
     <row r="485" spans="4:5">
-      <c r="D485" s="3"/>
-      <c r="E485" s="3"/>
+      <c r="D485" s="12"/>
+      <c r="E485" s="12"/>
     </row>
     <row r="486" spans="4:5">
-      <c r="D486" s="3"/>
-      <c r="E486" s="3"/>
+      <c r="D486" s="12"/>
+      <c r="E486" s="12"/>
     </row>
     <row r="487" spans="4:5">
-      <c r="D487" s="3"/>
-      <c r="E487" s="3"/>
+      <c r="D487" s="12"/>
+      <c r="E487" s="12"/>
     </row>
     <row r="488" spans="4:5">
-      <c r="D488" s="3"/>
-      <c r="E488" s="3"/>
+      <c r="D488" s="12"/>
+      <c r="E488" s="12"/>
     </row>
     <row r="489" spans="4:5">
-      <c r="D489" s="3"/>
-      <c r="E489" s="3"/>
+      <c r="D489" s="12"/>
+      <c r="E489" s="12"/>
     </row>
     <row r="490" spans="4:5">
-      <c r="D490" s="3"/>
-      <c r="E490" s="3"/>
+      <c r="D490" s="12"/>
+      <c r="E490" s="12"/>
     </row>
     <row r="491" spans="4:5">
-      <c r="D491" s="3"/>
-      <c r="E491" s="3"/>
+      <c r="D491" s="12"/>
+      <c r="E491" s="12"/>
     </row>
     <row r="492" spans="4:5">
-      <c r="D492" s="3"/>
-      <c r="E492" s="3"/>
+      <c r="D492" s="12"/>
+      <c r="E492" s="12"/>
     </row>
     <row r="493" spans="4:5">
-      <c r="D493" s="3"/>
-      <c r="E493" s="3"/>
+      <c r="D493" s="12"/>
+      <c r="E493" s="12"/>
     </row>
     <row r="494" spans="4:5">
-      <c r="D494" s="3"/>
-      <c r="E494" s="3"/>
+      <c r="D494" s="12"/>
+      <c r="E494" s="12"/>
     </row>
     <row r="495" spans="4:5">
-      <c r="D495" s="3"/>
-      <c r="E495" s="3"/>
+      <c r="D495" s="12"/>
+      <c r="E495" s="12"/>
     </row>
     <row r="496" spans="4:5">
-      <c r="D496" s="3"/>
-      <c r="E496" s="3"/>
+      <c r="D496" s="12"/>
+      <c r="E496" s="12"/>
     </row>
     <row r="497" spans="4:5">
-      <c r="D497" s="3"/>
-      <c r="E497" s="3"/>
+      <c r="D497" s="12"/>
+      <c r="E497" s="12"/>
     </row>
     <row r="498" spans="4:5">
-      <c r="D498" s="3"/>
-      <c r="E498" s="3"/>
+      <c r="D498" s="12"/>
+      <c r="E498" s="12"/>
     </row>
     <row r="499" spans="4:5">
-      <c r="D499" s="3"/>
-      <c r="E499" s="3"/>
+      <c r="D499" s="12"/>
+      <c r="E499" s="12"/>
     </row>
     <row r="500" spans="4:5">
-      <c r="D500" s="3"/>
-      <c r="E500" s="3"/>
+      <c r="D500" s="12"/>
+      <c r="E500" s="12"/>
     </row>
     <row r="501" spans="4:5">
-      <c r="D501" s="3"/>
-      <c r="E501" s="3"/>
+      <c r="D501" s="12"/>
+      <c r="E501" s="12"/>
     </row>
     <row r="502" spans="4:5">
-      <c r="D502" s="3"/>
-      <c r="E502" s="3"/>
+      <c r="D502" s="12"/>
+      <c r="E502" s="12"/>
     </row>
     <row r="503" spans="4:5">
-      <c r="D503" s="3"/>
-      <c r="E503" s="3"/>
+      <c r="D503" s="12"/>
+      <c r="E503" s="12"/>
     </row>
     <row r="504" spans="4:5">
-      <c r="D504" s="3"/>
-      <c r="E504" s="3"/>
+      <c r="D504" s="12"/>
+      <c r="E504" s="12"/>
     </row>
     <row r="505" spans="4:5">
-      <c r="D505" s="3"/>
-      <c r="E505" s="3"/>
+      <c r="D505" s="12"/>
+      <c r="E505" s="12"/>
     </row>
     <row r="506" spans="4:5">
-      <c r="D506" s="3"/>
-      <c r="E506" s="3"/>
+      <c r="D506" s="12"/>
+      <c r="E506" s="12"/>
     </row>
     <row r="507" spans="4:5">
-      <c r="D507" s="3"/>
-      <c r="E507" s="3"/>
+      <c r="D507" s="12"/>
+      <c r="E507" s="12"/>
     </row>
     <row r="508" spans="4:5">
-      <c r="D508" s="3"/>
-      <c r="E508" s="3"/>
+      <c r="D508" s="12"/>
+      <c r="E508" s="12"/>
     </row>
     <row r="509" spans="4:5">
-      <c r="D509" s="3"/>
-      <c r="E509" s="3"/>
+      <c r="D509" s="12"/>
+      <c r="E509" s="12"/>
     </row>
     <row r="510" spans="4:5">
-      <c r="D510" s="3"/>
-      <c r="E510" s="3"/>
+      <c r="D510" s="12"/>
+      <c r="E510" s="12"/>
     </row>
     <row r="511" spans="4:5">
-      <c r="D511" s="3"/>
-      <c r="E511" s="3"/>
+      <c r="D511" s="12"/>
+      <c r="E511" s="12"/>
     </row>
     <row r="512" spans="4:5">
-      <c r="D512" s="3"/>
-      <c r="E512" s="3"/>
+      <c r="D512" s="12"/>
+      <c r="E512" s="12"/>
     </row>
     <row r="513" spans="4:5">
-      <c r="D513" s="3"/>
-      <c r="E513" s="3"/>
+      <c r="D513" s="12"/>
+      <c r="E513" s="12"/>
     </row>
     <row r="514" spans="4:5">
-      <c r="D514" s="3"/>
-      <c r="E514" s="3"/>
+      <c r="D514" s="12"/>
+      <c r="E514" s="12"/>
     </row>
     <row r="515" spans="4:5">
-      <c r="D515" s="3"/>
-      <c r="E515" s="3"/>
+      <c r="D515" s="12"/>
+      <c r="E515" s="12"/>
     </row>
     <row r="516" spans="4:5">
-      <c r="D516" s="3"/>
-      <c r="E516" s="3"/>
+      <c r="D516" s="12"/>
+      <c r="E516" s="12"/>
     </row>
     <row r="517" spans="4:5">
-      <c r="D517" s="3"/>
-      <c r="E517" s="3"/>
+      <c r="D517" s="12"/>
+      <c r="E517" s="12"/>
     </row>
     <row r="518" spans="4:5">
-      <c r="D518" s="3"/>
-      <c r="E518" s="3"/>
+      <c r="D518" s="12"/>
+      <c r="E518" s="12"/>
     </row>
     <row r="519" spans="4:5">
-      <c r="D519" s="3"/>
-      <c r="E519" s="3"/>
+      <c r="D519" s="12"/>
+      <c r="E519" s="12"/>
     </row>
     <row r="520" spans="4:5">
-      <c r="D520" s="3"/>
-      <c r="E520" s="3"/>
+      <c r="D520" s="12"/>
+      <c r="E520" s="12"/>
     </row>
     <row r="521" spans="4:5">
-      <c r="D521" s="3"/>
-      <c r="E521" s="3"/>
+      <c r="D521" s="12"/>
+      <c r="E521" s="12"/>
     </row>
     <row r="522" spans="4:5">
-      <c r="D522" s="3"/>
-      <c r="E522" s="3"/>
+      <c r="D522" s="12"/>
+      <c r="E522" s="12"/>
     </row>
     <row r="523" spans="4:5">
-      <c r="D523" s="3"/>
-      <c r="E523" s="3"/>
+      <c r="D523" s="12"/>
+      <c r="E523" s="12"/>
     </row>
     <row r="524" spans="4:5">
-      <c r="D524" s="3"/>
-      <c r="E524" s="3"/>
+      <c r="D524" s="12"/>
+      <c r="E524" s="12"/>
     </row>
     <row r="525" spans="4:5">
-      <c r="D525" s="3"/>
-      <c r="E525" s="3"/>
+      <c r="D525" s="12"/>
+      <c r="E525" s="12"/>
     </row>
     <row r="526" spans="4:5">
-      <c r="D526" s="3"/>
-      <c r="E526" s="3"/>
+      <c r="D526" s="12"/>
+      <c r="E526" s="12"/>
     </row>
     <row r="527" spans="4:5">
-      <c r="D527" s="3"/>
-      <c r="E527" s="3"/>
+      <c r="D527" s="12"/>
+      <c r="E527" s="12"/>
     </row>
     <row r="528" spans="4:5">
-      <c r="D528" s="3"/>
-      <c r="E528" s="3"/>
+      <c r="D528" s="12"/>
+      <c r="E528" s="12"/>
     </row>
     <row r="529" spans="4:5">
-      <c r="D529" s="3"/>
-      <c r="E529" s="3"/>
+      <c r="D529" s="12"/>
+      <c r="E529" s="12"/>
     </row>
     <row r="530" spans="4:5">
-      <c r="D530" s="3"/>
-      <c r="E530" s="3"/>
+      <c r="D530" s="12"/>
+      <c r="E530" s="12"/>
     </row>
     <row r="531" spans="4:5">
-      <c r="D531" s="3"/>
-      <c r="E531" s="3"/>
+      <c r="D531" s="12"/>
+      <c r="E531" s="12"/>
     </row>
     <row r="532" spans="4:5">
-      <c r="D532" s="3"/>
-      <c r="E532" s="3"/>
+      <c r="D532" s="12"/>
+      <c r="E532" s="12"/>
     </row>
     <row r="533" spans="4:5">
-      <c r="D533" s="3"/>
-      <c r="E533" s="3"/>
+      <c r="D533" s="12"/>
+      <c r="E533" s="12"/>
     </row>
     <row r="534" spans="4:5">
-      <c r="D534" s="3"/>
-      <c r="E534" s="3"/>
+      <c r="D534" s="12"/>
+      <c r="E534" s="12"/>
     </row>
     <row r="535" spans="4:5">
-      <c r="D535" s="3"/>
-      <c r="E535" s="3"/>
+      <c r="D535" s="12"/>
+      <c r="E535" s="12"/>
     </row>
     <row r="536" spans="4:5">
-      <c r="D536" s="3"/>
-      <c r="E536" s="3"/>
+      <c r="D536" s="12"/>
+      <c r="E536" s="12"/>
     </row>
     <row r="537" spans="4:5">
-      <c r="D537" s="3"/>
-      <c r="E537" s="3"/>
+      <c r="D537" s="12"/>
+      <c r="E537" s="12"/>
     </row>
     <row r="538" spans="4:5">
-      <c r="D538" s="3"/>
-      <c r="E538" s="3"/>
+      <c r="D538" s="12"/>
+      <c r="E538" s="12"/>
     </row>
     <row r="539" spans="4:5">
-      <c r="D539" s="3"/>
-      <c r="E539" s="3"/>
+      <c r="D539" s="12"/>
+      <c r="E539" s="12"/>
     </row>
     <row r="540" spans="4:5">
-      <c r="D540" s="3"/>
-      <c r="E540" s="3"/>
+      <c r="D540" s="12"/>
+      <c r="E540" s="12"/>
     </row>
     <row r="541" spans="4:5">
-      <c r="D541" s="3"/>
-      <c r="E541" s="3"/>
+      <c r="D541" s="12"/>
+      <c r="E541" s="12"/>
     </row>
     <row r="542" spans="4:5">
-      <c r="D542" s="3"/>
-      <c r="E542" s="3"/>
+      <c r="D542" s="12"/>
+      <c r="E542" s="12"/>
     </row>
     <row r="543" spans="4:5">
-      <c r="D543" s="3"/>
-      <c r="E543" s="3"/>
+      <c r="D543" s="12"/>
+      <c r="E543" s="12"/>
     </row>
     <row r="544" spans="4:5">
-      <c r="D544" s="3"/>
-      <c r="E544" s="3"/>
+      <c r="D544" s="12"/>
+      <c r="E544" s="12"/>
     </row>
     <row r="545" spans="4:5">
-      <c r="D545" s="3"/>
-      <c r="E545" s="3"/>
+      <c r="D545" s="12"/>
+      <c r="E545" s="12"/>
     </row>
     <row r="546" spans="4:5">
-      <c r="D546" s="3"/>
-      <c r="E546" s="3"/>
+      <c r="D546" s="12"/>
+      <c r="E546" s="12"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" display="广州凡科互联网科技股份有限公司 " tooltip="https://jobs.51job.com/all/co2509094.html"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Helper\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="JAVA基础" sheetId="2" r:id="rId1"/>
@@ -15,12 +20,12 @@
     <sheet name="扩展技术" sheetId="5" r:id="rId6"/>
     <sheet name="面试技术要求" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="48">
   <si>
     <t>技术方向</t>
   </si>
@@ -62,9 +67,6 @@
   </si>
   <si>
     <t>进行中</t>
-  </si>
-  <si>
-    <t>创建Stream</t>
   </si>
   <si>
     <t>Helper\A.Java\A.基础篇\E.Java8新特性</t>
@@ -215,18 +217,30 @@
   <si>
     <t>1：熟悉linux环境基本操作，熟悉nginx、python者优先；</t>
   </si>
+  <si>
+    <r>
+      <t>Stream映射</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10：00</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,146 +295,26 @@
       <sz val="9"/>
       <color rgb="FF999999"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -429,204 +323,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.599993896298105"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.0499893185216834"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -649,249 +357,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -939,7 +408,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -963,70 +432,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
-      <color rgb="00E9F4FB"/>
+      <color rgb="FFE9F4FB"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1313,21 +739,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.25" customWidth="1"/>
     <col min="2" max="2" width="16.875" customWidth="1"/>
@@ -1340,7 +765,7 @@
     <col min="10" max="10" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="13" customFormat="1" spans="1:10">
+    <row r="1" spans="1:10" s="13" customFormat="1">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1372,7 +797,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" ht="40.5" spans="1:8">
+    <row r="2" spans="1:10" s="3" customFormat="1" ht="40.5">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -1386,35 +811,33 @@
         <v>13</v>
       </c>
       <c r="F2" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="H2" s="8">
         <f ca="1">TODAY()</f>
-        <v>43419</v>
+        <v>43420</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
       <formula1>"未开始,即将进行,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
@@ -1428,7 +851,7 @@
     <col min="7" max="7" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="13" customFormat="1" spans="1:10">
+    <row r="1" spans="1:10" s="13" customFormat="1">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1461,28 +884,26 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
       <formula1>"未开始,即将进行,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="23.5" customWidth="1"/>
     <col min="2" max="2" width="16.375" customWidth="1"/>
@@ -1493,7 +914,7 @@
     <col min="7" max="7" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="13" customFormat="1" spans="1:10">
+    <row r="1" spans="1:10" s="13" customFormat="1">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -1525,9 +946,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="27" spans="1:10">
+    <row r="2" spans="1:10" ht="27">
       <c r="A2" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -1540,28 +961,26 @@
       <c r="J2" s="22"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
       <formula1>"未开始,即将进行,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.125" style="12" customWidth="1"/>
     <col min="2" max="2" width="20.5" style="12" customWidth="1"/>
@@ -1576,7 +995,7 @@
     <col min="11" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" s="19" customFormat="1" spans="1:10">
+    <row r="1" spans="1:10" s="19" customFormat="1">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -1608,54 +1027,52 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="40.5" spans="1:9">
+    <row r="2" spans="1:10" ht="40.5">
       <c r="A2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>21</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>22</v>
       </c>
       <c r="H2" s="20">
         <f ca="1">TODAY()</f>
-        <v>43419</v>
+        <v>43420</v>
       </c>
       <c r="I2" s="20">
         <f ca="1">TODAY()</f>
-        <v>43419</v>
+        <v>43420</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
       <formula1>"未开始,即将进行,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1672,7 +1089,7 @@
     <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="14" customFormat="1" spans="1:10">
+    <row r="1" spans="1:10" s="14" customFormat="1">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1704,78 +1121,78 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="40.5" spans="1:9">
+    <row r="2" spans="1:10" ht="40.5">
       <c r="A2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="D2" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="16">
-        <v>3.53055555555556</v>
+        <v>3.5305555555555599</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" s="8">
         <f ca="1">TODAY()-1</f>
-        <v>43418</v>
+        <v>43419</v>
       </c>
       <c r="I2" s="8">
         <f ca="1">TODAY()</f>
-        <v>43419</v>
-      </c>
-    </row>
-    <row r="3" spans="3:7">
+        <v>43420</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="C3" s="18"/>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="7:7">
+    <row r="4" spans="1:10">
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="7:7">
+    <row r="5" spans="1:10">
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="7:7">
+    <row r="6" spans="1:10">
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="7:7">
+    <row r="7" spans="1:10">
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="7:7">
+    <row r="8" spans="1:10">
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="7:7">
+    <row r="9" spans="1:10">
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="7:7">
+    <row r="10" spans="1:10">
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="7:7">
+    <row r="11" spans="1:10">
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="7:7">
+    <row r="12" spans="1:10">
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="7:7">
+    <row r="13" spans="1:10">
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="7:7">
+    <row r="14" spans="1:10">
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="7:7">
+    <row r="15" spans="1:10">
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="7:7">
+    <row r="16" spans="1:10">
       <c r="G16" s="12"/>
     </row>
     <row r="17" spans="7:7">
@@ -2955,28 +2372,26 @@
       <c r="G408" s="12"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
       <formula1>"未开始,即将进行,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="阿里架构师干货分享之——亿级大表分库分表解决方案" tooltip="阿里架构师干货分享之——亿级大表分库分表解决方案"/>
+    <hyperlink ref="C2" r:id="rId1" tooltip="阿里架构师干货分享之——亿级大表分库分表解决方案"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
@@ -2991,7 +2406,7 @@
     <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="13" customFormat="1" spans="1:10">
+    <row r="1" spans="1:10" s="13" customFormat="1">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -3024,28 +2439,26 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
       <formula1>"未开始,即将进行,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H546"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16" style="3" customWidth="1"/>
     <col min="2" max="3" width="11.625" style="3" customWidth="1"/>
@@ -3057,134 +2470,133 @@
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
+    <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="280.5">
+      <c r="A2" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" ht="280.5" spans="1:8">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="H2" s="8">
         <f ca="1">TODAY()</f>
-        <v>43419</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="66" spans="1:8">
+        <v>43420</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="2" customFormat="1" ht="66">
       <c r="A3" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="H3" s="11">
         <f ca="1">TODAY()</f>
-        <v>43419</v>
-      </c>
-    </row>
-    <row r="4" ht="165" spans="1:8">
+        <v>43420</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="165">
       <c r="A4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="H4" s="8">
         <f ca="1">TODAY()</f>
-        <v>43419</v>
-      </c>
-    </row>
-    <row r="6" spans="4:5">
+        <v>43420</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
     </row>
-    <row r="7" spans="4:5">
+    <row r="7" spans="1:8">
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
     </row>
-    <row r="8" spans="4:5">
+    <row r="8" spans="1:8">
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
     </row>
-    <row r="9" spans="4:5">
+    <row r="9" spans="1:8">
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
     </row>
-    <row r="10" spans="4:5">
+    <row r="10" spans="1:8">
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
     </row>
-    <row r="11" spans="4:5">
+    <row r="11" spans="1:8">
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
     </row>
-    <row r="12" spans="4:5">
+    <row r="12" spans="1:8">
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
     </row>
-    <row r="13" spans="4:5">
+    <row r="13" spans="1:8">
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
     </row>
-    <row r="14" spans="4:5">
+    <row r="14" spans="1:8">
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
     </row>
-    <row r="15" spans="4:5">
+    <row r="15" spans="1:8">
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
     </row>
-    <row r="16" spans="4:5">
+    <row r="16" spans="1:8">
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
     </row>
@@ -5309,10 +4721,10 @@
       <c r="E546" s="12"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" display="广州凡科互联网科技股份有限公司 " tooltip="https://jobs.51job.com/all/co2509094.html"/>
+    <hyperlink ref="A4" r:id="rId1" tooltip="https://jobs.51job.com/all/co2509094.html"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -15,8 +15,8 @@
     <sheet name="JAVA基础" sheetId="2" r:id="rId1"/>
     <sheet name="JAVA进阶" sheetId="3" r:id="rId2"/>
     <sheet name="JAVA高级" sheetId="4" r:id="rId3"/>
-    <sheet name="架构师" sheetId="1" r:id="rId4"/>
-    <sheet name="数据库" sheetId="6" r:id="rId5"/>
+    <sheet name="数据库" sheetId="6" r:id="rId4"/>
+    <sheet name="架构师" sheetId="1" r:id="rId5"/>
     <sheet name="扩展技术" sheetId="5" r:id="rId6"/>
     <sheet name="面试技术要求" sheetId="7" r:id="rId7"/>
   </sheets>
@@ -218,21 +218,7 @@
     <t>1：熟悉linux环境基本操作，熟悉nginx、python者优先；</t>
   </si>
   <si>
-    <r>
-      <t>Stream映射</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10：00</t>
-    </r>
+    <t>12规约与收集</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -501,7 +487,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -536,7 +522,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -749,7 +735,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -818,7 +804,7 @@
       </c>
       <c r="H2" s="8">
         <f ca="1">TODAY()</f>
-        <v>43420</v>
+        <v>43422</v>
       </c>
     </row>
   </sheetData>
@@ -973,11 +959,1328 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J408"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="11.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.125" style="3" customWidth="1"/>
+    <col min="8" max="9" width="11.625" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="14" customFormat="1">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="40.5">
+      <c r="A2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="8">
+        <f ca="1">TODAY()-1</f>
+        <v>43421</v>
+      </c>
+      <c r="I2" s="8">
+        <f ca="1">TODAY()</f>
+        <v>43422</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="C3" s="18"/>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="7:7">
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="7:7">
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="7:7">
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="7:7">
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="7:7">
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" spans="7:7">
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" spans="7:7">
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" spans="7:7">
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" spans="7:7">
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" spans="7:7">
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" spans="7:7">
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" spans="7:7">
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" spans="7:7">
+      <c r="G29" s="12"/>
+    </row>
+    <row r="30" spans="7:7">
+      <c r="G30" s="12"/>
+    </row>
+    <row r="31" spans="7:7">
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" spans="7:7">
+      <c r="G32" s="12"/>
+    </row>
+    <row r="33" spans="7:7">
+      <c r="G33" s="12"/>
+    </row>
+    <row r="34" spans="7:7">
+      <c r="G34" s="12"/>
+    </row>
+    <row r="35" spans="7:7">
+      <c r="G35" s="12"/>
+    </row>
+    <row r="36" spans="7:7">
+      <c r="G36" s="12"/>
+    </row>
+    <row r="37" spans="7:7">
+      <c r="G37" s="12"/>
+    </row>
+    <row r="38" spans="7:7">
+      <c r="G38" s="12"/>
+    </row>
+    <row r="39" spans="7:7">
+      <c r="G39" s="12"/>
+    </row>
+    <row r="40" spans="7:7">
+      <c r="G40" s="12"/>
+    </row>
+    <row r="41" spans="7:7">
+      <c r="G41" s="12"/>
+    </row>
+    <row r="42" spans="7:7">
+      <c r="G42" s="12"/>
+    </row>
+    <row r="43" spans="7:7">
+      <c r="G43" s="12"/>
+    </row>
+    <row r="44" spans="7:7">
+      <c r="G44" s="12"/>
+    </row>
+    <row r="45" spans="7:7">
+      <c r="G45" s="12"/>
+    </row>
+    <row r="46" spans="7:7">
+      <c r="G46" s="12"/>
+    </row>
+    <row r="47" spans="7:7">
+      <c r="G47" s="12"/>
+    </row>
+    <row r="48" spans="7:7">
+      <c r="G48" s="12"/>
+    </row>
+    <row r="49" spans="7:7">
+      <c r="G49" s="12"/>
+    </row>
+    <row r="50" spans="7:7">
+      <c r="G50" s="12"/>
+    </row>
+    <row r="51" spans="7:7">
+      <c r="G51" s="12"/>
+    </row>
+    <row r="52" spans="7:7">
+      <c r="G52" s="12"/>
+    </row>
+    <row r="53" spans="7:7">
+      <c r="G53" s="12"/>
+    </row>
+    <row r="54" spans="7:7">
+      <c r="G54" s="12"/>
+    </row>
+    <row r="55" spans="7:7">
+      <c r="G55" s="12"/>
+    </row>
+    <row r="56" spans="7:7">
+      <c r="G56" s="12"/>
+    </row>
+    <row r="57" spans="7:7">
+      <c r="G57" s="12"/>
+    </row>
+    <row r="58" spans="7:7">
+      <c r="G58" s="12"/>
+    </row>
+    <row r="59" spans="7:7">
+      <c r="G59" s="12"/>
+    </row>
+    <row r="60" spans="7:7">
+      <c r="G60" s="12"/>
+    </row>
+    <row r="61" spans="7:7">
+      <c r="G61" s="12"/>
+    </row>
+    <row r="62" spans="7:7">
+      <c r="G62" s="12"/>
+    </row>
+    <row r="63" spans="7:7">
+      <c r="G63" s="12"/>
+    </row>
+    <row r="64" spans="7:7">
+      <c r="G64" s="12"/>
+    </row>
+    <row r="65" spans="7:7">
+      <c r="G65" s="12"/>
+    </row>
+    <row r="66" spans="7:7">
+      <c r="G66" s="12"/>
+    </row>
+    <row r="67" spans="7:7">
+      <c r="G67" s="12"/>
+    </row>
+    <row r="68" spans="7:7">
+      <c r="G68" s="12"/>
+    </row>
+    <row r="69" spans="7:7">
+      <c r="G69" s="12"/>
+    </row>
+    <row r="70" spans="7:7">
+      <c r="G70" s="12"/>
+    </row>
+    <row r="71" spans="7:7">
+      <c r="G71" s="12"/>
+    </row>
+    <row r="72" spans="7:7">
+      <c r="G72" s="12"/>
+    </row>
+    <row r="73" spans="7:7">
+      <c r="G73" s="12"/>
+    </row>
+    <row r="74" spans="7:7">
+      <c r="G74" s="12"/>
+    </row>
+    <row r="75" spans="7:7">
+      <c r="G75" s="12"/>
+    </row>
+    <row r="76" spans="7:7">
+      <c r="G76" s="12"/>
+    </row>
+    <row r="77" spans="7:7">
+      <c r="G77" s="12"/>
+    </row>
+    <row r="78" spans="7:7">
+      <c r="G78" s="12"/>
+    </row>
+    <row r="79" spans="7:7">
+      <c r="G79" s="12"/>
+    </row>
+    <row r="80" spans="7:7">
+      <c r="G80" s="12"/>
+    </row>
+    <row r="81" spans="7:7">
+      <c r="G81" s="12"/>
+    </row>
+    <row r="82" spans="7:7">
+      <c r="G82" s="12"/>
+    </row>
+    <row r="83" spans="7:7">
+      <c r="G83" s="12"/>
+    </row>
+    <row r="84" spans="7:7">
+      <c r="G84" s="12"/>
+    </row>
+    <row r="85" spans="7:7">
+      <c r="G85" s="12"/>
+    </row>
+    <row r="86" spans="7:7">
+      <c r="G86" s="12"/>
+    </row>
+    <row r="87" spans="7:7">
+      <c r="G87" s="12"/>
+    </row>
+    <row r="88" spans="7:7">
+      <c r="G88" s="12"/>
+    </row>
+    <row r="89" spans="7:7">
+      <c r="G89" s="12"/>
+    </row>
+    <row r="90" spans="7:7">
+      <c r="G90" s="12"/>
+    </row>
+    <row r="91" spans="7:7">
+      <c r="G91" s="12"/>
+    </row>
+    <row r="92" spans="7:7">
+      <c r="G92" s="12"/>
+    </row>
+    <row r="93" spans="7:7">
+      <c r="G93" s="12"/>
+    </row>
+    <row r="94" spans="7:7">
+      <c r="G94" s="12"/>
+    </row>
+    <row r="95" spans="7:7">
+      <c r="G95" s="12"/>
+    </row>
+    <row r="96" spans="7:7">
+      <c r="G96" s="12"/>
+    </row>
+    <row r="97" spans="7:7">
+      <c r="G97" s="12"/>
+    </row>
+    <row r="98" spans="7:7">
+      <c r="G98" s="12"/>
+    </row>
+    <row r="99" spans="7:7">
+      <c r="G99" s="12"/>
+    </row>
+    <row r="100" spans="7:7">
+      <c r="G100" s="12"/>
+    </row>
+    <row r="101" spans="7:7">
+      <c r="G101" s="12"/>
+    </row>
+    <row r="102" spans="7:7">
+      <c r="G102" s="12"/>
+    </row>
+    <row r="103" spans="7:7">
+      <c r="G103" s="12"/>
+    </row>
+    <row r="104" spans="7:7">
+      <c r="G104" s="12"/>
+    </row>
+    <row r="105" spans="7:7">
+      <c r="G105" s="12"/>
+    </row>
+    <row r="106" spans="7:7">
+      <c r="G106" s="12"/>
+    </row>
+    <row r="107" spans="7:7">
+      <c r="G107" s="12"/>
+    </row>
+    <row r="108" spans="7:7">
+      <c r="G108" s="12"/>
+    </row>
+    <row r="109" spans="7:7">
+      <c r="G109" s="12"/>
+    </row>
+    <row r="110" spans="7:7">
+      <c r="G110" s="12"/>
+    </row>
+    <row r="111" spans="7:7">
+      <c r="G111" s="12"/>
+    </row>
+    <row r="112" spans="7:7">
+      <c r="G112" s="12"/>
+    </row>
+    <row r="113" spans="7:7">
+      <c r="G113" s="12"/>
+    </row>
+    <row r="114" spans="7:7">
+      <c r="G114" s="12"/>
+    </row>
+    <row r="115" spans="7:7">
+      <c r="G115" s="12"/>
+    </row>
+    <row r="116" spans="7:7">
+      <c r="G116" s="12"/>
+    </row>
+    <row r="117" spans="7:7">
+      <c r="G117" s="12"/>
+    </row>
+    <row r="118" spans="7:7">
+      <c r="G118" s="12"/>
+    </row>
+    <row r="119" spans="7:7">
+      <c r="G119" s="12"/>
+    </row>
+    <row r="120" spans="7:7">
+      <c r="G120" s="12"/>
+    </row>
+    <row r="121" spans="7:7">
+      <c r="G121" s="12"/>
+    </row>
+    <row r="122" spans="7:7">
+      <c r="G122" s="12"/>
+    </row>
+    <row r="123" spans="7:7">
+      <c r="G123" s="12"/>
+    </row>
+    <row r="124" spans="7:7">
+      <c r="G124" s="12"/>
+    </row>
+    <row r="125" spans="7:7">
+      <c r="G125" s="12"/>
+    </row>
+    <row r="126" spans="7:7">
+      <c r="G126" s="12"/>
+    </row>
+    <row r="127" spans="7:7">
+      <c r="G127" s="12"/>
+    </row>
+    <row r="128" spans="7:7">
+      <c r="G128" s="12"/>
+    </row>
+    <row r="129" spans="7:7">
+      <c r="G129" s="12"/>
+    </row>
+    <row r="130" spans="7:7">
+      <c r="G130" s="12"/>
+    </row>
+    <row r="131" spans="7:7">
+      <c r="G131" s="12"/>
+    </row>
+    <row r="132" spans="7:7">
+      <c r="G132" s="12"/>
+    </row>
+    <row r="133" spans="7:7">
+      <c r="G133" s="12"/>
+    </row>
+    <row r="134" spans="7:7">
+      <c r="G134" s="12"/>
+    </row>
+    <row r="135" spans="7:7">
+      <c r="G135" s="12"/>
+    </row>
+    <row r="136" spans="7:7">
+      <c r="G136" s="12"/>
+    </row>
+    <row r="137" spans="7:7">
+      <c r="G137" s="12"/>
+    </row>
+    <row r="138" spans="7:7">
+      <c r="G138" s="12"/>
+    </row>
+    <row r="139" spans="7:7">
+      <c r="G139" s="12"/>
+    </row>
+    <row r="140" spans="7:7">
+      <c r="G140" s="12"/>
+    </row>
+    <row r="141" spans="7:7">
+      <c r="G141" s="12"/>
+    </row>
+    <row r="142" spans="7:7">
+      <c r="G142" s="12"/>
+    </row>
+    <row r="143" spans="7:7">
+      <c r="G143" s="12"/>
+    </row>
+    <row r="144" spans="7:7">
+      <c r="G144" s="12"/>
+    </row>
+    <row r="145" spans="7:7">
+      <c r="G145" s="12"/>
+    </row>
+    <row r="146" spans="7:7">
+      <c r="G146" s="12"/>
+    </row>
+    <row r="147" spans="7:7">
+      <c r="G147" s="12"/>
+    </row>
+    <row r="148" spans="7:7">
+      <c r="G148" s="12"/>
+    </row>
+    <row r="149" spans="7:7">
+      <c r="G149" s="12"/>
+    </row>
+    <row r="150" spans="7:7">
+      <c r="G150" s="12"/>
+    </row>
+    <row r="151" spans="7:7">
+      <c r="G151" s="12"/>
+    </row>
+    <row r="152" spans="7:7">
+      <c r="G152" s="12"/>
+    </row>
+    <row r="153" spans="7:7">
+      <c r="G153" s="12"/>
+    </row>
+    <row r="154" spans="7:7">
+      <c r="G154" s="12"/>
+    </row>
+    <row r="155" spans="7:7">
+      <c r="G155" s="12"/>
+    </row>
+    <row r="156" spans="7:7">
+      <c r="G156" s="12"/>
+    </row>
+    <row r="157" spans="7:7">
+      <c r="G157" s="12"/>
+    </row>
+    <row r="158" spans="7:7">
+      <c r="G158" s="12"/>
+    </row>
+    <row r="159" spans="7:7">
+      <c r="G159" s="12"/>
+    </row>
+    <row r="160" spans="7:7">
+      <c r="G160" s="12"/>
+    </row>
+    <row r="161" spans="7:7">
+      <c r="G161" s="12"/>
+    </row>
+    <row r="162" spans="7:7">
+      <c r="G162" s="12"/>
+    </row>
+    <row r="163" spans="7:7">
+      <c r="G163" s="12"/>
+    </row>
+    <row r="164" spans="7:7">
+      <c r="G164" s="12"/>
+    </row>
+    <row r="165" spans="7:7">
+      <c r="G165" s="12"/>
+    </row>
+    <row r="166" spans="7:7">
+      <c r="G166" s="12"/>
+    </row>
+    <row r="167" spans="7:7">
+      <c r="G167" s="12"/>
+    </row>
+    <row r="168" spans="7:7">
+      <c r="G168" s="12"/>
+    </row>
+    <row r="169" spans="7:7">
+      <c r="G169" s="12"/>
+    </row>
+    <row r="170" spans="7:7">
+      <c r="G170" s="12"/>
+    </row>
+    <row r="171" spans="7:7">
+      <c r="G171" s="12"/>
+    </row>
+    <row r="172" spans="7:7">
+      <c r="G172" s="12"/>
+    </row>
+    <row r="173" spans="7:7">
+      <c r="G173" s="12"/>
+    </row>
+    <row r="174" spans="7:7">
+      <c r="G174" s="12"/>
+    </row>
+    <row r="175" spans="7:7">
+      <c r="G175" s="12"/>
+    </row>
+    <row r="176" spans="7:7">
+      <c r="G176" s="12"/>
+    </row>
+    <row r="177" spans="7:7">
+      <c r="G177" s="12"/>
+    </row>
+    <row r="178" spans="7:7">
+      <c r="G178" s="12"/>
+    </row>
+    <row r="179" spans="7:7">
+      <c r="G179" s="12"/>
+    </row>
+    <row r="180" spans="7:7">
+      <c r="G180" s="12"/>
+    </row>
+    <row r="181" spans="7:7">
+      <c r="G181" s="12"/>
+    </row>
+    <row r="182" spans="7:7">
+      <c r="G182" s="12"/>
+    </row>
+    <row r="183" spans="7:7">
+      <c r="G183" s="12"/>
+    </row>
+    <row r="184" spans="7:7">
+      <c r="G184" s="12"/>
+    </row>
+    <row r="185" spans="7:7">
+      <c r="G185" s="12"/>
+    </row>
+    <row r="186" spans="7:7">
+      <c r="G186" s="12"/>
+    </row>
+    <row r="187" spans="7:7">
+      <c r="G187" s="12"/>
+    </row>
+    <row r="188" spans="7:7">
+      <c r="G188" s="12"/>
+    </row>
+    <row r="189" spans="7:7">
+      <c r="G189" s="12"/>
+    </row>
+    <row r="190" spans="7:7">
+      <c r="G190" s="12"/>
+    </row>
+    <row r="191" spans="7:7">
+      <c r="G191" s="12"/>
+    </row>
+    <row r="192" spans="7:7">
+      <c r="G192" s="12"/>
+    </row>
+    <row r="193" spans="7:7">
+      <c r="G193" s="12"/>
+    </row>
+    <row r="194" spans="7:7">
+      <c r="G194" s="12"/>
+    </row>
+    <row r="195" spans="7:7">
+      <c r="G195" s="12"/>
+    </row>
+    <row r="196" spans="7:7">
+      <c r="G196" s="12"/>
+    </row>
+    <row r="197" spans="7:7">
+      <c r="G197" s="12"/>
+    </row>
+    <row r="198" spans="7:7">
+      <c r="G198" s="12"/>
+    </row>
+    <row r="199" spans="7:7">
+      <c r="G199" s="12"/>
+    </row>
+    <row r="200" spans="7:7">
+      <c r="G200" s="12"/>
+    </row>
+    <row r="201" spans="7:7">
+      <c r="G201" s="12"/>
+    </row>
+    <row r="202" spans="7:7">
+      <c r="G202" s="12"/>
+    </row>
+    <row r="203" spans="7:7">
+      <c r="G203" s="12"/>
+    </row>
+    <row r="204" spans="7:7">
+      <c r="G204" s="12"/>
+    </row>
+    <row r="205" spans="7:7">
+      <c r="G205" s="12"/>
+    </row>
+    <row r="206" spans="7:7">
+      <c r="G206" s="12"/>
+    </row>
+    <row r="207" spans="7:7">
+      <c r="G207" s="12"/>
+    </row>
+    <row r="208" spans="7:7">
+      <c r="G208" s="12"/>
+    </row>
+    <row r="209" spans="7:7">
+      <c r="G209" s="12"/>
+    </row>
+    <row r="210" spans="7:7">
+      <c r="G210" s="12"/>
+    </row>
+    <row r="211" spans="7:7">
+      <c r="G211" s="12"/>
+    </row>
+    <row r="212" spans="7:7">
+      <c r="G212" s="12"/>
+    </row>
+    <row r="213" spans="7:7">
+      <c r="G213" s="12"/>
+    </row>
+    <row r="214" spans="7:7">
+      <c r="G214" s="12"/>
+    </row>
+    <row r="215" spans="7:7">
+      <c r="G215" s="12"/>
+    </row>
+    <row r="216" spans="7:7">
+      <c r="G216" s="12"/>
+    </row>
+    <row r="217" spans="7:7">
+      <c r="G217" s="12"/>
+    </row>
+    <row r="218" spans="7:7">
+      <c r="G218" s="12"/>
+    </row>
+    <row r="219" spans="7:7">
+      <c r="G219" s="12"/>
+    </row>
+    <row r="220" spans="7:7">
+      <c r="G220" s="12"/>
+    </row>
+    <row r="221" spans="7:7">
+      <c r="G221" s="12"/>
+    </row>
+    <row r="222" spans="7:7">
+      <c r="G222" s="12"/>
+    </row>
+    <row r="223" spans="7:7">
+      <c r="G223" s="12"/>
+    </row>
+    <row r="224" spans="7:7">
+      <c r="G224" s="12"/>
+    </row>
+    <row r="225" spans="7:7">
+      <c r="G225" s="12"/>
+    </row>
+    <row r="226" spans="7:7">
+      <c r="G226" s="12"/>
+    </row>
+    <row r="227" spans="7:7">
+      <c r="G227" s="12"/>
+    </row>
+    <row r="228" spans="7:7">
+      <c r="G228" s="12"/>
+    </row>
+    <row r="229" spans="7:7">
+      <c r="G229" s="12"/>
+    </row>
+    <row r="230" spans="7:7">
+      <c r="G230" s="12"/>
+    </row>
+    <row r="231" spans="7:7">
+      <c r="G231" s="12"/>
+    </row>
+    <row r="232" spans="7:7">
+      <c r="G232" s="12"/>
+    </row>
+    <row r="233" spans="7:7">
+      <c r="G233" s="12"/>
+    </row>
+    <row r="234" spans="7:7">
+      <c r="G234" s="12"/>
+    </row>
+    <row r="235" spans="7:7">
+      <c r="G235" s="12"/>
+    </row>
+    <row r="236" spans="7:7">
+      <c r="G236" s="12"/>
+    </row>
+    <row r="237" spans="7:7">
+      <c r="G237" s="12"/>
+    </row>
+    <row r="238" spans="7:7">
+      <c r="G238" s="12"/>
+    </row>
+    <row r="239" spans="7:7">
+      <c r="G239" s="12"/>
+    </row>
+    <row r="240" spans="7:7">
+      <c r="G240" s="12"/>
+    </row>
+    <row r="241" spans="7:7">
+      <c r="G241" s="12"/>
+    </row>
+    <row r="242" spans="7:7">
+      <c r="G242" s="12"/>
+    </row>
+    <row r="243" spans="7:7">
+      <c r="G243" s="12"/>
+    </row>
+    <row r="244" spans="7:7">
+      <c r="G244" s="12"/>
+    </row>
+    <row r="245" spans="7:7">
+      <c r="G245" s="12"/>
+    </row>
+    <row r="246" spans="7:7">
+      <c r="G246" s="12"/>
+    </row>
+    <row r="247" spans="7:7">
+      <c r="G247" s="12"/>
+    </row>
+    <row r="248" spans="7:7">
+      <c r="G248" s="12"/>
+    </row>
+    <row r="249" spans="7:7">
+      <c r="G249" s="12"/>
+    </row>
+    <row r="250" spans="7:7">
+      <c r="G250" s="12"/>
+    </row>
+    <row r="251" spans="7:7">
+      <c r="G251" s="12"/>
+    </row>
+    <row r="252" spans="7:7">
+      <c r="G252" s="12"/>
+    </row>
+    <row r="253" spans="7:7">
+      <c r="G253" s="12"/>
+    </row>
+    <row r="254" spans="7:7">
+      <c r="G254" s="12"/>
+    </row>
+    <row r="255" spans="7:7">
+      <c r="G255" s="12"/>
+    </row>
+    <row r="256" spans="7:7">
+      <c r="G256" s="12"/>
+    </row>
+    <row r="257" spans="7:7">
+      <c r="G257" s="12"/>
+    </row>
+    <row r="258" spans="7:7">
+      <c r="G258" s="12"/>
+    </row>
+    <row r="259" spans="7:7">
+      <c r="G259" s="12"/>
+    </row>
+    <row r="260" spans="7:7">
+      <c r="G260" s="12"/>
+    </row>
+    <row r="261" spans="7:7">
+      <c r="G261" s="12"/>
+    </row>
+    <row r="262" spans="7:7">
+      <c r="G262" s="12"/>
+    </row>
+    <row r="263" spans="7:7">
+      <c r="G263" s="12"/>
+    </row>
+    <row r="264" spans="7:7">
+      <c r="G264" s="12"/>
+    </row>
+    <row r="265" spans="7:7">
+      <c r="G265" s="12"/>
+    </row>
+    <row r="266" spans="7:7">
+      <c r="G266" s="12"/>
+    </row>
+    <row r="267" spans="7:7">
+      <c r="G267" s="12"/>
+    </row>
+    <row r="268" spans="7:7">
+      <c r="G268" s="12"/>
+    </row>
+    <row r="269" spans="7:7">
+      <c r="G269" s="12"/>
+    </row>
+    <row r="270" spans="7:7">
+      <c r="G270" s="12"/>
+    </row>
+    <row r="271" spans="7:7">
+      <c r="G271" s="12"/>
+    </row>
+    <row r="272" spans="7:7">
+      <c r="G272" s="12"/>
+    </row>
+    <row r="273" spans="7:7">
+      <c r="G273" s="12"/>
+    </row>
+    <row r="274" spans="7:7">
+      <c r="G274" s="12"/>
+    </row>
+    <row r="275" spans="7:7">
+      <c r="G275" s="12"/>
+    </row>
+    <row r="276" spans="7:7">
+      <c r="G276" s="12"/>
+    </row>
+    <row r="277" spans="7:7">
+      <c r="G277" s="12"/>
+    </row>
+    <row r="278" spans="7:7">
+      <c r="G278" s="12"/>
+    </row>
+    <row r="279" spans="7:7">
+      <c r="G279" s="12"/>
+    </row>
+    <row r="280" spans="7:7">
+      <c r="G280" s="12"/>
+    </row>
+    <row r="281" spans="7:7">
+      <c r="G281" s="12"/>
+    </row>
+    <row r="282" spans="7:7">
+      <c r="G282" s="12"/>
+    </row>
+    <row r="283" spans="7:7">
+      <c r="G283" s="12"/>
+    </row>
+    <row r="284" spans="7:7">
+      <c r="G284" s="12"/>
+    </row>
+    <row r="285" spans="7:7">
+      <c r="G285" s="12"/>
+    </row>
+    <row r="286" spans="7:7">
+      <c r="G286" s="12"/>
+    </row>
+    <row r="287" spans="7:7">
+      <c r="G287" s="12"/>
+    </row>
+    <row r="288" spans="7:7">
+      <c r="G288" s="12"/>
+    </row>
+    <row r="289" spans="7:7">
+      <c r="G289" s="12"/>
+    </row>
+    <row r="290" spans="7:7">
+      <c r="G290" s="12"/>
+    </row>
+    <row r="291" spans="7:7">
+      <c r="G291" s="12"/>
+    </row>
+    <row r="292" spans="7:7">
+      <c r="G292" s="12"/>
+    </row>
+    <row r="293" spans="7:7">
+      <c r="G293" s="12"/>
+    </row>
+    <row r="294" spans="7:7">
+      <c r="G294" s="12"/>
+    </row>
+    <row r="295" spans="7:7">
+      <c r="G295" s="12"/>
+    </row>
+    <row r="296" spans="7:7">
+      <c r="G296" s="12"/>
+    </row>
+    <row r="297" spans="7:7">
+      <c r="G297" s="12"/>
+    </row>
+    <row r="298" spans="7:7">
+      <c r="G298" s="12"/>
+    </row>
+    <row r="299" spans="7:7">
+      <c r="G299" s="12"/>
+    </row>
+    <row r="300" spans="7:7">
+      <c r="G300" s="12"/>
+    </row>
+    <row r="301" spans="7:7">
+      <c r="G301" s="12"/>
+    </row>
+    <row r="302" spans="7:7">
+      <c r="G302" s="12"/>
+    </row>
+    <row r="303" spans="7:7">
+      <c r="G303" s="12"/>
+    </row>
+    <row r="304" spans="7:7">
+      <c r="G304" s="12"/>
+    </row>
+    <row r="305" spans="7:7">
+      <c r="G305" s="12"/>
+    </row>
+    <row r="306" spans="7:7">
+      <c r="G306" s="12"/>
+    </row>
+    <row r="307" spans="7:7">
+      <c r="G307" s="12"/>
+    </row>
+    <row r="308" spans="7:7">
+      <c r="G308" s="12"/>
+    </row>
+    <row r="309" spans="7:7">
+      <c r="G309" s="12"/>
+    </row>
+    <row r="310" spans="7:7">
+      <c r="G310" s="12"/>
+    </row>
+    <row r="311" spans="7:7">
+      <c r="G311" s="12"/>
+    </row>
+    <row r="312" spans="7:7">
+      <c r="G312" s="12"/>
+    </row>
+    <row r="313" spans="7:7">
+      <c r="G313" s="12"/>
+    </row>
+    <row r="314" spans="7:7">
+      <c r="G314" s="12"/>
+    </row>
+    <row r="315" spans="7:7">
+      <c r="G315" s="12"/>
+    </row>
+    <row r="316" spans="7:7">
+      <c r="G316" s="12"/>
+    </row>
+    <row r="317" spans="7:7">
+      <c r="G317" s="12"/>
+    </row>
+    <row r="318" spans="7:7">
+      <c r="G318" s="12"/>
+    </row>
+    <row r="319" spans="7:7">
+      <c r="G319" s="12"/>
+    </row>
+    <row r="320" spans="7:7">
+      <c r="G320" s="12"/>
+    </row>
+    <row r="321" spans="7:7">
+      <c r="G321" s="12"/>
+    </row>
+    <row r="322" spans="7:7">
+      <c r="G322" s="12"/>
+    </row>
+    <row r="323" spans="7:7">
+      <c r="G323" s="12"/>
+    </row>
+    <row r="324" spans="7:7">
+      <c r="G324" s="12"/>
+    </row>
+    <row r="325" spans="7:7">
+      <c r="G325" s="12"/>
+    </row>
+    <row r="326" spans="7:7">
+      <c r="G326" s="12"/>
+    </row>
+    <row r="327" spans="7:7">
+      <c r="G327" s="12"/>
+    </row>
+    <row r="328" spans="7:7">
+      <c r="G328" s="12"/>
+    </row>
+    <row r="329" spans="7:7">
+      <c r="G329" s="12"/>
+    </row>
+    <row r="330" spans="7:7">
+      <c r="G330" s="12"/>
+    </row>
+    <row r="331" spans="7:7">
+      <c r="G331" s="12"/>
+    </row>
+    <row r="332" spans="7:7">
+      <c r="G332" s="12"/>
+    </row>
+    <row r="333" spans="7:7">
+      <c r="G333" s="12"/>
+    </row>
+    <row r="334" spans="7:7">
+      <c r="G334" s="12"/>
+    </row>
+    <row r="335" spans="7:7">
+      <c r="G335" s="12"/>
+    </row>
+    <row r="336" spans="7:7">
+      <c r="G336" s="12"/>
+    </row>
+    <row r="337" spans="7:7">
+      <c r="G337" s="12"/>
+    </row>
+    <row r="338" spans="7:7">
+      <c r="G338" s="12"/>
+    </row>
+    <row r="339" spans="7:7">
+      <c r="G339" s="12"/>
+    </row>
+    <row r="340" spans="7:7">
+      <c r="G340" s="12"/>
+    </row>
+    <row r="341" spans="7:7">
+      <c r="G341" s="12"/>
+    </row>
+    <row r="342" spans="7:7">
+      <c r="G342" s="12"/>
+    </row>
+    <row r="343" spans="7:7">
+      <c r="G343" s="12"/>
+    </row>
+    <row r="344" spans="7:7">
+      <c r="G344" s="12"/>
+    </row>
+    <row r="345" spans="7:7">
+      <c r="G345" s="12"/>
+    </row>
+    <row r="346" spans="7:7">
+      <c r="G346" s="12"/>
+    </row>
+    <row r="347" spans="7:7">
+      <c r="G347" s="12"/>
+    </row>
+    <row r="348" spans="7:7">
+      <c r="G348" s="12"/>
+    </row>
+    <row r="349" spans="7:7">
+      <c r="G349" s="12"/>
+    </row>
+    <row r="350" spans="7:7">
+      <c r="G350" s="12"/>
+    </row>
+    <row r="351" spans="7:7">
+      <c r="G351" s="12"/>
+    </row>
+    <row r="352" spans="7:7">
+      <c r="G352" s="12"/>
+    </row>
+    <row r="353" spans="7:7">
+      <c r="G353" s="12"/>
+    </row>
+    <row r="354" spans="7:7">
+      <c r="G354" s="12"/>
+    </row>
+    <row r="355" spans="7:7">
+      <c r="G355" s="12"/>
+    </row>
+    <row r="356" spans="7:7">
+      <c r="G356" s="12"/>
+    </row>
+    <row r="357" spans="7:7">
+      <c r="G357" s="12"/>
+    </row>
+    <row r="358" spans="7:7">
+      <c r="G358" s="12"/>
+    </row>
+    <row r="359" spans="7:7">
+      <c r="G359" s="12"/>
+    </row>
+    <row r="360" spans="7:7">
+      <c r="G360" s="12"/>
+    </row>
+    <row r="361" spans="7:7">
+      <c r="G361" s="12"/>
+    </row>
+    <row r="362" spans="7:7">
+      <c r="G362" s="12"/>
+    </row>
+    <row r="363" spans="7:7">
+      <c r="G363" s="12"/>
+    </row>
+    <row r="364" spans="7:7">
+      <c r="G364" s="12"/>
+    </row>
+    <row r="365" spans="7:7">
+      <c r="G365" s="12"/>
+    </row>
+    <row r="366" spans="7:7">
+      <c r="G366" s="12"/>
+    </row>
+    <row r="367" spans="7:7">
+      <c r="G367" s="12"/>
+    </row>
+    <row r="368" spans="7:7">
+      <c r="G368" s="12"/>
+    </row>
+    <row r="369" spans="7:7">
+      <c r="G369" s="12"/>
+    </row>
+    <row r="370" spans="7:7">
+      <c r="G370" s="12"/>
+    </row>
+    <row r="371" spans="7:7">
+      <c r="G371" s="12"/>
+    </row>
+    <row r="372" spans="7:7">
+      <c r="G372" s="12"/>
+    </row>
+    <row r="373" spans="7:7">
+      <c r="G373" s="12"/>
+    </row>
+    <row r="374" spans="7:7">
+      <c r="G374" s="12"/>
+    </row>
+    <row r="375" spans="7:7">
+      <c r="G375" s="12"/>
+    </row>
+    <row r="376" spans="7:7">
+      <c r="G376" s="12"/>
+    </row>
+    <row r="377" spans="7:7">
+      <c r="G377" s="12"/>
+    </row>
+    <row r="378" spans="7:7">
+      <c r="G378" s="12"/>
+    </row>
+    <row r="379" spans="7:7">
+      <c r="G379" s="12"/>
+    </row>
+    <row r="380" spans="7:7">
+      <c r="G380" s="12"/>
+    </row>
+    <row r="381" spans="7:7">
+      <c r="G381" s="12"/>
+    </row>
+    <row r="382" spans="7:7">
+      <c r="G382" s="12"/>
+    </row>
+    <row r="383" spans="7:7">
+      <c r="G383" s="12"/>
+    </row>
+    <row r="384" spans="7:7">
+      <c r="G384" s="12"/>
+    </row>
+    <row r="385" spans="7:7">
+      <c r="G385" s="12"/>
+    </row>
+    <row r="386" spans="7:7">
+      <c r="G386" s="12"/>
+    </row>
+    <row r="387" spans="7:7">
+      <c r="G387" s="12"/>
+    </row>
+    <row r="388" spans="7:7">
+      <c r="G388" s="12"/>
+    </row>
+    <row r="389" spans="7:7">
+      <c r="G389" s="12"/>
+    </row>
+    <row r="390" spans="7:7">
+      <c r="G390" s="12"/>
+    </row>
+    <row r="391" spans="7:7">
+      <c r="G391" s="12"/>
+    </row>
+    <row r="392" spans="7:7">
+      <c r="G392" s="12"/>
+    </row>
+    <row r="393" spans="7:7">
+      <c r="G393" s="12"/>
+    </row>
+    <row r="394" spans="7:7">
+      <c r="G394" s="12"/>
+    </row>
+    <row r="395" spans="7:7">
+      <c r="G395" s="12"/>
+    </row>
+    <row r="396" spans="7:7">
+      <c r="G396" s="12"/>
+    </row>
+    <row r="397" spans="7:7">
+      <c r="G397" s="12"/>
+    </row>
+    <row r="398" spans="7:7">
+      <c r="G398" s="12"/>
+    </row>
+    <row r="399" spans="7:7">
+      <c r="G399" s="12"/>
+    </row>
+    <row r="400" spans="7:7">
+      <c r="G400" s="12"/>
+    </row>
+    <row r="401" spans="7:7">
+      <c r="G401" s="12"/>
+    </row>
+    <row r="402" spans="7:7">
+      <c r="G402" s="12"/>
+    </row>
+    <row r="403" spans="7:7">
+      <c r="G403" s="12"/>
+    </row>
+    <row r="404" spans="7:7">
+      <c r="G404" s="12"/>
+    </row>
+    <row r="405" spans="7:7">
+      <c r="G405" s="12"/>
+    </row>
+    <row r="406" spans="7:7">
+      <c r="G406" s="12"/>
+    </row>
+    <row r="407" spans="7:7">
+      <c r="G407" s="12"/>
+    </row>
+    <row r="408" spans="7:7">
+      <c r="G408" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
+      <formula1>"未开始,即将进行,进行中,已完成"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" tooltip="阿里架构师干货分享之——亿级大表分库分表解决方案"/>
+  </hyperlinks>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1048,11 +2351,11 @@
       </c>
       <c r="H2" s="20">
         <f ca="1">TODAY()</f>
-        <v>43420</v>
+        <v>43422</v>
       </c>
       <c r="I2" s="20">
         <f ca="1">TODAY()</f>
-        <v>43420</v>
+        <v>43422</v>
       </c>
     </row>
   </sheetData>
@@ -1064,1325 +2367,6 @@
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J408"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="11.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.75" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.125" style="3" customWidth="1"/>
-    <col min="8" max="9" width="11.625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="14" customFormat="1">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="40.5">
-      <c r="A2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="16">
-        <v>3.5305555555555599</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="8">
-        <f ca="1">TODAY()-1</f>
-        <v>43419</v>
-      </c>
-      <c r="I2" s="8">
-        <f ca="1">TODAY()</f>
-        <v>43420</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="C3" s="18"/>
-      <c r="G3" s="12"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="G4" s="12"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="G5" s="12"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="G12" s="12"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="G13" s="12"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="G14" s="12"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="G15" s="12"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="G16" s="12"/>
-    </row>
-    <row r="17" spans="7:7">
-      <c r="G17" s="12"/>
-    </row>
-    <row r="18" spans="7:7">
-      <c r="G18" s="12"/>
-    </row>
-    <row r="19" spans="7:7">
-      <c r="G19" s="12"/>
-    </row>
-    <row r="20" spans="7:7">
-      <c r="G20" s="12"/>
-    </row>
-    <row r="21" spans="7:7">
-      <c r="G21" s="12"/>
-    </row>
-    <row r="22" spans="7:7">
-      <c r="G22" s="12"/>
-    </row>
-    <row r="23" spans="7:7">
-      <c r="G23" s="12"/>
-    </row>
-    <row r="24" spans="7:7">
-      <c r="G24" s="12"/>
-    </row>
-    <row r="25" spans="7:7">
-      <c r="G25" s="12"/>
-    </row>
-    <row r="26" spans="7:7">
-      <c r="G26" s="12"/>
-    </row>
-    <row r="27" spans="7:7">
-      <c r="G27" s="12"/>
-    </row>
-    <row r="28" spans="7:7">
-      <c r="G28" s="12"/>
-    </row>
-    <row r="29" spans="7:7">
-      <c r="G29" s="12"/>
-    </row>
-    <row r="30" spans="7:7">
-      <c r="G30" s="12"/>
-    </row>
-    <row r="31" spans="7:7">
-      <c r="G31" s="12"/>
-    </row>
-    <row r="32" spans="7:7">
-      <c r="G32" s="12"/>
-    </row>
-    <row r="33" spans="7:7">
-      <c r="G33" s="12"/>
-    </row>
-    <row r="34" spans="7:7">
-      <c r="G34" s="12"/>
-    </row>
-    <row r="35" spans="7:7">
-      <c r="G35" s="12"/>
-    </row>
-    <row r="36" spans="7:7">
-      <c r="G36" s="12"/>
-    </row>
-    <row r="37" spans="7:7">
-      <c r="G37" s="12"/>
-    </row>
-    <row r="38" spans="7:7">
-      <c r="G38" s="12"/>
-    </row>
-    <row r="39" spans="7:7">
-      <c r="G39" s="12"/>
-    </row>
-    <row r="40" spans="7:7">
-      <c r="G40" s="12"/>
-    </row>
-    <row r="41" spans="7:7">
-      <c r="G41" s="12"/>
-    </row>
-    <row r="42" spans="7:7">
-      <c r="G42" s="12"/>
-    </row>
-    <row r="43" spans="7:7">
-      <c r="G43" s="12"/>
-    </row>
-    <row r="44" spans="7:7">
-      <c r="G44" s="12"/>
-    </row>
-    <row r="45" spans="7:7">
-      <c r="G45" s="12"/>
-    </row>
-    <row r="46" spans="7:7">
-      <c r="G46" s="12"/>
-    </row>
-    <row r="47" spans="7:7">
-      <c r="G47" s="12"/>
-    </row>
-    <row r="48" spans="7:7">
-      <c r="G48" s="12"/>
-    </row>
-    <row r="49" spans="7:7">
-      <c r="G49" s="12"/>
-    </row>
-    <row r="50" spans="7:7">
-      <c r="G50" s="12"/>
-    </row>
-    <row r="51" spans="7:7">
-      <c r="G51" s="12"/>
-    </row>
-    <row r="52" spans="7:7">
-      <c r="G52" s="12"/>
-    </row>
-    <row r="53" spans="7:7">
-      <c r="G53" s="12"/>
-    </row>
-    <row r="54" spans="7:7">
-      <c r="G54" s="12"/>
-    </row>
-    <row r="55" spans="7:7">
-      <c r="G55" s="12"/>
-    </row>
-    <row r="56" spans="7:7">
-      <c r="G56" s="12"/>
-    </row>
-    <row r="57" spans="7:7">
-      <c r="G57" s="12"/>
-    </row>
-    <row r="58" spans="7:7">
-      <c r="G58" s="12"/>
-    </row>
-    <row r="59" spans="7:7">
-      <c r="G59" s="12"/>
-    </row>
-    <row r="60" spans="7:7">
-      <c r="G60" s="12"/>
-    </row>
-    <row r="61" spans="7:7">
-      <c r="G61" s="12"/>
-    </row>
-    <row r="62" spans="7:7">
-      <c r="G62" s="12"/>
-    </row>
-    <row r="63" spans="7:7">
-      <c r="G63" s="12"/>
-    </row>
-    <row r="64" spans="7:7">
-      <c r="G64" s="12"/>
-    </row>
-    <row r="65" spans="7:7">
-      <c r="G65" s="12"/>
-    </row>
-    <row r="66" spans="7:7">
-      <c r="G66" s="12"/>
-    </row>
-    <row r="67" spans="7:7">
-      <c r="G67" s="12"/>
-    </row>
-    <row r="68" spans="7:7">
-      <c r="G68" s="12"/>
-    </row>
-    <row r="69" spans="7:7">
-      <c r="G69" s="12"/>
-    </row>
-    <row r="70" spans="7:7">
-      <c r="G70" s="12"/>
-    </row>
-    <row r="71" spans="7:7">
-      <c r="G71" s="12"/>
-    </row>
-    <row r="72" spans="7:7">
-      <c r="G72" s="12"/>
-    </row>
-    <row r="73" spans="7:7">
-      <c r="G73" s="12"/>
-    </row>
-    <row r="74" spans="7:7">
-      <c r="G74" s="12"/>
-    </row>
-    <row r="75" spans="7:7">
-      <c r="G75" s="12"/>
-    </row>
-    <row r="76" spans="7:7">
-      <c r="G76" s="12"/>
-    </row>
-    <row r="77" spans="7:7">
-      <c r="G77" s="12"/>
-    </row>
-    <row r="78" spans="7:7">
-      <c r="G78" s="12"/>
-    </row>
-    <row r="79" spans="7:7">
-      <c r="G79" s="12"/>
-    </row>
-    <row r="80" spans="7:7">
-      <c r="G80" s="12"/>
-    </row>
-    <row r="81" spans="7:7">
-      <c r="G81" s="12"/>
-    </row>
-    <row r="82" spans="7:7">
-      <c r="G82" s="12"/>
-    </row>
-    <row r="83" spans="7:7">
-      <c r="G83" s="12"/>
-    </row>
-    <row r="84" spans="7:7">
-      <c r="G84" s="12"/>
-    </row>
-    <row r="85" spans="7:7">
-      <c r="G85" s="12"/>
-    </row>
-    <row r="86" spans="7:7">
-      <c r="G86" s="12"/>
-    </row>
-    <row r="87" spans="7:7">
-      <c r="G87" s="12"/>
-    </row>
-    <row r="88" spans="7:7">
-      <c r="G88" s="12"/>
-    </row>
-    <row r="89" spans="7:7">
-      <c r="G89" s="12"/>
-    </row>
-    <row r="90" spans="7:7">
-      <c r="G90" s="12"/>
-    </row>
-    <row r="91" spans="7:7">
-      <c r="G91" s="12"/>
-    </row>
-    <row r="92" spans="7:7">
-      <c r="G92" s="12"/>
-    </row>
-    <row r="93" spans="7:7">
-      <c r="G93" s="12"/>
-    </row>
-    <row r="94" spans="7:7">
-      <c r="G94" s="12"/>
-    </row>
-    <row r="95" spans="7:7">
-      <c r="G95" s="12"/>
-    </row>
-    <row r="96" spans="7:7">
-      <c r="G96" s="12"/>
-    </row>
-    <row r="97" spans="7:7">
-      <c r="G97" s="12"/>
-    </row>
-    <row r="98" spans="7:7">
-      <c r="G98" s="12"/>
-    </row>
-    <row r="99" spans="7:7">
-      <c r="G99" s="12"/>
-    </row>
-    <row r="100" spans="7:7">
-      <c r="G100" s="12"/>
-    </row>
-    <row r="101" spans="7:7">
-      <c r="G101" s="12"/>
-    </row>
-    <row r="102" spans="7:7">
-      <c r="G102" s="12"/>
-    </row>
-    <row r="103" spans="7:7">
-      <c r="G103" s="12"/>
-    </row>
-    <row r="104" spans="7:7">
-      <c r="G104" s="12"/>
-    </row>
-    <row r="105" spans="7:7">
-      <c r="G105" s="12"/>
-    </row>
-    <row r="106" spans="7:7">
-      <c r="G106" s="12"/>
-    </row>
-    <row r="107" spans="7:7">
-      <c r="G107" s="12"/>
-    </row>
-    <row r="108" spans="7:7">
-      <c r="G108" s="12"/>
-    </row>
-    <row r="109" spans="7:7">
-      <c r="G109" s="12"/>
-    </row>
-    <row r="110" spans="7:7">
-      <c r="G110" s="12"/>
-    </row>
-    <row r="111" spans="7:7">
-      <c r="G111" s="12"/>
-    </row>
-    <row r="112" spans="7:7">
-      <c r="G112" s="12"/>
-    </row>
-    <row r="113" spans="7:7">
-      <c r="G113" s="12"/>
-    </row>
-    <row r="114" spans="7:7">
-      <c r="G114" s="12"/>
-    </row>
-    <row r="115" spans="7:7">
-      <c r="G115" s="12"/>
-    </row>
-    <row r="116" spans="7:7">
-      <c r="G116" s="12"/>
-    </row>
-    <row r="117" spans="7:7">
-      <c r="G117" s="12"/>
-    </row>
-    <row r="118" spans="7:7">
-      <c r="G118" s="12"/>
-    </row>
-    <row r="119" spans="7:7">
-      <c r="G119" s="12"/>
-    </row>
-    <row r="120" spans="7:7">
-      <c r="G120" s="12"/>
-    </row>
-    <row r="121" spans="7:7">
-      <c r="G121" s="12"/>
-    </row>
-    <row r="122" spans="7:7">
-      <c r="G122" s="12"/>
-    </row>
-    <row r="123" spans="7:7">
-      <c r="G123" s="12"/>
-    </row>
-    <row r="124" spans="7:7">
-      <c r="G124" s="12"/>
-    </row>
-    <row r="125" spans="7:7">
-      <c r="G125" s="12"/>
-    </row>
-    <row r="126" spans="7:7">
-      <c r="G126" s="12"/>
-    </row>
-    <row r="127" spans="7:7">
-      <c r="G127" s="12"/>
-    </row>
-    <row r="128" spans="7:7">
-      <c r="G128" s="12"/>
-    </row>
-    <row r="129" spans="7:7">
-      <c r="G129" s="12"/>
-    </row>
-    <row r="130" spans="7:7">
-      <c r="G130" s="12"/>
-    </row>
-    <row r="131" spans="7:7">
-      <c r="G131" s="12"/>
-    </row>
-    <row r="132" spans="7:7">
-      <c r="G132" s="12"/>
-    </row>
-    <row r="133" spans="7:7">
-      <c r="G133" s="12"/>
-    </row>
-    <row r="134" spans="7:7">
-      <c r="G134" s="12"/>
-    </row>
-    <row r="135" spans="7:7">
-      <c r="G135" s="12"/>
-    </row>
-    <row r="136" spans="7:7">
-      <c r="G136" s="12"/>
-    </row>
-    <row r="137" spans="7:7">
-      <c r="G137" s="12"/>
-    </row>
-    <row r="138" spans="7:7">
-      <c r="G138" s="12"/>
-    </row>
-    <row r="139" spans="7:7">
-      <c r="G139" s="12"/>
-    </row>
-    <row r="140" spans="7:7">
-      <c r="G140" s="12"/>
-    </row>
-    <row r="141" spans="7:7">
-      <c r="G141" s="12"/>
-    </row>
-    <row r="142" spans="7:7">
-      <c r="G142" s="12"/>
-    </row>
-    <row r="143" spans="7:7">
-      <c r="G143" s="12"/>
-    </row>
-    <row r="144" spans="7:7">
-      <c r="G144" s="12"/>
-    </row>
-    <row r="145" spans="7:7">
-      <c r="G145" s="12"/>
-    </row>
-    <row r="146" spans="7:7">
-      <c r="G146" s="12"/>
-    </row>
-    <row r="147" spans="7:7">
-      <c r="G147" s="12"/>
-    </row>
-    <row r="148" spans="7:7">
-      <c r="G148" s="12"/>
-    </row>
-    <row r="149" spans="7:7">
-      <c r="G149" s="12"/>
-    </row>
-    <row r="150" spans="7:7">
-      <c r="G150" s="12"/>
-    </row>
-    <row r="151" spans="7:7">
-      <c r="G151" s="12"/>
-    </row>
-    <row r="152" spans="7:7">
-      <c r="G152" s="12"/>
-    </row>
-    <row r="153" spans="7:7">
-      <c r="G153" s="12"/>
-    </row>
-    <row r="154" spans="7:7">
-      <c r="G154" s="12"/>
-    </row>
-    <row r="155" spans="7:7">
-      <c r="G155" s="12"/>
-    </row>
-    <row r="156" spans="7:7">
-      <c r="G156" s="12"/>
-    </row>
-    <row r="157" spans="7:7">
-      <c r="G157" s="12"/>
-    </row>
-    <row r="158" spans="7:7">
-      <c r="G158" s="12"/>
-    </row>
-    <row r="159" spans="7:7">
-      <c r="G159" s="12"/>
-    </row>
-    <row r="160" spans="7:7">
-      <c r="G160" s="12"/>
-    </row>
-    <row r="161" spans="7:7">
-      <c r="G161" s="12"/>
-    </row>
-    <row r="162" spans="7:7">
-      <c r="G162" s="12"/>
-    </row>
-    <row r="163" spans="7:7">
-      <c r="G163" s="12"/>
-    </row>
-    <row r="164" spans="7:7">
-      <c r="G164" s="12"/>
-    </row>
-    <row r="165" spans="7:7">
-      <c r="G165" s="12"/>
-    </row>
-    <row r="166" spans="7:7">
-      <c r="G166" s="12"/>
-    </row>
-    <row r="167" spans="7:7">
-      <c r="G167" s="12"/>
-    </row>
-    <row r="168" spans="7:7">
-      <c r="G168" s="12"/>
-    </row>
-    <row r="169" spans="7:7">
-      <c r="G169" s="12"/>
-    </row>
-    <row r="170" spans="7:7">
-      <c r="G170" s="12"/>
-    </row>
-    <row r="171" spans="7:7">
-      <c r="G171" s="12"/>
-    </row>
-    <row r="172" spans="7:7">
-      <c r="G172" s="12"/>
-    </row>
-    <row r="173" spans="7:7">
-      <c r="G173" s="12"/>
-    </row>
-    <row r="174" spans="7:7">
-      <c r="G174" s="12"/>
-    </row>
-    <row r="175" spans="7:7">
-      <c r="G175" s="12"/>
-    </row>
-    <row r="176" spans="7:7">
-      <c r="G176" s="12"/>
-    </row>
-    <row r="177" spans="7:7">
-      <c r="G177" s="12"/>
-    </row>
-    <row r="178" spans="7:7">
-      <c r="G178" s="12"/>
-    </row>
-    <row r="179" spans="7:7">
-      <c r="G179" s="12"/>
-    </row>
-    <row r="180" spans="7:7">
-      <c r="G180" s="12"/>
-    </row>
-    <row r="181" spans="7:7">
-      <c r="G181" s="12"/>
-    </row>
-    <row r="182" spans="7:7">
-      <c r="G182" s="12"/>
-    </row>
-    <row r="183" spans="7:7">
-      <c r="G183" s="12"/>
-    </row>
-    <row r="184" spans="7:7">
-      <c r="G184" s="12"/>
-    </row>
-    <row r="185" spans="7:7">
-      <c r="G185" s="12"/>
-    </row>
-    <row r="186" spans="7:7">
-      <c r="G186" s="12"/>
-    </row>
-    <row r="187" spans="7:7">
-      <c r="G187" s="12"/>
-    </row>
-    <row r="188" spans="7:7">
-      <c r="G188" s="12"/>
-    </row>
-    <row r="189" spans="7:7">
-      <c r="G189" s="12"/>
-    </row>
-    <row r="190" spans="7:7">
-      <c r="G190" s="12"/>
-    </row>
-    <row r="191" spans="7:7">
-      <c r="G191" s="12"/>
-    </row>
-    <row r="192" spans="7:7">
-      <c r="G192" s="12"/>
-    </row>
-    <row r="193" spans="7:7">
-      <c r="G193" s="12"/>
-    </row>
-    <row r="194" spans="7:7">
-      <c r="G194" s="12"/>
-    </row>
-    <row r="195" spans="7:7">
-      <c r="G195" s="12"/>
-    </row>
-    <row r="196" spans="7:7">
-      <c r="G196" s="12"/>
-    </row>
-    <row r="197" spans="7:7">
-      <c r="G197" s="12"/>
-    </row>
-    <row r="198" spans="7:7">
-      <c r="G198" s="12"/>
-    </row>
-    <row r="199" spans="7:7">
-      <c r="G199" s="12"/>
-    </row>
-    <row r="200" spans="7:7">
-      <c r="G200" s="12"/>
-    </row>
-    <row r="201" spans="7:7">
-      <c r="G201" s="12"/>
-    </row>
-    <row r="202" spans="7:7">
-      <c r="G202" s="12"/>
-    </row>
-    <row r="203" spans="7:7">
-      <c r="G203" s="12"/>
-    </row>
-    <row r="204" spans="7:7">
-      <c r="G204" s="12"/>
-    </row>
-    <row r="205" spans="7:7">
-      <c r="G205" s="12"/>
-    </row>
-    <row r="206" spans="7:7">
-      <c r="G206" s="12"/>
-    </row>
-    <row r="207" spans="7:7">
-      <c r="G207" s="12"/>
-    </row>
-    <row r="208" spans="7:7">
-      <c r="G208" s="12"/>
-    </row>
-    <row r="209" spans="7:7">
-      <c r="G209" s="12"/>
-    </row>
-    <row r="210" spans="7:7">
-      <c r="G210" s="12"/>
-    </row>
-    <row r="211" spans="7:7">
-      <c r="G211" s="12"/>
-    </row>
-    <row r="212" spans="7:7">
-      <c r="G212" s="12"/>
-    </row>
-    <row r="213" spans="7:7">
-      <c r="G213" s="12"/>
-    </row>
-    <row r="214" spans="7:7">
-      <c r="G214" s="12"/>
-    </row>
-    <row r="215" spans="7:7">
-      <c r="G215" s="12"/>
-    </row>
-    <row r="216" spans="7:7">
-      <c r="G216" s="12"/>
-    </row>
-    <row r="217" spans="7:7">
-      <c r="G217" s="12"/>
-    </row>
-    <row r="218" spans="7:7">
-      <c r="G218" s="12"/>
-    </row>
-    <row r="219" spans="7:7">
-      <c r="G219" s="12"/>
-    </row>
-    <row r="220" spans="7:7">
-      <c r="G220" s="12"/>
-    </row>
-    <row r="221" spans="7:7">
-      <c r="G221" s="12"/>
-    </row>
-    <row r="222" spans="7:7">
-      <c r="G222" s="12"/>
-    </row>
-    <row r="223" spans="7:7">
-      <c r="G223" s="12"/>
-    </row>
-    <row r="224" spans="7:7">
-      <c r="G224" s="12"/>
-    </row>
-    <row r="225" spans="7:7">
-      <c r="G225" s="12"/>
-    </row>
-    <row r="226" spans="7:7">
-      <c r="G226" s="12"/>
-    </row>
-    <row r="227" spans="7:7">
-      <c r="G227" s="12"/>
-    </row>
-    <row r="228" spans="7:7">
-      <c r="G228" s="12"/>
-    </row>
-    <row r="229" spans="7:7">
-      <c r="G229" s="12"/>
-    </row>
-    <row r="230" spans="7:7">
-      <c r="G230" s="12"/>
-    </row>
-    <row r="231" spans="7:7">
-      <c r="G231" s="12"/>
-    </row>
-    <row r="232" spans="7:7">
-      <c r="G232" s="12"/>
-    </row>
-    <row r="233" spans="7:7">
-      <c r="G233" s="12"/>
-    </row>
-    <row r="234" spans="7:7">
-      <c r="G234" s="12"/>
-    </row>
-    <row r="235" spans="7:7">
-      <c r="G235" s="12"/>
-    </row>
-    <row r="236" spans="7:7">
-      <c r="G236" s="12"/>
-    </row>
-    <row r="237" spans="7:7">
-      <c r="G237" s="12"/>
-    </row>
-    <row r="238" spans="7:7">
-      <c r="G238" s="12"/>
-    </row>
-    <row r="239" spans="7:7">
-      <c r="G239" s="12"/>
-    </row>
-    <row r="240" spans="7:7">
-      <c r="G240" s="12"/>
-    </row>
-    <row r="241" spans="7:7">
-      <c r="G241" s="12"/>
-    </row>
-    <row r="242" spans="7:7">
-      <c r="G242" s="12"/>
-    </row>
-    <row r="243" spans="7:7">
-      <c r="G243" s="12"/>
-    </row>
-    <row r="244" spans="7:7">
-      <c r="G244" s="12"/>
-    </row>
-    <row r="245" spans="7:7">
-      <c r="G245" s="12"/>
-    </row>
-    <row r="246" spans="7:7">
-      <c r="G246" s="12"/>
-    </row>
-    <row r="247" spans="7:7">
-      <c r="G247" s="12"/>
-    </row>
-    <row r="248" spans="7:7">
-      <c r="G248" s="12"/>
-    </row>
-    <row r="249" spans="7:7">
-      <c r="G249" s="12"/>
-    </row>
-    <row r="250" spans="7:7">
-      <c r="G250" s="12"/>
-    </row>
-    <row r="251" spans="7:7">
-      <c r="G251" s="12"/>
-    </row>
-    <row r="252" spans="7:7">
-      <c r="G252" s="12"/>
-    </row>
-    <row r="253" spans="7:7">
-      <c r="G253" s="12"/>
-    </row>
-    <row r="254" spans="7:7">
-      <c r="G254" s="12"/>
-    </row>
-    <row r="255" spans="7:7">
-      <c r="G255" s="12"/>
-    </row>
-    <row r="256" spans="7:7">
-      <c r="G256" s="12"/>
-    </row>
-    <row r="257" spans="7:7">
-      <c r="G257" s="12"/>
-    </row>
-    <row r="258" spans="7:7">
-      <c r="G258" s="12"/>
-    </row>
-    <row r="259" spans="7:7">
-      <c r="G259" s="12"/>
-    </row>
-    <row r="260" spans="7:7">
-      <c r="G260" s="12"/>
-    </row>
-    <row r="261" spans="7:7">
-      <c r="G261" s="12"/>
-    </row>
-    <row r="262" spans="7:7">
-      <c r="G262" s="12"/>
-    </row>
-    <row r="263" spans="7:7">
-      <c r="G263" s="12"/>
-    </row>
-    <row r="264" spans="7:7">
-      <c r="G264" s="12"/>
-    </row>
-    <row r="265" spans="7:7">
-      <c r="G265" s="12"/>
-    </row>
-    <row r="266" spans="7:7">
-      <c r="G266" s="12"/>
-    </row>
-    <row r="267" spans="7:7">
-      <c r="G267" s="12"/>
-    </row>
-    <row r="268" spans="7:7">
-      <c r="G268" s="12"/>
-    </row>
-    <row r="269" spans="7:7">
-      <c r="G269" s="12"/>
-    </row>
-    <row r="270" spans="7:7">
-      <c r="G270" s="12"/>
-    </row>
-    <row r="271" spans="7:7">
-      <c r="G271" s="12"/>
-    </row>
-    <row r="272" spans="7:7">
-      <c r="G272" s="12"/>
-    </row>
-    <row r="273" spans="7:7">
-      <c r="G273" s="12"/>
-    </row>
-    <row r="274" spans="7:7">
-      <c r="G274" s="12"/>
-    </row>
-    <row r="275" spans="7:7">
-      <c r="G275" s="12"/>
-    </row>
-    <row r="276" spans="7:7">
-      <c r="G276" s="12"/>
-    </row>
-    <row r="277" spans="7:7">
-      <c r="G277" s="12"/>
-    </row>
-    <row r="278" spans="7:7">
-      <c r="G278" s="12"/>
-    </row>
-    <row r="279" spans="7:7">
-      <c r="G279" s="12"/>
-    </row>
-    <row r="280" spans="7:7">
-      <c r="G280" s="12"/>
-    </row>
-    <row r="281" spans="7:7">
-      <c r="G281" s="12"/>
-    </row>
-    <row r="282" spans="7:7">
-      <c r="G282" s="12"/>
-    </row>
-    <row r="283" spans="7:7">
-      <c r="G283" s="12"/>
-    </row>
-    <row r="284" spans="7:7">
-      <c r="G284" s="12"/>
-    </row>
-    <row r="285" spans="7:7">
-      <c r="G285" s="12"/>
-    </row>
-    <row r="286" spans="7:7">
-      <c r="G286" s="12"/>
-    </row>
-    <row r="287" spans="7:7">
-      <c r="G287" s="12"/>
-    </row>
-    <row r="288" spans="7:7">
-      <c r="G288" s="12"/>
-    </row>
-    <row r="289" spans="7:7">
-      <c r="G289" s="12"/>
-    </row>
-    <row r="290" spans="7:7">
-      <c r="G290" s="12"/>
-    </row>
-    <row r="291" spans="7:7">
-      <c r="G291" s="12"/>
-    </row>
-    <row r="292" spans="7:7">
-      <c r="G292" s="12"/>
-    </row>
-    <row r="293" spans="7:7">
-      <c r="G293" s="12"/>
-    </row>
-    <row r="294" spans="7:7">
-      <c r="G294" s="12"/>
-    </row>
-    <row r="295" spans="7:7">
-      <c r="G295" s="12"/>
-    </row>
-    <row r="296" spans="7:7">
-      <c r="G296" s="12"/>
-    </row>
-    <row r="297" spans="7:7">
-      <c r="G297" s="12"/>
-    </row>
-    <row r="298" spans="7:7">
-      <c r="G298" s="12"/>
-    </row>
-    <row r="299" spans="7:7">
-      <c r="G299" s="12"/>
-    </row>
-    <row r="300" spans="7:7">
-      <c r="G300" s="12"/>
-    </row>
-    <row r="301" spans="7:7">
-      <c r="G301" s="12"/>
-    </row>
-    <row r="302" spans="7:7">
-      <c r="G302" s="12"/>
-    </row>
-    <row r="303" spans="7:7">
-      <c r="G303" s="12"/>
-    </row>
-    <row r="304" spans="7:7">
-      <c r="G304" s="12"/>
-    </row>
-    <row r="305" spans="7:7">
-      <c r="G305" s="12"/>
-    </row>
-    <row r="306" spans="7:7">
-      <c r="G306" s="12"/>
-    </row>
-    <row r="307" spans="7:7">
-      <c r="G307" s="12"/>
-    </row>
-    <row r="308" spans="7:7">
-      <c r="G308" s="12"/>
-    </row>
-    <row r="309" spans="7:7">
-      <c r="G309" s="12"/>
-    </row>
-    <row r="310" spans="7:7">
-      <c r="G310" s="12"/>
-    </row>
-    <row r="311" spans="7:7">
-      <c r="G311" s="12"/>
-    </row>
-    <row r="312" spans="7:7">
-      <c r="G312" s="12"/>
-    </row>
-    <row r="313" spans="7:7">
-      <c r="G313" s="12"/>
-    </row>
-    <row r="314" spans="7:7">
-      <c r="G314" s="12"/>
-    </row>
-    <row r="315" spans="7:7">
-      <c r="G315" s="12"/>
-    </row>
-    <row r="316" spans="7:7">
-      <c r="G316" s="12"/>
-    </row>
-    <row r="317" spans="7:7">
-      <c r="G317" s="12"/>
-    </row>
-    <row r="318" spans="7:7">
-      <c r="G318" s="12"/>
-    </row>
-    <row r="319" spans="7:7">
-      <c r="G319" s="12"/>
-    </row>
-    <row r="320" spans="7:7">
-      <c r="G320" s="12"/>
-    </row>
-    <row r="321" spans="7:7">
-      <c r="G321" s="12"/>
-    </row>
-    <row r="322" spans="7:7">
-      <c r="G322" s="12"/>
-    </row>
-    <row r="323" spans="7:7">
-      <c r="G323" s="12"/>
-    </row>
-    <row r="324" spans="7:7">
-      <c r="G324" s="12"/>
-    </row>
-    <row r="325" spans="7:7">
-      <c r="G325" s="12"/>
-    </row>
-    <row r="326" spans="7:7">
-      <c r="G326" s="12"/>
-    </row>
-    <row r="327" spans="7:7">
-      <c r="G327" s="12"/>
-    </row>
-    <row r="328" spans="7:7">
-      <c r="G328" s="12"/>
-    </row>
-    <row r="329" spans="7:7">
-      <c r="G329" s="12"/>
-    </row>
-    <row r="330" spans="7:7">
-      <c r="G330" s="12"/>
-    </row>
-    <row r="331" spans="7:7">
-      <c r="G331" s="12"/>
-    </row>
-    <row r="332" spans="7:7">
-      <c r="G332" s="12"/>
-    </row>
-    <row r="333" spans="7:7">
-      <c r="G333" s="12"/>
-    </row>
-    <row r="334" spans="7:7">
-      <c r="G334" s="12"/>
-    </row>
-    <row r="335" spans="7:7">
-      <c r="G335" s="12"/>
-    </row>
-    <row r="336" spans="7:7">
-      <c r="G336" s="12"/>
-    </row>
-    <row r="337" spans="7:7">
-      <c r="G337" s="12"/>
-    </row>
-    <row r="338" spans="7:7">
-      <c r="G338" s="12"/>
-    </row>
-    <row r="339" spans="7:7">
-      <c r="G339" s="12"/>
-    </row>
-    <row r="340" spans="7:7">
-      <c r="G340" s="12"/>
-    </row>
-    <row r="341" spans="7:7">
-      <c r="G341" s="12"/>
-    </row>
-    <row r="342" spans="7:7">
-      <c r="G342" s="12"/>
-    </row>
-    <row r="343" spans="7:7">
-      <c r="G343" s="12"/>
-    </row>
-    <row r="344" spans="7:7">
-      <c r="G344" s="12"/>
-    </row>
-    <row r="345" spans="7:7">
-      <c r="G345" s="12"/>
-    </row>
-    <row r="346" spans="7:7">
-      <c r="G346" s="12"/>
-    </row>
-    <row r="347" spans="7:7">
-      <c r="G347" s="12"/>
-    </row>
-    <row r="348" spans="7:7">
-      <c r="G348" s="12"/>
-    </row>
-    <row r="349" spans="7:7">
-      <c r="G349" s="12"/>
-    </row>
-    <row r="350" spans="7:7">
-      <c r="G350" s="12"/>
-    </row>
-    <row r="351" spans="7:7">
-      <c r="G351" s="12"/>
-    </row>
-    <row r="352" spans="7:7">
-      <c r="G352" s="12"/>
-    </row>
-    <row r="353" spans="7:7">
-      <c r="G353" s="12"/>
-    </row>
-    <row r="354" spans="7:7">
-      <c r="G354" s="12"/>
-    </row>
-    <row r="355" spans="7:7">
-      <c r="G355" s="12"/>
-    </row>
-    <row r="356" spans="7:7">
-      <c r="G356" s="12"/>
-    </row>
-    <row r="357" spans="7:7">
-      <c r="G357" s="12"/>
-    </row>
-    <row r="358" spans="7:7">
-      <c r="G358" s="12"/>
-    </row>
-    <row r="359" spans="7:7">
-      <c r="G359" s="12"/>
-    </row>
-    <row r="360" spans="7:7">
-      <c r="G360" s="12"/>
-    </row>
-    <row r="361" spans="7:7">
-      <c r="G361" s="12"/>
-    </row>
-    <row r="362" spans="7:7">
-      <c r="G362" s="12"/>
-    </row>
-    <row r="363" spans="7:7">
-      <c r="G363" s="12"/>
-    </row>
-    <row r="364" spans="7:7">
-      <c r="G364" s="12"/>
-    </row>
-    <row r="365" spans="7:7">
-      <c r="G365" s="12"/>
-    </row>
-    <row r="366" spans="7:7">
-      <c r="G366" s="12"/>
-    </row>
-    <row r="367" spans="7:7">
-      <c r="G367" s="12"/>
-    </row>
-    <row r="368" spans="7:7">
-      <c r="G368" s="12"/>
-    </row>
-    <row r="369" spans="7:7">
-      <c r="G369" s="12"/>
-    </row>
-    <row r="370" spans="7:7">
-      <c r="G370" s="12"/>
-    </row>
-    <row r="371" spans="7:7">
-      <c r="G371" s="12"/>
-    </row>
-    <row r="372" spans="7:7">
-      <c r="G372" s="12"/>
-    </row>
-    <row r="373" spans="7:7">
-      <c r="G373" s="12"/>
-    </row>
-    <row r="374" spans="7:7">
-      <c r="G374" s="12"/>
-    </row>
-    <row r="375" spans="7:7">
-      <c r="G375" s="12"/>
-    </row>
-    <row r="376" spans="7:7">
-      <c r="G376" s="12"/>
-    </row>
-    <row r="377" spans="7:7">
-      <c r="G377" s="12"/>
-    </row>
-    <row r="378" spans="7:7">
-      <c r="G378" s="12"/>
-    </row>
-    <row r="379" spans="7:7">
-      <c r="G379" s="12"/>
-    </row>
-    <row r="380" spans="7:7">
-      <c r="G380" s="12"/>
-    </row>
-    <row r="381" spans="7:7">
-      <c r="G381" s="12"/>
-    </row>
-    <row r="382" spans="7:7">
-      <c r="G382" s="12"/>
-    </row>
-    <row r="383" spans="7:7">
-      <c r="G383" s="12"/>
-    </row>
-    <row r="384" spans="7:7">
-      <c r="G384" s="12"/>
-    </row>
-    <row r="385" spans="7:7">
-      <c r="G385" s="12"/>
-    </row>
-    <row r="386" spans="7:7">
-      <c r="G386" s="12"/>
-    </row>
-    <row r="387" spans="7:7">
-      <c r="G387" s="12"/>
-    </row>
-    <row r="388" spans="7:7">
-      <c r="G388" s="12"/>
-    </row>
-    <row r="389" spans="7:7">
-      <c r="G389" s="12"/>
-    </row>
-    <row r="390" spans="7:7">
-      <c r="G390" s="12"/>
-    </row>
-    <row r="391" spans="7:7">
-      <c r="G391" s="12"/>
-    </row>
-    <row r="392" spans="7:7">
-      <c r="G392" s="12"/>
-    </row>
-    <row r="393" spans="7:7">
-      <c r="G393" s="12"/>
-    </row>
-    <row r="394" spans="7:7">
-      <c r="G394" s="12"/>
-    </row>
-    <row r="395" spans="7:7">
-      <c r="G395" s="12"/>
-    </row>
-    <row r="396" spans="7:7">
-      <c r="G396" s="12"/>
-    </row>
-    <row r="397" spans="7:7">
-      <c r="G397" s="12"/>
-    </row>
-    <row r="398" spans="7:7">
-      <c r="G398" s="12"/>
-    </row>
-    <row r="399" spans="7:7">
-      <c r="G399" s="12"/>
-    </row>
-    <row r="400" spans="7:7">
-      <c r="G400" s="12"/>
-    </row>
-    <row r="401" spans="7:7">
-      <c r="G401" s="12"/>
-    </row>
-    <row r="402" spans="7:7">
-      <c r="G402" s="12"/>
-    </row>
-    <row r="403" spans="7:7">
-      <c r="G403" s="12"/>
-    </row>
-    <row r="404" spans="7:7">
-      <c r="G404" s="12"/>
-    </row>
-    <row r="405" spans="7:7">
-      <c r="G405" s="12"/>
-    </row>
-    <row r="406" spans="7:7">
-      <c r="G406" s="12"/>
-    </row>
-    <row r="407" spans="7:7">
-      <c r="G407" s="12"/>
-    </row>
-    <row r="408" spans="7:7">
-      <c r="G408" s="12"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
-      <formula1>"未开始,即将进行,进行中,已完成"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" tooltip="阿里架构师干货分享之——亿级大表分库分表解决方案"/>
-  </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2514,7 +2498,7 @@
       </c>
       <c r="H2" s="8">
         <f ca="1">TODAY()</f>
-        <v>43420</v>
+        <v>43422</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="66">
@@ -2532,7 +2516,7 @@
       </c>
       <c r="H3" s="11">
         <f ca="1">TODAY()</f>
-        <v>43420</v>
+        <v>43422</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="165">
@@ -2553,7 +2537,7 @@
       </c>
       <c r="H4" s="8">
         <f ca="1">TODAY()</f>
-        <v>43420</v>
+        <v>43422</v>
       </c>
     </row>
     <row r="6" spans="1:8">

--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Helper\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="JAVA基础" sheetId="2" r:id="rId1"/>
@@ -20,12 +15,12 @@
     <sheet name="扩展技术" sheetId="5" r:id="rId6"/>
     <sheet name="面试技术要求" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
   <si>
     <t>技术方向</t>
   </si>
@@ -67,6 +62,9 @@
   </si>
   <si>
     <t>进行中</t>
+  </si>
+  <si>
+    <t>Stream排序</t>
   </si>
   <si>
     <t>Helper\A.Java\A.基础篇\E.Java8新特性</t>
@@ -217,30 +215,18 @@
   <si>
     <t>1：熟悉linux环境基本操作，熟悉nginx、python者优先；</t>
   </si>
-  <si>
-    <r>
-      <t>Stream映射</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10：00</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,21 +236,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -295,26 +266,154 @@
       <sz val="9"/>
       <color rgb="FF999999"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -323,18 +422,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="3" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="0" tint="-0.0499893185216834"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -357,14 +642,253 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -375,25 +899,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -408,16 +929,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -432,27 +953,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
-      <color rgb="FFE9F4FB"/>
+      <color rgb="00E9F4FB"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -739,20 +1303,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="14.25" customWidth="1"/>
     <col min="2" max="2" width="16.875" customWidth="1"/>
@@ -765,79 +1330,81 @@
     <col min="10" max="10" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="13" customFormat="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" s="12" customFormat="1" spans="1:10">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" ht="40.5">
-      <c r="A2" s="5" t="s">
+    <row r="2" s="3" customFormat="1" ht="40.5" spans="1:8">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="23" t="s">
-        <v>47</v>
+      <c r="F2" s="22" t="s">
+        <v>14</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="8">
+        <v>15</v>
+      </c>
+      <c r="H2" s="7">
         <f ca="1">TODAY()</f>
         <v>43420</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
       <formula1>"未开始,即将进行,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
       <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
@@ -851,59 +1418,61 @@
     <col min="7" max="7" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="13" customFormat="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" s="12" customFormat="1" spans="1:10">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
       <formula1>"未开始,即将进行,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
       <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="23.5" customWidth="1"/>
     <col min="2" max="2" width="16.375" customWidth="1"/>
@@ -914,165 +1483,169 @@
     <col min="7" max="7" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="13" customFormat="1">
-      <c r="A1" s="21" t="s">
+    <row r="1" s="12" customFormat="1" spans="1:10">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="27">
-      <c r="A2" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
+    <row r="2" ht="27" spans="1:10">
+      <c r="A2" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
       <formula1>"未开始,即将进行,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
       <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="20.5" style="12" customWidth="1"/>
-    <col min="3" max="3" width="21.25" style="12" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="12" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="12" customWidth="1"/>
-    <col min="7" max="7" width="19.125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="12" customWidth="1"/>
-    <col min="9" max="9" width="11.875" style="12" customWidth="1"/>
-    <col min="10" max="10" width="11.625" style="12" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="21.125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="11" customWidth="1"/>
+    <col min="3" max="3" width="21.25" style="11" customWidth="1"/>
+    <col min="4" max="4" width="14.25" style="11" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="14.25" style="11" customWidth="1"/>
+    <col min="7" max="7" width="19.125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="11" customWidth="1"/>
+    <col min="9" max="9" width="11.875" style="11" customWidth="1"/>
+    <col min="10" max="10" width="11.625" style="11" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="19" customFormat="1">
-      <c r="A1" s="19" t="s">
+    <row r="1" s="18" customFormat="1" spans="1:10">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="40.5">
-      <c r="A2" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="12" t="s">
+    <row r="2" ht="40.5" spans="1:9">
+      <c r="A2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="20">
+      <c r="G2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="19">
         <f ca="1">TODAY()</f>
         <v>43420</v>
       </c>
-      <c r="I2" s="20">
+      <c r="I2" s="19">
         <f ca="1">TODAY()</f>
         <v>43420</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
       <formula1>"未开始,即将进行,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1089,1309 +1662,1311 @@
     <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="14" customFormat="1">
-      <c r="A1" s="14" t="s">
+    <row r="1" s="13" customFormat="1" spans="1:10">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="40.5">
-      <c r="A2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="2" ht="40.5" spans="1:9">
+      <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="B2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="14" t="s">
         <v>25</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="16">
-        <v>3.5305555555555599</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="8">
+      <c r="F2" s="15">
+        <v>3.53055555555556</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="7">
         <f ca="1">TODAY()-1</f>
         <v>43419</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
         <f ca="1">TODAY()</f>
         <v>43420</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="C3" s="18"/>
-      <c r="G3" s="12"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="G4" s="12"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="G5" s="12"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="G12" s="12"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="G13" s="12"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="G14" s="12"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="G15" s="12"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="G16" s="12"/>
+    <row r="3" spans="3:7">
+      <c r="C3" s="17"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="7:7">
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="7:7">
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="7:7">
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="7:7">
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="7:7">
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="7:7">
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="7:7">
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="7:7">
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="7:7">
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="7:7">
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="7:7">
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="7:7">
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="7:7">
+      <c r="G16" s="11"/>
     </row>
     <row r="17" spans="7:7">
-      <c r="G17" s="12"/>
+      <c r="G17" s="11"/>
     </row>
     <row r="18" spans="7:7">
-      <c r="G18" s="12"/>
+      <c r="G18" s="11"/>
     </row>
     <row r="19" spans="7:7">
-      <c r="G19" s="12"/>
+      <c r="G19" s="11"/>
     </row>
     <row r="20" spans="7:7">
-      <c r="G20" s="12"/>
+      <c r="G20" s="11"/>
     </row>
     <row r="21" spans="7:7">
-      <c r="G21" s="12"/>
+      <c r="G21" s="11"/>
     </row>
     <row r="22" spans="7:7">
-      <c r="G22" s="12"/>
+      <c r="G22" s="11"/>
     </row>
     <row r="23" spans="7:7">
-      <c r="G23" s="12"/>
+      <c r="G23" s="11"/>
     </row>
     <row r="24" spans="7:7">
-      <c r="G24" s="12"/>
+      <c r="G24" s="11"/>
     </row>
     <row r="25" spans="7:7">
-      <c r="G25" s="12"/>
+      <c r="G25" s="11"/>
     </row>
     <row r="26" spans="7:7">
-      <c r="G26" s="12"/>
+      <c r="G26" s="11"/>
     </row>
     <row r="27" spans="7:7">
-      <c r="G27" s="12"/>
+      <c r="G27" s="11"/>
     </row>
     <row r="28" spans="7:7">
-      <c r="G28" s="12"/>
+      <c r="G28" s="11"/>
     </row>
     <row r="29" spans="7:7">
-      <c r="G29" s="12"/>
+      <c r="G29" s="11"/>
     </row>
     <row r="30" spans="7:7">
-      <c r="G30" s="12"/>
+      <c r="G30" s="11"/>
     </row>
     <row r="31" spans="7:7">
-      <c r="G31" s="12"/>
+      <c r="G31" s="11"/>
     </row>
     <row r="32" spans="7:7">
-      <c r="G32" s="12"/>
+      <c r="G32" s="11"/>
     </row>
     <row r="33" spans="7:7">
-      <c r="G33" s="12"/>
+      <c r="G33" s="11"/>
     </row>
     <row r="34" spans="7:7">
-      <c r="G34" s="12"/>
+      <c r="G34" s="11"/>
     </row>
     <row r="35" spans="7:7">
-      <c r="G35" s="12"/>
+      <c r="G35" s="11"/>
     </row>
     <row r="36" spans="7:7">
-      <c r="G36" s="12"/>
+      <c r="G36" s="11"/>
     </row>
     <row r="37" spans="7:7">
-      <c r="G37" s="12"/>
+      <c r="G37" s="11"/>
     </row>
     <row r="38" spans="7:7">
-      <c r="G38" s="12"/>
+      <c r="G38" s="11"/>
     </row>
     <row r="39" spans="7:7">
-      <c r="G39" s="12"/>
+      <c r="G39" s="11"/>
     </row>
     <row r="40" spans="7:7">
-      <c r="G40" s="12"/>
+      <c r="G40" s="11"/>
     </row>
     <row r="41" spans="7:7">
-      <c r="G41" s="12"/>
+      <c r="G41" s="11"/>
     </row>
     <row r="42" spans="7:7">
-      <c r="G42" s="12"/>
+      <c r="G42" s="11"/>
     </row>
     <row r="43" spans="7:7">
-      <c r="G43" s="12"/>
+      <c r="G43" s="11"/>
     </row>
     <row r="44" spans="7:7">
-      <c r="G44" s="12"/>
+      <c r="G44" s="11"/>
     </row>
     <row r="45" spans="7:7">
-      <c r="G45" s="12"/>
+      <c r="G45" s="11"/>
     </row>
     <row r="46" spans="7:7">
-      <c r="G46" s="12"/>
+      <c r="G46" s="11"/>
     </row>
     <row r="47" spans="7:7">
-      <c r="G47" s="12"/>
+      <c r="G47" s="11"/>
     </row>
     <row r="48" spans="7:7">
-      <c r="G48" s="12"/>
+      <c r="G48" s="11"/>
     </row>
     <row r="49" spans="7:7">
-      <c r="G49" s="12"/>
+      <c r="G49" s="11"/>
     </row>
     <row r="50" spans="7:7">
-      <c r="G50" s="12"/>
+      <c r="G50" s="11"/>
     </row>
     <row r="51" spans="7:7">
-      <c r="G51" s="12"/>
+      <c r="G51" s="11"/>
     </row>
     <row r="52" spans="7:7">
-      <c r="G52" s="12"/>
+      <c r="G52" s="11"/>
     </row>
     <row r="53" spans="7:7">
-      <c r="G53" s="12"/>
+      <c r="G53" s="11"/>
     </row>
     <row r="54" spans="7:7">
-      <c r="G54" s="12"/>
+      <c r="G54" s="11"/>
     </row>
     <row r="55" spans="7:7">
-      <c r="G55" s="12"/>
+      <c r="G55" s="11"/>
     </row>
     <row r="56" spans="7:7">
-      <c r="G56" s="12"/>
+      <c r="G56" s="11"/>
     </row>
     <row r="57" spans="7:7">
-      <c r="G57" s="12"/>
+      <c r="G57" s="11"/>
     </row>
     <row r="58" spans="7:7">
-      <c r="G58" s="12"/>
+      <c r="G58" s="11"/>
     </row>
     <row r="59" spans="7:7">
-      <c r="G59" s="12"/>
+      <c r="G59" s="11"/>
     </row>
     <row r="60" spans="7:7">
-      <c r="G60" s="12"/>
+      <c r="G60" s="11"/>
     </row>
     <row r="61" spans="7:7">
-      <c r="G61" s="12"/>
+      <c r="G61" s="11"/>
     </row>
     <row r="62" spans="7:7">
-      <c r="G62" s="12"/>
+      <c r="G62" s="11"/>
     </row>
     <row r="63" spans="7:7">
-      <c r="G63" s="12"/>
+      <c r="G63" s="11"/>
     </row>
     <row r="64" spans="7:7">
-      <c r="G64" s="12"/>
+      <c r="G64" s="11"/>
     </row>
     <row r="65" spans="7:7">
-      <c r="G65" s="12"/>
+      <c r="G65" s="11"/>
     </row>
     <row r="66" spans="7:7">
-      <c r="G66" s="12"/>
+      <c r="G66" s="11"/>
     </row>
     <row r="67" spans="7:7">
-      <c r="G67" s="12"/>
+      <c r="G67" s="11"/>
     </row>
     <row r="68" spans="7:7">
-      <c r="G68" s="12"/>
+      <c r="G68" s="11"/>
     </row>
     <row r="69" spans="7:7">
-      <c r="G69" s="12"/>
+      <c r="G69" s="11"/>
     </row>
     <row r="70" spans="7:7">
-      <c r="G70" s="12"/>
+      <c r="G70" s="11"/>
     </row>
     <row r="71" spans="7:7">
-      <c r="G71" s="12"/>
+      <c r="G71" s="11"/>
     </row>
     <row r="72" spans="7:7">
-      <c r="G72" s="12"/>
+      <c r="G72" s="11"/>
     </row>
     <row r="73" spans="7:7">
-      <c r="G73" s="12"/>
+      <c r="G73" s="11"/>
     </row>
     <row r="74" spans="7:7">
-      <c r="G74" s="12"/>
+      <c r="G74" s="11"/>
     </row>
     <row r="75" spans="7:7">
-      <c r="G75" s="12"/>
+      <c r="G75" s="11"/>
     </row>
     <row r="76" spans="7:7">
-      <c r="G76" s="12"/>
+      <c r="G76" s="11"/>
     </row>
     <row r="77" spans="7:7">
-      <c r="G77" s="12"/>
+      <c r="G77" s="11"/>
     </row>
     <row r="78" spans="7:7">
-      <c r="G78" s="12"/>
+      <c r="G78" s="11"/>
     </row>
     <row r="79" spans="7:7">
-      <c r="G79" s="12"/>
+      <c r="G79" s="11"/>
     </row>
     <row r="80" spans="7:7">
-      <c r="G80" s="12"/>
+      <c r="G80" s="11"/>
     </row>
     <row r="81" spans="7:7">
-      <c r="G81" s="12"/>
+      <c r="G81" s="11"/>
     </row>
     <row r="82" spans="7:7">
-      <c r="G82" s="12"/>
+      <c r="G82" s="11"/>
     </row>
     <row r="83" spans="7:7">
-      <c r="G83" s="12"/>
+      <c r="G83" s="11"/>
     </row>
     <row r="84" spans="7:7">
-      <c r="G84" s="12"/>
+      <c r="G84" s="11"/>
     </row>
     <row r="85" spans="7:7">
-      <c r="G85" s="12"/>
+      <c r="G85" s="11"/>
     </row>
     <row r="86" spans="7:7">
-      <c r="G86" s="12"/>
+      <c r="G86" s="11"/>
     </row>
     <row r="87" spans="7:7">
-      <c r="G87" s="12"/>
+      <c r="G87" s="11"/>
     </row>
     <row r="88" spans="7:7">
-      <c r="G88" s="12"/>
+      <c r="G88" s="11"/>
     </row>
     <row r="89" spans="7:7">
-      <c r="G89" s="12"/>
+      <c r="G89" s="11"/>
     </row>
     <row r="90" spans="7:7">
-      <c r="G90" s="12"/>
+      <c r="G90" s="11"/>
     </row>
     <row r="91" spans="7:7">
-      <c r="G91" s="12"/>
+      <c r="G91" s="11"/>
     </row>
     <row r="92" spans="7:7">
-      <c r="G92" s="12"/>
+      <c r="G92" s="11"/>
     </row>
     <row r="93" spans="7:7">
-      <c r="G93" s="12"/>
+      <c r="G93" s="11"/>
     </row>
     <row r="94" spans="7:7">
-      <c r="G94" s="12"/>
+      <c r="G94" s="11"/>
     </row>
     <row r="95" spans="7:7">
-      <c r="G95" s="12"/>
+      <c r="G95" s="11"/>
     </row>
     <row r="96" spans="7:7">
-      <c r="G96" s="12"/>
+      <c r="G96" s="11"/>
     </row>
     <row r="97" spans="7:7">
-      <c r="G97" s="12"/>
+      <c r="G97" s="11"/>
     </row>
     <row r="98" spans="7:7">
-      <c r="G98" s="12"/>
+      <c r="G98" s="11"/>
     </row>
     <row r="99" spans="7:7">
-      <c r="G99" s="12"/>
+      <c r="G99" s="11"/>
     </row>
     <row r="100" spans="7:7">
-      <c r="G100" s="12"/>
+      <c r="G100" s="11"/>
     </row>
     <row r="101" spans="7:7">
-      <c r="G101" s="12"/>
+      <c r="G101" s="11"/>
     </row>
     <row r="102" spans="7:7">
-      <c r="G102" s="12"/>
+      <c r="G102" s="11"/>
     </row>
     <row r="103" spans="7:7">
-      <c r="G103" s="12"/>
+      <c r="G103" s="11"/>
     </row>
     <row r="104" spans="7:7">
-      <c r="G104" s="12"/>
+      <c r="G104" s="11"/>
     </row>
     <row r="105" spans="7:7">
-      <c r="G105" s="12"/>
+      <c r="G105" s="11"/>
     </row>
     <row r="106" spans="7:7">
-      <c r="G106" s="12"/>
+      <c r="G106" s="11"/>
     </row>
     <row r="107" spans="7:7">
-      <c r="G107" s="12"/>
+      <c r="G107" s="11"/>
     </row>
     <row r="108" spans="7:7">
-      <c r="G108" s="12"/>
+      <c r="G108" s="11"/>
     </row>
     <row r="109" spans="7:7">
-      <c r="G109" s="12"/>
+      <c r="G109" s="11"/>
     </row>
     <row r="110" spans="7:7">
-      <c r="G110" s="12"/>
+      <c r="G110" s="11"/>
     </row>
     <row r="111" spans="7:7">
-      <c r="G111" s="12"/>
+      <c r="G111" s="11"/>
     </row>
     <row r="112" spans="7:7">
-      <c r="G112" s="12"/>
+      <c r="G112" s="11"/>
     </row>
     <row r="113" spans="7:7">
-      <c r="G113" s="12"/>
+      <c r="G113" s="11"/>
     </row>
     <row r="114" spans="7:7">
-      <c r="G114" s="12"/>
+      <c r="G114" s="11"/>
     </row>
     <row r="115" spans="7:7">
-      <c r="G115" s="12"/>
+      <c r="G115" s="11"/>
     </row>
     <row r="116" spans="7:7">
-      <c r="G116" s="12"/>
+      <c r="G116" s="11"/>
     </row>
     <row r="117" spans="7:7">
-      <c r="G117" s="12"/>
+      <c r="G117" s="11"/>
     </row>
     <row r="118" spans="7:7">
-      <c r="G118" s="12"/>
+      <c r="G118" s="11"/>
     </row>
     <row r="119" spans="7:7">
-      <c r="G119" s="12"/>
+      <c r="G119" s="11"/>
     </row>
     <row r="120" spans="7:7">
-      <c r="G120" s="12"/>
+      <c r="G120" s="11"/>
     </row>
     <row r="121" spans="7:7">
-      <c r="G121" s="12"/>
+      <c r="G121" s="11"/>
     </row>
     <row r="122" spans="7:7">
-      <c r="G122" s="12"/>
+      <c r="G122" s="11"/>
     </row>
     <row r="123" spans="7:7">
-      <c r="G123" s="12"/>
+      <c r="G123" s="11"/>
     </row>
     <row r="124" spans="7:7">
-      <c r="G124" s="12"/>
+      <c r="G124" s="11"/>
     </row>
     <row r="125" spans="7:7">
-      <c r="G125" s="12"/>
+      <c r="G125" s="11"/>
     </row>
     <row r="126" spans="7:7">
-      <c r="G126" s="12"/>
+      <c r="G126" s="11"/>
     </row>
     <row r="127" spans="7:7">
-      <c r="G127" s="12"/>
+      <c r="G127" s="11"/>
     </row>
     <row r="128" spans="7:7">
-      <c r="G128" s="12"/>
+      <c r="G128" s="11"/>
     </row>
     <row r="129" spans="7:7">
-      <c r="G129" s="12"/>
+      <c r="G129" s="11"/>
     </row>
     <row r="130" spans="7:7">
-      <c r="G130" s="12"/>
+      <c r="G130" s="11"/>
     </row>
     <row r="131" spans="7:7">
-      <c r="G131" s="12"/>
+      <c r="G131" s="11"/>
     </row>
     <row r="132" spans="7:7">
-      <c r="G132" s="12"/>
+      <c r="G132" s="11"/>
     </row>
     <row r="133" spans="7:7">
-      <c r="G133" s="12"/>
+      <c r="G133" s="11"/>
     </row>
     <row r="134" spans="7:7">
-      <c r="G134" s="12"/>
+      <c r="G134" s="11"/>
     </row>
     <row r="135" spans="7:7">
-      <c r="G135" s="12"/>
+      <c r="G135" s="11"/>
     </row>
     <row r="136" spans="7:7">
-      <c r="G136" s="12"/>
+      <c r="G136" s="11"/>
     </row>
     <row r="137" spans="7:7">
-      <c r="G137" s="12"/>
+      <c r="G137" s="11"/>
     </row>
     <row r="138" spans="7:7">
-      <c r="G138" s="12"/>
+      <c r="G138" s="11"/>
     </row>
     <row r="139" spans="7:7">
-      <c r="G139" s="12"/>
+      <c r="G139" s="11"/>
     </row>
     <row r="140" spans="7:7">
-      <c r="G140" s="12"/>
+      <c r="G140" s="11"/>
     </row>
     <row r="141" spans="7:7">
-      <c r="G141" s="12"/>
+      <c r="G141" s="11"/>
     </row>
     <row r="142" spans="7:7">
-      <c r="G142" s="12"/>
+      <c r="G142" s="11"/>
     </row>
     <row r="143" spans="7:7">
-      <c r="G143" s="12"/>
+      <c r="G143" s="11"/>
     </row>
     <row r="144" spans="7:7">
-      <c r="G144" s="12"/>
+      <c r="G144" s="11"/>
     </row>
     <row r="145" spans="7:7">
-      <c r="G145" s="12"/>
+      <c r="G145" s="11"/>
     </row>
     <row r="146" spans="7:7">
-      <c r="G146" s="12"/>
+      <c r="G146" s="11"/>
     </row>
     <row r="147" spans="7:7">
-      <c r="G147" s="12"/>
+      <c r="G147" s="11"/>
     </row>
     <row r="148" spans="7:7">
-      <c r="G148" s="12"/>
+      <c r="G148" s="11"/>
     </row>
     <row r="149" spans="7:7">
-      <c r="G149" s="12"/>
+      <c r="G149" s="11"/>
     </row>
     <row r="150" spans="7:7">
-      <c r="G150" s="12"/>
+      <c r="G150" s="11"/>
     </row>
     <row r="151" spans="7:7">
-      <c r="G151" s="12"/>
+      <c r="G151" s="11"/>
     </row>
     <row r="152" spans="7:7">
-      <c r="G152" s="12"/>
+      <c r="G152" s="11"/>
     </row>
     <row r="153" spans="7:7">
-      <c r="G153" s="12"/>
+      <c r="G153" s="11"/>
     </row>
     <row r="154" spans="7:7">
-      <c r="G154" s="12"/>
+      <c r="G154" s="11"/>
     </row>
     <row r="155" spans="7:7">
-      <c r="G155" s="12"/>
+      <c r="G155" s="11"/>
     </row>
     <row r="156" spans="7:7">
-      <c r="G156" s="12"/>
+      <c r="G156" s="11"/>
     </row>
     <row r="157" spans="7:7">
-      <c r="G157" s="12"/>
+      <c r="G157" s="11"/>
     </row>
     <row r="158" spans="7:7">
-      <c r="G158" s="12"/>
+      <c r="G158" s="11"/>
     </row>
     <row r="159" spans="7:7">
-      <c r="G159" s="12"/>
+      <c r="G159" s="11"/>
     </row>
     <row r="160" spans="7:7">
-      <c r="G160" s="12"/>
+      <c r="G160" s="11"/>
     </row>
     <row r="161" spans="7:7">
-      <c r="G161" s="12"/>
+      <c r="G161" s="11"/>
     </row>
     <row r="162" spans="7:7">
-      <c r="G162" s="12"/>
+      <c r="G162" s="11"/>
     </row>
     <row r="163" spans="7:7">
-      <c r="G163" s="12"/>
+      <c r="G163" s="11"/>
     </row>
     <row r="164" spans="7:7">
-      <c r="G164" s="12"/>
+      <c r="G164" s="11"/>
     </row>
     <row r="165" spans="7:7">
-      <c r="G165" s="12"/>
+      <c r="G165" s="11"/>
     </row>
     <row r="166" spans="7:7">
-      <c r="G166" s="12"/>
+      <c r="G166" s="11"/>
     </row>
     <row r="167" spans="7:7">
-      <c r="G167" s="12"/>
+      <c r="G167" s="11"/>
     </row>
     <row r="168" spans="7:7">
-      <c r="G168" s="12"/>
+      <c r="G168" s="11"/>
     </row>
     <row r="169" spans="7:7">
-      <c r="G169" s="12"/>
+      <c r="G169" s="11"/>
     </row>
     <row r="170" spans="7:7">
-      <c r="G170" s="12"/>
+      <c r="G170" s="11"/>
     </row>
     <row r="171" spans="7:7">
-      <c r="G171" s="12"/>
+      <c r="G171" s="11"/>
     </row>
     <row r="172" spans="7:7">
-      <c r="G172" s="12"/>
+      <c r="G172" s="11"/>
     </row>
     <row r="173" spans="7:7">
-      <c r="G173" s="12"/>
+      <c r="G173" s="11"/>
     </row>
     <row r="174" spans="7:7">
-      <c r="G174" s="12"/>
+      <c r="G174" s="11"/>
     </row>
     <row r="175" spans="7:7">
-      <c r="G175" s="12"/>
+      <c r="G175" s="11"/>
     </row>
     <row r="176" spans="7:7">
-      <c r="G176" s="12"/>
+      <c r="G176" s="11"/>
     </row>
     <row r="177" spans="7:7">
-      <c r="G177" s="12"/>
+      <c r="G177" s="11"/>
     </row>
     <row r="178" spans="7:7">
-      <c r="G178" s="12"/>
+      <c r="G178" s="11"/>
     </row>
     <row r="179" spans="7:7">
-      <c r="G179" s="12"/>
+      <c r="G179" s="11"/>
     </row>
     <row r="180" spans="7:7">
-      <c r="G180" s="12"/>
+      <c r="G180" s="11"/>
     </row>
     <row r="181" spans="7:7">
-      <c r="G181" s="12"/>
+      <c r="G181" s="11"/>
     </row>
     <row r="182" spans="7:7">
-      <c r="G182" s="12"/>
+      <c r="G182" s="11"/>
     </row>
     <row r="183" spans="7:7">
-      <c r="G183" s="12"/>
+      <c r="G183" s="11"/>
     </row>
     <row r="184" spans="7:7">
-      <c r="G184" s="12"/>
+      <c r="G184" s="11"/>
     </row>
     <row r="185" spans="7:7">
-      <c r="G185" s="12"/>
+      <c r="G185" s="11"/>
     </row>
     <row r="186" spans="7:7">
-      <c r="G186" s="12"/>
+      <c r="G186" s="11"/>
     </row>
     <row r="187" spans="7:7">
-      <c r="G187" s="12"/>
+      <c r="G187" s="11"/>
     </row>
     <row r="188" spans="7:7">
-      <c r="G188" s="12"/>
+      <c r="G188" s="11"/>
     </row>
     <row r="189" spans="7:7">
-      <c r="G189" s="12"/>
+      <c r="G189" s="11"/>
     </row>
     <row r="190" spans="7:7">
-      <c r="G190" s="12"/>
+      <c r="G190" s="11"/>
     </row>
     <row r="191" spans="7:7">
-      <c r="G191" s="12"/>
+      <c r="G191" s="11"/>
     </row>
     <row r="192" spans="7:7">
-      <c r="G192" s="12"/>
+      <c r="G192" s="11"/>
     </row>
     <row r="193" spans="7:7">
-      <c r="G193" s="12"/>
+      <c r="G193" s="11"/>
     </row>
     <row r="194" spans="7:7">
-      <c r="G194" s="12"/>
+      <c r="G194" s="11"/>
     </row>
     <row r="195" spans="7:7">
-      <c r="G195" s="12"/>
+      <c r="G195" s="11"/>
     </row>
     <row r="196" spans="7:7">
-      <c r="G196" s="12"/>
+      <c r="G196" s="11"/>
     </row>
     <row r="197" spans="7:7">
-      <c r="G197" s="12"/>
+      <c r="G197" s="11"/>
     </row>
     <row r="198" spans="7:7">
-      <c r="G198" s="12"/>
+      <c r="G198" s="11"/>
     </row>
     <row r="199" spans="7:7">
-      <c r="G199" s="12"/>
+      <c r="G199" s="11"/>
     </row>
     <row r="200" spans="7:7">
-      <c r="G200" s="12"/>
+      <c r="G200" s="11"/>
     </row>
     <row r="201" spans="7:7">
-      <c r="G201" s="12"/>
+      <c r="G201" s="11"/>
     </row>
     <row r="202" spans="7:7">
-      <c r="G202" s="12"/>
+      <c r="G202" s="11"/>
     </row>
     <row r="203" spans="7:7">
-      <c r="G203" s="12"/>
+      <c r="G203" s="11"/>
     </row>
     <row r="204" spans="7:7">
-      <c r="G204" s="12"/>
+      <c r="G204" s="11"/>
     </row>
     <row r="205" spans="7:7">
-      <c r="G205" s="12"/>
+      <c r="G205" s="11"/>
     </row>
     <row r="206" spans="7:7">
-      <c r="G206" s="12"/>
+      <c r="G206" s="11"/>
     </row>
     <row r="207" spans="7:7">
-      <c r="G207" s="12"/>
+      <c r="G207" s="11"/>
     </row>
     <row r="208" spans="7:7">
-      <c r="G208" s="12"/>
+      <c r="G208" s="11"/>
     </row>
     <row r="209" spans="7:7">
-      <c r="G209" s="12"/>
+      <c r="G209" s="11"/>
     </row>
     <row r="210" spans="7:7">
-      <c r="G210" s="12"/>
+      <c r="G210" s="11"/>
     </row>
     <row r="211" spans="7:7">
-      <c r="G211" s="12"/>
+      <c r="G211" s="11"/>
     </row>
     <row r="212" spans="7:7">
-      <c r="G212" s="12"/>
+      <c r="G212" s="11"/>
     </row>
     <row r="213" spans="7:7">
-      <c r="G213" s="12"/>
+      <c r="G213" s="11"/>
     </row>
     <row r="214" spans="7:7">
-      <c r="G214" s="12"/>
+      <c r="G214" s="11"/>
     </row>
     <row r="215" spans="7:7">
-      <c r="G215" s="12"/>
+      <c r="G215" s="11"/>
     </row>
     <row r="216" spans="7:7">
-      <c r="G216" s="12"/>
+      <c r="G216" s="11"/>
     </row>
     <row r="217" spans="7:7">
-      <c r="G217" s="12"/>
+      <c r="G217" s="11"/>
     </row>
     <row r="218" spans="7:7">
-      <c r="G218" s="12"/>
+      <c r="G218" s="11"/>
     </row>
     <row r="219" spans="7:7">
-      <c r="G219" s="12"/>
+      <c r="G219" s="11"/>
     </row>
     <row r="220" spans="7:7">
-      <c r="G220" s="12"/>
+      <c r="G220" s="11"/>
     </row>
     <row r="221" spans="7:7">
-      <c r="G221" s="12"/>
+      <c r="G221" s="11"/>
     </row>
     <row r="222" spans="7:7">
-      <c r="G222" s="12"/>
+      <c r="G222" s="11"/>
     </row>
     <row r="223" spans="7:7">
-      <c r="G223" s="12"/>
+      <c r="G223" s="11"/>
     </row>
     <row r="224" spans="7:7">
-      <c r="G224" s="12"/>
+      <c r="G224" s="11"/>
     </row>
     <row r="225" spans="7:7">
-      <c r="G225" s="12"/>
+      <c r="G225" s="11"/>
     </row>
     <row r="226" spans="7:7">
-      <c r="G226" s="12"/>
+      <c r="G226" s="11"/>
     </row>
     <row r="227" spans="7:7">
-      <c r="G227" s="12"/>
+      <c r="G227" s="11"/>
     </row>
     <row r="228" spans="7:7">
-      <c r="G228" s="12"/>
+      <c r="G228" s="11"/>
     </row>
     <row r="229" spans="7:7">
-      <c r="G229" s="12"/>
+      <c r="G229" s="11"/>
     </row>
     <row r="230" spans="7:7">
-      <c r="G230" s="12"/>
+      <c r="G230" s="11"/>
     </row>
     <row r="231" spans="7:7">
-      <c r="G231" s="12"/>
+      <c r="G231" s="11"/>
     </row>
     <row r="232" spans="7:7">
-      <c r="G232" s="12"/>
+      <c r="G232" s="11"/>
     </row>
     <row r="233" spans="7:7">
-      <c r="G233" s="12"/>
+      <c r="G233" s="11"/>
     </row>
     <row r="234" spans="7:7">
-      <c r="G234" s="12"/>
+      <c r="G234" s="11"/>
     </row>
     <row r="235" spans="7:7">
-      <c r="G235" s="12"/>
+      <c r="G235" s="11"/>
     </row>
     <row r="236" spans="7:7">
-      <c r="G236" s="12"/>
+      <c r="G236" s="11"/>
     </row>
     <row r="237" spans="7:7">
-      <c r="G237" s="12"/>
+      <c r="G237" s="11"/>
     </row>
     <row r="238" spans="7:7">
-      <c r="G238" s="12"/>
+      <c r="G238" s="11"/>
     </row>
     <row r="239" spans="7:7">
-      <c r="G239" s="12"/>
+      <c r="G239" s="11"/>
     </row>
     <row r="240" spans="7:7">
-      <c r="G240" s="12"/>
+      <c r="G240" s="11"/>
     </row>
     <row r="241" spans="7:7">
-      <c r="G241" s="12"/>
+      <c r="G241" s="11"/>
     </row>
     <row r="242" spans="7:7">
-      <c r="G242" s="12"/>
+      <c r="G242" s="11"/>
     </row>
     <row r="243" spans="7:7">
-      <c r="G243" s="12"/>
+      <c r="G243" s="11"/>
     </row>
     <row r="244" spans="7:7">
-      <c r="G244" s="12"/>
+      <c r="G244" s="11"/>
     </row>
     <row r="245" spans="7:7">
-      <c r="G245" s="12"/>
+      <c r="G245" s="11"/>
     </row>
     <row r="246" spans="7:7">
-      <c r="G246" s="12"/>
+      <c r="G246" s="11"/>
     </row>
     <row r="247" spans="7:7">
-      <c r="G247" s="12"/>
+      <c r="G247" s="11"/>
     </row>
     <row r="248" spans="7:7">
-      <c r="G248" s="12"/>
+      <c r="G248" s="11"/>
     </row>
     <row r="249" spans="7:7">
-      <c r="G249" s="12"/>
+      <c r="G249" s="11"/>
     </row>
     <row r="250" spans="7:7">
-      <c r="G250" s="12"/>
+      <c r="G250" s="11"/>
     </row>
     <row r="251" spans="7:7">
-      <c r="G251" s="12"/>
+      <c r="G251" s="11"/>
     </row>
     <row r="252" spans="7:7">
-      <c r="G252" s="12"/>
+      <c r="G252" s="11"/>
     </row>
     <row r="253" spans="7:7">
-      <c r="G253" s="12"/>
+      <c r="G253" s="11"/>
     </row>
     <row r="254" spans="7:7">
-      <c r="G254" s="12"/>
+      <c r="G254" s="11"/>
     </row>
     <row r="255" spans="7:7">
-      <c r="G255" s="12"/>
+      <c r="G255" s="11"/>
     </row>
     <row r="256" spans="7:7">
-      <c r="G256" s="12"/>
+      <c r="G256" s="11"/>
     </row>
     <row r="257" spans="7:7">
-      <c r="G257" s="12"/>
+      <c r="G257" s="11"/>
     </row>
     <row r="258" spans="7:7">
-      <c r="G258" s="12"/>
+      <c r="G258" s="11"/>
     </row>
     <row r="259" spans="7:7">
-      <c r="G259" s="12"/>
+      <c r="G259" s="11"/>
     </row>
     <row r="260" spans="7:7">
-      <c r="G260" s="12"/>
+      <c r="G260" s="11"/>
     </row>
     <row r="261" spans="7:7">
-      <c r="G261" s="12"/>
+      <c r="G261" s="11"/>
     </row>
     <row r="262" spans="7:7">
-      <c r="G262" s="12"/>
+      <c r="G262" s="11"/>
     </row>
     <row r="263" spans="7:7">
-      <c r="G263" s="12"/>
+      <c r="G263" s="11"/>
     </row>
     <row r="264" spans="7:7">
-      <c r="G264" s="12"/>
+      <c r="G264" s="11"/>
     </row>
     <row r="265" spans="7:7">
-      <c r="G265" s="12"/>
+      <c r="G265" s="11"/>
     </row>
     <row r="266" spans="7:7">
-      <c r="G266" s="12"/>
+      <c r="G266" s="11"/>
     </row>
     <row r="267" spans="7:7">
-      <c r="G267" s="12"/>
+      <c r="G267" s="11"/>
     </row>
     <row r="268" spans="7:7">
-      <c r="G268" s="12"/>
+      <c r="G268" s="11"/>
     </row>
     <row r="269" spans="7:7">
-      <c r="G269" s="12"/>
+      <c r="G269" s="11"/>
     </row>
     <row r="270" spans="7:7">
-      <c r="G270" s="12"/>
+      <c r="G270" s="11"/>
     </row>
     <row r="271" spans="7:7">
-      <c r="G271" s="12"/>
+      <c r="G271" s="11"/>
     </row>
     <row r="272" spans="7:7">
-      <c r="G272" s="12"/>
+      <c r="G272" s="11"/>
     </row>
     <row r="273" spans="7:7">
-      <c r="G273" s="12"/>
+      <c r="G273" s="11"/>
     </row>
     <row r="274" spans="7:7">
-      <c r="G274" s="12"/>
+      <c r="G274" s="11"/>
     </row>
     <row r="275" spans="7:7">
-      <c r="G275" s="12"/>
+      <c r="G275" s="11"/>
     </row>
     <row r="276" spans="7:7">
-      <c r="G276" s="12"/>
+      <c r="G276" s="11"/>
     </row>
     <row r="277" spans="7:7">
-      <c r="G277" s="12"/>
+      <c r="G277" s="11"/>
     </row>
     <row r="278" spans="7:7">
-      <c r="G278" s="12"/>
+      <c r="G278" s="11"/>
     </row>
     <row r="279" spans="7:7">
-      <c r="G279" s="12"/>
+      <c r="G279" s="11"/>
     </row>
     <row r="280" spans="7:7">
-      <c r="G280" s="12"/>
+      <c r="G280" s="11"/>
     </row>
     <row r="281" spans="7:7">
-      <c r="G281" s="12"/>
+      <c r="G281" s="11"/>
     </row>
     <row r="282" spans="7:7">
-      <c r="G282" s="12"/>
+      <c r="G282" s="11"/>
     </row>
     <row r="283" spans="7:7">
-      <c r="G283" s="12"/>
+      <c r="G283" s="11"/>
     </row>
     <row r="284" spans="7:7">
-      <c r="G284" s="12"/>
+      <c r="G284" s="11"/>
     </row>
     <row r="285" spans="7:7">
-      <c r="G285" s="12"/>
+      <c r="G285" s="11"/>
     </row>
     <row r="286" spans="7:7">
-      <c r="G286" s="12"/>
+      <c r="G286" s="11"/>
     </row>
     <row r="287" spans="7:7">
-      <c r="G287" s="12"/>
+      <c r="G287" s="11"/>
     </row>
     <row r="288" spans="7:7">
-      <c r="G288" s="12"/>
+      <c r="G288" s="11"/>
     </row>
     <row r="289" spans="7:7">
-      <c r="G289" s="12"/>
+      <c r="G289" s="11"/>
     </row>
     <row r="290" spans="7:7">
-      <c r="G290" s="12"/>
+      <c r="G290" s="11"/>
     </row>
     <row r="291" spans="7:7">
-      <c r="G291" s="12"/>
+      <c r="G291" s="11"/>
     </row>
     <row r="292" spans="7:7">
-      <c r="G292" s="12"/>
+      <c r="G292" s="11"/>
     </row>
     <row r="293" spans="7:7">
-      <c r="G293" s="12"/>
+      <c r="G293" s="11"/>
     </row>
     <row r="294" spans="7:7">
-      <c r="G294" s="12"/>
+      <c r="G294" s="11"/>
     </row>
     <row r="295" spans="7:7">
-      <c r="G295" s="12"/>
+      <c r="G295" s="11"/>
     </row>
     <row r="296" spans="7:7">
-      <c r="G296" s="12"/>
+      <c r="G296" s="11"/>
     </row>
     <row r="297" spans="7:7">
-      <c r="G297" s="12"/>
+      <c r="G297" s="11"/>
     </row>
     <row r="298" spans="7:7">
-      <c r="G298" s="12"/>
+      <c r="G298" s="11"/>
     </row>
     <row r="299" spans="7:7">
-      <c r="G299" s="12"/>
+      <c r="G299" s="11"/>
     </row>
     <row r="300" spans="7:7">
-      <c r="G300" s="12"/>
+      <c r="G300" s="11"/>
     </row>
     <row r="301" spans="7:7">
-      <c r="G301" s="12"/>
+      <c r="G301" s="11"/>
     </row>
     <row r="302" spans="7:7">
-      <c r="G302" s="12"/>
+      <c r="G302" s="11"/>
     </row>
     <row r="303" spans="7:7">
-      <c r="G303" s="12"/>
+      <c r="G303" s="11"/>
     </row>
     <row r="304" spans="7:7">
-      <c r="G304" s="12"/>
+      <c r="G304" s="11"/>
     </row>
     <row r="305" spans="7:7">
-      <c r="G305" s="12"/>
+      <c r="G305" s="11"/>
     </row>
     <row r="306" spans="7:7">
-      <c r="G306" s="12"/>
+      <c r="G306" s="11"/>
     </row>
     <row r="307" spans="7:7">
-      <c r="G307" s="12"/>
+      <c r="G307" s="11"/>
     </row>
     <row r="308" spans="7:7">
-      <c r="G308" s="12"/>
+      <c r="G308" s="11"/>
     </row>
     <row r="309" spans="7:7">
-      <c r="G309" s="12"/>
+      <c r="G309" s="11"/>
     </row>
     <row r="310" spans="7:7">
-      <c r="G310" s="12"/>
+      <c r="G310" s="11"/>
     </row>
     <row r="311" spans="7:7">
-      <c r="G311" s="12"/>
+      <c r="G311" s="11"/>
     </row>
     <row r="312" spans="7:7">
-      <c r="G312" s="12"/>
+      <c r="G312" s="11"/>
     </row>
     <row r="313" spans="7:7">
-      <c r="G313" s="12"/>
+      <c r="G313" s="11"/>
     </row>
     <row r="314" spans="7:7">
-      <c r="G314" s="12"/>
+      <c r="G314" s="11"/>
     </row>
     <row r="315" spans="7:7">
-      <c r="G315" s="12"/>
+      <c r="G315" s="11"/>
     </row>
     <row r="316" spans="7:7">
-      <c r="G316" s="12"/>
+      <c r="G316" s="11"/>
     </row>
     <row r="317" spans="7:7">
-      <c r="G317" s="12"/>
+      <c r="G317" s="11"/>
     </row>
     <row r="318" spans="7:7">
-      <c r="G318" s="12"/>
+      <c r="G318" s="11"/>
     </row>
     <row r="319" spans="7:7">
-      <c r="G319" s="12"/>
+      <c r="G319" s="11"/>
     </row>
     <row r="320" spans="7:7">
-      <c r="G320" s="12"/>
+      <c r="G320" s="11"/>
     </row>
     <row r="321" spans="7:7">
-      <c r="G321" s="12"/>
+      <c r="G321" s="11"/>
     </row>
     <row r="322" spans="7:7">
-      <c r="G322" s="12"/>
+      <c r="G322" s="11"/>
     </row>
     <row r="323" spans="7:7">
-      <c r="G323" s="12"/>
+      <c r="G323" s="11"/>
     </row>
     <row r="324" spans="7:7">
-      <c r="G324" s="12"/>
+      <c r="G324" s="11"/>
     </row>
     <row r="325" spans="7:7">
-      <c r="G325" s="12"/>
+      <c r="G325" s="11"/>
     </row>
     <row r="326" spans="7:7">
-      <c r="G326" s="12"/>
+      <c r="G326" s="11"/>
     </row>
     <row r="327" spans="7:7">
-      <c r="G327" s="12"/>
+      <c r="G327" s="11"/>
     </row>
     <row r="328" spans="7:7">
-      <c r="G328" s="12"/>
+      <c r="G328" s="11"/>
     </row>
     <row r="329" spans="7:7">
-      <c r="G329" s="12"/>
+      <c r="G329" s="11"/>
     </row>
     <row r="330" spans="7:7">
-      <c r="G330" s="12"/>
+      <c r="G330" s="11"/>
     </row>
     <row r="331" spans="7:7">
-      <c r="G331" s="12"/>
+      <c r="G331" s="11"/>
     </row>
     <row r="332" spans="7:7">
-      <c r="G332" s="12"/>
+      <c r="G332" s="11"/>
     </row>
     <row r="333" spans="7:7">
-      <c r="G333" s="12"/>
+      <c r="G333" s="11"/>
     </row>
     <row r="334" spans="7:7">
-      <c r="G334" s="12"/>
+      <c r="G334" s="11"/>
     </row>
     <row r="335" spans="7:7">
-      <c r="G335" s="12"/>
+      <c r="G335" s="11"/>
     </row>
     <row r="336" spans="7:7">
-      <c r="G336" s="12"/>
+      <c r="G336" s="11"/>
     </row>
     <row r="337" spans="7:7">
-      <c r="G337" s="12"/>
+      <c r="G337" s="11"/>
     </row>
     <row r="338" spans="7:7">
-      <c r="G338" s="12"/>
+      <c r="G338" s="11"/>
     </row>
     <row r="339" spans="7:7">
-      <c r="G339" s="12"/>
+      <c r="G339" s="11"/>
     </row>
     <row r="340" spans="7:7">
-      <c r="G340" s="12"/>
+      <c r="G340" s="11"/>
     </row>
     <row r="341" spans="7:7">
-      <c r="G341" s="12"/>
+      <c r="G341" s="11"/>
     </row>
     <row r="342" spans="7:7">
-      <c r="G342" s="12"/>
+      <c r="G342" s="11"/>
     </row>
     <row r="343" spans="7:7">
-      <c r="G343" s="12"/>
+      <c r="G343" s="11"/>
     </row>
     <row r="344" spans="7:7">
-      <c r="G344" s="12"/>
+      <c r="G344" s="11"/>
     </row>
     <row r="345" spans="7:7">
-      <c r="G345" s="12"/>
+      <c r="G345" s="11"/>
     </row>
     <row r="346" spans="7:7">
-      <c r="G346" s="12"/>
+      <c r="G346" s="11"/>
     </row>
     <row r="347" spans="7:7">
-      <c r="G347" s="12"/>
+      <c r="G347" s="11"/>
     </row>
     <row r="348" spans="7:7">
-      <c r="G348" s="12"/>
+      <c r="G348" s="11"/>
     </row>
     <row r="349" spans="7:7">
-      <c r="G349" s="12"/>
+      <c r="G349" s="11"/>
     </row>
     <row r="350" spans="7:7">
-      <c r="G350" s="12"/>
+      <c r="G350" s="11"/>
     </row>
     <row r="351" spans="7:7">
-      <c r="G351" s="12"/>
+      <c r="G351" s="11"/>
     </row>
     <row r="352" spans="7:7">
-      <c r="G352" s="12"/>
+      <c r="G352" s="11"/>
     </row>
     <row r="353" spans="7:7">
-      <c r="G353" s="12"/>
+      <c r="G353" s="11"/>
     </row>
     <row r="354" spans="7:7">
-      <c r="G354" s="12"/>
+      <c r="G354" s="11"/>
     </row>
     <row r="355" spans="7:7">
-      <c r="G355" s="12"/>
+      <c r="G355" s="11"/>
     </row>
     <row r="356" spans="7:7">
-      <c r="G356" s="12"/>
+      <c r="G356" s="11"/>
     </row>
     <row r="357" spans="7:7">
-      <c r="G357" s="12"/>
+      <c r="G357" s="11"/>
     </row>
     <row r="358" spans="7:7">
-      <c r="G358" s="12"/>
+      <c r="G358" s="11"/>
     </row>
     <row r="359" spans="7:7">
-      <c r="G359" s="12"/>
+      <c r="G359" s="11"/>
     </row>
     <row r="360" spans="7:7">
-      <c r="G360" s="12"/>
+      <c r="G360" s="11"/>
     </row>
     <row r="361" spans="7:7">
-      <c r="G361" s="12"/>
+      <c r="G361" s="11"/>
     </row>
     <row r="362" spans="7:7">
-      <c r="G362" s="12"/>
+      <c r="G362" s="11"/>
     </row>
     <row r="363" spans="7:7">
-      <c r="G363" s="12"/>
+      <c r="G363" s="11"/>
     </row>
     <row r="364" spans="7:7">
-      <c r="G364" s="12"/>
+      <c r="G364" s="11"/>
     </row>
     <row r="365" spans="7:7">
-      <c r="G365" s="12"/>
+      <c r="G365" s="11"/>
     </row>
     <row r="366" spans="7:7">
-      <c r="G366" s="12"/>
+      <c r="G366" s="11"/>
     </row>
     <row r="367" spans="7:7">
-      <c r="G367" s="12"/>
+      <c r="G367" s="11"/>
     </row>
     <row r="368" spans="7:7">
-      <c r="G368" s="12"/>
+      <c r="G368" s="11"/>
     </row>
     <row r="369" spans="7:7">
-      <c r="G369" s="12"/>
+      <c r="G369" s="11"/>
     </row>
     <row r="370" spans="7:7">
-      <c r="G370" s="12"/>
+      <c r="G370" s="11"/>
     </row>
     <row r="371" spans="7:7">
-      <c r="G371" s="12"/>
+      <c r="G371" s="11"/>
     </row>
     <row r="372" spans="7:7">
-      <c r="G372" s="12"/>
+      <c r="G372" s="11"/>
     </row>
     <row r="373" spans="7:7">
-      <c r="G373" s="12"/>
+      <c r="G373" s="11"/>
     </row>
     <row r="374" spans="7:7">
-      <c r="G374" s="12"/>
+      <c r="G374" s="11"/>
     </row>
     <row r="375" spans="7:7">
-      <c r="G375" s="12"/>
+      <c r="G375" s="11"/>
     </row>
     <row r="376" spans="7:7">
-      <c r="G376" s="12"/>
+      <c r="G376" s="11"/>
     </row>
     <row r="377" spans="7:7">
-      <c r="G377" s="12"/>
+      <c r="G377" s="11"/>
     </row>
     <row r="378" spans="7:7">
-      <c r="G378" s="12"/>
+      <c r="G378" s="11"/>
     </row>
     <row r="379" spans="7:7">
-      <c r="G379" s="12"/>
+      <c r="G379" s="11"/>
     </row>
     <row r="380" spans="7:7">
-      <c r="G380" s="12"/>
+      <c r="G380" s="11"/>
     </row>
     <row r="381" spans="7:7">
-      <c r="G381" s="12"/>
+      <c r="G381" s="11"/>
     </row>
     <row r="382" spans="7:7">
-      <c r="G382" s="12"/>
+      <c r="G382" s="11"/>
     </row>
     <row r="383" spans="7:7">
-      <c r="G383" s="12"/>
+      <c r="G383" s="11"/>
     </row>
     <row r="384" spans="7:7">
-      <c r="G384" s="12"/>
+      <c r="G384" s="11"/>
     </row>
     <row r="385" spans="7:7">
-      <c r="G385" s="12"/>
+      <c r="G385" s="11"/>
     </row>
     <row r="386" spans="7:7">
-      <c r="G386" s="12"/>
+      <c r="G386" s="11"/>
     </row>
     <row r="387" spans="7:7">
-      <c r="G387" s="12"/>
+      <c r="G387" s="11"/>
     </row>
     <row r="388" spans="7:7">
-      <c r="G388" s="12"/>
+      <c r="G388" s="11"/>
     </row>
     <row r="389" spans="7:7">
-      <c r="G389" s="12"/>
+      <c r="G389" s="11"/>
     </row>
     <row r="390" spans="7:7">
-      <c r="G390" s="12"/>
+      <c r="G390" s="11"/>
     </row>
     <row r="391" spans="7:7">
-      <c r="G391" s="12"/>
+      <c r="G391" s="11"/>
     </row>
     <row r="392" spans="7:7">
-      <c r="G392" s="12"/>
+      <c r="G392" s="11"/>
     </row>
     <row r="393" spans="7:7">
-      <c r="G393" s="12"/>
+      <c r="G393" s="11"/>
     </row>
     <row r="394" spans="7:7">
-      <c r="G394" s="12"/>
+      <c r="G394" s="11"/>
     </row>
     <row r="395" spans="7:7">
-      <c r="G395" s="12"/>
+      <c r="G395" s="11"/>
     </row>
     <row r="396" spans="7:7">
-      <c r="G396" s="12"/>
+      <c r="G396" s="11"/>
     </row>
     <row r="397" spans="7:7">
-      <c r="G397" s="12"/>
+      <c r="G397" s="11"/>
     </row>
     <row r="398" spans="7:7">
-      <c r="G398" s="12"/>
+      <c r="G398" s="11"/>
     </row>
     <row r="399" spans="7:7">
-      <c r="G399" s="12"/>
+      <c r="G399" s="11"/>
     </row>
     <row r="400" spans="7:7">
-      <c r="G400" s="12"/>
+      <c r="G400" s="11"/>
     </row>
     <row r="401" spans="7:7">
-      <c r="G401" s="12"/>
+      <c r="G401" s="11"/>
     </row>
     <row r="402" spans="7:7">
-      <c r="G402" s="12"/>
+      <c r="G402" s="11"/>
     </row>
     <row r="403" spans="7:7">
-      <c r="G403" s="12"/>
+      <c r="G403" s="11"/>
     </row>
     <row r="404" spans="7:7">
-      <c r="G404" s="12"/>
+      <c r="G404" s="11"/>
     </row>
     <row r="405" spans="7:7">
-      <c r="G405" s="12"/>
+      <c r="G405" s="11"/>
     </row>
     <row r="406" spans="7:7">
-      <c r="G406" s="12"/>
+      <c r="G406" s="11"/>
     </row>
     <row r="407" spans="7:7">
-      <c r="G407" s="12"/>
+      <c r="G407" s="11"/>
     </row>
     <row r="408" spans="7:7">
-      <c r="G408" s="12"/>
+      <c r="G408" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
       <formula1>"未开始,即将进行,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" tooltip="阿里架构师干货分享之——亿级大表分库分表解决方案"/>
+    <hyperlink ref="C2" r:id="rId1" display="阿里架构师干货分享之——亿级大表分库分表解决方案" tooltip="阿里架构师干货分享之——亿级大表分库分表解决方案"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
       <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
@@ -2406,59 +2981,61 @@
     <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="13" customFormat="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" s="12" customFormat="1" spans="1:10">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
       <formula1>"未开始,即将进行,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H546"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="16" style="3" customWidth="1"/>
     <col min="2" max="3" width="11.625" style="3" customWidth="1"/>
@@ -2470,2261 +3047,2261 @@
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="280.5">
-      <c r="A2" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="5" t="s">
+    </row>
+    <row r="2" ht="280.5" spans="1:8">
+      <c r="A2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="8">
+      <c r="F2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="7">
         <f ca="1">TODAY()</f>
         <v>43420</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" ht="66">
-      <c r="A3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="10" t="s">
+    <row r="3" s="2" customFormat="1" ht="66" spans="1:8">
+      <c r="A3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="11">
+      <c r="E3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="10">
         <f ca="1">TODAY()</f>
         <v>43420</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="165">
-      <c r="A4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="5" t="s">
+    <row r="4" ht="165" spans="1:8">
+      <c r="A4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="8">
+      <c r="F4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="7">
         <f ca="1">TODAY()</f>
         <v>43420</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
+    <row r="6" spans="4:5">
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="4:5">
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="4:5">
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="4:5">
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="4:5">
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="4:5">
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="4:5">
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="4:5">
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" spans="4:5">
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" spans="4:5">
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" spans="4:5">
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
     </row>
     <row r="17" spans="4:5">
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
     </row>
     <row r="18" spans="4:5">
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
     </row>
     <row r="19" spans="4:5">
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
     </row>
     <row r="20" spans="4:5">
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
     </row>
     <row r="21" spans="4:5">
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
     </row>
     <row r="22" spans="4:5">
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
     </row>
     <row r="23" spans="4:5">
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
     </row>
     <row r="24" spans="4:5">
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
     </row>
     <row r="25" spans="4:5">
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
     </row>
     <row r="26" spans="4:5">
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
     </row>
     <row r="27" spans="4:5">
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
     </row>
     <row r="28" spans="4:5">
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
     </row>
     <row r="29" spans="4:5">
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
     </row>
     <row r="30" spans="4:5">
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
     </row>
     <row r="31" spans="4:5">
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
     </row>
     <row r="32" spans="4:5">
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
     </row>
     <row r="33" spans="4:5">
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
     </row>
     <row r="34" spans="4:5">
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
     </row>
     <row r="35" spans="4:5">
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
     </row>
     <row r="36" spans="4:5">
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
     </row>
     <row r="37" spans="4:5">
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
     </row>
     <row r="38" spans="4:5">
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
     </row>
     <row r="39" spans="4:5">
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
     </row>
     <row r="40" spans="4:5">
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
     </row>
     <row r="41" spans="4:5">
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
     </row>
     <row r="42" spans="4:5">
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
     </row>
     <row r="43" spans="4:5">
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
     </row>
     <row r="44" spans="4:5">
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
     </row>
     <row r="45" spans="4:5">
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
     </row>
     <row r="46" spans="4:5">
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
     </row>
     <row r="47" spans="4:5">
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
     </row>
     <row r="48" spans="4:5">
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
     </row>
     <row r="49" spans="4:5">
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
     </row>
     <row r="50" spans="4:5">
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
     </row>
     <row r="51" spans="4:5">
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
     </row>
     <row r="52" spans="4:5">
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
     </row>
     <row r="53" spans="4:5">
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
     </row>
     <row r="54" spans="4:5">
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
     </row>
     <row r="55" spans="4:5">
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
     </row>
     <row r="56" spans="4:5">
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
     </row>
     <row r="57" spans="4:5">
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
     </row>
     <row r="58" spans="4:5">
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
     </row>
     <row r="59" spans="4:5">
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
     </row>
     <row r="60" spans="4:5">
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
     </row>
     <row r="61" spans="4:5">
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
     </row>
     <row r="62" spans="4:5">
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
     </row>
     <row r="63" spans="4:5">
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
     </row>
     <row r="64" spans="4:5">
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
     </row>
     <row r="65" spans="4:5">
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
     </row>
     <row r="66" spans="4:5">
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
     </row>
     <row r="67" spans="4:5">
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
     </row>
     <row r="68" spans="4:5">
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
     </row>
     <row r="69" spans="4:5">
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
     </row>
     <row r="70" spans="4:5">
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
     </row>
     <row r="71" spans="4:5">
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
     </row>
     <row r="72" spans="4:5">
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
     </row>
     <row r="73" spans="4:5">
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
     </row>
     <row r="74" spans="4:5">
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
     </row>
     <row r="75" spans="4:5">
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
     </row>
     <row r="76" spans="4:5">
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
     </row>
     <row r="77" spans="4:5">
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
     </row>
     <row r="78" spans="4:5">
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
     </row>
     <row r="79" spans="4:5">
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
     </row>
     <row r="80" spans="4:5">
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
     </row>
     <row r="81" spans="4:5">
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
     </row>
     <row r="82" spans="4:5">
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
     </row>
     <row r="83" spans="4:5">
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
     </row>
     <row r="84" spans="4:5">
-      <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
     </row>
     <row r="85" spans="4:5">
-      <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
     </row>
     <row r="86" spans="4:5">
-      <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
     </row>
     <row r="87" spans="4:5">
-      <c r="D87" s="12"/>
-      <c r="E87" s="12"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
     </row>
     <row r="88" spans="4:5">
-      <c r="D88" s="12"/>
-      <c r="E88" s="12"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
     </row>
     <row r="89" spans="4:5">
-      <c r="D89" s="12"/>
-      <c r="E89" s="12"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
     </row>
     <row r="90" spans="4:5">
-      <c r="D90" s="12"/>
-      <c r="E90" s="12"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
     </row>
     <row r="91" spans="4:5">
-      <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
     </row>
     <row r="92" spans="4:5">
-      <c r="D92" s="12"/>
-      <c r="E92" s="12"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
     </row>
     <row r="93" spans="4:5">
-      <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
     </row>
     <row r="94" spans="4:5">
-      <c r="D94" s="12"/>
-      <c r="E94" s="12"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
     </row>
     <row r="95" spans="4:5">
-      <c r="D95" s="12"/>
-      <c r="E95" s="12"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
     </row>
     <row r="96" spans="4:5">
-      <c r="D96" s="12"/>
-      <c r="E96" s="12"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
     </row>
     <row r="97" spans="4:5">
-      <c r="D97" s="12"/>
-      <c r="E97" s="12"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
     </row>
     <row r="98" spans="4:5">
-      <c r="D98" s="12"/>
-      <c r="E98" s="12"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
     </row>
     <row r="99" spans="4:5">
-      <c r="D99" s="12"/>
-      <c r="E99" s="12"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
     </row>
     <row r="100" spans="4:5">
-      <c r="D100" s="12"/>
-      <c r="E100" s="12"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
     </row>
     <row r="101" spans="4:5">
-      <c r="D101" s="12"/>
-      <c r="E101" s="12"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
     </row>
     <row r="102" spans="4:5">
-      <c r="D102" s="12"/>
-      <c r="E102" s="12"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
     </row>
     <row r="103" spans="4:5">
-      <c r="D103" s="12"/>
-      <c r="E103" s="12"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
     </row>
     <row r="104" spans="4:5">
-      <c r="D104" s="12"/>
-      <c r="E104" s="12"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
     </row>
     <row r="105" spans="4:5">
-      <c r="D105" s="12"/>
-      <c r="E105" s="12"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
     </row>
     <row r="106" spans="4:5">
-      <c r="D106" s="12"/>
-      <c r="E106" s="12"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11"/>
     </row>
     <row r="107" spans="4:5">
-      <c r="D107" s="12"/>
-      <c r="E107" s="12"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11"/>
     </row>
     <row r="108" spans="4:5">
-      <c r="D108" s="12"/>
-      <c r="E108" s="12"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11"/>
     </row>
     <row r="109" spans="4:5">
-      <c r="D109" s="12"/>
-      <c r="E109" s="12"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
     </row>
     <row r="110" spans="4:5">
-      <c r="D110" s="12"/>
-      <c r="E110" s="12"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11"/>
     </row>
     <row r="111" spans="4:5">
-      <c r="D111" s="12"/>
-      <c r="E111" s="12"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="11"/>
     </row>
     <row r="112" spans="4:5">
-      <c r="D112" s="12"/>
-      <c r="E112" s="12"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11"/>
     </row>
     <row r="113" spans="4:5">
-      <c r="D113" s="12"/>
-      <c r="E113" s="12"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11"/>
     </row>
     <row r="114" spans="4:5">
-      <c r="D114" s="12"/>
-      <c r="E114" s="12"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11"/>
     </row>
     <row r="115" spans="4:5">
-      <c r="D115" s="12"/>
-      <c r="E115" s="12"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="11"/>
     </row>
     <row r="116" spans="4:5">
-      <c r="D116" s="12"/>
-      <c r="E116" s="12"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="11"/>
     </row>
     <row r="117" spans="4:5">
-      <c r="D117" s="12"/>
-      <c r="E117" s="12"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="11"/>
     </row>
     <row r="118" spans="4:5">
-      <c r="D118" s="12"/>
-      <c r="E118" s="12"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
     </row>
     <row r="119" spans="4:5">
-      <c r="D119" s="12"/>
-      <c r="E119" s="12"/>
+      <c r="D119" s="11"/>
+      <c r="E119" s="11"/>
     </row>
     <row r="120" spans="4:5">
-      <c r="D120" s="12"/>
-      <c r="E120" s="12"/>
+      <c r="D120" s="11"/>
+      <c r="E120" s="11"/>
     </row>
     <row r="121" spans="4:5">
-      <c r="D121" s="12"/>
-      <c r="E121" s="12"/>
+      <c r="D121" s="11"/>
+      <c r="E121" s="11"/>
     </row>
     <row r="122" spans="4:5">
-      <c r="D122" s="12"/>
-      <c r="E122" s="12"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="11"/>
     </row>
     <row r="123" spans="4:5">
-      <c r="D123" s="12"/>
-      <c r="E123" s="12"/>
+      <c r="D123" s="11"/>
+      <c r="E123" s="11"/>
     </row>
     <row r="124" spans="4:5">
-      <c r="D124" s="12"/>
-      <c r="E124" s="12"/>
+      <c r="D124" s="11"/>
+      <c r="E124" s="11"/>
     </row>
     <row r="125" spans="4:5">
-      <c r="D125" s="12"/>
-      <c r="E125" s="12"/>
+      <c r="D125" s="11"/>
+      <c r="E125" s="11"/>
     </row>
     <row r="126" spans="4:5">
-      <c r="D126" s="12"/>
-      <c r="E126" s="12"/>
+      <c r="D126" s="11"/>
+      <c r="E126" s="11"/>
     </row>
     <row r="127" spans="4:5">
-      <c r="D127" s="12"/>
-      <c r="E127" s="12"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="11"/>
     </row>
     <row r="128" spans="4:5">
-      <c r="D128" s="12"/>
-      <c r="E128" s="12"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="11"/>
     </row>
     <row r="129" spans="4:5">
-      <c r="D129" s="12"/>
-      <c r="E129" s="12"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="11"/>
     </row>
     <row r="130" spans="4:5">
-      <c r="D130" s="12"/>
-      <c r="E130" s="12"/>
+      <c r="D130" s="11"/>
+      <c r="E130" s="11"/>
     </row>
     <row r="131" spans="4:5">
-      <c r="D131" s="12"/>
-      <c r="E131" s="12"/>
+      <c r="D131" s="11"/>
+      <c r="E131" s="11"/>
     </row>
     <row r="132" spans="4:5">
-      <c r="D132" s="12"/>
-      <c r="E132" s="12"/>
+      <c r="D132" s="11"/>
+      <c r="E132" s="11"/>
     </row>
     <row r="133" spans="4:5">
-      <c r="D133" s="12"/>
-      <c r="E133" s="12"/>
+      <c r="D133" s="11"/>
+      <c r="E133" s="11"/>
     </row>
     <row r="134" spans="4:5">
-      <c r="D134" s="12"/>
-      <c r="E134" s="12"/>
+      <c r="D134" s="11"/>
+      <c r="E134" s="11"/>
     </row>
     <row r="135" spans="4:5">
-      <c r="D135" s="12"/>
-      <c r="E135" s="12"/>
+      <c r="D135" s="11"/>
+      <c r="E135" s="11"/>
     </row>
     <row r="136" spans="4:5">
-      <c r="D136" s="12"/>
-      <c r="E136" s="12"/>
+      <c r="D136" s="11"/>
+      <c r="E136" s="11"/>
     </row>
     <row r="137" spans="4:5">
-      <c r="D137" s="12"/>
-      <c r="E137" s="12"/>
+      <c r="D137" s="11"/>
+      <c r="E137" s="11"/>
     </row>
     <row r="138" spans="4:5">
-      <c r="D138" s="12"/>
-      <c r="E138" s="12"/>
+      <c r="D138" s="11"/>
+      <c r="E138" s="11"/>
     </row>
     <row r="139" spans="4:5">
-      <c r="D139" s="12"/>
-      <c r="E139" s="12"/>
+      <c r="D139" s="11"/>
+      <c r="E139" s="11"/>
     </row>
     <row r="140" spans="4:5">
-      <c r="D140" s="12"/>
-      <c r="E140" s="12"/>
+      <c r="D140" s="11"/>
+      <c r="E140" s="11"/>
     </row>
     <row r="141" spans="4:5">
-      <c r="D141" s="12"/>
-      <c r="E141" s="12"/>
+      <c r="D141" s="11"/>
+      <c r="E141" s="11"/>
     </row>
     <row r="142" spans="4:5">
-      <c r="D142" s="12"/>
-      <c r="E142" s="12"/>
+      <c r="D142" s="11"/>
+      <c r="E142" s="11"/>
     </row>
     <row r="143" spans="4:5">
-      <c r="D143" s="12"/>
-      <c r="E143" s="12"/>
+      <c r="D143" s="11"/>
+      <c r="E143" s="11"/>
     </row>
     <row r="144" spans="4:5">
-      <c r="D144" s="12"/>
-      <c r="E144" s="12"/>
+      <c r="D144" s="11"/>
+      <c r="E144" s="11"/>
     </row>
     <row r="145" spans="4:5">
-      <c r="D145" s="12"/>
-      <c r="E145" s="12"/>
+      <c r="D145" s="11"/>
+      <c r="E145" s="11"/>
     </row>
     <row r="146" spans="4:5">
-      <c r="D146" s="12"/>
-      <c r="E146" s="12"/>
+      <c r="D146" s="11"/>
+      <c r="E146" s="11"/>
     </row>
     <row r="147" spans="4:5">
-      <c r="D147" s="12"/>
-      <c r="E147" s="12"/>
+      <c r="D147" s="11"/>
+      <c r="E147" s="11"/>
     </row>
     <row r="148" spans="4:5">
-      <c r="D148" s="12"/>
-      <c r="E148" s="12"/>
+      <c r="D148" s="11"/>
+      <c r="E148" s="11"/>
     </row>
     <row r="149" spans="4:5">
-      <c r="D149" s="12"/>
-      <c r="E149" s="12"/>
+      <c r="D149" s="11"/>
+      <c r="E149" s="11"/>
     </row>
     <row r="150" spans="4:5">
-      <c r="D150" s="12"/>
-      <c r="E150" s="12"/>
+      <c r="D150" s="11"/>
+      <c r="E150" s="11"/>
     </row>
     <row r="151" spans="4:5">
-      <c r="D151" s="12"/>
-      <c r="E151" s="12"/>
+      <c r="D151" s="11"/>
+      <c r="E151" s="11"/>
     </row>
     <row r="152" spans="4:5">
-      <c r="D152" s="12"/>
-      <c r="E152" s="12"/>
+      <c r="D152" s="11"/>
+      <c r="E152" s="11"/>
     </row>
     <row r="153" spans="4:5">
-      <c r="D153" s="12"/>
-      <c r="E153" s="12"/>
+      <c r="D153" s="11"/>
+      <c r="E153" s="11"/>
     </row>
     <row r="154" spans="4:5">
-      <c r="D154" s="12"/>
-      <c r="E154" s="12"/>
+      <c r="D154" s="11"/>
+      <c r="E154" s="11"/>
     </row>
     <row r="155" spans="4:5">
-      <c r="D155" s="12"/>
-      <c r="E155" s="12"/>
+      <c r="D155" s="11"/>
+      <c r="E155" s="11"/>
     </row>
     <row r="156" spans="4:5">
-      <c r="D156" s="12"/>
-      <c r="E156" s="12"/>
+      <c r="D156" s="11"/>
+      <c r="E156" s="11"/>
     </row>
     <row r="157" spans="4:5">
-      <c r="D157" s="12"/>
-      <c r="E157" s="12"/>
+      <c r="D157" s="11"/>
+      <c r="E157" s="11"/>
     </row>
     <row r="158" spans="4:5">
-      <c r="D158" s="12"/>
-      <c r="E158" s="12"/>
+      <c r="D158" s="11"/>
+      <c r="E158" s="11"/>
     </row>
     <row r="159" spans="4:5">
-      <c r="D159" s="12"/>
-      <c r="E159" s="12"/>
+      <c r="D159" s="11"/>
+      <c r="E159" s="11"/>
     </row>
     <row r="160" spans="4:5">
-      <c r="D160" s="12"/>
-      <c r="E160" s="12"/>
+      <c r="D160" s="11"/>
+      <c r="E160" s="11"/>
     </row>
     <row r="161" spans="4:5">
-      <c r="D161" s="12"/>
-      <c r="E161" s="12"/>
+      <c r="D161" s="11"/>
+      <c r="E161" s="11"/>
     </row>
     <row r="162" spans="4:5">
-      <c r="D162" s="12"/>
-      <c r="E162" s="12"/>
+      <c r="D162" s="11"/>
+      <c r="E162" s="11"/>
     </row>
     <row r="163" spans="4:5">
-      <c r="D163" s="12"/>
-      <c r="E163" s="12"/>
+      <c r="D163" s="11"/>
+      <c r="E163" s="11"/>
     </row>
     <row r="164" spans="4:5">
-      <c r="D164" s="12"/>
-      <c r="E164" s="12"/>
+      <c r="D164" s="11"/>
+      <c r="E164" s="11"/>
     </row>
     <row r="165" spans="4:5">
-      <c r="D165" s="12"/>
-      <c r="E165" s="12"/>
+      <c r="D165" s="11"/>
+      <c r="E165" s="11"/>
     </row>
     <row r="166" spans="4:5">
-      <c r="D166" s="12"/>
-      <c r="E166" s="12"/>
+      <c r="D166" s="11"/>
+      <c r="E166" s="11"/>
     </row>
     <row r="167" spans="4:5">
-      <c r="D167" s="12"/>
-      <c r="E167" s="12"/>
+      <c r="D167" s="11"/>
+      <c r="E167" s="11"/>
     </row>
     <row r="168" spans="4:5">
-      <c r="D168" s="12"/>
-      <c r="E168" s="12"/>
+      <c r="D168" s="11"/>
+      <c r="E168" s="11"/>
     </row>
     <row r="169" spans="4:5">
-      <c r="D169" s="12"/>
-      <c r="E169" s="12"/>
+      <c r="D169" s="11"/>
+      <c r="E169" s="11"/>
     </row>
     <row r="170" spans="4:5">
-      <c r="D170" s="12"/>
-      <c r="E170" s="12"/>
+      <c r="D170" s="11"/>
+      <c r="E170" s="11"/>
     </row>
     <row r="171" spans="4:5">
-      <c r="D171" s="12"/>
-      <c r="E171" s="12"/>
+      <c r="D171" s="11"/>
+      <c r="E171" s="11"/>
     </row>
     <row r="172" spans="4:5">
-      <c r="D172" s="12"/>
-      <c r="E172" s="12"/>
+      <c r="D172" s="11"/>
+      <c r="E172" s="11"/>
     </row>
     <row r="173" spans="4:5">
-      <c r="D173" s="12"/>
-      <c r="E173" s="12"/>
+      <c r="D173" s="11"/>
+      <c r="E173" s="11"/>
     </row>
     <row r="174" spans="4:5">
-      <c r="D174" s="12"/>
-      <c r="E174" s="12"/>
+      <c r="D174" s="11"/>
+      <c r="E174" s="11"/>
     </row>
     <row r="175" spans="4:5">
-      <c r="D175" s="12"/>
-      <c r="E175" s="12"/>
+      <c r="D175" s="11"/>
+      <c r="E175" s="11"/>
     </row>
     <row r="176" spans="4:5">
-      <c r="D176" s="12"/>
-      <c r="E176" s="12"/>
+      <c r="D176" s="11"/>
+      <c r="E176" s="11"/>
     </row>
     <row r="177" spans="4:5">
-      <c r="D177" s="12"/>
-      <c r="E177" s="12"/>
+      <c r="D177" s="11"/>
+      <c r="E177" s="11"/>
     </row>
     <row r="178" spans="4:5">
-      <c r="D178" s="12"/>
-      <c r="E178" s="12"/>
+      <c r="D178" s="11"/>
+      <c r="E178" s="11"/>
     </row>
     <row r="179" spans="4:5">
-      <c r="D179" s="12"/>
-      <c r="E179" s="12"/>
+      <c r="D179" s="11"/>
+      <c r="E179" s="11"/>
     </row>
     <row r="180" spans="4:5">
-      <c r="D180" s="12"/>
-      <c r="E180" s="12"/>
+      <c r="D180" s="11"/>
+      <c r="E180" s="11"/>
     </row>
     <row r="181" spans="4:5">
-      <c r="D181" s="12"/>
-      <c r="E181" s="12"/>
+      <c r="D181" s="11"/>
+      <c r="E181" s="11"/>
     </row>
     <row r="182" spans="4:5">
-      <c r="D182" s="12"/>
-      <c r="E182" s="12"/>
+      <c r="D182" s="11"/>
+      <c r="E182" s="11"/>
     </row>
     <row r="183" spans="4:5">
-      <c r="D183" s="12"/>
-      <c r="E183" s="12"/>
+      <c r="D183" s="11"/>
+      <c r="E183" s="11"/>
     </row>
     <row r="184" spans="4:5">
-      <c r="D184" s="12"/>
-      <c r="E184" s="12"/>
+      <c r="D184" s="11"/>
+      <c r="E184" s="11"/>
     </row>
     <row r="185" spans="4:5">
-      <c r="D185" s="12"/>
-      <c r="E185" s="12"/>
+      <c r="D185" s="11"/>
+      <c r="E185" s="11"/>
     </row>
     <row r="186" spans="4:5">
-      <c r="D186" s="12"/>
-      <c r="E186" s="12"/>
+      <c r="D186" s="11"/>
+      <c r="E186" s="11"/>
     </row>
     <row r="187" spans="4:5">
-      <c r="D187" s="12"/>
-      <c r="E187" s="12"/>
+      <c r="D187" s="11"/>
+      <c r="E187" s="11"/>
     </row>
     <row r="188" spans="4:5">
-      <c r="D188" s="12"/>
-      <c r="E188" s="12"/>
+      <c r="D188" s="11"/>
+      <c r="E188" s="11"/>
     </row>
     <row r="189" spans="4:5">
-      <c r="D189" s="12"/>
-      <c r="E189" s="12"/>
+      <c r="D189" s="11"/>
+      <c r="E189" s="11"/>
     </row>
     <row r="190" spans="4:5">
-      <c r="D190" s="12"/>
-      <c r="E190" s="12"/>
+      <c r="D190" s="11"/>
+      <c r="E190" s="11"/>
     </row>
     <row r="191" spans="4:5">
-      <c r="D191" s="12"/>
-      <c r="E191" s="12"/>
+      <c r="D191" s="11"/>
+      <c r="E191" s="11"/>
     </row>
     <row r="192" spans="4:5">
-      <c r="D192" s="12"/>
-      <c r="E192" s="12"/>
+      <c r="D192" s="11"/>
+      <c r="E192" s="11"/>
     </row>
     <row r="193" spans="4:5">
-      <c r="D193" s="12"/>
-      <c r="E193" s="12"/>
+      <c r="D193" s="11"/>
+      <c r="E193" s="11"/>
     </row>
     <row r="194" spans="4:5">
-      <c r="D194" s="12"/>
-      <c r="E194" s="12"/>
+      <c r="D194" s="11"/>
+      <c r="E194" s="11"/>
     </row>
     <row r="195" spans="4:5">
-      <c r="D195" s="12"/>
-      <c r="E195" s="12"/>
+      <c r="D195" s="11"/>
+      <c r="E195" s="11"/>
     </row>
     <row r="196" spans="4:5">
-      <c r="D196" s="12"/>
-      <c r="E196" s="12"/>
+      <c r="D196" s="11"/>
+      <c r="E196" s="11"/>
     </row>
     <row r="197" spans="4:5">
-      <c r="D197" s="12"/>
-      <c r="E197" s="12"/>
+      <c r="D197" s="11"/>
+      <c r="E197" s="11"/>
     </row>
     <row r="198" spans="4:5">
-      <c r="D198" s="12"/>
-      <c r="E198" s="12"/>
+      <c r="D198" s="11"/>
+      <c r="E198" s="11"/>
     </row>
     <row r="199" spans="4:5">
-      <c r="D199" s="12"/>
-      <c r="E199" s="12"/>
+      <c r="D199" s="11"/>
+      <c r="E199" s="11"/>
     </row>
     <row r="200" spans="4:5">
-      <c r="D200" s="12"/>
-      <c r="E200" s="12"/>
+      <c r="D200" s="11"/>
+      <c r="E200" s="11"/>
     </row>
     <row r="201" spans="4:5">
-      <c r="D201" s="12"/>
-      <c r="E201" s="12"/>
+      <c r="D201" s="11"/>
+      <c r="E201" s="11"/>
     </row>
     <row r="202" spans="4:5">
-      <c r="D202" s="12"/>
-      <c r="E202" s="12"/>
+      <c r="D202" s="11"/>
+      <c r="E202" s="11"/>
     </row>
     <row r="203" spans="4:5">
-      <c r="D203" s="12"/>
-      <c r="E203" s="12"/>
+      <c r="D203" s="11"/>
+      <c r="E203" s="11"/>
     </row>
     <row r="204" spans="4:5">
-      <c r="D204" s="12"/>
-      <c r="E204" s="12"/>
+      <c r="D204" s="11"/>
+      <c r="E204" s="11"/>
     </row>
     <row r="205" spans="4:5">
-      <c r="D205" s="12"/>
-      <c r="E205" s="12"/>
+      <c r="D205" s="11"/>
+      <c r="E205" s="11"/>
     </row>
     <row r="206" spans="4:5">
-      <c r="D206" s="12"/>
-      <c r="E206" s="12"/>
+      <c r="D206" s="11"/>
+      <c r="E206" s="11"/>
     </row>
     <row r="207" spans="4:5">
-      <c r="D207" s="12"/>
-      <c r="E207" s="12"/>
+      <c r="D207" s="11"/>
+      <c r="E207" s="11"/>
     </row>
     <row r="208" spans="4:5">
-      <c r="D208" s="12"/>
-      <c r="E208" s="12"/>
+      <c r="D208" s="11"/>
+      <c r="E208" s="11"/>
     </row>
     <row r="209" spans="4:5">
-      <c r="D209" s="12"/>
-      <c r="E209" s="12"/>
+      <c r="D209" s="11"/>
+      <c r="E209" s="11"/>
     </row>
     <row r="210" spans="4:5">
-      <c r="D210" s="12"/>
-      <c r="E210" s="12"/>
+      <c r="D210" s="11"/>
+      <c r="E210" s="11"/>
     </row>
     <row r="211" spans="4:5">
-      <c r="D211" s="12"/>
-      <c r="E211" s="12"/>
+      <c r="D211" s="11"/>
+      <c r="E211" s="11"/>
     </row>
     <row r="212" spans="4:5">
-      <c r="D212" s="12"/>
-      <c r="E212" s="12"/>
+      <c r="D212" s="11"/>
+      <c r="E212" s="11"/>
     </row>
     <row r="213" spans="4:5">
-      <c r="D213" s="12"/>
-      <c r="E213" s="12"/>
+      <c r="D213" s="11"/>
+      <c r="E213" s="11"/>
     </row>
     <row r="214" spans="4:5">
-      <c r="D214" s="12"/>
-      <c r="E214" s="12"/>
+      <c r="D214" s="11"/>
+      <c r="E214" s="11"/>
     </row>
     <row r="215" spans="4:5">
-      <c r="D215" s="12"/>
-      <c r="E215" s="12"/>
+      <c r="D215" s="11"/>
+      <c r="E215" s="11"/>
     </row>
     <row r="216" spans="4:5">
-      <c r="D216" s="12"/>
-      <c r="E216" s="12"/>
+      <c r="D216" s="11"/>
+      <c r="E216" s="11"/>
     </row>
     <row r="217" spans="4:5">
-      <c r="D217" s="12"/>
-      <c r="E217" s="12"/>
+      <c r="D217" s="11"/>
+      <c r="E217" s="11"/>
     </row>
     <row r="218" spans="4:5">
-      <c r="D218" s="12"/>
-      <c r="E218" s="12"/>
+      <c r="D218" s="11"/>
+      <c r="E218" s="11"/>
     </row>
     <row r="219" spans="4:5">
-      <c r="D219" s="12"/>
-      <c r="E219" s="12"/>
+      <c r="D219" s="11"/>
+      <c r="E219" s="11"/>
     </row>
     <row r="220" spans="4:5">
-      <c r="D220" s="12"/>
-      <c r="E220" s="12"/>
+      <c r="D220" s="11"/>
+      <c r="E220" s="11"/>
     </row>
     <row r="221" spans="4:5">
-      <c r="D221" s="12"/>
-      <c r="E221" s="12"/>
+      <c r="D221" s="11"/>
+      <c r="E221" s="11"/>
     </row>
     <row r="222" spans="4:5">
-      <c r="D222" s="12"/>
-      <c r="E222" s="12"/>
+      <c r="D222" s="11"/>
+      <c r="E222" s="11"/>
     </row>
     <row r="223" spans="4:5">
-      <c r="D223" s="12"/>
-      <c r="E223" s="12"/>
+      <c r="D223" s="11"/>
+      <c r="E223" s="11"/>
     </row>
     <row r="224" spans="4:5">
-      <c r="D224" s="12"/>
-      <c r="E224" s="12"/>
+      <c r="D224" s="11"/>
+      <c r="E224" s="11"/>
     </row>
     <row r="225" spans="4:5">
-      <c r="D225" s="12"/>
-      <c r="E225" s="12"/>
+      <c r="D225" s="11"/>
+      <c r="E225" s="11"/>
     </row>
     <row r="226" spans="4:5">
-      <c r="D226" s="12"/>
-      <c r="E226" s="12"/>
+      <c r="D226" s="11"/>
+      <c r="E226" s="11"/>
     </row>
     <row r="227" spans="4:5">
-      <c r="D227" s="12"/>
-      <c r="E227" s="12"/>
+      <c r="D227" s="11"/>
+      <c r="E227" s="11"/>
     </row>
     <row r="228" spans="4:5">
-      <c r="D228" s="12"/>
-      <c r="E228" s="12"/>
+      <c r="D228" s="11"/>
+      <c r="E228" s="11"/>
     </row>
     <row r="229" spans="4:5">
-      <c r="D229" s="12"/>
-      <c r="E229" s="12"/>
+      <c r="D229" s="11"/>
+      <c r="E229" s="11"/>
     </row>
     <row r="230" spans="4:5">
-      <c r="D230" s="12"/>
-      <c r="E230" s="12"/>
+      <c r="D230" s="11"/>
+      <c r="E230" s="11"/>
     </row>
     <row r="231" spans="4:5">
-      <c r="D231" s="12"/>
-      <c r="E231" s="12"/>
+      <c r="D231" s="11"/>
+      <c r="E231" s="11"/>
     </row>
     <row r="232" spans="4:5">
-      <c r="D232" s="12"/>
-      <c r="E232" s="12"/>
+      <c r="D232" s="11"/>
+      <c r="E232" s="11"/>
     </row>
     <row r="233" spans="4:5">
-      <c r="D233" s="12"/>
-      <c r="E233" s="12"/>
+      <c r="D233" s="11"/>
+      <c r="E233" s="11"/>
     </row>
     <row r="234" spans="4:5">
-      <c r="D234" s="12"/>
-      <c r="E234" s="12"/>
+      <c r="D234" s="11"/>
+      <c r="E234" s="11"/>
     </row>
     <row r="235" spans="4:5">
-      <c r="D235" s="12"/>
-      <c r="E235" s="12"/>
+      <c r="D235" s="11"/>
+      <c r="E235" s="11"/>
     </row>
     <row r="236" spans="4:5">
-      <c r="D236" s="12"/>
-      <c r="E236" s="12"/>
+      <c r="D236" s="11"/>
+      <c r="E236" s="11"/>
     </row>
     <row r="237" spans="4:5">
-      <c r="D237" s="12"/>
-      <c r="E237" s="12"/>
+      <c r="D237" s="11"/>
+      <c r="E237" s="11"/>
     </row>
     <row r="238" spans="4:5">
-      <c r="D238" s="12"/>
-      <c r="E238" s="12"/>
+      <c r="D238" s="11"/>
+      <c r="E238" s="11"/>
     </row>
     <row r="239" spans="4:5">
-      <c r="D239" s="12"/>
-      <c r="E239" s="12"/>
+      <c r="D239" s="11"/>
+      <c r="E239" s="11"/>
     </row>
     <row r="240" spans="4:5">
-      <c r="D240" s="12"/>
-      <c r="E240" s="12"/>
+      <c r="D240" s="11"/>
+      <c r="E240" s="11"/>
     </row>
     <row r="241" spans="4:5">
-      <c r="D241" s="12"/>
-      <c r="E241" s="12"/>
+      <c r="D241" s="11"/>
+      <c r="E241" s="11"/>
     </row>
     <row r="242" spans="4:5">
-      <c r="D242" s="12"/>
-      <c r="E242" s="12"/>
+      <c r="D242" s="11"/>
+      <c r="E242" s="11"/>
     </row>
     <row r="243" spans="4:5">
-      <c r="D243" s="12"/>
-      <c r="E243" s="12"/>
+      <c r="D243" s="11"/>
+      <c r="E243" s="11"/>
     </row>
     <row r="244" spans="4:5">
-      <c r="D244" s="12"/>
-      <c r="E244" s="12"/>
+      <c r="D244" s="11"/>
+      <c r="E244" s="11"/>
     </row>
     <row r="245" spans="4:5">
-      <c r="D245" s="12"/>
-      <c r="E245" s="12"/>
+      <c r="D245" s="11"/>
+      <c r="E245" s="11"/>
     </row>
     <row r="246" spans="4:5">
-      <c r="D246" s="12"/>
-      <c r="E246" s="12"/>
+      <c r="D246" s="11"/>
+      <c r="E246" s="11"/>
     </row>
     <row r="247" spans="4:5">
-      <c r="D247" s="12"/>
-      <c r="E247" s="12"/>
+      <c r="D247" s="11"/>
+      <c r="E247" s="11"/>
     </row>
     <row r="248" spans="4:5">
-      <c r="D248" s="12"/>
-      <c r="E248" s="12"/>
+      <c r="D248" s="11"/>
+      <c r="E248" s="11"/>
     </row>
     <row r="249" spans="4:5">
-      <c r="D249" s="12"/>
-      <c r="E249" s="12"/>
+      <c r="D249" s="11"/>
+      <c r="E249" s="11"/>
     </row>
     <row r="250" spans="4:5">
-      <c r="D250" s="12"/>
-      <c r="E250" s="12"/>
+      <c r="D250" s="11"/>
+      <c r="E250" s="11"/>
     </row>
     <row r="251" spans="4:5">
-      <c r="D251" s="12"/>
-      <c r="E251" s="12"/>
+      <c r="D251" s="11"/>
+      <c r="E251" s="11"/>
     </row>
     <row r="252" spans="4:5">
-      <c r="D252" s="12"/>
-      <c r="E252" s="12"/>
+      <c r="D252" s="11"/>
+      <c r="E252" s="11"/>
     </row>
     <row r="253" spans="4:5">
-      <c r="D253" s="12"/>
-      <c r="E253" s="12"/>
+      <c r="D253" s="11"/>
+      <c r="E253" s="11"/>
     </row>
     <row r="254" spans="4:5">
-      <c r="D254" s="12"/>
-      <c r="E254" s="12"/>
+      <c r="D254" s="11"/>
+      <c r="E254" s="11"/>
     </row>
     <row r="255" spans="4:5">
-      <c r="D255" s="12"/>
-      <c r="E255" s="12"/>
+      <c r="D255" s="11"/>
+      <c r="E255" s="11"/>
     </row>
     <row r="256" spans="4:5">
-      <c r="D256" s="12"/>
-      <c r="E256" s="12"/>
+      <c r="D256" s="11"/>
+      <c r="E256" s="11"/>
     </row>
     <row r="257" spans="4:5">
-      <c r="D257" s="12"/>
-      <c r="E257" s="12"/>
+      <c r="D257" s="11"/>
+      <c r="E257" s="11"/>
     </row>
     <row r="258" spans="4:5">
-      <c r="D258" s="12"/>
-      <c r="E258" s="12"/>
+      <c r="D258" s="11"/>
+      <c r="E258" s="11"/>
     </row>
     <row r="259" spans="4:5">
-      <c r="D259" s="12"/>
-      <c r="E259" s="12"/>
+      <c r="D259" s="11"/>
+      <c r="E259" s="11"/>
     </row>
     <row r="260" spans="4:5">
-      <c r="D260" s="12"/>
-      <c r="E260" s="12"/>
+      <c r="D260" s="11"/>
+      <c r="E260" s="11"/>
     </row>
     <row r="261" spans="4:5">
-      <c r="D261" s="12"/>
-      <c r="E261" s="12"/>
+      <c r="D261" s="11"/>
+      <c r="E261" s="11"/>
     </row>
     <row r="262" spans="4:5">
-      <c r="D262" s="12"/>
-      <c r="E262" s="12"/>
+      <c r="D262" s="11"/>
+      <c r="E262" s="11"/>
     </row>
     <row r="263" spans="4:5">
-      <c r="D263" s="12"/>
-      <c r="E263" s="12"/>
+      <c r="D263" s="11"/>
+      <c r="E263" s="11"/>
     </row>
     <row r="264" spans="4:5">
-      <c r="D264" s="12"/>
-      <c r="E264" s="12"/>
+      <c r="D264" s="11"/>
+      <c r="E264" s="11"/>
     </row>
     <row r="265" spans="4:5">
-      <c r="D265" s="12"/>
-      <c r="E265" s="12"/>
+      <c r="D265" s="11"/>
+      <c r="E265" s="11"/>
     </row>
     <row r="266" spans="4:5">
-      <c r="D266" s="12"/>
-      <c r="E266" s="12"/>
+      <c r="D266" s="11"/>
+      <c r="E266" s="11"/>
     </row>
     <row r="267" spans="4:5">
-      <c r="D267" s="12"/>
-      <c r="E267" s="12"/>
+      <c r="D267" s="11"/>
+      <c r="E267" s="11"/>
     </row>
     <row r="268" spans="4:5">
-      <c r="D268" s="12"/>
-      <c r="E268" s="12"/>
+      <c r="D268" s="11"/>
+      <c r="E268" s="11"/>
     </row>
     <row r="269" spans="4:5">
-      <c r="D269" s="12"/>
-      <c r="E269" s="12"/>
+      <c r="D269" s="11"/>
+      <c r="E269" s="11"/>
     </row>
     <row r="270" spans="4:5">
-      <c r="D270" s="12"/>
-      <c r="E270" s="12"/>
+      <c r="D270" s="11"/>
+      <c r="E270" s="11"/>
     </row>
     <row r="271" spans="4:5">
-      <c r="D271" s="12"/>
-      <c r="E271" s="12"/>
+      <c r="D271" s="11"/>
+      <c r="E271" s="11"/>
     </row>
     <row r="272" spans="4:5">
-      <c r="D272" s="12"/>
-      <c r="E272" s="12"/>
+      <c r="D272" s="11"/>
+      <c r="E272" s="11"/>
     </row>
     <row r="273" spans="4:5">
-      <c r="D273" s="12"/>
-      <c r="E273" s="12"/>
+      <c r="D273" s="11"/>
+      <c r="E273" s="11"/>
     </row>
     <row r="274" spans="4:5">
-      <c r="D274" s="12"/>
-      <c r="E274" s="12"/>
+      <c r="D274" s="11"/>
+      <c r="E274" s="11"/>
     </row>
     <row r="275" spans="4:5">
-      <c r="D275" s="12"/>
-      <c r="E275" s="12"/>
+      <c r="D275" s="11"/>
+      <c r="E275" s="11"/>
     </row>
     <row r="276" spans="4:5">
-      <c r="D276" s="12"/>
-      <c r="E276" s="12"/>
+      <c r="D276" s="11"/>
+      <c r="E276" s="11"/>
     </row>
     <row r="277" spans="4:5">
-      <c r="D277" s="12"/>
-      <c r="E277" s="12"/>
+      <c r="D277" s="11"/>
+      <c r="E277" s="11"/>
     </row>
     <row r="278" spans="4:5">
-      <c r="D278" s="12"/>
-      <c r="E278" s="12"/>
+      <c r="D278" s="11"/>
+      <c r="E278" s="11"/>
     </row>
     <row r="279" spans="4:5">
-      <c r="D279" s="12"/>
-      <c r="E279" s="12"/>
+      <c r="D279" s="11"/>
+      <c r="E279" s="11"/>
     </row>
     <row r="280" spans="4:5">
-      <c r="D280" s="12"/>
-      <c r="E280" s="12"/>
+      <c r="D280" s="11"/>
+      <c r="E280" s="11"/>
     </row>
     <row r="281" spans="4:5">
-      <c r="D281" s="12"/>
-      <c r="E281" s="12"/>
+      <c r="D281" s="11"/>
+      <c r="E281" s="11"/>
     </row>
     <row r="282" spans="4:5">
-      <c r="D282" s="12"/>
-      <c r="E282" s="12"/>
+      <c r="D282" s="11"/>
+      <c r="E282" s="11"/>
     </row>
     <row r="283" spans="4:5">
-      <c r="D283" s="12"/>
-      <c r="E283" s="12"/>
+      <c r="D283" s="11"/>
+      <c r="E283" s="11"/>
     </row>
     <row r="284" spans="4:5">
-      <c r="D284" s="12"/>
-      <c r="E284" s="12"/>
+      <c r="D284" s="11"/>
+      <c r="E284" s="11"/>
     </row>
     <row r="285" spans="4:5">
-      <c r="D285" s="12"/>
-      <c r="E285" s="12"/>
+      <c r="D285" s="11"/>
+      <c r="E285" s="11"/>
     </row>
     <row r="286" spans="4:5">
-      <c r="D286" s="12"/>
-      <c r="E286" s="12"/>
+      <c r="D286" s="11"/>
+      <c r="E286" s="11"/>
     </row>
     <row r="287" spans="4:5">
-      <c r="D287" s="12"/>
-      <c r="E287" s="12"/>
+      <c r="D287" s="11"/>
+      <c r="E287" s="11"/>
     </row>
     <row r="288" spans="4:5">
-      <c r="D288" s="12"/>
-      <c r="E288" s="12"/>
+      <c r="D288" s="11"/>
+      <c r="E288" s="11"/>
     </row>
     <row r="289" spans="4:5">
-      <c r="D289" s="12"/>
-      <c r="E289" s="12"/>
+      <c r="D289" s="11"/>
+      <c r="E289" s="11"/>
     </row>
     <row r="290" spans="4:5">
-      <c r="D290" s="12"/>
-      <c r="E290" s="12"/>
+      <c r="D290" s="11"/>
+      <c r="E290" s="11"/>
     </row>
     <row r="291" spans="4:5">
-      <c r="D291" s="12"/>
-      <c r="E291" s="12"/>
+      <c r="D291" s="11"/>
+      <c r="E291" s="11"/>
     </row>
     <row r="292" spans="4:5">
-      <c r="D292" s="12"/>
-      <c r="E292" s="12"/>
+      <c r="D292" s="11"/>
+      <c r="E292" s="11"/>
     </row>
     <row r="293" spans="4:5">
-      <c r="D293" s="12"/>
-      <c r="E293" s="12"/>
+      <c r="D293" s="11"/>
+      <c r="E293" s="11"/>
     </row>
     <row r="294" spans="4:5">
-      <c r="D294" s="12"/>
-      <c r="E294" s="12"/>
+      <c r="D294" s="11"/>
+      <c r="E294" s="11"/>
     </row>
     <row r="295" spans="4:5">
-      <c r="D295" s="12"/>
-      <c r="E295" s="12"/>
+      <c r="D295" s="11"/>
+      <c r="E295" s="11"/>
     </row>
     <row r="296" spans="4:5">
-      <c r="D296" s="12"/>
-      <c r="E296" s="12"/>
+      <c r="D296" s="11"/>
+      <c r="E296" s="11"/>
     </row>
     <row r="297" spans="4:5">
-      <c r="D297" s="12"/>
-      <c r="E297" s="12"/>
+      <c r="D297" s="11"/>
+      <c r="E297" s="11"/>
     </row>
     <row r="298" spans="4:5">
-      <c r="D298" s="12"/>
-      <c r="E298" s="12"/>
+      <c r="D298" s="11"/>
+      <c r="E298" s="11"/>
     </row>
     <row r="299" spans="4:5">
-      <c r="D299" s="12"/>
-      <c r="E299" s="12"/>
+      <c r="D299" s="11"/>
+      <c r="E299" s="11"/>
     </row>
     <row r="300" spans="4:5">
-      <c r="D300" s="12"/>
-      <c r="E300" s="12"/>
+      <c r="D300" s="11"/>
+      <c r="E300" s="11"/>
     </row>
     <row r="301" spans="4:5">
-      <c r="D301" s="12"/>
-      <c r="E301" s="12"/>
+      <c r="D301" s="11"/>
+      <c r="E301" s="11"/>
     </row>
     <row r="302" spans="4:5">
-      <c r="D302" s="12"/>
-      <c r="E302" s="12"/>
+      <c r="D302" s="11"/>
+      <c r="E302" s="11"/>
     </row>
     <row r="303" spans="4:5">
-      <c r="D303" s="12"/>
-      <c r="E303" s="12"/>
+      <c r="D303" s="11"/>
+      <c r="E303" s="11"/>
     </row>
     <row r="304" spans="4:5">
-      <c r="D304" s="12"/>
-      <c r="E304" s="12"/>
+      <c r="D304" s="11"/>
+      <c r="E304" s="11"/>
     </row>
     <row r="305" spans="4:5">
-      <c r="D305" s="12"/>
-      <c r="E305" s="12"/>
+      <c r="D305" s="11"/>
+      <c r="E305" s="11"/>
     </row>
     <row r="306" spans="4:5">
-      <c r="D306" s="12"/>
-      <c r="E306" s="12"/>
+      <c r="D306" s="11"/>
+      <c r="E306" s="11"/>
     </row>
     <row r="307" spans="4:5">
-      <c r="D307" s="12"/>
-      <c r="E307" s="12"/>
+      <c r="D307" s="11"/>
+      <c r="E307" s="11"/>
     </row>
     <row r="308" spans="4:5">
-      <c r="D308" s="12"/>
-      <c r="E308" s="12"/>
+      <c r="D308" s="11"/>
+      <c r="E308" s="11"/>
     </row>
     <row r="309" spans="4:5">
-      <c r="D309" s="12"/>
-      <c r="E309" s="12"/>
+      <c r="D309" s="11"/>
+      <c r="E309" s="11"/>
     </row>
     <row r="310" spans="4:5">
-      <c r="D310" s="12"/>
-      <c r="E310" s="12"/>
+      <c r="D310" s="11"/>
+      <c r="E310" s="11"/>
     </row>
     <row r="311" spans="4:5">
-      <c r="D311" s="12"/>
-      <c r="E311" s="12"/>
+      <c r="D311" s="11"/>
+      <c r="E311" s="11"/>
     </row>
     <row r="312" spans="4:5">
-      <c r="D312" s="12"/>
-      <c r="E312" s="12"/>
+      <c r="D312" s="11"/>
+      <c r="E312" s="11"/>
     </row>
     <row r="313" spans="4:5">
-      <c r="D313" s="12"/>
-      <c r="E313" s="12"/>
+      <c r="D313" s="11"/>
+      <c r="E313" s="11"/>
     </row>
     <row r="314" spans="4:5">
-      <c r="D314" s="12"/>
-      <c r="E314" s="12"/>
+      <c r="D314" s="11"/>
+      <c r="E314" s="11"/>
     </row>
     <row r="315" spans="4:5">
-      <c r="D315" s="12"/>
-      <c r="E315" s="12"/>
+      <c r="D315" s="11"/>
+      <c r="E315" s="11"/>
     </row>
     <row r="316" spans="4:5">
-      <c r="D316" s="12"/>
-      <c r="E316" s="12"/>
+      <c r="D316" s="11"/>
+      <c r="E316" s="11"/>
     </row>
     <row r="317" spans="4:5">
-      <c r="D317" s="12"/>
-      <c r="E317" s="12"/>
+      <c r="D317" s="11"/>
+      <c r="E317" s="11"/>
     </row>
     <row r="318" spans="4:5">
-      <c r="D318" s="12"/>
-      <c r="E318" s="12"/>
+      <c r="D318" s="11"/>
+      <c r="E318" s="11"/>
     </row>
     <row r="319" spans="4:5">
-      <c r="D319" s="12"/>
-      <c r="E319" s="12"/>
+      <c r="D319" s="11"/>
+      <c r="E319" s="11"/>
     </row>
     <row r="320" spans="4:5">
-      <c r="D320" s="12"/>
-      <c r="E320" s="12"/>
+      <c r="D320" s="11"/>
+      <c r="E320" s="11"/>
     </row>
     <row r="321" spans="4:5">
-      <c r="D321" s="12"/>
-      <c r="E321" s="12"/>
+      <c r="D321" s="11"/>
+      <c r="E321" s="11"/>
     </row>
     <row r="322" spans="4:5">
-      <c r="D322" s="12"/>
-      <c r="E322" s="12"/>
+      <c r="D322" s="11"/>
+      <c r="E322" s="11"/>
     </row>
     <row r="323" spans="4:5">
-      <c r="D323" s="12"/>
-      <c r="E323" s="12"/>
+      <c r="D323" s="11"/>
+      <c r="E323" s="11"/>
     </row>
     <row r="324" spans="4:5">
-      <c r="D324" s="12"/>
-      <c r="E324" s="12"/>
+      <c r="D324" s="11"/>
+      <c r="E324" s="11"/>
     </row>
     <row r="325" spans="4:5">
-      <c r="D325" s="12"/>
-      <c r="E325" s="12"/>
+      <c r="D325" s="11"/>
+      <c r="E325" s="11"/>
     </row>
     <row r="326" spans="4:5">
-      <c r="D326" s="12"/>
-      <c r="E326" s="12"/>
+      <c r="D326" s="11"/>
+      <c r="E326" s="11"/>
     </row>
     <row r="327" spans="4:5">
-      <c r="D327" s="12"/>
-      <c r="E327" s="12"/>
+      <c r="D327" s="11"/>
+      <c r="E327" s="11"/>
     </row>
     <row r="328" spans="4:5">
-      <c r="D328" s="12"/>
-      <c r="E328" s="12"/>
+      <c r="D328" s="11"/>
+      <c r="E328" s="11"/>
     </row>
     <row r="329" spans="4:5">
-      <c r="D329" s="12"/>
-      <c r="E329" s="12"/>
+      <c r="D329" s="11"/>
+      <c r="E329" s="11"/>
     </row>
     <row r="330" spans="4:5">
-      <c r="D330" s="12"/>
-      <c r="E330" s="12"/>
+      <c r="D330" s="11"/>
+      <c r="E330" s="11"/>
     </row>
     <row r="331" spans="4:5">
-      <c r="D331" s="12"/>
-      <c r="E331" s="12"/>
+      <c r="D331" s="11"/>
+      <c r="E331" s="11"/>
     </row>
     <row r="332" spans="4:5">
-      <c r="D332" s="12"/>
-      <c r="E332" s="12"/>
+      <c r="D332" s="11"/>
+      <c r="E332" s="11"/>
     </row>
     <row r="333" spans="4:5">
-      <c r="D333" s="12"/>
-      <c r="E333" s="12"/>
+      <c r="D333" s="11"/>
+      <c r="E333" s="11"/>
     </row>
     <row r="334" spans="4:5">
-      <c r="D334" s="12"/>
-      <c r="E334" s="12"/>
+      <c r="D334" s="11"/>
+      <c r="E334" s="11"/>
     </row>
     <row r="335" spans="4:5">
-      <c r="D335" s="12"/>
-      <c r="E335" s="12"/>
+      <c r="D335" s="11"/>
+      <c r="E335" s="11"/>
     </row>
     <row r="336" spans="4:5">
-      <c r="D336" s="12"/>
-      <c r="E336" s="12"/>
+      <c r="D336" s="11"/>
+      <c r="E336" s="11"/>
     </row>
     <row r="337" spans="4:5">
-      <c r="D337" s="12"/>
-      <c r="E337" s="12"/>
+      <c r="D337" s="11"/>
+      <c r="E337" s="11"/>
     </row>
     <row r="338" spans="4:5">
-      <c r="D338" s="12"/>
-      <c r="E338" s="12"/>
+      <c r="D338" s="11"/>
+      <c r="E338" s="11"/>
     </row>
     <row r="339" spans="4:5">
-      <c r="D339" s="12"/>
-      <c r="E339" s="12"/>
+      <c r="D339" s="11"/>
+      <c r="E339" s="11"/>
     </row>
     <row r="340" spans="4:5">
-      <c r="D340" s="12"/>
-      <c r="E340" s="12"/>
+      <c r="D340" s="11"/>
+      <c r="E340" s="11"/>
     </row>
     <row r="341" spans="4:5">
-      <c r="D341" s="12"/>
-      <c r="E341" s="12"/>
+      <c r="D341" s="11"/>
+      <c r="E341" s="11"/>
     </row>
     <row r="342" spans="4:5">
-      <c r="D342" s="12"/>
-      <c r="E342" s="12"/>
+      <c r="D342" s="11"/>
+      <c r="E342" s="11"/>
     </row>
     <row r="343" spans="4:5">
-      <c r="D343" s="12"/>
-      <c r="E343" s="12"/>
+      <c r="D343" s="11"/>
+      <c r="E343" s="11"/>
     </row>
     <row r="344" spans="4:5">
-      <c r="D344" s="12"/>
-      <c r="E344" s="12"/>
+      <c r="D344" s="11"/>
+      <c r="E344" s="11"/>
     </row>
     <row r="345" spans="4:5">
-      <c r="D345" s="12"/>
-      <c r="E345" s="12"/>
+      <c r="D345" s="11"/>
+      <c r="E345" s="11"/>
     </row>
     <row r="346" spans="4:5">
-      <c r="D346" s="12"/>
-      <c r="E346" s="12"/>
+      <c r="D346" s="11"/>
+      <c r="E346" s="11"/>
     </row>
     <row r="347" spans="4:5">
-      <c r="D347" s="12"/>
-      <c r="E347" s="12"/>
+      <c r="D347" s="11"/>
+      <c r="E347" s="11"/>
     </row>
     <row r="348" spans="4:5">
-      <c r="D348" s="12"/>
-      <c r="E348" s="12"/>
+      <c r="D348" s="11"/>
+      <c r="E348" s="11"/>
     </row>
     <row r="349" spans="4:5">
-      <c r="D349" s="12"/>
-      <c r="E349" s="12"/>
+      <c r="D349" s="11"/>
+      <c r="E349" s="11"/>
     </row>
     <row r="350" spans="4:5">
-      <c r="D350" s="12"/>
-      <c r="E350" s="12"/>
+      <c r="D350" s="11"/>
+      <c r="E350" s="11"/>
     </row>
     <row r="351" spans="4:5">
-      <c r="D351" s="12"/>
-      <c r="E351" s="12"/>
+      <c r="D351" s="11"/>
+      <c r="E351" s="11"/>
     </row>
     <row r="352" spans="4:5">
-      <c r="D352" s="12"/>
-      <c r="E352" s="12"/>
+      <c r="D352" s="11"/>
+      <c r="E352" s="11"/>
     </row>
     <row r="353" spans="4:5">
-      <c r="D353" s="12"/>
-      <c r="E353" s="12"/>
+      <c r="D353" s="11"/>
+      <c r="E353" s="11"/>
     </row>
     <row r="354" spans="4:5">
-      <c r="D354" s="12"/>
-      <c r="E354" s="12"/>
+      <c r="D354" s="11"/>
+      <c r="E354" s="11"/>
     </row>
     <row r="355" spans="4:5">
-      <c r="D355" s="12"/>
-      <c r="E355" s="12"/>
+      <c r="D355" s="11"/>
+      <c r="E355" s="11"/>
     </row>
     <row r="356" spans="4:5">
-      <c r="D356" s="12"/>
-      <c r="E356" s="12"/>
+      <c r="D356" s="11"/>
+      <c r="E356" s="11"/>
     </row>
     <row r="357" spans="4:5">
-      <c r="D357" s="12"/>
-      <c r="E357" s="12"/>
+      <c r="D357" s="11"/>
+      <c r="E357" s="11"/>
     </row>
     <row r="358" spans="4:5">
-      <c r="D358" s="12"/>
-      <c r="E358" s="12"/>
+      <c r="D358" s="11"/>
+      <c r="E358" s="11"/>
     </row>
     <row r="359" spans="4:5">
-      <c r="D359" s="12"/>
-      <c r="E359" s="12"/>
+      <c r="D359" s="11"/>
+      <c r="E359" s="11"/>
     </row>
     <row r="360" spans="4:5">
-      <c r="D360" s="12"/>
-      <c r="E360" s="12"/>
+      <c r="D360" s="11"/>
+      <c r="E360" s="11"/>
     </row>
     <row r="361" spans="4:5">
-      <c r="D361" s="12"/>
-      <c r="E361" s="12"/>
+      <c r="D361" s="11"/>
+      <c r="E361" s="11"/>
     </row>
     <row r="362" spans="4:5">
-      <c r="D362" s="12"/>
-      <c r="E362" s="12"/>
+      <c r="D362" s="11"/>
+      <c r="E362" s="11"/>
     </row>
     <row r="363" spans="4:5">
-      <c r="D363" s="12"/>
-      <c r="E363" s="12"/>
+      <c r="D363" s="11"/>
+      <c r="E363" s="11"/>
     </row>
     <row r="364" spans="4:5">
-      <c r="D364" s="12"/>
-      <c r="E364" s="12"/>
+      <c r="D364" s="11"/>
+      <c r="E364" s="11"/>
     </row>
     <row r="365" spans="4:5">
-      <c r="D365" s="12"/>
-      <c r="E365" s="12"/>
+      <c r="D365" s="11"/>
+      <c r="E365" s="11"/>
     </row>
     <row r="366" spans="4:5">
-      <c r="D366" s="12"/>
-      <c r="E366" s="12"/>
+      <c r="D366" s="11"/>
+      <c r="E366" s="11"/>
     </row>
     <row r="367" spans="4:5">
-      <c r="D367" s="12"/>
-      <c r="E367" s="12"/>
+      <c r="D367" s="11"/>
+      <c r="E367" s="11"/>
     </row>
     <row r="368" spans="4:5">
-      <c r="D368" s="12"/>
-      <c r="E368" s="12"/>
+      <c r="D368" s="11"/>
+      <c r="E368" s="11"/>
     </row>
     <row r="369" spans="4:5">
-      <c r="D369" s="12"/>
-      <c r="E369" s="12"/>
+      <c r="D369" s="11"/>
+      <c r="E369" s="11"/>
     </row>
     <row r="370" spans="4:5">
-      <c r="D370" s="12"/>
-      <c r="E370" s="12"/>
+      <c r="D370" s="11"/>
+      <c r="E370" s="11"/>
     </row>
     <row r="371" spans="4:5">
-      <c r="D371" s="12"/>
-      <c r="E371" s="12"/>
+      <c r="D371" s="11"/>
+      <c r="E371" s="11"/>
     </row>
     <row r="372" spans="4:5">
-      <c r="D372" s="12"/>
-      <c r="E372" s="12"/>
+      <c r="D372" s="11"/>
+      <c r="E372" s="11"/>
     </row>
     <row r="373" spans="4:5">
-      <c r="D373" s="12"/>
-      <c r="E373" s="12"/>
+      <c r="D373" s="11"/>
+      <c r="E373" s="11"/>
     </row>
     <row r="374" spans="4:5">
-      <c r="D374" s="12"/>
-      <c r="E374" s="12"/>
+      <c r="D374" s="11"/>
+      <c r="E374" s="11"/>
     </row>
     <row r="375" spans="4:5">
-      <c r="D375" s="12"/>
-      <c r="E375" s="12"/>
+      <c r="D375" s="11"/>
+      <c r="E375" s="11"/>
     </row>
     <row r="376" spans="4:5">
-      <c r="D376" s="12"/>
-      <c r="E376" s="12"/>
+      <c r="D376" s="11"/>
+      <c r="E376" s="11"/>
     </row>
     <row r="377" spans="4:5">
-      <c r="D377" s="12"/>
-      <c r="E377" s="12"/>
+      <c r="D377" s="11"/>
+      <c r="E377" s="11"/>
     </row>
     <row r="378" spans="4:5">
-      <c r="D378" s="12"/>
-      <c r="E378" s="12"/>
+      <c r="D378" s="11"/>
+      <c r="E378" s="11"/>
     </row>
     <row r="379" spans="4:5">
-      <c r="D379" s="12"/>
-      <c r="E379" s="12"/>
+      <c r="D379" s="11"/>
+      <c r="E379" s="11"/>
     </row>
     <row r="380" spans="4:5">
-      <c r="D380" s="12"/>
-      <c r="E380" s="12"/>
+      <c r="D380" s="11"/>
+      <c r="E380" s="11"/>
     </row>
     <row r="381" spans="4:5">
-      <c r="D381" s="12"/>
-      <c r="E381" s="12"/>
+      <c r="D381" s="11"/>
+      <c r="E381" s="11"/>
     </row>
     <row r="382" spans="4:5">
-      <c r="D382" s="12"/>
-      <c r="E382" s="12"/>
+      <c r="D382" s="11"/>
+      <c r="E382" s="11"/>
     </row>
     <row r="383" spans="4:5">
-      <c r="D383" s="12"/>
-      <c r="E383" s="12"/>
+      <c r="D383" s="11"/>
+      <c r="E383" s="11"/>
     </row>
     <row r="384" spans="4:5">
-      <c r="D384" s="12"/>
-      <c r="E384" s="12"/>
+      <c r="D384" s="11"/>
+      <c r="E384" s="11"/>
     </row>
     <row r="385" spans="4:5">
-      <c r="D385" s="12"/>
-      <c r="E385" s="12"/>
+      <c r="D385" s="11"/>
+      <c r="E385" s="11"/>
     </row>
     <row r="386" spans="4:5">
-      <c r="D386" s="12"/>
-      <c r="E386" s="12"/>
+      <c r="D386" s="11"/>
+      <c r="E386" s="11"/>
     </row>
     <row r="387" spans="4:5">
-      <c r="D387" s="12"/>
-      <c r="E387" s="12"/>
+      <c r="D387" s="11"/>
+      <c r="E387" s="11"/>
     </row>
     <row r="388" spans="4:5">
-      <c r="D388" s="12"/>
-      <c r="E388" s="12"/>
+      <c r="D388" s="11"/>
+      <c r="E388" s="11"/>
     </row>
     <row r="389" spans="4:5">
-      <c r="D389" s="12"/>
-      <c r="E389" s="12"/>
+      <c r="D389" s="11"/>
+      <c r="E389" s="11"/>
     </row>
     <row r="390" spans="4:5">
-      <c r="D390" s="12"/>
-      <c r="E390" s="12"/>
+      <c r="D390" s="11"/>
+      <c r="E390" s="11"/>
     </row>
     <row r="391" spans="4:5">
-      <c r="D391" s="12"/>
-      <c r="E391" s="12"/>
+      <c r="D391" s="11"/>
+      <c r="E391" s="11"/>
     </row>
     <row r="392" spans="4:5">
-      <c r="D392" s="12"/>
-      <c r="E392" s="12"/>
+      <c r="D392" s="11"/>
+      <c r="E392" s="11"/>
     </row>
     <row r="393" spans="4:5">
-      <c r="D393" s="12"/>
-      <c r="E393" s="12"/>
+      <c r="D393" s="11"/>
+      <c r="E393" s="11"/>
     </row>
     <row r="394" spans="4:5">
-      <c r="D394" s="12"/>
-      <c r="E394" s="12"/>
+      <c r="D394" s="11"/>
+      <c r="E394" s="11"/>
     </row>
     <row r="395" spans="4:5">
-      <c r="D395" s="12"/>
-      <c r="E395" s="12"/>
+      <c r="D395" s="11"/>
+      <c r="E395" s="11"/>
     </row>
     <row r="396" spans="4:5">
-      <c r="D396" s="12"/>
-      <c r="E396" s="12"/>
+      <c r="D396" s="11"/>
+      <c r="E396" s="11"/>
     </row>
     <row r="397" spans="4:5">
-      <c r="D397" s="12"/>
-      <c r="E397" s="12"/>
+      <c r="D397" s="11"/>
+      <c r="E397" s="11"/>
     </row>
     <row r="398" spans="4:5">
-      <c r="D398" s="12"/>
-      <c r="E398" s="12"/>
+      <c r="D398" s="11"/>
+      <c r="E398" s="11"/>
     </row>
     <row r="399" spans="4:5">
-      <c r="D399" s="12"/>
-      <c r="E399" s="12"/>
+      <c r="D399" s="11"/>
+      <c r="E399" s="11"/>
     </row>
     <row r="400" spans="4:5">
-      <c r="D400" s="12"/>
-      <c r="E400" s="12"/>
+      <c r="D400" s="11"/>
+      <c r="E400" s="11"/>
     </row>
     <row r="401" spans="4:5">
-      <c r="D401" s="12"/>
-      <c r="E401" s="12"/>
+      <c r="D401" s="11"/>
+      <c r="E401" s="11"/>
     </row>
     <row r="402" spans="4:5">
-      <c r="D402" s="12"/>
-      <c r="E402" s="12"/>
+      <c r="D402" s="11"/>
+      <c r="E402" s="11"/>
     </row>
     <row r="403" spans="4:5">
-      <c r="D403" s="12"/>
-      <c r="E403" s="12"/>
+      <c r="D403" s="11"/>
+      <c r="E403" s="11"/>
     </row>
     <row r="404" spans="4:5">
-      <c r="D404" s="12"/>
-      <c r="E404" s="12"/>
+      <c r="D404" s="11"/>
+      <c r="E404" s="11"/>
     </row>
     <row r="405" spans="4:5">
-      <c r="D405" s="12"/>
-      <c r="E405" s="12"/>
+      <c r="D405" s="11"/>
+      <c r="E405" s="11"/>
     </row>
     <row r="406" spans="4:5">
-      <c r="D406" s="12"/>
-      <c r="E406" s="12"/>
+      <c r="D406" s="11"/>
+      <c r="E406" s="11"/>
     </row>
     <row r="407" spans="4:5">
-      <c r="D407" s="12"/>
-      <c r="E407" s="12"/>
+      <c r="D407" s="11"/>
+      <c r="E407" s="11"/>
     </row>
     <row r="408" spans="4:5">
-      <c r="D408" s="12"/>
-      <c r="E408" s="12"/>
+      <c r="D408" s="11"/>
+      <c r="E408" s="11"/>
     </row>
     <row r="409" spans="4:5">
-      <c r="D409" s="12"/>
-      <c r="E409" s="12"/>
+      <c r="D409" s="11"/>
+      <c r="E409" s="11"/>
     </row>
     <row r="410" spans="4:5">
-      <c r="D410" s="12"/>
-      <c r="E410" s="12"/>
+      <c r="D410" s="11"/>
+      <c r="E410" s="11"/>
     </row>
     <row r="411" spans="4:5">
-      <c r="D411" s="12"/>
-      <c r="E411" s="12"/>
+      <c r="D411" s="11"/>
+      <c r="E411" s="11"/>
     </row>
     <row r="412" spans="4:5">
-      <c r="D412" s="12"/>
-      <c r="E412" s="12"/>
+      <c r="D412" s="11"/>
+      <c r="E412" s="11"/>
     </row>
     <row r="413" spans="4:5">
-      <c r="D413" s="12"/>
-      <c r="E413" s="12"/>
+      <c r="D413" s="11"/>
+      <c r="E413" s="11"/>
     </row>
     <row r="414" spans="4:5">
-      <c r="D414" s="12"/>
-      <c r="E414" s="12"/>
+      <c r="D414" s="11"/>
+      <c r="E414" s="11"/>
     </row>
     <row r="415" spans="4:5">
-      <c r="D415" s="12"/>
-      <c r="E415" s="12"/>
+      <c r="D415" s="11"/>
+      <c r="E415" s="11"/>
     </row>
     <row r="416" spans="4:5">
-      <c r="D416" s="12"/>
-      <c r="E416" s="12"/>
+      <c r="D416" s="11"/>
+      <c r="E416" s="11"/>
     </row>
     <row r="417" spans="4:5">
-      <c r="D417" s="12"/>
-      <c r="E417" s="12"/>
+      <c r="D417" s="11"/>
+      <c r="E417" s="11"/>
     </row>
     <row r="418" spans="4:5">
-      <c r="D418" s="12"/>
-      <c r="E418" s="12"/>
+      <c r="D418" s="11"/>
+      <c r="E418" s="11"/>
     </row>
     <row r="419" spans="4:5">
-      <c r="D419" s="12"/>
-      <c r="E419" s="12"/>
+      <c r="D419" s="11"/>
+      <c r="E419" s="11"/>
     </row>
     <row r="420" spans="4:5">
-      <c r="D420" s="12"/>
-      <c r="E420" s="12"/>
+      <c r="D420" s="11"/>
+      <c r="E420" s="11"/>
     </row>
     <row r="421" spans="4:5">
-      <c r="D421" s="12"/>
-      <c r="E421" s="12"/>
+      <c r="D421" s="11"/>
+      <c r="E421" s="11"/>
     </row>
     <row r="422" spans="4:5">
-      <c r="D422" s="12"/>
-      <c r="E422" s="12"/>
+      <c r="D422" s="11"/>
+      <c r="E422" s="11"/>
     </row>
     <row r="423" spans="4:5">
-      <c r="D423" s="12"/>
-      <c r="E423" s="12"/>
+      <c r="D423" s="11"/>
+      <c r="E423" s="11"/>
     </row>
     <row r="424" spans="4:5">
-      <c r="D424" s="12"/>
-      <c r="E424" s="12"/>
+      <c r="D424" s="11"/>
+      <c r="E424" s="11"/>
     </row>
     <row r="425" spans="4:5">
-      <c r="D425" s="12"/>
-      <c r="E425" s="12"/>
+      <c r="D425" s="11"/>
+      <c r="E425" s="11"/>
     </row>
     <row r="426" spans="4:5">
-      <c r="D426" s="12"/>
-      <c r="E426" s="12"/>
+      <c r="D426" s="11"/>
+      <c r="E426" s="11"/>
     </row>
     <row r="427" spans="4:5">
-      <c r="D427" s="12"/>
-      <c r="E427" s="12"/>
+      <c r="D427" s="11"/>
+      <c r="E427" s="11"/>
     </row>
     <row r="428" spans="4:5">
-      <c r="D428" s="12"/>
-      <c r="E428" s="12"/>
+      <c r="D428" s="11"/>
+      <c r="E428" s="11"/>
     </row>
     <row r="429" spans="4:5">
-      <c r="D429" s="12"/>
-      <c r="E429" s="12"/>
+      <c r="D429" s="11"/>
+      <c r="E429" s="11"/>
     </row>
     <row r="430" spans="4:5">
-      <c r="D430" s="12"/>
-      <c r="E430" s="12"/>
+      <c r="D430" s="11"/>
+      <c r="E430" s="11"/>
     </row>
     <row r="431" spans="4:5">
-      <c r="D431" s="12"/>
-      <c r="E431" s="12"/>
+      <c r="D431" s="11"/>
+      <c r="E431" s="11"/>
     </row>
     <row r="432" spans="4:5">
-      <c r="D432" s="12"/>
-      <c r="E432" s="12"/>
+      <c r="D432" s="11"/>
+      <c r="E432" s="11"/>
     </row>
     <row r="433" spans="4:5">
-      <c r="D433" s="12"/>
-      <c r="E433" s="12"/>
+      <c r="D433" s="11"/>
+      <c r="E433" s="11"/>
     </row>
     <row r="434" spans="4:5">
-      <c r="D434" s="12"/>
-      <c r="E434" s="12"/>
+      <c r="D434" s="11"/>
+      <c r="E434" s="11"/>
     </row>
     <row r="435" spans="4:5">
-      <c r="D435" s="12"/>
-      <c r="E435" s="12"/>
+      <c r="D435" s="11"/>
+      <c r="E435" s="11"/>
     </row>
     <row r="436" spans="4:5">
-      <c r="D436" s="12"/>
-      <c r="E436" s="12"/>
+      <c r="D436" s="11"/>
+      <c r="E436" s="11"/>
     </row>
     <row r="437" spans="4:5">
-      <c r="D437" s="12"/>
-      <c r="E437" s="12"/>
+      <c r="D437" s="11"/>
+      <c r="E437" s="11"/>
     </row>
     <row r="438" spans="4:5">
-      <c r="D438" s="12"/>
-      <c r="E438" s="12"/>
+      <c r="D438" s="11"/>
+      <c r="E438" s="11"/>
     </row>
     <row r="439" spans="4:5">
-      <c r="D439" s="12"/>
-      <c r="E439" s="12"/>
+      <c r="D439" s="11"/>
+      <c r="E439" s="11"/>
     </row>
     <row r="440" spans="4:5">
-      <c r="D440" s="12"/>
-      <c r="E440" s="12"/>
+      <c r="D440" s="11"/>
+      <c r="E440" s="11"/>
     </row>
     <row r="441" spans="4:5">
-      <c r="D441" s="12"/>
-      <c r="E441" s="12"/>
+      <c r="D441" s="11"/>
+      <c r="E441" s="11"/>
     </row>
     <row r="442" spans="4:5">
-      <c r="D442" s="12"/>
-      <c r="E442" s="12"/>
+      <c r="D442" s="11"/>
+      <c r="E442" s="11"/>
     </row>
     <row r="443" spans="4:5">
-      <c r="D443" s="12"/>
-      <c r="E443" s="12"/>
+      <c r="D443" s="11"/>
+      <c r="E443" s="11"/>
     </row>
     <row r="444" spans="4:5">
-      <c r="D444" s="12"/>
-      <c r="E444" s="12"/>
+      <c r="D444" s="11"/>
+      <c r="E444" s="11"/>
     </row>
     <row r="445" spans="4:5">
-      <c r="D445" s="12"/>
-      <c r="E445" s="12"/>
+      <c r="D445" s="11"/>
+      <c r="E445" s="11"/>
     </row>
     <row r="446" spans="4:5">
-      <c r="D446" s="12"/>
-      <c r="E446" s="12"/>
+      <c r="D446" s="11"/>
+      <c r="E446" s="11"/>
     </row>
     <row r="447" spans="4:5">
-      <c r="D447" s="12"/>
-      <c r="E447" s="12"/>
+      <c r="D447" s="11"/>
+      <c r="E447" s="11"/>
     </row>
     <row r="448" spans="4:5">
-      <c r="D448" s="12"/>
-      <c r="E448" s="12"/>
+      <c r="D448" s="11"/>
+      <c r="E448" s="11"/>
     </row>
     <row r="449" spans="4:5">
-      <c r="D449" s="12"/>
-      <c r="E449" s="12"/>
+      <c r="D449" s="11"/>
+      <c r="E449" s="11"/>
     </row>
     <row r="450" spans="4:5">
-      <c r="D450" s="12"/>
-      <c r="E450" s="12"/>
+      <c r="D450" s="11"/>
+      <c r="E450" s="11"/>
     </row>
     <row r="451" spans="4:5">
-      <c r="D451" s="12"/>
-      <c r="E451" s="12"/>
+      <c r="D451" s="11"/>
+      <c r="E451" s="11"/>
     </row>
     <row r="452" spans="4:5">
-      <c r="D452" s="12"/>
-      <c r="E452" s="12"/>
+      <c r="D452" s="11"/>
+      <c r="E452" s="11"/>
     </row>
     <row r="453" spans="4:5">
-      <c r="D453" s="12"/>
-      <c r="E453" s="12"/>
+      <c r="D453" s="11"/>
+      <c r="E453" s="11"/>
     </row>
     <row r="454" spans="4:5">
-      <c r="D454" s="12"/>
-      <c r="E454" s="12"/>
+      <c r="D454" s="11"/>
+      <c r="E454" s="11"/>
     </row>
     <row r="455" spans="4:5">
-      <c r="D455" s="12"/>
-      <c r="E455" s="12"/>
+      <c r="D455" s="11"/>
+      <c r="E455" s="11"/>
     </row>
     <row r="456" spans="4:5">
-      <c r="D456" s="12"/>
-      <c r="E456" s="12"/>
+      <c r="D456" s="11"/>
+      <c r="E456" s="11"/>
     </row>
     <row r="457" spans="4:5">
-      <c r="D457" s="12"/>
-      <c r="E457" s="12"/>
+      <c r="D457" s="11"/>
+      <c r="E457" s="11"/>
     </row>
     <row r="458" spans="4:5">
-      <c r="D458" s="12"/>
-      <c r="E458" s="12"/>
+      <c r="D458" s="11"/>
+      <c r="E458" s="11"/>
     </row>
     <row r="459" spans="4:5">
-      <c r="D459" s="12"/>
-      <c r="E459" s="12"/>
+      <c r="D459" s="11"/>
+      <c r="E459" s="11"/>
     </row>
     <row r="460" spans="4:5">
-      <c r="D460" s="12"/>
-      <c r="E460" s="12"/>
+      <c r="D460" s="11"/>
+      <c r="E460" s="11"/>
     </row>
     <row r="461" spans="4:5">
-      <c r="D461" s="12"/>
-      <c r="E461" s="12"/>
+      <c r="D461" s="11"/>
+      <c r="E461" s="11"/>
     </row>
     <row r="462" spans="4:5">
-      <c r="D462" s="12"/>
-      <c r="E462" s="12"/>
+      <c r="D462" s="11"/>
+      <c r="E462" s="11"/>
     </row>
     <row r="463" spans="4:5">
-      <c r="D463" s="12"/>
-      <c r="E463" s="12"/>
+      <c r="D463" s="11"/>
+      <c r="E463" s="11"/>
     </row>
     <row r="464" spans="4:5">
-      <c r="D464" s="12"/>
-      <c r="E464" s="12"/>
+      <c r="D464" s="11"/>
+      <c r="E464" s="11"/>
     </row>
     <row r="465" spans="4:5">
-      <c r="D465" s="12"/>
-      <c r="E465" s="12"/>
+      <c r="D465" s="11"/>
+      <c r="E465" s="11"/>
     </row>
     <row r="466" spans="4:5">
-      <c r="D466" s="12"/>
-      <c r="E466" s="12"/>
+      <c r="D466" s="11"/>
+      <c r="E466" s="11"/>
     </row>
     <row r="467" spans="4:5">
-      <c r="D467" s="12"/>
-      <c r="E467" s="12"/>
+      <c r="D467" s="11"/>
+      <c r="E467" s="11"/>
     </row>
     <row r="468" spans="4:5">
-      <c r="D468" s="12"/>
-      <c r="E468" s="12"/>
+      <c r="D468" s="11"/>
+      <c r="E468" s="11"/>
     </row>
     <row r="469" spans="4:5">
-      <c r="D469" s="12"/>
-      <c r="E469" s="12"/>
+      <c r="D469" s="11"/>
+      <c r="E469" s="11"/>
     </row>
     <row r="470" spans="4:5">
-      <c r="D470" s="12"/>
-      <c r="E470" s="12"/>
+      <c r="D470" s="11"/>
+      <c r="E470" s="11"/>
     </row>
     <row r="471" spans="4:5">
-      <c r="D471" s="12"/>
-      <c r="E471" s="12"/>
+      <c r="D471" s="11"/>
+      <c r="E471" s="11"/>
     </row>
     <row r="472" spans="4:5">
-      <c r="D472" s="12"/>
-      <c r="E472" s="12"/>
+      <c r="D472" s="11"/>
+      <c r="E472" s="11"/>
     </row>
     <row r="473" spans="4:5">
-      <c r="D473" s="12"/>
-      <c r="E473" s="12"/>
+      <c r="D473" s="11"/>
+      <c r="E473" s="11"/>
     </row>
     <row r="474" spans="4:5">
-      <c r="D474" s="12"/>
-      <c r="E474" s="12"/>
+      <c r="D474" s="11"/>
+      <c r="E474" s="11"/>
     </row>
     <row r="475" spans="4:5">
-      <c r="D475" s="12"/>
-      <c r="E475" s="12"/>
+      <c r="D475" s="11"/>
+      <c r="E475" s="11"/>
     </row>
     <row r="476" spans="4:5">
-      <c r="D476" s="12"/>
-      <c r="E476" s="12"/>
+      <c r="D476" s="11"/>
+      <c r="E476" s="11"/>
     </row>
     <row r="477" spans="4:5">
-      <c r="D477" s="12"/>
-      <c r="E477" s="12"/>
+      <c r="D477" s="11"/>
+      <c r="E477" s="11"/>
     </row>
     <row r="478" spans="4:5">
-      <c r="D478" s="12"/>
-      <c r="E478" s="12"/>
+      <c r="D478" s="11"/>
+      <c r="E478" s="11"/>
     </row>
     <row r="479" spans="4:5">
-      <c r="D479" s="12"/>
-      <c r="E479" s="12"/>
+      <c r="D479" s="11"/>
+      <c r="E479" s="11"/>
     </row>
     <row r="480" spans="4:5">
-      <c r="D480" s="12"/>
-      <c r="E480" s="12"/>
+      <c r="D480" s="11"/>
+      <c r="E480" s="11"/>
     </row>
     <row r="481" spans="4:5">
-      <c r="D481" s="12"/>
-      <c r="E481" s="12"/>
+      <c r="D481" s="11"/>
+      <c r="E481" s="11"/>
     </row>
     <row r="482" spans="4:5">
-      <c r="D482" s="12"/>
-      <c r="E482" s="12"/>
+      <c r="D482" s="11"/>
+      <c r="E482" s="11"/>
     </row>
     <row r="483" spans="4:5">
-      <c r="D483" s="12"/>
-      <c r="E483" s="12"/>
+      <c r="D483" s="11"/>
+      <c r="E483" s="11"/>
     </row>
     <row r="484" spans="4:5">
-      <c r="D484" s="12"/>
-      <c r="E484" s="12"/>
+      <c r="D484" s="11"/>
+      <c r="E484" s="11"/>
     </row>
     <row r="485" spans="4:5">
-      <c r="D485" s="12"/>
-      <c r="E485" s="12"/>
+      <c r="D485" s="11"/>
+      <c r="E485" s="11"/>
     </row>
     <row r="486" spans="4:5">
-      <c r="D486" s="12"/>
-      <c r="E486" s="12"/>
+      <c r="D486" s="11"/>
+      <c r="E486" s="11"/>
     </row>
     <row r="487" spans="4:5">
-      <c r="D487" s="12"/>
-      <c r="E487" s="12"/>
+      <c r="D487" s="11"/>
+      <c r="E487" s="11"/>
     </row>
     <row r="488" spans="4:5">
-      <c r="D488" s="12"/>
-      <c r="E488" s="12"/>
+      <c r="D488" s="11"/>
+      <c r="E488" s="11"/>
     </row>
     <row r="489" spans="4:5">
-      <c r="D489" s="12"/>
-      <c r="E489" s="12"/>
+      <c r="D489" s="11"/>
+      <c r="E489" s="11"/>
     </row>
     <row r="490" spans="4:5">
-      <c r="D490" s="12"/>
-      <c r="E490" s="12"/>
+      <c r="D490" s="11"/>
+      <c r="E490" s="11"/>
     </row>
     <row r="491" spans="4:5">
-      <c r="D491" s="12"/>
-      <c r="E491" s="12"/>
+      <c r="D491" s="11"/>
+      <c r="E491" s="11"/>
     </row>
     <row r="492" spans="4:5">
-      <c r="D492" s="12"/>
-      <c r="E492" s="12"/>
+      <c r="D492" s="11"/>
+      <c r="E492" s="11"/>
     </row>
     <row r="493" spans="4:5">
-      <c r="D493" s="12"/>
-      <c r="E493" s="12"/>
+      <c r="D493" s="11"/>
+      <c r="E493" s="11"/>
     </row>
     <row r="494" spans="4:5">
-      <c r="D494" s="12"/>
-      <c r="E494" s="12"/>
+      <c r="D494" s="11"/>
+      <c r="E494" s="11"/>
     </row>
     <row r="495" spans="4:5">
-      <c r="D495" s="12"/>
-      <c r="E495" s="12"/>
+      <c r="D495" s="11"/>
+      <c r="E495" s="11"/>
     </row>
     <row r="496" spans="4:5">
-      <c r="D496" s="12"/>
-      <c r="E496" s="12"/>
+      <c r="D496" s="11"/>
+      <c r="E496" s="11"/>
     </row>
     <row r="497" spans="4:5">
-      <c r="D497" s="12"/>
-      <c r="E497" s="12"/>
+      <c r="D497" s="11"/>
+      <c r="E497" s="11"/>
     </row>
     <row r="498" spans="4:5">
-      <c r="D498" s="12"/>
-      <c r="E498" s="12"/>
+      <c r="D498" s="11"/>
+      <c r="E498" s="11"/>
     </row>
     <row r="499" spans="4:5">
-      <c r="D499" s="12"/>
-      <c r="E499" s="12"/>
+      <c r="D499" s="11"/>
+      <c r="E499" s="11"/>
     </row>
     <row r="500" spans="4:5">
-      <c r="D500" s="12"/>
-      <c r="E500" s="12"/>
+      <c r="D500" s="11"/>
+      <c r="E500" s="11"/>
     </row>
     <row r="501" spans="4:5">
-      <c r="D501" s="12"/>
-      <c r="E501" s="12"/>
+      <c r="D501" s="11"/>
+      <c r="E501" s="11"/>
     </row>
     <row r="502" spans="4:5">
-      <c r="D502" s="12"/>
-      <c r="E502" s="12"/>
+      <c r="D502" s="11"/>
+      <c r="E502" s="11"/>
     </row>
     <row r="503" spans="4:5">
-      <c r="D503" s="12"/>
-      <c r="E503" s="12"/>
+      <c r="D503" s="11"/>
+      <c r="E503" s="11"/>
     </row>
     <row r="504" spans="4:5">
-      <c r="D504" s="12"/>
-      <c r="E504" s="12"/>
+      <c r="D504" s="11"/>
+      <c r="E504" s="11"/>
     </row>
     <row r="505" spans="4:5">
-      <c r="D505" s="12"/>
-      <c r="E505" s="12"/>
+      <c r="D505" s="11"/>
+      <c r="E505" s="11"/>
     </row>
     <row r="506" spans="4:5">
-      <c r="D506" s="12"/>
-      <c r="E506" s="12"/>
+      <c r="D506" s="11"/>
+      <c r="E506" s="11"/>
     </row>
     <row r="507" spans="4:5">
-      <c r="D507" s="12"/>
-      <c r="E507" s="12"/>
+      <c r="D507" s="11"/>
+      <c r="E507" s="11"/>
     </row>
     <row r="508" spans="4:5">
-      <c r="D508" s="12"/>
-      <c r="E508" s="12"/>
+      <c r="D508" s="11"/>
+      <c r="E508" s="11"/>
     </row>
     <row r="509" spans="4:5">
-      <c r="D509" s="12"/>
-      <c r="E509" s="12"/>
+      <c r="D509" s="11"/>
+      <c r="E509" s="11"/>
     </row>
     <row r="510" spans="4:5">
-      <c r="D510" s="12"/>
-      <c r="E510" s="12"/>
+      <c r="D510" s="11"/>
+      <c r="E510" s="11"/>
     </row>
     <row r="511" spans="4:5">
-      <c r="D511" s="12"/>
-      <c r="E511" s="12"/>
+      <c r="D511" s="11"/>
+      <c r="E511" s="11"/>
     </row>
     <row r="512" spans="4:5">
-      <c r="D512" s="12"/>
-      <c r="E512" s="12"/>
+      <c r="D512" s="11"/>
+      <c r="E512" s="11"/>
     </row>
     <row r="513" spans="4:5">
-      <c r="D513" s="12"/>
-      <c r="E513" s="12"/>
+      <c r="D513" s="11"/>
+      <c r="E513" s="11"/>
     </row>
     <row r="514" spans="4:5">
-      <c r="D514" s="12"/>
-      <c r="E514" s="12"/>
+      <c r="D514" s="11"/>
+      <c r="E514" s="11"/>
     </row>
     <row r="515" spans="4:5">
-      <c r="D515" s="12"/>
-      <c r="E515" s="12"/>
+      <c r="D515" s="11"/>
+      <c r="E515" s="11"/>
     </row>
     <row r="516" spans="4:5">
-      <c r="D516" s="12"/>
-      <c r="E516" s="12"/>
+      <c r="D516" s="11"/>
+      <c r="E516" s="11"/>
     </row>
     <row r="517" spans="4:5">
-      <c r="D517" s="12"/>
-      <c r="E517" s="12"/>
+      <c r="D517" s="11"/>
+      <c r="E517" s="11"/>
     </row>
     <row r="518" spans="4:5">
-      <c r="D518" s="12"/>
-      <c r="E518" s="12"/>
+      <c r="D518" s="11"/>
+      <c r="E518" s="11"/>
     </row>
     <row r="519" spans="4:5">
-      <c r="D519" s="12"/>
-      <c r="E519" s="12"/>
+      <c r="D519" s="11"/>
+      <c r="E519" s="11"/>
     </row>
     <row r="520" spans="4:5">
-      <c r="D520" s="12"/>
-      <c r="E520" s="12"/>
+      <c r="D520" s="11"/>
+      <c r="E520" s="11"/>
     </row>
     <row r="521" spans="4:5">
-      <c r="D521" s="12"/>
-      <c r="E521" s="12"/>
+      <c r="D521" s="11"/>
+      <c r="E521" s="11"/>
     </row>
     <row r="522" spans="4:5">
-      <c r="D522" s="12"/>
-      <c r="E522" s="12"/>
+      <c r="D522" s="11"/>
+      <c r="E522" s="11"/>
     </row>
     <row r="523" spans="4:5">
-      <c r="D523" s="12"/>
-      <c r="E523" s="12"/>
+      <c r="D523" s="11"/>
+      <c r="E523" s="11"/>
     </row>
     <row r="524" spans="4:5">
-      <c r="D524" s="12"/>
-      <c r="E524" s="12"/>
+      <c r="D524" s="11"/>
+      <c r="E524" s="11"/>
     </row>
     <row r="525" spans="4:5">
-      <c r="D525" s="12"/>
-      <c r="E525" s="12"/>
+      <c r="D525" s="11"/>
+      <c r="E525" s="11"/>
     </row>
     <row r="526" spans="4:5">
-      <c r="D526" s="12"/>
-      <c r="E526" s="12"/>
+      <c r="D526" s="11"/>
+      <c r="E526" s="11"/>
     </row>
     <row r="527" spans="4:5">
-      <c r="D527" s="12"/>
-      <c r="E527" s="12"/>
+      <c r="D527" s="11"/>
+      <c r="E527" s="11"/>
     </row>
     <row r="528" spans="4:5">
-      <c r="D528" s="12"/>
-      <c r="E528" s="12"/>
+      <c r="D528" s="11"/>
+      <c r="E528" s="11"/>
     </row>
     <row r="529" spans="4:5">
-      <c r="D529" s="12"/>
-      <c r="E529" s="12"/>
+      <c r="D529" s="11"/>
+      <c r="E529" s="11"/>
     </row>
     <row r="530" spans="4:5">
-      <c r="D530" s="12"/>
-      <c r="E530" s="12"/>
+      <c r="D530" s="11"/>
+      <c r="E530" s="11"/>
     </row>
     <row r="531" spans="4:5">
-      <c r="D531" s="12"/>
-      <c r="E531" s="12"/>
+      <c r="D531" s="11"/>
+      <c r="E531" s="11"/>
     </row>
     <row r="532" spans="4:5">
-      <c r="D532" s="12"/>
-      <c r="E532" s="12"/>
+      <c r="D532" s="11"/>
+      <c r="E532" s="11"/>
     </row>
     <row r="533" spans="4:5">
-      <c r="D533" s="12"/>
-      <c r="E533" s="12"/>
+      <c r="D533" s="11"/>
+      <c r="E533" s="11"/>
     </row>
     <row r="534" spans="4:5">
-      <c r="D534" s="12"/>
-      <c r="E534" s="12"/>
+      <c r="D534" s="11"/>
+      <c r="E534" s="11"/>
     </row>
     <row r="535" spans="4:5">
-      <c r="D535" s="12"/>
-      <c r="E535" s="12"/>
+      <c r="D535" s="11"/>
+      <c r="E535" s="11"/>
     </row>
     <row r="536" spans="4:5">
-      <c r="D536" s="12"/>
-      <c r="E536" s="12"/>
+      <c r="D536" s="11"/>
+      <c r="E536" s="11"/>
     </row>
     <row r="537" spans="4:5">
-      <c r="D537" s="12"/>
-      <c r="E537" s="12"/>
+      <c r="D537" s="11"/>
+      <c r="E537" s="11"/>
     </row>
     <row r="538" spans="4:5">
-      <c r="D538" s="12"/>
-      <c r="E538" s="12"/>
+      <c r="D538" s="11"/>
+      <c r="E538" s="11"/>
     </row>
     <row r="539" spans="4:5">
-      <c r="D539" s="12"/>
-      <c r="E539" s="12"/>
+      <c r="D539" s="11"/>
+      <c r="E539" s="11"/>
     </row>
     <row r="540" spans="4:5">
-      <c r="D540" s="12"/>
-      <c r="E540" s="12"/>
+      <c r="D540" s="11"/>
+      <c r="E540" s="11"/>
     </row>
     <row r="541" spans="4:5">
-      <c r="D541" s="12"/>
-      <c r="E541" s="12"/>
+      <c r="D541" s="11"/>
+      <c r="E541" s="11"/>
     </row>
     <row r="542" spans="4:5">
-      <c r="D542" s="12"/>
-      <c r="E542" s="12"/>
+      <c r="D542" s="11"/>
+      <c r="E542" s="11"/>
     </row>
     <row r="543" spans="4:5">
-      <c r="D543" s="12"/>
-      <c r="E543" s="12"/>
+      <c r="D543" s="11"/>
+      <c r="E543" s="11"/>
     </row>
     <row r="544" spans="4:5">
-      <c r="D544" s="12"/>
-      <c r="E544" s="12"/>
+      <c r="D544" s="11"/>
+      <c r="E544" s="11"/>
     </row>
     <row r="545" spans="4:5">
-      <c r="D545" s="12"/>
-      <c r="E545" s="12"/>
+      <c r="D545" s="11"/>
+      <c r="E545" s="11"/>
     </row>
     <row r="546" spans="4:5">
-      <c r="D546" s="12"/>
-      <c r="E546" s="12"/>
+      <c r="D546" s="11"/>
+      <c r="E546" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" tooltip="https://jobs.51job.com/all/co2509094.html"/>
+    <hyperlink ref="A4" r:id="rId1" display="广州凡科互联网科技股份有限公司 " tooltip="https://jobs.51job.com/all/co2509094.html"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
   <si>
     <t>技术方向</t>
   </si>
@@ -68,6 +68,18 @@
   </si>
   <si>
     <t>Helper\A.Java\A.基础篇\E.Java8新特性</t>
+  </si>
+  <si>
+    <t>Java8编程开发入门</t>
+  </si>
+  <si>
+    <t>网易云课堂</t>
+  </si>
+  <si>
+    <t>方法的定义与使用</t>
+  </si>
+  <si>
+    <t>Helper\A.Java\A.基础篇\H.JavaSE基础</t>
   </si>
   <si>
     <t>精通Spring、Mybatis等开源框架，了解其运作原理</t>
@@ -215,18 +227,29 @@
   <si>
     <t>1：熟悉linux环境基本操作，熟悉nginx、python者优先；</t>
   </si>
+  <si>
+    <t>华为技术有限公司 </t>
+  </si>
+  <si>
+    <t>Java开发工程师</t>
+  </si>
+  <si>
+    <t>1.本科以上学历，三年以上工作经验，Java基础扎实，熟练掌握数据结构，常用设计模式，JVM底层机制，精通多线程编程，数据库编程和性能优化；
+2.精通Java web编程，3年及以上使用Java语言开发的经验，精通spring mvc、orm框架（ibatis或hibernate），熟悉前端开发（js、html、css）；
+3.熟悉分布式、缓存、消息等机制，能对分布式常用技术进行合理应用，解决实际架构问题；</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,9 +292,31 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -292,6 +337,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -306,83 +381,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -397,7 +397,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -407,7 +422,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -434,7 +449,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,19 +563,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,31 +581,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,61 +605,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,43 +617,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,45 +659,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -700,8 +676,34 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,7 +712,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,11 +734,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -746,10 +761,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -758,16 +773,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -776,119 +791,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -921,6 +936,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -953,7 +971,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1309,15 +1330,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.25" customWidth="1"/>
     <col min="2" max="2" width="16.875" customWidth="1"/>
@@ -1325,40 +1346,40 @@
     <col min="4" max="4" width="15.375" customWidth="1"/>
     <col min="5" max="6" width="14.25" customWidth="1"/>
     <col min="7" max="7" width="17.875" customWidth="1"/>
-    <col min="8" max="8" width="13.125" customWidth="1"/>
+    <col min="8" max="8" width="14.25" customWidth="1"/>
     <col min="9" max="9" width="12.25" customWidth="1"/>
     <col min="10" max="10" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="1" spans="1:10">
-      <c r="A1" s="12" t="s">
+    <row r="1" s="13" customFormat="1" spans="1:10">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1375,7 +1396,7 @@
       <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="23" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="3" t="s">
@@ -1383,8 +1404,407 @@
       </c>
       <c r="H2" s="7">
         <f ca="1">TODAY()</f>
-        <v>43420</v>
-      </c>
+        <v>43423</v>
+      </c>
+    </row>
+    <row r="3" ht="40.5" spans="1:9">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="24">
+        <v>43423</v>
+      </c>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1418,35 +1838,35 @@
     <col min="7" max="7" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="1" spans="1:10">
-      <c r="A1" s="12" t="s">
+    <row r="1" s="13" customFormat="1" spans="1:10">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1483,51 +1903,51 @@
     <col min="7" max="7" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="1" spans="1:10">
-      <c r="A1" s="20" t="s">
+    <row r="1" s="13" customFormat="1" spans="1:10">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" ht="27" spans="1:10">
-      <c r="A2" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
+      <c r="A2" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1553,77 +1973,77 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="20.5" style="11" customWidth="1"/>
-    <col min="3" max="3" width="21.25" style="11" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="11" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="11" customWidth="1"/>
-    <col min="7" max="7" width="19.125" style="11" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="11" customWidth="1"/>
-    <col min="9" max="9" width="11.875" style="11" customWidth="1"/>
-    <col min="10" max="10" width="11.625" style="11" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="21.125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="12" customWidth="1"/>
+    <col min="3" max="3" width="21.25" style="12" customWidth="1"/>
+    <col min="4" max="4" width="14.25" style="12" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="14.25" style="12" customWidth="1"/>
+    <col min="7" max="7" width="19.125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="12" customWidth="1"/>
+    <col min="9" max="9" width="11.875" style="12" customWidth="1"/>
+    <col min="10" max="10" width="11.625" style="12" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" s="18" customFormat="1" spans="1:10">
-      <c r="A1" s="18" t="s">
+    <row r="1" s="19" customFormat="1" spans="1:10">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" ht="40.5" spans="1:9">
-      <c r="A2" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="19">
+      <c r="C2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="20">
         <f ca="1">TODAY()</f>
-        <v>43420</v>
-      </c>
-      <c r="I2" s="19">
+        <v>43423</v>
+      </c>
+      <c r="I2" s="20">
         <f ca="1">TODAY()</f>
-        <v>43420</v>
+        <v>43423</v>
       </c>
     </row>
   </sheetData>
@@ -1662,1287 +2082,1287 @@
     <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="13" customFormat="1" spans="1:10">
-      <c r="A1" s="13" t="s">
+    <row r="1" s="14" customFormat="1" spans="1:10">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" ht="40.5" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="16">
         <v>3.53055555555556</v>
       </c>
-      <c r="G2" s="16" t="s">
-        <v>27</v>
+      <c r="G2" s="17" t="s">
+        <v>31</v>
       </c>
       <c r="H2" s="7">
         <f ca="1">TODAY()-1</f>
-        <v>43419</v>
+        <v>43422</v>
       </c>
       <c r="I2" s="7">
         <f ca="1">TODAY()</f>
-        <v>43420</v>
+        <v>43423</v>
       </c>
     </row>
     <row r="3" spans="3:7">
-      <c r="C3" s="17"/>
-      <c r="G3" s="11"/>
+      <c r="C3" s="18"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="7:7">
-      <c r="G4" s="11"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" spans="7:7">
-      <c r="G5" s="11"/>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" spans="7:7">
-      <c r="G6" s="11"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" spans="7:7">
-      <c r="G7" s="11"/>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" spans="7:7">
-      <c r="G8" s="11"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" spans="7:7">
-      <c r="G9" s="11"/>
+      <c r="G9" s="12"/>
     </row>
     <row r="10" spans="7:7">
-      <c r="G10" s="11"/>
+      <c r="G10" s="12"/>
     </row>
     <row r="11" spans="7:7">
-      <c r="G11" s="11"/>
+      <c r="G11" s="12"/>
     </row>
     <row r="12" spans="7:7">
-      <c r="G12" s="11"/>
+      <c r="G12" s="12"/>
     </row>
     <row r="13" spans="7:7">
-      <c r="G13" s="11"/>
+      <c r="G13" s="12"/>
     </row>
     <row r="14" spans="7:7">
-      <c r="G14" s="11"/>
+      <c r="G14" s="12"/>
     </row>
     <row r="15" spans="7:7">
-      <c r="G15" s="11"/>
+      <c r="G15" s="12"/>
     </row>
     <row r="16" spans="7:7">
-      <c r="G16" s="11"/>
+      <c r="G16" s="12"/>
     </row>
     <row r="17" spans="7:7">
-      <c r="G17" s="11"/>
+      <c r="G17" s="12"/>
     </row>
     <row r="18" spans="7:7">
-      <c r="G18" s="11"/>
+      <c r="G18" s="12"/>
     </row>
     <row r="19" spans="7:7">
-      <c r="G19" s="11"/>
+      <c r="G19" s="12"/>
     </row>
     <row r="20" spans="7:7">
-      <c r="G20" s="11"/>
+      <c r="G20" s="12"/>
     </row>
     <row r="21" spans="7:7">
-      <c r="G21" s="11"/>
+      <c r="G21" s="12"/>
     </row>
     <row r="22" spans="7:7">
-      <c r="G22" s="11"/>
+      <c r="G22" s="12"/>
     </row>
     <row r="23" spans="7:7">
-      <c r="G23" s="11"/>
+      <c r="G23" s="12"/>
     </row>
     <row r="24" spans="7:7">
-      <c r="G24" s="11"/>
+      <c r="G24" s="12"/>
     </row>
     <row r="25" spans="7:7">
-      <c r="G25" s="11"/>
+      <c r="G25" s="12"/>
     </row>
     <row r="26" spans="7:7">
-      <c r="G26" s="11"/>
+      <c r="G26" s="12"/>
     </row>
     <row r="27" spans="7:7">
-      <c r="G27" s="11"/>
+      <c r="G27" s="12"/>
     </row>
     <row r="28" spans="7:7">
-      <c r="G28" s="11"/>
+      <c r="G28" s="12"/>
     </row>
     <row r="29" spans="7:7">
-      <c r="G29" s="11"/>
+      <c r="G29" s="12"/>
     </row>
     <row r="30" spans="7:7">
-      <c r="G30" s="11"/>
+      <c r="G30" s="12"/>
     </row>
     <row r="31" spans="7:7">
-      <c r="G31" s="11"/>
+      <c r="G31" s="12"/>
     </row>
     <row r="32" spans="7:7">
-      <c r="G32" s="11"/>
+      <c r="G32" s="12"/>
     </row>
     <row r="33" spans="7:7">
-      <c r="G33" s="11"/>
+      <c r="G33" s="12"/>
     </row>
     <row r="34" spans="7:7">
-      <c r="G34" s="11"/>
+      <c r="G34" s="12"/>
     </row>
     <row r="35" spans="7:7">
-      <c r="G35" s="11"/>
+      <c r="G35" s="12"/>
     </row>
     <row r="36" spans="7:7">
-      <c r="G36" s="11"/>
+      <c r="G36" s="12"/>
     </row>
     <row r="37" spans="7:7">
-      <c r="G37" s="11"/>
+      <c r="G37" s="12"/>
     </row>
     <row r="38" spans="7:7">
-      <c r="G38" s="11"/>
+      <c r="G38" s="12"/>
     </row>
     <row r="39" spans="7:7">
-      <c r="G39" s="11"/>
+      <c r="G39" s="12"/>
     </row>
     <row r="40" spans="7:7">
-      <c r="G40" s="11"/>
+      <c r="G40" s="12"/>
     </row>
     <row r="41" spans="7:7">
-      <c r="G41" s="11"/>
+      <c r="G41" s="12"/>
     </row>
     <row r="42" spans="7:7">
-      <c r="G42" s="11"/>
+      <c r="G42" s="12"/>
     </row>
     <row r="43" spans="7:7">
-      <c r="G43" s="11"/>
+      <c r="G43" s="12"/>
     </row>
     <row r="44" spans="7:7">
-      <c r="G44" s="11"/>
+      <c r="G44" s="12"/>
     </row>
     <row r="45" spans="7:7">
-      <c r="G45" s="11"/>
+      <c r="G45" s="12"/>
     </row>
     <row r="46" spans="7:7">
-      <c r="G46" s="11"/>
+      <c r="G46" s="12"/>
     </row>
     <row r="47" spans="7:7">
-      <c r="G47" s="11"/>
+      <c r="G47" s="12"/>
     </row>
     <row r="48" spans="7:7">
-      <c r="G48" s="11"/>
+      <c r="G48" s="12"/>
     </row>
     <row r="49" spans="7:7">
-      <c r="G49" s="11"/>
+      <c r="G49" s="12"/>
     </row>
     <row r="50" spans="7:7">
-      <c r="G50" s="11"/>
+      <c r="G50" s="12"/>
     </row>
     <row r="51" spans="7:7">
-      <c r="G51" s="11"/>
+      <c r="G51" s="12"/>
     </row>
     <row r="52" spans="7:7">
-      <c r="G52" s="11"/>
+      <c r="G52" s="12"/>
     </row>
     <row r="53" spans="7:7">
-      <c r="G53" s="11"/>
+      <c r="G53" s="12"/>
     </row>
     <row r="54" spans="7:7">
-      <c r="G54" s="11"/>
+      <c r="G54" s="12"/>
     </row>
     <row r="55" spans="7:7">
-      <c r="G55" s="11"/>
+      <c r="G55" s="12"/>
     </row>
     <row r="56" spans="7:7">
-      <c r="G56" s="11"/>
+      <c r="G56" s="12"/>
     </row>
     <row r="57" spans="7:7">
-      <c r="G57" s="11"/>
+      <c r="G57" s="12"/>
     </row>
     <row r="58" spans="7:7">
-      <c r="G58" s="11"/>
+      <c r="G58" s="12"/>
     </row>
     <row r="59" spans="7:7">
-      <c r="G59" s="11"/>
+      <c r="G59" s="12"/>
     </row>
     <row r="60" spans="7:7">
-      <c r="G60" s="11"/>
+      <c r="G60" s="12"/>
     </row>
     <row r="61" spans="7:7">
-      <c r="G61" s="11"/>
+      <c r="G61" s="12"/>
     </row>
     <row r="62" spans="7:7">
-      <c r="G62" s="11"/>
+      <c r="G62" s="12"/>
     </row>
     <row r="63" spans="7:7">
-      <c r="G63" s="11"/>
+      <c r="G63" s="12"/>
     </row>
     <row r="64" spans="7:7">
-      <c r="G64" s="11"/>
+      <c r="G64" s="12"/>
     </row>
     <row r="65" spans="7:7">
-      <c r="G65" s="11"/>
+      <c r="G65" s="12"/>
     </row>
     <row r="66" spans="7:7">
-      <c r="G66" s="11"/>
+      <c r="G66" s="12"/>
     </row>
     <row r="67" spans="7:7">
-      <c r="G67" s="11"/>
+      <c r="G67" s="12"/>
     </row>
     <row r="68" spans="7:7">
-      <c r="G68" s="11"/>
+      <c r="G68" s="12"/>
     </row>
     <row r="69" spans="7:7">
-      <c r="G69" s="11"/>
+      <c r="G69" s="12"/>
     </row>
     <row r="70" spans="7:7">
-      <c r="G70" s="11"/>
+      <c r="G70" s="12"/>
     </row>
     <row r="71" spans="7:7">
-      <c r="G71" s="11"/>
+      <c r="G71" s="12"/>
     </row>
     <row r="72" spans="7:7">
-      <c r="G72" s="11"/>
+      <c r="G72" s="12"/>
     </row>
     <row r="73" spans="7:7">
-      <c r="G73" s="11"/>
+      <c r="G73" s="12"/>
     </row>
     <row r="74" spans="7:7">
-      <c r="G74" s="11"/>
+      <c r="G74" s="12"/>
     </row>
     <row r="75" spans="7:7">
-      <c r="G75" s="11"/>
+      <c r="G75" s="12"/>
     </row>
     <row r="76" spans="7:7">
-      <c r="G76" s="11"/>
+      <c r="G76" s="12"/>
     </row>
     <row r="77" spans="7:7">
-      <c r="G77" s="11"/>
+      <c r="G77" s="12"/>
     </row>
     <row r="78" spans="7:7">
-      <c r="G78" s="11"/>
+      <c r="G78" s="12"/>
     </row>
     <row r="79" spans="7:7">
-      <c r="G79" s="11"/>
+      <c r="G79" s="12"/>
     </row>
     <row r="80" spans="7:7">
-      <c r="G80" s="11"/>
+      <c r="G80" s="12"/>
     </row>
     <row r="81" spans="7:7">
-      <c r="G81" s="11"/>
+      <c r="G81" s="12"/>
     </row>
     <row r="82" spans="7:7">
-      <c r="G82" s="11"/>
+      <c r="G82" s="12"/>
     </row>
     <row r="83" spans="7:7">
-      <c r="G83" s="11"/>
+      <c r="G83" s="12"/>
     </row>
     <row r="84" spans="7:7">
-      <c r="G84" s="11"/>
+      <c r="G84" s="12"/>
     </row>
     <row r="85" spans="7:7">
-      <c r="G85" s="11"/>
+      <c r="G85" s="12"/>
     </row>
     <row r="86" spans="7:7">
-      <c r="G86" s="11"/>
+      <c r="G86" s="12"/>
     </row>
     <row r="87" spans="7:7">
-      <c r="G87" s="11"/>
+      <c r="G87" s="12"/>
     </row>
     <row r="88" spans="7:7">
-      <c r="G88" s="11"/>
+      <c r="G88" s="12"/>
     </row>
     <row r="89" spans="7:7">
-      <c r="G89" s="11"/>
+      <c r="G89" s="12"/>
     </row>
     <row r="90" spans="7:7">
-      <c r="G90" s="11"/>
+      <c r="G90" s="12"/>
     </row>
     <row r="91" spans="7:7">
-      <c r="G91" s="11"/>
+      <c r="G91" s="12"/>
     </row>
     <row r="92" spans="7:7">
-      <c r="G92" s="11"/>
+      <c r="G92" s="12"/>
     </row>
     <row r="93" spans="7:7">
-      <c r="G93" s="11"/>
+      <c r="G93" s="12"/>
     </row>
     <row r="94" spans="7:7">
-      <c r="G94" s="11"/>
+      <c r="G94" s="12"/>
     </row>
     <row r="95" spans="7:7">
-      <c r="G95" s="11"/>
+      <c r="G95" s="12"/>
     </row>
     <row r="96" spans="7:7">
-      <c r="G96" s="11"/>
+      <c r="G96" s="12"/>
     </row>
     <row r="97" spans="7:7">
-      <c r="G97" s="11"/>
+      <c r="G97" s="12"/>
     </row>
     <row r="98" spans="7:7">
-      <c r="G98" s="11"/>
+      <c r="G98" s="12"/>
     </row>
     <row r="99" spans="7:7">
-      <c r="G99" s="11"/>
+      <c r="G99" s="12"/>
     </row>
     <row r="100" spans="7:7">
-      <c r="G100" s="11"/>
+      <c r="G100" s="12"/>
     </row>
     <row r="101" spans="7:7">
-      <c r="G101" s="11"/>
+      <c r="G101" s="12"/>
     </row>
     <row r="102" spans="7:7">
-      <c r="G102" s="11"/>
+      <c r="G102" s="12"/>
     </row>
     <row r="103" spans="7:7">
-      <c r="G103" s="11"/>
+      <c r="G103" s="12"/>
     </row>
     <row r="104" spans="7:7">
-      <c r="G104" s="11"/>
+      <c r="G104" s="12"/>
     </row>
     <row r="105" spans="7:7">
-      <c r="G105" s="11"/>
+      <c r="G105" s="12"/>
     </row>
     <row r="106" spans="7:7">
-      <c r="G106" s="11"/>
+      <c r="G106" s="12"/>
     </row>
     <row r="107" spans="7:7">
-      <c r="G107" s="11"/>
+      <c r="G107" s="12"/>
     </row>
     <row r="108" spans="7:7">
-      <c r="G108" s="11"/>
+      <c r="G108" s="12"/>
     </row>
     <row r="109" spans="7:7">
-      <c r="G109" s="11"/>
+      <c r="G109" s="12"/>
     </row>
     <row r="110" spans="7:7">
-      <c r="G110" s="11"/>
+      <c r="G110" s="12"/>
     </row>
     <row r="111" spans="7:7">
-      <c r="G111" s="11"/>
+      <c r="G111" s="12"/>
     </row>
     <row r="112" spans="7:7">
-      <c r="G112" s="11"/>
+      <c r="G112" s="12"/>
     </row>
     <row r="113" spans="7:7">
-      <c r="G113" s="11"/>
+      <c r="G113" s="12"/>
     </row>
     <row r="114" spans="7:7">
-      <c r="G114" s="11"/>
+      <c r="G114" s="12"/>
     </row>
     <row r="115" spans="7:7">
-      <c r="G115" s="11"/>
+      <c r="G115" s="12"/>
     </row>
     <row r="116" spans="7:7">
-      <c r="G116" s="11"/>
+      <c r="G116" s="12"/>
     </row>
     <row r="117" spans="7:7">
-      <c r="G117" s="11"/>
+      <c r="G117" s="12"/>
     </row>
     <row r="118" spans="7:7">
-      <c r="G118" s="11"/>
+      <c r="G118" s="12"/>
     </row>
     <row r="119" spans="7:7">
-      <c r="G119" s="11"/>
+      <c r="G119" s="12"/>
     </row>
     <row r="120" spans="7:7">
-      <c r="G120" s="11"/>
+      <c r="G120" s="12"/>
     </row>
     <row r="121" spans="7:7">
-      <c r="G121" s="11"/>
+      <c r="G121" s="12"/>
     </row>
     <row r="122" spans="7:7">
-      <c r="G122" s="11"/>
+      <c r="G122" s="12"/>
     </row>
     <row r="123" spans="7:7">
-      <c r="G123" s="11"/>
+      <c r="G123" s="12"/>
     </row>
     <row r="124" spans="7:7">
-      <c r="G124" s="11"/>
+      <c r="G124" s="12"/>
     </row>
     <row r="125" spans="7:7">
-      <c r="G125" s="11"/>
+      <c r="G125" s="12"/>
     </row>
     <row r="126" spans="7:7">
-      <c r="G126" s="11"/>
+      <c r="G126" s="12"/>
     </row>
     <row r="127" spans="7:7">
-      <c r="G127" s="11"/>
+      <c r="G127" s="12"/>
     </row>
     <row r="128" spans="7:7">
-      <c r="G128" s="11"/>
+      <c r="G128" s="12"/>
     </row>
     <row r="129" spans="7:7">
-      <c r="G129" s="11"/>
+      <c r="G129" s="12"/>
     </row>
     <row r="130" spans="7:7">
-      <c r="G130" s="11"/>
+      <c r="G130" s="12"/>
     </row>
     <row r="131" spans="7:7">
-      <c r="G131" s="11"/>
+      <c r="G131" s="12"/>
     </row>
     <row r="132" spans="7:7">
-      <c r="G132" s="11"/>
+      <c r="G132" s="12"/>
     </row>
     <row r="133" spans="7:7">
-      <c r="G133" s="11"/>
+      <c r="G133" s="12"/>
     </row>
     <row r="134" spans="7:7">
-      <c r="G134" s="11"/>
+      <c r="G134" s="12"/>
     </row>
     <row r="135" spans="7:7">
-      <c r="G135" s="11"/>
+      <c r="G135" s="12"/>
     </row>
     <row r="136" spans="7:7">
-      <c r="G136" s="11"/>
+      <c r="G136" s="12"/>
     </row>
     <row r="137" spans="7:7">
-      <c r="G137" s="11"/>
+      <c r="G137" s="12"/>
     </row>
     <row r="138" spans="7:7">
-      <c r="G138" s="11"/>
+      <c r="G138" s="12"/>
     </row>
     <row r="139" spans="7:7">
-      <c r="G139" s="11"/>
+      <c r="G139" s="12"/>
     </row>
     <row r="140" spans="7:7">
-      <c r="G140" s="11"/>
+      <c r="G140" s="12"/>
     </row>
     <row r="141" spans="7:7">
-      <c r="G141" s="11"/>
+      <c r="G141" s="12"/>
     </row>
     <row r="142" spans="7:7">
-      <c r="G142" s="11"/>
+      <c r="G142" s="12"/>
     </row>
     <row r="143" spans="7:7">
-      <c r="G143" s="11"/>
+      <c r="G143" s="12"/>
     </row>
     <row r="144" spans="7:7">
-      <c r="G144" s="11"/>
+      <c r="G144" s="12"/>
     </row>
     <row r="145" spans="7:7">
-      <c r="G145" s="11"/>
+      <c r="G145" s="12"/>
     </row>
     <row r="146" spans="7:7">
-      <c r="G146" s="11"/>
+      <c r="G146" s="12"/>
     </row>
     <row r="147" spans="7:7">
-      <c r="G147" s="11"/>
+      <c r="G147" s="12"/>
     </row>
     <row r="148" spans="7:7">
-      <c r="G148" s="11"/>
+      <c r="G148" s="12"/>
     </row>
     <row r="149" spans="7:7">
-      <c r="G149" s="11"/>
+      <c r="G149" s="12"/>
     </row>
     <row r="150" spans="7:7">
-      <c r="G150" s="11"/>
+      <c r="G150" s="12"/>
     </row>
     <row r="151" spans="7:7">
-      <c r="G151" s="11"/>
+      <c r="G151" s="12"/>
     </row>
     <row r="152" spans="7:7">
-      <c r="G152" s="11"/>
+      <c r="G152" s="12"/>
     </row>
     <row r="153" spans="7:7">
-      <c r="G153" s="11"/>
+      <c r="G153" s="12"/>
     </row>
     <row r="154" spans="7:7">
-      <c r="G154" s="11"/>
+      <c r="G154" s="12"/>
     </row>
     <row r="155" spans="7:7">
-      <c r="G155" s="11"/>
+      <c r="G155" s="12"/>
     </row>
     <row r="156" spans="7:7">
-      <c r="G156" s="11"/>
+      <c r="G156" s="12"/>
     </row>
     <row r="157" spans="7:7">
-      <c r="G157" s="11"/>
+      <c r="G157" s="12"/>
     </row>
     <row r="158" spans="7:7">
-      <c r="G158" s="11"/>
+      <c r="G158" s="12"/>
     </row>
     <row r="159" spans="7:7">
-      <c r="G159" s="11"/>
+      <c r="G159" s="12"/>
     </row>
     <row r="160" spans="7:7">
-      <c r="G160" s="11"/>
+      <c r="G160" s="12"/>
     </row>
     <row r="161" spans="7:7">
-      <c r="G161" s="11"/>
+      <c r="G161" s="12"/>
     </row>
     <row r="162" spans="7:7">
-      <c r="G162" s="11"/>
+      <c r="G162" s="12"/>
     </row>
     <row r="163" spans="7:7">
-      <c r="G163" s="11"/>
+      <c r="G163" s="12"/>
     </row>
     <row r="164" spans="7:7">
-      <c r="G164" s="11"/>
+      <c r="G164" s="12"/>
     </row>
     <row r="165" spans="7:7">
-      <c r="G165" s="11"/>
+      <c r="G165" s="12"/>
     </row>
     <row r="166" spans="7:7">
-      <c r="G166" s="11"/>
+      <c r="G166" s="12"/>
     </row>
     <row r="167" spans="7:7">
-      <c r="G167" s="11"/>
+      <c r="G167" s="12"/>
     </row>
     <row r="168" spans="7:7">
-      <c r="G168" s="11"/>
+      <c r="G168" s="12"/>
     </row>
     <row r="169" spans="7:7">
-      <c r="G169" s="11"/>
+      <c r="G169" s="12"/>
     </row>
     <row r="170" spans="7:7">
-      <c r="G170" s="11"/>
+      <c r="G170" s="12"/>
     </row>
     <row r="171" spans="7:7">
-      <c r="G171" s="11"/>
+      <c r="G171" s="12"/>
     </row>
     <row r="172" spans="7:7">
-      <c r="G172" s="11"/>
+      <c r="G172" s="12"/>
     </row>
     <row r="173" spans="7:7">
-      <c r="G173" s="11"/>
+      <c r="G173" s="12"/>
     </row>
     <row r="174" spans="7:7">
-      <c r="G174" s="11"/>
+      <c r="G174" s="12"/>
     </row>
     <row r="175" spans="7:7">
-      <c r="G175" s="11"/>
+      <c r="G175" s="12"/>
     </row>
     <row r="176" spans="7:7">
-      <c r="G176" s="11"/>
+      <c r="G176" s="12"/>
     </row>
     <row r="177" spans="7:7">
-      <c r="G177" s="11"/>
+      <c r="G177" s="12"/>
     </row>
     <row r="178" spans="7:7">
-      <c r="G178" s="11"/>
+      <c r="G178" s="12"/>
     </row>
     <row r="179" spans="7:7">
-      <c r="G179" s="11"/>
+      <c r="G179" s="12"/>
     </row>
     <row r="180" spans="7:7">
-      <c r="G180" s="11"/>
+      <c r="G180" s="12"/>
     </row>
     <row r="181" spans="7:7">
-      <c r="G181" s="11"/>
+      <c r="G181" s="12"/>
     </row>
     <row r="182" spans="7:7">
-      <c r="G182" s="11"/>
+      <c r="G182" s="12"/>
     </row>
     <row r="183" spans="7:7">
-      <c r="G183" s="11"/>
+      <c r="G183" s="12"/>
     </row>
     <row r="184" spans="7:7">
-      <c r="G184" s="11"/>
+      <c r="G184" s="12"/>
     </row>
     <row r="185" spans="7:7">
-      <c r="G185" s="11"/>
+      <c r="G185" s="12"/>
     </row>
     <row r="186" spans="7:7">
-      <c r="G186" s="11"/>
+      <c r="G186" s="12"/>
     </row>
     <row r="187" spans="7:7">
-      <c r="G187" s="11"/>
+      <c r="G187" s="12"/>
     </row>
     <row r="188" spans="7:7">
-      <c r="G188" s="11"/>
+      <c r="G188" s="12"/>
     </row>
     <row r="189" spans="7:7">
-      <c r="G189" s="11"/>
+      <c r="G189" s="12"/>
     </row>
     <row r="190" spans="7:7">
-      <c r="G190" s="11"/>
+      <c r="G190" s="12"/>
     </row>
     <row r="191" spans="7:7">
-      <c r="G191" s="11"/>
+      <c r="G191" s="12"/>
     </row>
     <row r="192" spans="7:7">
-      <c r="G192" s="11"/>
+      <c r="G192" s="12"/>
     </row>
     <row r="193" spans="7:7">
-      <c r="G193" s="11"/>
+      <c r="G193" s="12"/>
     </row>
     <row r="194" spans="7:7">
-      <c r="G194" s="11"/>
+      <c r="G194" s="12"/>
     </row>
     <row r="195" spans="7:7">
-      <c r="G195" s="11"/>
+      <c r="G195" s="12"/>
     </row>
     <row r="196" spans="7:7">
-      <c r="G196" s="11"/>
+      <c r="G196" s="12"/>
     </row>
     <row r="197" spans="7:7">
-      <c r="G197" s="11"/>
+      <c r="G197" s="12"/>
     </row>
     <row r="198" spans="7:7">
-      <c r="G198" s="11"/>
+      <c r="G198" s="12"/>
     </row>
     <row r="199" spans="7:7">
-      <c r="G199" s="11"/>
+      <c r="G199" s="12"/>
     </row>
     <row r="200" spans="7:7">
-      <c r="G200" s="11"/>
+      <c r="G200" s="12"/>
     </row>
     <row r="201" spans="7:7">
-      <c r="G201" s="11"/>
+      <c r="G201" s="12"/>
     </row>
     <row r="202" spans="7:7">
-      <c r="G202" s="11"/>
+      <c r="G202" s="12"/>
     </row>
     <row r="203" spans="7:7">
-      <c r="G203" s="11"/>
+      <c r="G203" s="12"/>
     </row>
     <row r="204" spans="7:7">
-      <c r="G204" s="11"/>
+      <c r="G204" s="12"/>
     </row>
     <row r="205" spans="7:7">
-      <c r="G205" s="11"/>
+      <c r="G205" s="12"/>
     </row>
     <row r="206" spans="7:7">
-      <c r="G206" s="11"/>
+      <c r="G206" s="12"/>
     </row>
     <row r="207" spans="7:7">
-      <c r="G207" s="11"/>
+      <c r="G207" s="12"/>
     </row>
     <row r="208" spans="7:7">
-      <c r="G208" s="11"/>
+      <c r="G208" s="12"/>
     </row>
     <row r="209" spans="7:7">
-      <c r="G209" s="11"/>
+      <c r="G209" s="12"/>
     </row>
     <row r="210" spans="7:7">
-      <c r="G210" s="11"/>
+      <c r="G210" s="12"/>
     </row>
     <row r="211" spans="7:7">
-      <c r="G211" s="11"/>
+      <c r="G211" s="12"/>
     </row>
     <row r="212" spans="7:7">
-      <c r="G212" s="11"/>
+      <c r="G212" s="12"/>
     </row>
     <row r="213" spans="7:7">
-      <c r="G213" s="11"/>
+      <c r="G213" s="12"/>
     </row>
     <row r="214" spans="7:7">
-      <c r="G214" s="11"/>
+      <c r="G214" s="12"/>
     </row>
     <row r="215" spans="7:7">
-      <c r="G215" s="11"/>
+      <c r="G215" s="12"/>
     </row>
     <row r="216" spans="7:7">
-      <c r="G216" s="11"/>
+      <c r="G216" s="12"/>
     </row>
     <row r="217" spans="7:7">
-      <c r="G217" s="11"/>
+      <c r="G217" s="12"/>
     </row>
     <row r="218" spans="7:7">
-      <c r="G218" s="11"/>
+      <c r="G218" s="12"/>
     </row>
     <row r="219" spans="7:7">
-      <c r="G219" s="11"/>
+      <c r="G219" s="12"/>
     </row>
     <row r="220" spans="7:7">
-      <c r="G220" s="11"/>
+      <c r="G220" s="12"/>
     </row>
     <row r="221" spans="7:7">
-      <c r="G221" s="11"/>
+      <c r="G221" s="12"/>
     </row>
     <row r="222" spans="7:7">
-      <c r="G222" s="11"/>
+      <c r="G222" s="12"/>
     </row>
     <row r="223" spans="7:7">
-      <c r="G223" s="11"/>
+      <c r="G223" s="12"/>
     </row>
     <row r="224" spans="7:7">
-      <c r="G224" s="11"/>
+      <c r="G224" s="12"/>
     </row>
     <row r="225" spans="7:7">
-      <c r="G225" s="11"/>
+      <c r="G225" s="12"/>
     </row>
     <row r="226" spans="7:7">
-      <c r="G226" s="11"/>
+      <c r="G226" s="12"/>
     </row>
     <row r="227" spans="7:7">
-      <c r="G227" s="11"/>
+      <c r="G227" s="12"/>
     </row>
     <row r="228" spans="7:7">
-      <c r="G228" s="11"/>
+      <c r="G228" s="12"/>
     </row>
     <row r="229" spans="7:7">
-      <c r="G229" s="11"/>
+      <c r="G229" s="12"/>
     </row>
     <row r="230" spans="7:7">
-      <c r="G230" s="11"/>
+      <c r="G230" s="12"/>
     </row>
     <row r="231" spans="7:7">
-      <c r="G231" s="11"/>
+      <c r="G231" s="12"/>
     </row>
     <row r="232" spans="7:7">
-      <c r="G232" s="11"/>
+      <c r="G232" s="12"/>
     </row>
     <row r="233" spans="7:7">
-      <c r="G233" s="11"/>
+      <c r="G233" s="12"/>
     </row>
     <row r="234" spans="7:7">
-      <c r="G234" s="11"/>
+      <c r="G234" s="12"/>
     </row>
     <row r="235" spans="7:7">
-      <c r="G235" s="11"/>
+      <c r="G235" s="12"/>
     </row>
     <row r="236" spans="7:7">
-      <c r="G236" s="11"/>
+      <c r="G236" s="12"/>
     </row>
     <row r="237" spans="7:7">
-      <c r="G237" s="11"/>
+      <c r="G237" s="12"/>
     </row>
     <row r="238" spans="7:7">
-      <c r="G238" s="11"/>
+      <c r="G238" s="12"/>
     </row>
     <row r="239" spans="7:7">
-      <c r="G239" s="11"/>
+      <c r="G239" s="12"/>
     </row>
     <row r="240" spans="7:7">
-      <c r="G240" s="11"/>
+      <c r="G240" s="12"/>
     </row>
     <row r="241" spans="7:7">
-      <c r="G241" s="11"/>
+      <c r="G241" s="12"/>
     </row>
     <row r="242" spans="7:7">
-      <c r="G242" s="11"/>
+      <c r="G242" s="12"/>
     </row>
     <row r="243" spans="7:7">
-      <c r="G243" s="11"/>
+      <c r="G243" s="12"/>
     </row>
     <row r="244" spans="7:7">
-      <c r="G244" s="11"/>
+      <c r="G244" s="12"/>
     </row>
     <row r="245" spans="7:7">
-      <c r="G245" s="11"/>
+      <c r="G245" s="12"/>
     </row>
     <row r="246" spans="7:7">
-      <c r="G246" s="11"/>
+      <c r="G246" s="12"/>
     </row>
     <row r="247" spans="7:7">
-      <c r="G247" s="11"/>
+      <c r="G247" s="12"/>
     </row>
     <row r="248" spans="7:7">
-      <c r="G248" s="11"/>
+      <c r="G248" s="12"/>
     </row>
     <row r="249" spans="7:7">
-      <c r="G249" s="11"/>
+      <c r="G249" s="12"/>
     </row>
     <row r="250" spans="7:7">
-      <c r="G250" s="11"/>
+      <c r="G250" s="12"/>
     </row>
     <row r="251" spans="7:7">
-      <c r="G251" s="11"/>
+      <c r="G251" s="12"/>
     </row>
     <row r="252" spans="7:7">
-      <c r="G252" s="11"/>
+      <c r="G252" s="12"/>
     </row>
     <row r="253" spans="7:7">
-      <c r="G253" s="11"/>
+      <c r="G253" s="12"/>
     </row>
     <row r="254" spans="7:7">
-      <c r="G254" s="11"/>
+      <c r="G254" s="12"/>
     </row>
     <row r="255" spans="7:7">
-      <c r="G255" s="11"/>
+      <c r="G255" s="12"/>
     </row>
     <row r="256" spans="7:7">
-      <c r="G256" s="11"/>
+      <c r="G256" s="12"/>
     </row>
     <row r="257" spans="7:7">
-      <c r="G257" s="11"/>
+      <c r="G257" s="12"/>
     </row>
     <row r="258" spans="7:7">
-      <c r="G258" s="11"/>
+      <c r="G258" s="12"/>
     </row>
     <row r="259" spans="7:7">
-      <c r="G259" s="11"/>
+      <c r="G259" s="12"/>
     </row>
     <row r="260" spans="7:7">
-      <c r="G260" s="11"/>
+      <c r="G260" s="12"/>
     </row>
     <row r="261" spans="7:7">
-      <c r="G261" s="11"/>
+      <c r="G261" s="12"/>
     </row>
     <row r="262" spans="7:7">
-      <c r="G262" s="11"/>
+      <c r="G262" s="12"/>
     </row>
     <row r="263" spans="7:7">
-      <c r="G263" s="11"/>
+      <c r="G263" s="12"/>
     </row>
     <row r="264" spans="7:7">
-      <c r="G264" s="11"/>
+      <c r="G264" s="12"/>
     </row>
     <row r="265" spans="7:7">
-      <c r="G265" s="11"/>
+      <c r="G265" s="12"/>
     </row>
     <row r="266" spans="7:7">
-      <c r="G266" s="11"/>
+      <c r="G266" s="12"/>
     </row>
     <row r="267" spans="7:7">
-      <c r="G267" s="11"/>
+      <c r="G267" s="12"/>
     </row>
     <row r="268" spans="7:7">
-      <c r="G268" s="11"/>
+      <c r="G268" s="12"/>
     </row>
     <row r="269" spans="7:7">
-      <c r="G269" s="11"/>
+      <c r="G269" s="12"/>
     </row>
     <row r="270" spans="7:7">
-      <c r="G270" s="11"/>
+      <c r="G270" s="12"/>
     </row>
     <row r="271" spans="7:7">
-      <c r="G271" s="11"/>
+      <c r="G271" s="12"/>
     </row>
     <row r="272" spans="7:7">
-      <c r="G272" s="11"/>
+      <c r="G272" s="12"/>
     </row>
     <row r="273" spans="7:7">
-      <c r="G273" s="11"/>
+      <c r="G273" s="12"/>
     </row>
     <row r="274" spans="7:7">
-      <c r="G274" s="11"/>
+      <c r="G274" s="12"/>
     </row>
     <row r="275" spans="7:7">
-      <c r="G275" s="11"/>
+      <c r="G275" s="12"/>
     </row>
     <row r="276" spans="7:7">
-      <c r="G276" s="11"/>
+      <c r="G276" s="12"/>
     </row>
     <row r="277" spans="7:7">
-      <c r="G277" s="11"/>
+      <c r="G277" s="12"/>
     </row>
     <row r="278" spans="7:7">
-      <c r="G278" s="11"/>
+      <c r="G278" s="12"/>
     </row>
     <row r="279" spans="7:7">
-      <c r="G279" s="11"/>
+      <c r="G279" s="12"/>
     </row>
     <row r="280" spans="7:7">
-      <c r="G280" s="11"/>
+      <c r="G280" s="12"/>
     </row>
     <row r="281" spans="7:7">
-      <c r="G281" s="11"/>
+      <c r="G281" s="12"/>
     </row>
     <row r="282" spans="7:7">
-      <c r="G282" s="11"/>
+      <c r="G282" s="12"/>
     </row>
     <row r="283" spans="7:7">
-      <c r="G283" s="11"/>
+      <c r="G283" s="12"/>
     </row>
     <row r="284" spans="7:7">
-      <c r="G284" s="11"/>
+      <c r="G284" s="12"/>
     </row>
     <row r="285" spans="7:7">
-      <c r="G285" s="11"/>
+      <c r="G285" s="12"/>
     </row>
     <row r="286" spans="7:7">
-      <c r="G286" s="11"/>
+      <c r="G286" s="12"/>
     </row>
     <row r="287" spans="7:7">
-      <c r="G287" s="11"/>
+      <c r="G287" s="12"/>
     </row>
     <row r="288" spans="7:7">
-      <c r="G288" s="11"/>
+      <c r="G288" s="12"/>
     </row>
     <row r="289" spans="7:7">
-      <c r="G289" s="11"/>
+      <c r="G289" s="12"/>
     </row>
     <row r="290" spans="7:7">
-      <c r="G290" s="11"/>
+      <c r="G290" s="12"/>
     </row>
     <row r="291" spans="7:7">
-      <c r="G291" s="11"/>
+      <c r="G291" s="12"/>
     </row>
     <row r="292" spans="7:7">
-      <c r="G292" s="11"/>
+      <c r="G292" s="12"/>
     </row>
     <row r="293" spans="7:7">
-      <c r="G293" s="11"/>
+      <c r="G293" s="12"/>
     </row>
     <row r="294" spans="7:7">
-      <c r="G294" s="11"/>
+      <c r="G294" s="12"/>
     </row>
     <row r="295" spans="7:7">
-      <c r="G295" s="11"/>
+      <c r="G295" s="12"/>
     </row>
     <row r="296" spans="7:7">
-      <c r="G296" s="11"/>
+      <c r="G296" s="12"/>
     </row>
     <row r="297" spans="7:7">
-      <c r="G297" s="11"/>
+      <c r="G297" s="12"/>
     </row>
     <row r="298" spans="7:7">
-      <c r="G298" s="11"/>
+      <c r="G298" s="12"/>
     </row>
     <row r="299" spans="7:7">
-      <c r="G299" s="11"/>
+      <c r="G299" s="12"/>
     </row>
     <row r="300" spans="7:7">
-      <c r="G300" s="11"/>
+      <c r="G300" s="12"/>
     </row>
     <row r="301" spans="7:7">
-      <c r="G301" s="11"/>
+      <c r="G301" s="12"/>
     </row>
     <row r="302" spans="7:7">
-      <c r="G302" s="11"/>
+      <c r="G302" s="12"/>
     </row>
     <row r="303" spans="7:7">
-      <c r="G303" s="11"/>
+      <c r="G303" s="12"/>
     </row>
     <row r="304" spans="7:7">
-      <c r="G304" s="11"/>
+      <c r="G304" s="12"/>
     </row>
     <row r="305" spans="7:7">
-      <c r="G305" s="11"/>
+      <c r="G305" s="12"/>
     </row>
     <row r="306" spans="7:7">
-      <c r="G306" s="11"/>
+      <c r="G306" s="12"/>
     </row>
     <row r="307" spans="7:7">
-      <c r="G307" s="11"/>
+      <c r="G307" s="12"/>
     </row>
     <row r="308" spans="7:7">
-      <c r="G308" s="11"/>
+      <c r="G308" s="12"/>
     </row>
     <row r="309" spans="7:7">
-      <c r="G309" s="11"/>
+      <c r="G309" s="12"/>
     </row>
     <row r="310" spans="7:7">
-      <c r="G310" s="11"/>
+      <c r="G310" s="12"/>
     </row>
     <row r="311" spans="7:7">
-      <c r="G311" s="11"/>
+      <c r="G311" s="12"/>
     </row>
     <row r="312" spans="7:7">
-      <c r="G312" s="11"/>
+      <c r="G312" s="12"/>
     </row>
     <row r="313" spans="7:7">
-      <c r="G313" s="11"/>
+      <c r="G313" s="12"/>
     </row>
     <row r="314" spans="7:7">
-      <c r="G314" s="11"/>
+      <c r="G314" s="12"/>
     </row>
     <row r="315" spans="7:7">
-      <c r="G315" s="11"/>
+      <c r="G315" s="12"/>
     </row>
     <row r="316" spans="7:7">
-      <c r="G316" s="11"/>
+      <c r="G316" s="12"/>
     </row>
     <row r="317" spans="7:7">
-      <c r="G317" s="11"/>
+      <c r="G317" s="12"/>
     </row>
     <row r="318" spans="7:7">
-      <c r="G318" s="11"/>
+      <c r="G318" s="12"/>
     </row>
     <row r="319" spans="7:7">
-      <c r="G319" s="11"/>
+      <c r="G319" s="12"/>
     </row>
     <row r="320" spans="7:7">
-      <c r="G320" s="11"/>
+      <c r="G320" s="12"/>
     </row>
     <row r="321" spans="7:7">
-      <c r="G321" s="11"/>
+      <c r="G321" s="12"/>
     </row>
     <row r="322" spans="7:7">
-      <c r="G322" s="11"/>
+      <c r="G322" s="12"/>
     </row>
     <row r="323" spans="7:7">
-      <c r="G323" s="11"/>
+      <c r="G323" s="12"/>
     </row>
     <row r="324" spans="7:7">
-      <c r="G324" s="11"/>
+      <c r="G324" s="12"/>
     </row>
     <row r="325" spans="7:7">
-      <c r="G325" s="11"/>
+      <c r="G325" s="12"/>
     </row>
     <row r="326" spans="7:7">
-      <c r="G326" s="11"/>
+      <c r="G326" s="12"/>
     </row>
     <row r="327" spans="7:7">
-      <c r="G327" s="11"/>
+      <c r="G327" s="12"/>
     </row>
     <row r="328" spans="7:7">
-      <c r="G328" s="11"/>
+      <c r="G328" s="12"/>
     </row>
     <row r="329" spans="7:7">
-      <c r="G329" s="11"/>
+      <c r="G329" s="12"/>
     </row>
     <row r="330" spans="7:7">
-      <c r="G330" s="11"/>
+      <c r="G330" s="12"/>
     </row>
     <row r="331" spans="7:7">
-      <c r="G331" s="11"/>
+      <c r="G331" s="12"/>
     </row>
     <row r="332" spans="7:7">
-      <c r="G332" s="11"/>
+      <c r="G332" s="12"/>
     </row>
     <row r="333" spans="7:7">
-      <c r="G333" s="11"/>
+      <c r="G333" s="12"/>
     </row>
     <row r="334" spans="7:7">
-      <c r="G334" s="11"/>
+      <c r="G334" s="12"/>
     </row>
     <row r="335" spans="7:7">
-      <c r="G335" s="11"/>
+      <c r="G335" s="12"/>
     </row>
     <row r="336" spans="7:7">
-      <c r="G336" s="11"/>
+      <c r="G336" s="12"/>
     </row>
     <row r="337" spans="7:7">
-      <c r="G337" s="11"/>
+      <c r="G337" s="12"/>
     </row>
     <row r="338" spans="7:7">
-      <c r="G338" s="11"/>
+      <c r="G338" s="12"/>
     </row>
     <row r="339" spans="7:7">
-      <c r="G339" s="11"/>
+      <c r="G339" s="12"/>
     </row>
     <row r="340" spans="7:7">
-      <c r="G340" s="11"/>
+      <c r="G340" s="12"/>
     </row>
     <row r="341" spans="7:7">
-      <c r="G341" s="11"/>
+      <c r="G341" s="12"/>
     </row>
     <row r="342" spans="7:7">
-      <c r="G342" s="11"/>
+      <c r="G342" s="12"/>
     </row>
     <row r="343" spans="7:7">
-      <c r="G343" s="11"/>
+      <c r="G343" s="12"/>
     </row>
     <row r="344" spans="7:7">
-      <c r="G344" s="11"/>
+      <c r="G344" s="12"/>
     </row>
     <row r="345" spans="7:7">
-      <c r="G345" s="11"/>
+      <c r="G345" s="12"/>
     </row>
     <row r="346" spans="7:7">
-      <c r="G346" s="11"/>
+      <c r="G346" s="12"/>
     </row>
     <row r="347" spans="7:7">
-      <c r="G347" s="11"/>
+      <c r="G347" s="12"/>
     </row>
     <row r="348" spans="7:7">
-      <c r="G348" s="11"/>
+      <c r="G348" s="12"/>
     </row>
     <row r="349" spans="7:7">
-      <c r="G349" s="11"/>
+      <c r="G349" s="12"/>
     </row>
     <row r="350" spans="7:7">
-      <c r="G350" s="11"/>
+      <c r="G350" s="12"/>
     </row>
     <row r="351" spans="7:7">
-      <c r="G351" s="11"/>
+      <c r="G351" s="12"/>
     </row>
     <row r="352" spans="7:7">
-      <c r="G352" s="11"/>
+      <c r="G352" s="12"/>
     </row>
     <row r="353" spans="7:7">
-      <c r="G353" s="11"/>
+      <c r="G353" s="12"/>
     </row>
     <row r="354" spans="7:7">
-      <c r="G354" s="11"/>
+      <c r="G354" s="12"/>
     </row>
     <row r="355" spans="7:7">
-      <c r="G355" s="11"/>
+      <c r="G355" s="12"/>
     </row>
     <row r="356" spans="7:7">
-      <c r="G356" s="11"/>
+      <c r="G356" s="12"/>
     </row>
     <row r="357" spans="7:7">
-      <c r="G357" s="11"/>
+      <c r="G357" s="12"/>
     </row>
     <row r="358" spans="7:7">
-      <c r="G358" s="11"/>
+      <c r="G358" s="12"/>
     </row>
     <row r="359" spans="7:7">
-      <c r="G359" s="11"/>
+      <c r="G359" s="12"/>
     </row>
     <row r="360" spans="7:7">
-      <c r="G360" s="11"/>
+      <c r="G360" s="12"/>
     </row>
     <row r="361" spans="7:7">
-      <c r="G361" s="11"/>
+      <c r="G361" s="12"/>
     </row>
     <row r="362" spans="7:7">
-      <c r="G362" s="11"/>
+      <c r="G362" s="12"/>
     </row>
     <row r="363" spans="7:7">
-      <c r="G363" s="11"/>
+      <c r="G363" s="12"/>
     </row>
     <row r="364" spans="7:7">
-      <c r="G364" s="11"/>
+      <c r="G364" s="12"/>
     </row>
     <row r="365" spans="7:7">
-      <c r="G365" s="11"/>
+      <c r="G365" s="12"/>
     </row>
     <row r="366" spans="7:7">
-      <c r="G366" s="11"/>
+      <c r="G366" s="12"/>
     </row>
     <row r="367" spans="7:7">
-      <c r="G367" s="11"/>
+      <c r="G367" s="12"/>
     </row>
     <row r="368" spans="7:7">
-      <c r="G368" s="11"/>
+      <c r="G368" s="12"/>
     </row>
     <row r="369" spans="7:7">
-      <c r="G369" s="11"/>
+      <c r="G369" s="12"/>
     </row>
     <row r="370" spans="7:7">
-      <c r="G370" s="11"/>
+      <c r="G370" s="12"/>
     </row>
     <row r="371" spans="7:7">
-      <c r="G371" s="11"/>
+      <c r="G371" s="12"/>
     </row>
     <row r="372" spans="7:7">
-      <c r="G372" s="11"/>
+      <c r="G372" s="12"/>
     </row>
     <row r="373" spans="7:7">
-      <c r="G373" s="11"/>
+      <c r="G373" s="12"/>
     </row>
     <row r="374" spans="7:7">
-      <c r="G374" s="11"/>
+      <c r="G374" s="12"/>
     </row>
     <row r="375" spans="7:7">
-      <c r="G375" s="11"/>
+      <c r="G375" s="12"/>
     </row>
     <row r="376" spans="7:7">
-      <c r="G376" s="11"/>
+      <c r="G376" s="12"/>
     </row>
     <row r="377" spans="7:7">
-      <c r="G377" s="11"/>
+      <c r="G377" s="12"/>
     </row>
     <row r="378" spans="7:7">
-      <c r="G378" s="11"/>
+      <c r="G378" s="12"/>
     </row>
     <row r="379" spans="7:7">
-      <c r="G379" s="11"/>
+      <c r="G379" s="12"/>
     </row>
     <row r="380" spans="7:7">
-      <c r="G380" s="11"/>
+      <c r="G380" s="12"/>
     </row>
     <row r="381" spans="7:7">
-      <c r="G381" s="11"/>
+      <c r="G381" s="12"/>
     </row>
     <row r="382" spans="7:7">
-      <c r="G382" s="11"/>
+      <c r="G382" s="12"/>
     </row>
     <row r="383" spans="7:7">
-      <c r="G383" s="11"/>
+      <c r="G383" s="12"/>
     </row>
     <row r="384" spans="7:7">
-      <c r="G384" s="11"/>
+      <c r="G384" s="12"/>
     </row>
     <row r="385" spans="7:7">
-      <c r="G385" s="11"/>
+      <c r="G385" s="12"/>
     </row>
     <row r="386" spans="7:7">
-      <c r="G386" s="11"/>
+      <c r="G386" s="12"/>
     </row>
     <row r="387" spans="7:7">
-      <c r="G387" s="11"/>
+      <c r="G387" s="12"/>
     </row>
     <row r="388" spans="7:7">
-      <c r="G388" s="11"/>
+      <c r="G388" s="12"/>
     </row>
     <row r="389" spans="7:7">
-      <c r="G389" s="11"/>
+      <c r="G389" s="12"/>
     </row>
     <row r="390" spans="7:7">
-      <c r="G390" s="11"/>
+      <c r="G390" s="12"/>
     </row>
     <row r="391" spans="7:7">
-      <c r="G391" s="11"/>
+      <c r="G391" s="12"/>
     </row>
     <row r="392" spans="7:7">
-      <c r="G392" s="11"/>
+      <c r="G392" s="12"/>
     </row>
     <row r="393" spans="7:7">
-      <c r="G393" s="11"/>
+      <c r="G393" s="12"/>
     </row>
     <row r="394" spans="7:7">
-      <c r="G394" s="11"/>
+      <c r="G394" s="12"/>
     </row>
     <row r="395" spans="7:7">
-      <c r="G395" s="11"/>
+      <c r="G395" s="12"/>
     </row>
     <row r="396" spans="7:7">
-      <c r="G396" s="11"/>
+      <c r="G396" s="12"/>
     </row>
     <row r="397" spans="7:7">
-      <c r="G397" s="11"/>
+      <c r="G397" s="12"/>
     </row>
     <row r="398" spans="7:7">
-      <c r="G398" s="11"/>
+      <c r="G398" s="12"/>
     </row>
     <row r="399" spans="7:7">
-      <c r="G399" s="11"/>
+      <c r="G399" s="12"/>
     </row>
     <row r="400" spans="7:7">
-      <c r="G400" s="11"/>
+      <c r="G400" s="12"/>
     </row>
     <row r="401" spans="7:7">
-      <c r="G401" s="11"/>
+      <c r="G401" s="12"/>
     </row>
     <row r="402" spans="7:7">
-      <c r="G402" s="11"/>
+      <c r="G402" s="12"/>
     </row>
     <row r="403" spans="7:7">
-      <c r="G403" s="11"/>
+      <c r="G403" s="12"/>
     </row>
     <row r="404" spans="7:7">
-      <c r="G404" s="11"/>
+      <c r="G404" s="12"/>
     </row>
     <row r="405" spans="7:7">
-      <c r="G405" s="11"/>
+      <c r="G405" s="12"/>
     </row>
     <row r="406" spans="7:7">
-      <c r="G406" s="11"/>
+      <c r="G406" s="12"/>
     </row>
     <row r="407" spans="7:7">
-      <c r="G407" s="11"/>
+      <c r="G407" s="12"/>
     </row>
     <row r="408" spans="7:7">
-      <c r="G408" s="11"/>
+      <c r="G408" s="12"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2981,35 +3401,35 @@
     <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="1" spans="1:10">
-      <c r="A1" s="12" t="s">
+    <row r="1" s="13" customFormat="1" spans="1:10">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3037,7 +3457,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16" style="3" customWidth="1"/>
+    <col min="1" max="1" width="17.875" style="3" customWidth="1"/>
     <col min="2" max="3" width="11.625" style="3" customWidth="1"/>
     <col min="4" max="4" width="41.25" style="3" customWidth="1"/>
     <col min="5" max="5" width="43.875" style="3" customWidth="1"/>
@@ -3049,2253 +3469,2267 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" ht="280.5" spans="1:8">
       <c r="A2" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H2" s="7">
         <f ca="1">TODAY()</f>
-        <v>43420</v>
+        <v>43423</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="66" spans="1:8">
       <c r="A3" s="8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H3" s="10">
         <f ca="1">TODAY()</f>
-        <v>43420</v>
+        <v>43423</v>
       </c>
     </row>
     <row r="4" ht="165" spans="1:8">
       <c r="A4" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H4" s="7">
         <f ca="1">TODAY()</f>
-        <v>43420</v>
+        <v>43423</v>
+      </c>
+    </row>
+    <row r="5" ht="108" spans="1:8">
+      <c r="A5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="7">
+        <v>43423</v>
       </c>
     </row>
     <row r="6" spans="4:5">
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" spans="4:5">
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" spans="4:5">
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" spans="4:5">
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" spans="4:5">
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" spans="4:5">
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
     </row>
     <row r="12" spans="4:5">
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
     </row>
     <row r="13" spans="4:5">
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
     </row>
     <row r="14" spans="4:5">
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" spans="4:5">
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" spans="4:5">
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
     </row>
     <row r="17" spans="4:5">
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
     </row>
     <row r="18" spans="4:5">
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
     </row>
     <row r="19" spans="4:5">
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
     </row>
     <row r="20" spans="4:5">
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
     </row>
     <row r="21" spans="4:5">
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
     </row>
     <row r="22" spans="4:5">
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
     </row>
     <row r="23" spans="4:5">
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
     </row>
     <row r="24" spans="4:5">
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
     </row>
     <row r="25" spans="4:5">
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
     </row>
     <row r="26" spans="4:5">
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" spans="4:5">
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
     </row>
     <row r="28" spans="4:5">
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
     </row>
     <row r="29" spans="4:5">
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
     </row>
     <row r="30" spans="4:5">
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
     </row>
     <row r="31" spans="4:5">
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
     </row>
     <row r="32" spans="4:5">
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
     </row>
     <row r="33" spans="4:5">
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
     </row>
     <row r="34" spans="4:5">
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
     </row>
     <row r="35" spans="4:5">
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
     </row>
     <row r="36" spans="4:5">
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
     </row>
     <row r="37" spans="4:5">
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
     </row>
     <row r="38" spans="4:5">
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
     </row>
     <row r="39" spans="4:5">
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
     </row>
     <row r="40" spans="4:5">
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
     </row>
     <row r="41" spans="4:5">
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
     </row>
     <row r="42" spans="4:5">
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
     </row>
     <row r="43" spans="4:5">
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
     </row>
     <row r="44" spans="4:5">
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
     </row>
     <row r="45" spans="4:5">
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
     </row>
     <row r="46" spans="4:5">
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
     </row>
     <row r="47" spans="4:5">
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
     </row>
     <row r="48" spans="4:5">
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
     </row>
     <row r="49" spans="4:5">
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
     </row>
     <row r="50" spans="4:5">
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
     </row>
     <row r="51" spans="4:5">
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
     </row>
     <row r="52" spans="4:5">
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
     </row>
     <row r="53" spans="4:5">
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
     </row>
     <row r="54" spans="4:5">
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
     </row>
     <row r="55" spans="4:5">
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
     </row>
     <row r="56" spans="4:5">
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
     </row>
     <row r="57" spans="4:5">
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
     </row>
     <row r="58" spans="4:5">
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
     </row>
     <row r="59" spans="4:5">
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
     </row>
     <row r="60" spans="4:5">
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
     </row>
     <row r="61" spans="4:5">
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
     </row>
     <row r="62" spans="4:5">
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
     </row>
     <row r="63" spans="4:5">
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
     </row>
     <row r="64" spans="4:5">
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
     </row>
     <row r="65" spans="4:5">
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
     </row>
     <row r="66" spans="4:5">
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
     </row>
     <row r="67" spans="4:5">
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
     </row>
     <row r="68" spans="4:5">
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
     </row>
     <row r="69" spans="4:5">
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
     </row>
     <row r="70" spans="4:5">
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
     </row>
     <row r="71" spans="4:5">
-      <c r="D71" s="11"/>
-      <c r="E71" s="11"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
     </row>
     <row r="72" spans="4:5">
-      <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
     </row>
     <row r="73" spans="4:5">
-      <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
     </row>
     <row r="74" spans="4:5">
-      <c r="D74" s="11"/>
-      <c r="E74" s="11"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
     </row>
     <row r="75" spans="4:5">
-      <c r="D75" s="11"/>
-      <c r="E75" s="11"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
     </row>
     <row r="76" spans="4:5">
-      <c r="D76" s="11"/>
-      <c r="E76" s="11"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
     </row>
     <row r="77" spans="4:5">
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
     </row>
     <row r="78" spans="4:5">
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
     </row>
     <row r="79" spans="4:5">
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
     </row>
     <row r="80" spans="4:5">
-      <c r="D80" s="11"/>
-      <c r="E80" s="11"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
     </row>
     <row r="81" spans="4:5">
-      <c r="D81" s="11"/>
-      <c r="E81" s="11"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
     </row>
     <row r="82" spans="4:5">
-      <c r="D82" s="11"/>
-      <c r="E82" s="11"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
     </row>
     <row r="83" spans="4:5">
-      <c r="D83" s="11"/>
-      <c r="E83" s="11"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
     </row>
     <row r="84" spans="4:5">
-      <c r="D84" s="11"/>
-      <c r="E84" s="11"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
     </row>
     <row r="85" spans="4:5">
-      <c r="D85" s="11"/>
-      <c r="E85" s="11"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
     </row>
     <row r="86" spans="4:5">
-      <c r="D86" s="11"/>
-      <c r="E86" s="11"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
     </row>
     <row r="87" spans="4:5">
-      <c r="D87" s="11"/>
-      <c r="E87" s="11"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
     </row>
     <row r="88" spans="4:5">
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
     </row>
     <row r="89" spans="4:5">
-      <c r="D89" s="11"/>
-      <c r="E89" s="11"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
     </row>
     <row r="90" spans="4:5">
-      <c r="D90" s="11"/>
-      <c r="E90" s="11"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
     </row>
     <row r="91" spans="4:5">
-      <c r="D91" s="11"/>
-      <c r="E91" s="11"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
     </row>
     <row r="92" spans="4:5">
-      <c r="D92" s="11"/>
-      <c r="E92" s="11"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
     </row>
     <row r="93" spans="4:5">
-      <c r="D93" s="11"/>
-      <c r="E93" s="11"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
     </row>
     <row r="94" spans="4:5">
-      <c r="D94" s="11"/>
-      <c r="E94" s="11"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
     </row>
     <row r="95" spans="4:5">
-      <c r="D95" s="11"/>
-      <c r="E95" s="11"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
     </row>
     <row r="96" spans="4:5">
-      <c r="D96" s="11"/>
-      <c r="E96" s="11"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
     </row>
     <row r="97" spans="4:5">
-      <c r="D97" s="11"/>
-      <c r="E97" s="11"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
     </row>
     <row r="98" spans="4:5">
-      <c r="D98" s="11"/>
-      <c r="E98" s="11"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
     </row>
     <row r="99" spans="4:5">
-      <c r="D99" s="11"/>
-      <c r="E99" s="11"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
     </row>
     <row r="100" spans="4:5">
-      <c r="D100" s="11"/>
-      <c r="E100" s="11"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
     </row>
     <row r="101" spans="4:5">
-      <c r="D101" s="11"/>
-      <c r="E101" s="11"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="12"/>
     </row>
     <row r="102" spans="4:5">
-      <c r="D102" s="11"/>
-      <c r="E102" s="11"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
     </row>
     <row r="103" spans="4:5">
-      <c r="D103" s="11"/>
-      <c r="E103" s="11"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
     </row>
     <row r="104" spans="4:5">
-      <c r="D104" s="11"/>
-      <c r="E104" s="11"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="12"/>
     </row>
     <row r="105" spans="4:5">
-      <c r="D105" s="11"/>
-      <c r="E105" s="11"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
     </row>
     <row r="106" spans="4:5">
-      <c r="D106" s="11"/>
-      <c r="E106" s="11"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
     </row>
     <row r="107" spans="4:5">
-      <c r="D107" s="11"/>
-      <c r="E107" s="11"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
     </row>
     <row r="108" spans="4:5">
-      <c r="D108" s="11"/>
-      <c r="E108" s="11"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12"/>
     </row>
     <row r="109" spans="4:5">
-      <c r="D109" s="11"/>
-      <c r="E109" s="11"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
     </row>
     <row r="110" spans="4:5">
-      <c r="D110" s="11"/>
-      <c r="E110" s="11"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
     </row>
     <row r="111" spans="4:5">
-      <c r="D111" s="11"/>
-      <c r="E111" s="11"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="12"/>
     </row>
     <row r="112" spans="4:5">
-      <c r="D112" s="11"/>
-      <c r="E112" s="11"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="12"/>
     </row>
     <row r="113" spans="4:5">
-      <c r="D113" s="11"/>
-      <c r="E113" s="11"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="12"/>
     </row>
     <row r="114" spans="4:5">
-      <c r="D114" s="11"/>
-      <c r="E114" s="11"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="12"/>
     </row>
     <row r="115" spans="4:5">
-      <c r="D115" s="11"/>
-      <c r="E115" s="11"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="12"/>
     </row>
     <row r="116" spans="4:5">
-      <c r="D116" s="11"/>
-      <c r="E116" s="11"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
     </row>
     <row r="117" spans="4:5">
-      <c r="D117" s="11"/>
-      <c r="E117" s="11"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="12"/>
     </row>
     <row r="118" spans="4:5">
-      <c r="D118" s="11"/>
-      <c r="E118" s="11"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="12"/>
     </row>
     <row r="119" spans="4:5">
-      <c r="D119" s="11"/>
-      <c r="E119" s="11"/>
+      <c r="D119" s="12"/>
+      <c r="E119" s="12"/>
     </row>
     <row r="120" spans="4:5">
-      <c r="D120" s="11"/>
-      <c r="E120" s="11"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
     </row>
     <row r="121" spans="4:5">
-      <c r="D121" s="11"/>
-      <c r="E121" s="11"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="12"/>
     </row>
     <row r="122" spans="4:5">
-      <c r="D122" s="11"/>
-      <c r="E122" s="11"/>
+      <c r="D122" s="12"/>
+      <c r="E122" s="12"/>
     </row>
     <row r="123" spans="4:5">
-      <c r="D123" s="11"/>
-      <c r="E123" s="11"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="12"/>
     </row>
     <row r="124" spans="4:5">
-      <c r="D124" s="11"/>
-      <c r="E124" s="11"/>
+      <c r="D124" s="12"/>
+      <c r="E124" s="12"/>
     </row>
     <row r="125" spans="4:5">
-      <c r="D125" s="11"/>
-      <c r="E125" s="11"/>
+      <c r="D125" s="12"/>
+      <c r="E125" s="12"/>
     </row>
     <row r="126" spans="4:5">
-      <c r="D126" s="11"/>
-      <c r="E126" s="11"/>
+      <c r="D126" s="12"/>
+      <c r="E126" s="12"/>
     </row>
     <row r="127" spans="4:5">
-      <c r="D127" s="11"/>
-      <c r="E127" s="11"/>
+      <c r="D127" s="12"/>
+      <c r="E127" s="12"/>
     </row>
     <row r="128" spans="4:5">
-      <c r="D128" s="11"/>
-      <c r="E128" s="11"/>
+      <c r="D128" s="12"/>
+      <c r="E128" s="12"/>
     </row>
     <row r="129" spans="4:5">
-      <c r="D129" s="11"/>
-      <c r="E129" s="11"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="12"/>
     </row>
     <row r="130" spans="4:5">
-      <c r="D130" s="11"/>
-      <c r="E130" s="11"/>
+      <c r="D130" s="12"/>
+      <c r="E130" s="12"/>
     </row>
     <row r="131" spans="4:5">
-      <c r="D131" s="11"/>
-      <c r="E131" s="11"/>
+      <c r="D131" s="12"/>
+      <c r="E131" s="12"/>
     </row>
     <row r="132" spans="4:5">
-      <c r="D132" s="11"/>
-      <c r="E132" s="11"/>
+      <c r="D132" s="12"/>
+      <c r="E132" s="12"/>
     </row>
     <row r="133" spans="4:5">
-      <c r="D133" s="11"/>
-      <c r="E133" s="11"/>
+      <c r="D133" s="12"/>
+      <c r="E133" s="12"/>
     </row>
     <row r="134" spans="4:5">
-      <c r="D134" s="11"/>
-      <c r="E134" s="11"/>
+      <c r="D134" s="12"/>
+      <c r="E134" s="12"/>
     </row>
     <row r="135" spans="4:5">
-      <c r="D135" s="11"/>
-      <c r="E135" s="11"/>
+      <c r="D135" s="12"/>
+      <c r="E135" s="12"/>
     </row>
     <row r="136" spans="4:5">
-      <c r="D136" s="11"/>
-      <c r="E136" s="11"/>
+      <c r="D136" s="12"/>
+      <c r="E136" s="12"/>
     </row>
     <row r="137" spans="4:5">
-      <c r="D137" s="11"/>
-      <c r="E137" s="11"/>
+      <c r="D137" s="12"/>
+      <c r="E137" s="12"/>
     </row>
     <row r="138" spans="4:5">
-      <c r="D138" s="11"/>
-      <c r="E138" s="11"/>
+      <c r="D138" s="12"/>
+      <c r="E138" s="12"/>
     </row>
     <row r="139" spans="4:5">
-      <c r="D139" s="11"/>
-      <c r="E139" s="11"/>
+      <c r="D139" s="12"/>
+      <c r="E139" s="12"/>
     </row>
     <row r="140" spans="4:5">
-      <c r="D140" s="11"/>
-      <c r="E140" s="11"/>
+      <c r="D140" s="12"/>
+      <c r="E140" s="12"/>
     </row>
     <row r="141" spans="4:5">
-      <c r="D141" s="11"/>
-      <c r="E141" s="11"/>
+      <c r="D141" s="12"/>
+      <c r="E141" s="12"/>
     </row>
     <row r="142" spans="4:5">
-      <c r="D142" s="11"/>
-      <c r="E142" s="11"/>
+      <c r="D142" s="12"/>
+      <c r="E142" s="12"/>
     </row>
     <row r="143" spans="4:5">
-      <c r="D143" s="11"/>
-      <c r="E143" s="11"/>
+      <c r="D143" s="12"/>
+      <c r="E143" s="12"/>
     </row>
     <row r="144" spans="4:5">
-      <c r="D144" s="11"/>
-      <c r="E144" s="11"/>
+      <c r="D144" s="12"/>
+      <c r="E144" s="12"/>
     </row>
     <row r="145" spans="4:5">
-      <c r="D145" s="11"/>
-      <c r="E145" s="11"/>
+      <c r="D145" s="12"/>
+      <c r="E145" s="12"/>
     </row>
     <row r="146" spans="4:5">
-      <c r="D146" s="11"/>
-      <c r="E146" s="11"/>
+      <c r="D146" s="12"/>
+      <c r="E146" s="12"/>
     </row>
     <row r="147" spans="4:5">
-      <c r="D147" s="11"/>
-      <c r="E147" s="11"/>
+      <c r="D147" s="12"/>
+      <c r="E147" s="12"/>
     </row>
     <row r="148" spans="4:5">
-      <c r="D148" s="11"/>
-      <c r="E148" s="11"/>
+      <c r="D148" s="12"/>
+      <c r="E148" s="12"/>
     </row>
     <row r="149" spans="4:5">
-      <c r="D149" s="11"/>
-      <c r="E149" s="11"/>
+      <c r="D149" s="12"/>
+      <c r="E149" s="12"/>
     </row>
     <row r="150" spans="4:5">
-      <c r="D150" s="11"/>
-      <c r="E150" s="11"/>
+      <c r="D150" s="12"/>
+      <c r="E150" s="12"/>
     </row>
     <row r="151" spans="4:5">
-      <c r="D151" s="11"/>
-      <c r="E151" s="11"/>
+      <c r="D151" s="12"/>
+      <c r="E151" s="12"/>
     </row>
     <row r="152" spans="4:5">
-      <c r="D152" s="11"/>
-      <c r="E152" s="11"/>
+      <c r="D152" s="12"/>
+      <c r="E152" s="12"/>
     </row>
     <row r="153" spans="4:5">
-      <c r="D153" s="11"/>
-      <c r="E153" s="11"/>
+      <c r="D153" s="12"/>
+      <c r="E153" s="12"/>
     </row>
     <row r="154" spans="4:5">
-      <c r="D154" s="11"/>
-      <c r="E154" s="11"/>
+      <c r="D154" s="12"/>
+      <c r="E154" s="12"/>
     </row>
     <row r="155" spans="4:5">
-      <c r="D155" s="11"/>
-      <c r="E155" s="11"/>
+      <c r="D155" s="12"/>
+      <c r="E155" s="12"/>
     </row>
     <row r="156" spans="4:5">
-      <c r="D156" s="11"/>
-      <c r="E156" s="11"/>
+      <c r="D156" s="12"/>
+      <c r="E156" s="12"/>
     </row>
     <row r="157" spans="4:5">
-      <c r="D157" s="11"/>
-      <c r="E157" s="11"/>
+      <c r="D157" s="12"/>
+      <c r="E157" s="12"/>
     </row>
     <row r="158" spans="4:5">
-      <c r="D158" s="11"/>
-      <c r="E158" s="11"/>
+      <c r="D158" s="12"/>
+      <c r="E158" s="12"/>
     </row>
     <row r="159" spans="4:5">
-      <c r="D159" s="11"/>
-      <c r="E159" s="11"/>
+      <c r="D159" s="12"/>
+      <c r="E159" s="12"/>
     </row>
     <row r="160" spans="4:5">
-      <c r="D160" s="11"/>
-      <c r="E160" s="11"/>
+      <c r="D160" s="12"/>
+      <c r="E160" s="12"/>
     </row>
     <row r="161" spans="4:5">
-      <c r="D161" s="11"/>
-      <c r="E161" s="11"/>
+      <c r="D161" s="12"/>
+      <c r="E161" s="12"/>
     </row>
     <row r="162" spans="4:5">
-      <c r="D162" s="11"/>
-      <c r="E162" s="11"/>
+      <c r="D162" s="12"/>
+      <c r="E162" s="12"/>
     </row>
     <row r="163" spans="4:5">
-      <c r="D163" s="11"/>
-      <c r="E163" s="11"/>
+      <c r="D163" s="12"/>
+      <c r="E163" s="12"/>
     </row>
     <row r="164" spans="4:5">
-      <c r="D164" s="11"/>
-      <c r="E164" s="11"/>
+      <c r="D164" s="12"/>
+      <c r="E164" s="12"/>
     </row>
     <row r="165" spans="4:5">
-      <c r="D165" s="11"/>
-      <c r="E165" s="11"/>
+      <c r="D165" s="12"/>
+      <c r="E165" s="12"/>
     </row>
     <row r="166" spans="4:5">
-      <c r="D166" s="11"/>
-      <c r="E166" s="11"/>
+      <c r="D166" s="12"/>
+      <c r="E166" s="12"/>
     </row>
     <row r="167" spans="4:5">
-      <c r="D167" s="11"/>
-      <c r="E167" s="11"/>
+      <c r="D167" s="12"/>
+      <c r="E167" s="12"/>
     </row>
     <row r="168" spans="4:5">
-      <c r="D168" s="11"/>
-      <c r="E168" s="11"/>
+      <c r="D168" s="12"/>
+      <c r="E168" s="12"/>
     </row>
     <row r="169" spans="4:5">
-      <c r="D169" s="11"/>
-      <c r="E169" s="11"/>
+      <c r="D169" s="12"/>
+      <c r="E169" s="12"/>
     </row>
     <row r="170" spans="4:5">
-      <c r="D170" s="11"/>
-      <c r="E170" s="11"/>
+      <c r="D170" s="12"/>
+      <c r="E170" s="12"/>
     </row>
     <row r="171" spans="4:5">
-      <c r="D171" s="11"/>
-      <c r="E171" s="11"/>
+      <c r="D171" s="12"/>
+      <c r="E171" s="12"/>
     </row>
     <row r="172" spans="4:5">
-      <c r="D172" s="11"/>
-      <c r="E172" s="11"/>
+      <c r="D172" s="12"/>
+      <c r="E172" s="12"/>
     </row>
     <row r="173" spans="4:5">
-      <c r="D173" s="11"/>
-      <c r="E173" s="11"/>
+      <c r="D173" s="12"/>
+      <c r="E173" s="12"/>
     </row>
     <row r="174" spans="4:5">
-      <c r="D174" s="11"/>
-      <c r="E174" s="11"/>
+      <c r="D174" s="12"/>
+      <c r="E174" s="12"/>
     </row>
     <row r="175" spans="4:5">
-      <c r="D175" s="11"/>
-      <c r="E175" s="11"/>
+      <c r="D175" s="12"/>
+      <c r="E175" s="12"/>
     </row>
     <row r="176" spans="4:5">
-      <c r="D176" s="11"/>
-      <c r="E176" s="11"/>
+      <c r="D176" s="12"/>
+      <c r="E176" s="12"/>
     </row>
     <row r="177" spans="4:5">
-      <c r="D177" s="11"/>
-      <c r="E177" s="11"/>
+      <c r="D177" s="12"/>
+      <c r="E177" s="12"/>
     </row>
     <row r="178" spans="4:5">
-      <c r="D178" s="11"/>
-      <c r="E178" s="11"/>
+      <c r="D178" s="12"/>
+      <c r="E178" s="12"/>
     </row>
     <row r="179" spans="4:5">
-      <c r="D179" s="11"/>
-      <c r="E179" s="11"/>
+      <c r="D179" s="12"/>
+      <c r="E179" s="12"/>
     </row>
     <row r="180" spans="4:5">
-      <c r="D180" s="11"/>
-      <c r="E180" s="11"/>
+      <c r="D180" s="12"/>
+      <c r="E180" s="12"/>
     </row>
     <row r="181" spans="4:5">
-      <c r="D181" s="11"/>
-      <c r="E181" s="11"/>
+      <c r="D181" s="12"/>
+      <c r="E181" s="12"/>
     </row>
     <row r="182" spans="4:5">
-      <c r="D182" s="11"/>
-      <c r="E182" s="11"/>
+      <c r="D182" s="12"/>
+      <c r="E182" s="12"/>
     </row>
     <row r="183" spans="4:5">
-      <c r="D183" s="11"/>
-      <c r="E183" s="11"/>
+      <c r="D183" s="12"/>
+      <c r="E183" s="12"/>
     </row>
     <row r="184" spans="4:5">
-      <c r="D184" s="11"/>
-      <c r="E184" s="11"/>
+      <c r="D184" s="12"/>
+      <c r="E184" s="12"/>
     </row>
     <row r="185" spans="4:5">
-      <c r="D185" s="11"/>
-      <c r="E185" s="11"/>
+      <c r="D185" s="12"/>
+      <c r="E185" s="12"/>
     </row>
     <row r="186" spans="4:5">
-      <c r="D186" s="11"/>
-      <c r="E186" s="11"/>
+      <c r="D186" s="12"/>
+      <c r="E186" s="12"/>
     </row>
     <row r="187" spans="4:5">
-      <c r="D187" s="11"/>
-      <c r="E187" s="11"/>
+      <c r="D187" s="12"/>
+      <c r="E187" s="12"/>
     </row>
     <row r="188" spans="4:5">
-      <c r="D188" s="11"/>
-      <c r="E188" s="11"/>
+      <c r="D188" s="12"/>
+      <c r="E188" s="12"/>
     </row>
     <row r="189" spans="4:5">
-      <c r="D189" s="11"/>
-      <c r="E189" s="11"/>
+      <c r="D189" s="12"/>
+      <c r="E189" s="12"/>
     </row>
     <row r="190" spans="4:5">
-      <c r="D190" s="11"/>
-      <c r="E190" s="11"/>
+      <c r="D190" s="12"/>
+      <c r="E190" s="12"/>
     </row>
     <row r="191" spans="4:5">
-      <c r="D191" s="11"/>
-      <c r="E191" s="11"/>
+      <c r="D191" s="12"/>
+      <c r="E191" s="12"/>
     </row>
     <row r="192" spans="4:5">
-      <c r="D192" s="11"/>
-      <c r="E192" s="11"/>
+      <c r="D192" s="12"/>
+      <c r="E192" s="12"/>
     </row>
     <row r="193" spans="4:5">
-      <c r="D193" s="11"/>
-      <c r="E193" s="11"/>
+      <c r="D193" s="12"/>
+      <c r="E193" s="12"/>
     </row>
     <row r="194" spans="4:5">
-      <c r="D194" s="11"/>
-      <c r="E194" s="11"/>
+      <c r="D194" s="12"/>
+      <c r="E194" s="12"/>
     </row>
     <row r="195" spans="4:5">
-      <c r="D195" s="11"/>
-      <c r="E195" s="11"/>
+      <c r="D195" s="12"/>
+      <c r="E195" s="12"/>
     </row>
     <row r="196" spans="4:5">
-      <c r="D196" s="11"/>
-      <c r="E196" s="11"/>
+      <c r="D196" s="12"/>
+      <c r="E196" s="12"/>
     </row>
     <row r="197" spans="4:5">
-      <c r="D197" s="11"/>
-      <c r="E197" s="11"/>
+      <c r="D197" s="12"/>
+      <c r="E197" s="12"/>
     </row>
     <row r="198" spans="4:5">
-      <c r="D198" s="11"/>
-      <c r="E198" s="11"/>
+      <c r="D198" s="12"/>
+      <c r="E198" s="12"/>
     </row>
     <row r="199" spans="4:5">
-      <c r="D199" s="11"/>
-      <c r="E199" s="11"/>
+      <c r="D199" s="12"/>
+      <c r="E199" s="12"/>
     </row>
     <row r="200" spans="4:5">
-      <c r="D200" s="11"/>
-      <c r="E200" s="11"/>
+      <c r="D200" s="12"/>
+      <c r="E200" s="12"/>
     </row>
     <row r="201" spans="4:5">
-      <c r="D201" s="11"/>
-      <c r="E201" s="11"/>
+      <c r="D201" s="12"/>
+      <c r="E201" s="12"/>
     </row>
     <row r="202" spans="4:5">
-      <c r="D202" s="11"/>
-      <c r="E202" s="11"/>
+      <c r="D202" s="12"/>
+      <c r="E202" s="12"/>
     </row>
     <row r="203" spans="4:5">
-      <c r="D203" s="11"/>
-      <c r="E203" s="11"/>
+      <c r="D203" s="12"/>
+      <c r="E203" s="12"/>
     </row>
     <row r="204" spans="4:5">
-      <c r="D204" s="11"/>
-      <c r="E204" s="11"/>
+      <c r="D204" s="12"/>
+      <c r="E204" s="12"/>
     </row>
     <row r="205" spans="4:5">
-      <c r="D205" s="11"/>
-      <c r="E205" s="11"/>
+      <c r="D205" s="12"/>
+      <c r="E205" s="12"/>
     </row>
     <row r="206" spans="4:5">
-      <c r="D206" s="11"/>
-      <c r="E206" s="11"/>
+      <c r="D206" s="12"/>
+      <c r="E206" s="12"/>
     </row>
     <row r="207" spans="4:5">
-      <c r="D207" s="11"/>
-      <c r="E207" s="11"/>
+      <c r="D207" s="12"/>
+      <c r="E207" s="12"/>
     </row>
     <row r="208" spans="4:5">
-      <c r="D208" s="11"/>
-      <c r="E208" s="11"/>
+      <c r="D208" s="12"/>
+      <c r="E208" s="12"/>
     </row>
     <row r="209" spans="4:5">
-      <c r="D209" s="11"/>
-      <c r="E209" s="11"/>
+      <c r="D209" s="12"/>
+      <c r="E209" s="12"/>
     </row>
     <row r="210" spans="4:5">
-      <c r="D210" s="11"/>
-      <c r="E210" s="11"/>
+      <c r="D210" s="12"/>
+      <c r="E210" s="12"/>
     </row>
     <row r="211" spans="4:5">
-      <c r="D211" s="11"/>
-      <c r="E211" s="11"/>
+      <c r="D211" s="12"/>
+      <c r="E211" s="12"/>
     </row>
     <row r="212" spans="4:5">
-      <c r="D212" s="11"/>
-      <c r="E212" s="11"/>
+      <c r="D212" s="12"/>
+      <c r="E212" s="12"/>
     </row>
     <row r="213" spans="4:5">
-      <c r="D213" s="11"/>
-      <c r="E213" s="11"/>
+      <c r="D213" s="12"/>
+      <c r="E213" s="12"/>
     </row>
     <row r="214" spans="4:5">
-      <c r="D214" s="11"/>
-      <c r="E214" s="11"/>
+      <c r="D214" s="12"/>
+      <c r="E214" s="12"/>
     </row>
     <row r="215" spans="4:5">
-      <c r="D215" s="11"/>
-      <c r="E215" s="11"/>
+      <c r="D215" s="12"/>
+      <c r="E215" s="12"/>
     </row>
     <row r="216" spans="4:5">
-      <c r="D216" s="11"/>
-      <c r="E216" s="11"/>
+      <c r="D216" s="12"/>
+      <c r="E216" s="12"/>
     </row>
     <row r="217" spans="4:5">
-      <c r="D217" s="11"/>
-      <c r="E217" s="11"/>
+      <c r="D217" s="12"/>
+      <c r="E217" s="12"/>
     </row>
     <row r="218" spans="4:5">
-      <c r="D218" s="11"/>
-      <c r="E218" s="11"/>
+      <c r="D218" s="12"/>
+      <c r="E218" s="12"/>
     </row>
     <row r="219" spans="4:5">
-      <c r="D219" s="11"/>
-      <c r="E219" s="11"/>
+      <c r="D219" s="12"/>
+      <c r="E219" s="12"/>
     </row>
     <row r="220" spans="4:5">
-      <c r="D220" s="11"/>
-      <c r="E220" s="11"/>
+      <c r="D220" s="12"/>
+      <c r="E220" s="12"/>
     </row>
     <row r="221" spans="4:5">
-      <c r="D221" s="11"/>
-      <c r="E221" s="11"/>
+      <c r="D221" s="12"/>
+      <c r="E221" s="12"/>
     </row>
     <row r="222" spans="4:5">
-      <c r="D222" s="11"/>
-      <c r="E222" s="11"/>
+      <c r="D222" s="12"/>
+      <c r="E222" s="12"/>
     </row>
     <row r="223" spans="4:5">
-      <c r="D223" s="11"/>
-      <c r="E223" s="11"/>
+      <c r="D223" s="12"/>
+      <c r="E223" s="12"/>
     </row>
     <row r="224" spans="4:5">
-      <c r="D224" s="11"/>
-      <c r="E224" s="11"/>
+      <c r="D224" s="12"/>
+      <c r="E224" s="12"/>
     </row>
     <row r="225" spans="4:5">
-      <c r="D225" s="11"/>
-      <c r="E225" s="11"/>
+      <c r="D225" s="12"/>
+      <c r="E225" s="12"/>
     </row>
     <row r="226" spans="4:5">
-      <c r="D226" s="11"/>
-      <c r="E226" s="11"/>
+      <c r="D226" s="12"/>
+      <c r="E226" s="12"/>
     </row>
     <row r="227" spans="4:5">
-      <c r="D227" s="11"/>
-      <c r="E227" s="11"/>
+      <c r="D227" s="12"/>
+      <c r="E227" s="12"/>
     </row>
     <row r="228" spans="4:5">
-      <c r="D228" s="11"/>
-      <c r="E228" s="11"/>
+      <c r="D228" s="12"/>
+      <c r="E228" s="12"/>
     </row>
     <row r="229" spans="4:5">
-      <c r="D229" s="11"/>
-      <c r="E229" s="11"/>
+      <c r="D229" s="12"/>
+      <c r="E229" s="12"/>
     </row>
     <row r="230" spans="4:5">
-      <c r="D230" s="11"/>
-      <c r="E230" s="11"/>
+      <c r="D230" s="12"/>
+      <c r="E230" s="12"/>
     </row>
     <row r="231" spans="4:5">
-      <c r="D231" s="11"/>
-      <c r="E231" s="11"/>
+      <c r="D231" s="12"/>
+      <c r="E231" s="12"/>
     </row>
     <row r="232" spans="4:5">
-      <c r="D232" s="11"/>
-      <c r="E232" s="11"/>
+      <c r="D232" s="12"/>
+      <c r="E232" s="12"/>
     </row>
     <row r="233" spans="4:5">
-      <c r="D233" s="11"/>
-      <c r="E233" s="11"/>
+      <c r="D233" s="12"/>
+      <c r="E233" s="12"/>
     </row>
     <row r="234" spans="4:5">
-      <c r="D234" s="11"/>
-      <c r="E234" s="11"/>
+      <c r="D234" s="12"/>
+      <c r="E234" s="12"/>
     </row>
     <row r="235" spans="4:5">
-      <c r="D235" s="11"/>
-      <c r="E235" s="11"/>
+      <c r="D235" s="12"/>
+      <c r="E235" s="12"/>
     </row>
     <row r="236" spans="4:5">
-      <c r="D236" s="11"/>
-      <c r="E236" s="11"/>
+      <c r="D236" s="12"/>
+      <c r="E236" s="12"/>
     </row>
     <row r="237" spans="4:5">
-      <c r="D237" s="11"/>
-      <c r="E237" s="11"/>
+      <c r="D237" s="12"/>
+      <c r="E237" s="12"/>
     </row>
     <row r="238" spans="4:5">
-      <c r="D238" s="11"/>
-      <c r="E238" s="11"/>
+      <c r="D238" s="12"/>
+      <c r="E238" s="12"/>
     </row>
     <row r="239" spans="4:5">
-      <c r="D239" s="11"/>
-      <c r="E239" s="11"/>
+      <c r="D239" s="12"/>
+      <c r="E239" s="12"/>
     </row>
     <row r="240" spans="4:5">
-      <c r="D240" s="11"/>
-      <c r="E240" s="11"/>
+      <c r="D240" s="12"/>
+      <c r="E240" s="12"/>
     </row>
     <row r="241" spans="4:5">
-      <c r="D241" s="11"/>
-      <c r="E241" s="11"/>
+      <c r="D241" s="12"/>
+      <c r="E241" s="12"/>
     </row>
     <row r="242" spans="4:5">
-      <c r="D242" s="11"/>
-      <c r="E242" s="11"/>
+      <c r="D242" s="12"/>
+      <c r="E242" s="12"/>
     </row>
     <row r="243" spans="4:5">
-      <c r="D243" s="11"/>
-      <c r="E243" s="11"/>
+      <c r="D243" s="12"/>
+      <c r="E243" s="12"/>
     </row>
     <row r="244" spans="4:5">
-      <c r="D244" s="11"/>
-      <c r="E244" s="11"/>
+      <c r="D244" s="12"/>
+      <c r="E244" s="12"/>
     </row>
     <row r="245" spans="4:5">
-      <c r="D245" s="11"/>
-      <c r="E245" s="11"/>
+      <c r="D245" s="12"/>
+      <c r="E245" s="12"/>
     </row>
     <row r="246" spans="4:5">
-      <c r="D246" s="11"/>
-      <c r="E246" s="11"/>
+      <c r="D246" s="12"/>
+      <c r="E246" s="12"/>
     </row>
     <row r="247" spans="4:5">
-      <c r="D247" s="11"/>
-      <c r="E247" s="11"/>
+      <c r="D247" s="12"/>
+      <c r="E247" s="12"/>
     </row>
     <row r="248" spans="4:5">
-      <c r="D248" s="11"/>
-      <c r="E248" s="11"/>
+      <c r="D248" s="12"/>
+      <c r="E248" s="12"/>
     </row>
     <row r="249" spans="4:5">
-      <c r="D249" s="11"/>
-      <c r="E249" s="11"/>
+      <c r="D249" s="12"/>
+      <c r="E249" s="12"/>
     </row>
     <row r="250" spans="4:5">
-      <c r="D250" s="11"/>
-      <c r="E250" s="11"/>
+      <c r="D250" s="12"/>
+      <c r="E250" s="12"/>
     </row>
     <row r="251" spans="4:5">
-      <c r="D251" s="11"/>
-      <c r="E251" s="11"/>
+      <c r="D251" s="12"/>
+      <c r="E251" s="12"/>
     </row>
     <row r="252" spans="4:5">
-      <c r="D252" s="11"/>
-      <c r="E252" s="11"/>
+      <c r="D252" s="12"/>
+      <c r="E252" s="12"/>
     </row>
     <row r="253" spans="4:5">
-      <c r="D253" s="11"/>
-      <c r="E253" s="11"/>
+      <c r="D253" s="12"/>
+      <c r="E253" s="12"/>
     </row>
     <row r="254" spans="4:5">
-      <c r="D254" s="11"/>
-      <c r="E254" s="11"/>
+      <c r="D254" s="12"/>
+      <c r="E254" s="12"/>
     </row>
     <row r="255" spans="4:5">
-      <c r="D255" s="11"/>
-      <c r="E255" s="11"/>
+      <c r="D255" s="12"/>
+      <c r="E255" s="12"/>
     </row>
     <row r="256" spans="4:5">
-      <c r="D256" s="11"/>
-      <c r="E256" s="11"/>
+      <c r="D256" s="12"/>
+      <c r="E256" s="12"/>
     </row>
     <row r="257" spans="4:5">
-      <c r="D257" s="11"/>
-      <c r="E257" s="11"/>
+      <c r="D257" s="12"/>
+      <c r="E257" s="12"/>
     </row>
     <row r="258" spans="4:5">
-      <c r="D258" s="11"/>
-      <c r="E258" s="11"/>
+      <c r="D258" s="12"/>
+      <c r="E258" s="12"/>
     </row>
     <row r="259" spans="4:5">
-      <c r="D259" s="11"/>
-      <c r="E259" s="11"/>
+      <c r="D259" s="12"/>
+      <c r="E259" s="12"/>
     </row>
     <row r="260" spans="4:5">
-      <c r="D260" s="11"/>
-      <c r="E260" s="11"/>
+      <c r="D260" s="12"/>
+      <c r="E260" s="12"/>
     </row>
     <row r="261" spans="4:5">
-      <c r="D261" s="11"/>
-      <c r="E261" s="11"/>
+      <c r="D261" s="12"/>
+      <c r="E261" s="12"/>
     </row>
     <row r="262" spans="4:5">
-      <c r="D262" s="11"/>
-      <c r="E262" s="11"/>
+      <c r="D262" s="12"/>
+      <c r="E262" s="12"/>
     </row>
     <row r="263" spans="4:5">
-      <c r="D263" s="11"/>
-      <c r="E263" s="11"/>
+      <c r="D263" s="12"/>
+      <c r="E263" s="12"/>
     </row>
     <row r="264" spans="4:5">
-      <c r="D264" s="11"/>
-      <c r="E264" s="11"/>
+      <c r="D264" s="12"/>
+      <c r="E264" s="12"/>
     </row>
     <row r="265" spans="4:5">
-      <c r="D265" s="11"/>
-      <c r="E265" s="11"/>
+      <c r="D265" s="12"/>
+      <c r="E265" s="12"/>
     </row>
     <row r="266" spans="4:5">
-      <c r="D266" s="11"/>
-      <c r="E266" s="11"/>
+      <c r="D266" s="12"/>
+      <c r="E266" s="12"/>
     </row>
     <row r="267" spans="4:5">
-      <c r="D267" s="11"/>
-      <c r="E267" s="11"/>
+      <c r="D267" s="12"/>
+      <c r="E267" s="12"/>
     </row>
     <row r="268" spans="4:5">
-      <c r="D268" s="11"/>
-      <c r="E268" s="11"/>
+      <c r="D268" s="12"/>
+      <c r="E268" s="12"/>
     </row>
     <row r="269" spans="4:5">
-      <c r="D269" s="11"/>
-      <c r="E269" s="11"/>
+      <c r="D269" s="12"/>
+      <c r="E269" s="12"/>
     </row>
     <row r="270" spans="4:5">
-      <c r="D270" s="11"/>
-      <c r="E270" s="11"/>
+      <c r="D270" s="12"/>
+      <c r="E270" s="12"/>
     </row>
     <row r="271" spans="4:5">
-      <c r="D271" s="11"/>
-      <c r="E271" s="11"/>
+      <c r="D271" s="12"/>
+      <c r="E271" s="12"/>
     </row>
     <row r="272" spans="4:5">
-      <c r="D272" s="11"/>
-      <c r="E272" s="11"/>
+      <c r="D272" s="12"/>
+      <c r="E272" s="12"/>
     </row>
     <row r="273" spans="4:5">
-      <c r="D273" s="11"/>
-      <c r="E273" s="11"/>
+      <c r="D273" s="12"/>
+      <c r="E273" s="12"/>
     </row>
     <row r="274" spans="4:5">
-      <c r="D274" s="11"/>
-      <c r="E274" s="11"/>
+      <c r="D274" s="12"/>
+      <c r="E274" s="12"/>
     </row>
     <row r="275" spans="4:5">
-      <c r="D275" s="11"/>
-      <c r="E275" s="11"/>
+      <c r="D275" s="12"/>
+      <c r="E275" s="12"/>
     </row>
     <row r="276" spans="4:5">
-      <c r="D276" s="11"/>
-      <c r="E276" s="11"/>
+      <c r="D276" s="12"/>
+      <c r="E276" s="12"/>
     </row>
     <row r="277" spans="4:5">
-      <c r="D277" s="11"/>
-      <c r="E277" s="11"/>
+      <c r="D277" s="12"/>
+      <c r="E277" s="12"/>
     </row>
     <row r="278" spans="4:5">
-      <c r="D278" s="11"/>
-      <c r="E278" s="11"/>
+      <c r="D278" s="12"/>
+      <c r="E278" s="12"/>
     </row>
     <row r="279" spans="4:5">
-      <c r="D279" s="11"/>
-      <c r="E279" s="11"/>
+      <c r="D279" s="12"/>
+      <c r="E279" s="12"/>
     </row>
     <row r="280" spans="4:5">
-      <c r="D280" s="11"/>
-      <c r="E280" s="11"/>
+      <c r="D280" s="12"/>
+      <c r="E280" s="12"/>
     </row>
     <row r="281" spans="4:5">
-      <c r="D281" s="11"/>
-      <c r="E281" s="11"/>
+      <c r="D281" s="12"/>
+      <c r="E281" s="12"/>
     </row>
     <row r="282" spans="4:5">
-      <c r="D282" s="11"/>
-      <c r="E282" s="11"/>
+      <c r="D282" s="12"/>
+      <c r="E282" s="12"/>
     </row>
     <row r="283" spans="4:5">
-      <c r="D283" s="11"/>
-      <c r="E283" s="11"/>
+      <c r="D283" s="12"/>
+      <c r="E283" s="12"/>
     </row>
     <row r="284" spans="4:5">
-      <c r="D284" s="11"/>
-      <c r="E284" s="11"/>
+      <c r="D284" s="12"/>
+      <c r="E284" s="12"/>
     </row>
     <row r="285" spans="4:5">
-      <c r="D285" s="11"/>
-      <c r="E285" s="11"/>
+      <c r="D285" s="12"/>
+      <c r="E285" s="12"/>
     </row>
     <row r="286" spans="4:5">
-      <c r="D286" s="11"/>
-      <c r="E286" s="11"/>
+      <c r="D286" s="12"/>
+      <c r="E286" s="12"/>
     </row>
     <row r="287" spans="4:5">
-      <c r="D287" s="11"/>
-      <c r="E287" s="11"/>
+      <c r="D287" s="12"/>
+      <c r="E287" s="12"/>
     </row>
     <row r="288" spans="4:5">
-      <c r="D288" s="11"/>
-      <c r="E288" s="11"/>
+      <c r="D288" s="12"/>
+      <c r="E288" s="12"/>
     </row>
     <row r="289" spans="4:5">
-      <c r="D289" s="11"/>
-      <c r="E289" s="11"/>
+      <c r="D289" s="12"/>
+      <c r="E289" s="12"/>
     </row>
     <row r="290" spans="4:5">
-      <c r="D290" s="11"/>
-      <c r="E290" s="11"/>
+      <c r="D290" s="12"/>
+      <c r="E290" s="12"/>
     </row>
     <row r="291" spans="4:5">
-      <c r="D291" s="11"/>
-      <c r="E291" s="11"/>
+      <c r="D291" s="12"/>
+      <c r="E291" s="12"/>
     </row>
     <row r="292" spans="4:5">
-      <c r="D292" s="11"/>
-      <c r="E292" s="11"/>
+      <c r="D292" s="12"/>
+      <c r="E292" s="12"/>
     </row>
     <row r="293" spans="4:5">
-      <c r="D293" s="11"/>
-      <c r="E293" s="11"/>
+      <c r="D293" s="12"/>
+      <c r="E293" s="12"/>
     </row>
     <row r="294" spans="4:5">
-      <c r="D294" s="11"/>
-      <c r="E294" s="11"/>
+      <c r="D294" s="12"/>
+      <c r="E294" s="12"/>
     </row>
     <row r="295" spans="4:5">
-      <c r="D295" s="11"/>
-      <c r="E295" s="11"/>
+      <c r="D295" s="12"/>
+      <c r="E295" s="12"/>
     </row>
     <row r="296" spans="4:5">
-      <c r="D296" s="11"/>
-      <c r="E296" s="11"/>
+      <c r="D296" s="12"/>
+      <c r="E296" s="12"/>
     </row>
     <row r="297" spans="4:5">
-      <c r="D297" s="11"/>
-      <c r="E297" s="11"/>
+      <c r="D297" s="12"/>
+      <c r="E297" s="12"/>
     </row>
     <row r="298" spans="4:5">
-      <c r="D298" s="11"/>
-      <c r="E298" s="11"/>
+      <c r="D298" s="12"/>
+      <c r="E298" s="12"/>
     </row>
     <row r="299" spans="4:5">
-      <c r="D299" s="11"/>
-      <c r="E299" s="11"/>
+      <c r="D299" s="12"/>
+      <c r="E299" s="12"/>
     </row>
     <row r="300" spans="4:5">
-      <c r="D300" s="11"/>
-      <c r="E300" s="11"/>
+      <c r="D300" s="12"/>
+      <c r="E300" s="12"/>
     </row>
     <row r="301" spans="4:5">
-      <c r="D301" s="11"/>
-      <c r="E301" s="11"/>
+      <c r="D301" s="12"/>
+      <c r="E301" s="12"/>
     </row>
     <row r="302" spans="4:5">
-      <c r="D302" s="11"/>
-      <c r="E302" s="11"/>
+      <c r="D302" s="12"/>
+      <c r="E302" s="12"/>
     </row>
     <row r="303" spans="4:5">
-      <c r="D303" s="11"/>
-      <c r="E303" s="11"/>
+      <c r="D303" s="12"/>
+      <c r="E303" s="12"/>
     </row>
     <row r="304" spans="4:5">
-      <c r="D304" s="11"/>
-      <c r="E304" s="11"/>
+      <c r="D304" s="12"/>
+      <c r="E304" s="12"/>
     </row>
     <row r="305" spans="4:5">
-      <c r="D305" s="11"/>
-      <c r="E305" s="11"/>
+      <c r="D305" s="12"/>
+      <c r="E305" s="12"/>
     </row>
     <row r="306" spans="4:5">
-      <c r="D306" s="11"/>
-      <c r="E306" s="11"/>
+      <c r="D306" s="12"/>
+      <c r="E306" s="12"/>
     </row>
     <row r="307" spans="4:5">
-      <c r="D307" s="11"/>
-      <c r="E307" s="11"/>
+      <c r="D307" s="12"/>
+      <c r="E307" s="12"/>
     </row>
     <row r="308" spans="4:5">
-      <c r="D308" s="11"/>
-      <c r="E308" s="11"/>
+      <c r="D308" s="12"/>
+      <c r="E308" s="12"/>
     </row>
     <row r="309" spans="4:5">
-      <c r="D309" s="11"/>
-      <c r="E309" s="11"/>
+      <c r="D309" s="12"/>
+      <c r="E309" s="12"/>
     </row>
     <row r="310" spans="4:5">
-      <c r="D310" s="11"/>
-      <c r="E310" s="11"/>
+      <c r="D310" s="12"/>
+      <c r="E310" s="12"/>
     </row>
     <row r="311" spans="4:5">
-      <c r="D311" s="11"/>
-      <c r="E311" s="11"/>
+      <c r="D311" s="12"/>
+      <c r="E311" s="12"/>
     </row>
     <row r="312" spans="4:5">
-      <c r="D312" s="11"/>
-      <c r="E312" s="11"/>
+      <c r="D312" s="12"/>
+      <c r="E312" s="12"/>
     </row>
     <row r="313" spans="4:5">
-      <c r="D313" s="11"/>
-      <c r="E313" s="11"/>
+      <c r="D313" s="12"/>
+      <c r="E313" s="12"/>
     </row>
     <row r="314" spans="4:5">
-      <c r="D314" s="11"/>
-      <c r="E314" s="11"/>
+      <c r="D314" s="12"/>
+      <c r="E314" s="12"/>
     </row>
     <row r="315" spans="4:5">
-      <c r="D315" s="11"/>
-      <c r="E315" s="11"/>
+      <c r="D315" s="12"/>
+      <c r="E315" s="12"/>
     </row>
     <row r="316" spans="4:5">
-      <c r="D316" s="11"/>
-      <c r="E316" s="11"/>
+      <c r="D316" s="12"/>
+      <c r="E316" s="12"/>
     </row>
     <row r="317" spans="4:5">
-      <c r="D317" s="11"/>
-      <c r="E317" s="11"/>
+      <c r="D317" s="12"/>
+      <c r="E317" s="12"/>
     </row>
     <row r="318" spans="4:5">
-      <c r="D318" s="11"/>
-      <c r="E318" s="11"/>
+      <c r="D318" s="12"/>
+      <c r="E318" s="12"/>
     </row>
     <row r="319" spans="4:5">
-      <c r="D319" s="11"/>
-      <c r="E319" s="11"/>
+      <c r="D319" s="12"/>
+      <c r="E319" s="12"/>
     </row>
     <row r="320" spans="4:5">
-      <c r="D320" s="11"/>
-      <c r="E320" s="11"/>
+      <c r="D320" s="12"/>
+      <c r="E320" s="12"/>
     </row>
     <row r="321" spans="4:5">
-      <c r="D321" s="11"/>
-      <c r="E321" s="11"/>
+      <c r="D321" s="12"/>
+      <c r="E321" s="12"/>
     </row>
     <row r="322" spans="4:5">
-      <c r="D322" s="11"/>
-      <c r="E322" s="11"/>
+      <c r="D322" s="12"/>
+      <c r="E322" s="12"/>
     </row>
     <row r="323" spans="4:5">
-      <c r="D323" s="11"/>
-      <c r="E323" s="11"/>
+      <c r="D323" s="12"/>
+      <c r="E323" s="12"/>
     </row>
     <row r="324" spans="4:5">
-      <c r="D324" s="11"/>
-      <c r="E324" s="11"/>
+      <c r="D324" s="12"/>
+      <c r="E324" s="12"/>
     </row>
     <row r="325" spans="4:5">
-      <c r="D325" s="11"/>
-      <c r="E325" s="11"/>
+      <c r="D325" s="12"/>
+      <c r="E325" s="12"/>
     </row>
     <row r="326" spans="4:5">
-      <c r="D326" s="11"/>
-      <c r="E326" s="11"/>
+      <c r="D326" s="12"/>
+      <c r="E326" s="12"/>
     </row>
     <row r="327" spans="4:5">
-      <c r="D327" s="11"/>
-      <c r="E327" s="11"/>
+      <c r="D327" s="12"/>
+      <c r="E327" s="12"/>
     </row>
     <row r="328" spans="4:5">
-      <c r="D328" s="11"/>
-      <c r="E328" s="11"/>
+      <c r="D328" s="12"/>
+      <c r="E328" s="12"/>
     </row>
     <row r="329" spans="4:5">
-      <c r="D329" s="11"/>
-      <c r="E329" s="11"/>
+      <c r="D329" s="12"/>
+      <c r="E329" s="12"/>
     </row>
     <row r="330" spans="4:5">
-      <c r="D330" s="11"/>
-      <c r="E330" s="11"/>
+      <c r="D330" s="12"/>
+      <c r="E330" s="12"/>
     </row>
     <row r="331" spans="4:5">
-      <c r="D331" s="11"/>
-      <c r="E331" s="11"/>
+      <c r="D331" s="12"/>
+      <c r="E331" s="12"/>
     </row>
     <row r="332" spans="4:5">
-      <c r="D332" s="11"/>
-      <c r="E332" s="11"/>
+      <c r="D332" s="12"/>
+      <c r="E332" s="12"/>
     </row>
     <row r="333" spans="4:5">
-      <c r="D333" s="11"/>
-      <c r="E333" s="11"/>
+      <c r="D333" s="12"/>
+      <c r="E333" s="12"/>
     </row>
     <row r="334" spans="4:5">
-      <c r="D334" s="11"/>
-      <c r="E334" s="11"/>
+      <c r="D334" s="12"/>
+      <c r="E334" s="12"/>
     </row>
     <row r="335" spans="4:5">
-      <c r="D335" s="11"/>
-      <c r="E335" s="11"/>
+      <c r="D335" s="12"/>
+      <c r="E335" s="12"/>
     </row>
     <row r="336" spans="4:5">
-      <c r="D336" s="11"/>
-      <c r="E336" s="11"/>
+      <c r="D336" s="12"/>
+      <c r="E336" s="12"/>
     </row>
     <row r="337" spans="4:5">
-      <c r="D337" s="11"/>
-      <c r="E337" s="11"/>
+      <c r="D337" s="12"/>
+      <c r="E337" s="12"/>
     </row>
     <row r="338" spans="4:5">
-      <c r="D338" s="11"/>
-      <c r="E338" s="11"/>
+      <c r="D338" s="12"/>
+      <c r="E338" s="12"/>
     </row>
     <row r="339" spans="4:5">
-      <c r="D339" s="11"/>
-      <c r="E339" s="11"/>
+      <c r="D339" s="12"/>
+      <c r="E339" s="12"/>
     </row>
     <row r="340" spans="4:5">
-      <c r="D340" s="11"/>
-      <c r="E340" s="11"/>
+      <c r="D340" s="12"/>
+      <c r="E340" s="12"/>
     </row>
     <row r="341" spans="4:5">
-      <c r="D341" s="11"/>
-      <c r="E341" s="11"/>
+      <c r="D341" s="12"/>
+      <c r="E341" s="12"/>
     </row>
     <row r="342" spans="4:5">
-      <c r="D342" s="11"/>
-      <c r="E342" s="11"/>
+      <c r="D342" s="12"/>
+      <c r="E342" s="12"/>
     </row>
     <row r="343" spans="4:5">
-      <c r="D343" s="11"/>
-      <c r="E343" s="11"/>
+      <c r="D343" s="12"/>
+      <c r="E343" s="12"/>
     </row>
     <row r="344" spans="4:5">
-      <c r="D344" s="11"/>
-      <c r="E344" s="11"/>
+      <c r="D344" s="12"/>
+      <c r="E344" s="12"/>
     </row>
     <row r="345" spans="4:5">
-      <c r="D345" s="11"/>
-      <c r="E345" s="11"/>
+      <c r="D345" s="12"/>
+      <c r="E345" s="12"/>
     </row>
     <row r="346" spans="4:5">
-      <c r="D346" s="11"/>
-      <c r="E346" s="11"/>
+      <c r="D346" s="12"/>
+      <c r="E346" s="12"/>
     </row>
     <row r="347" spans="4:5">
-      <c r="D347" s="11"/>
-      <c r="E347" s="11"/>
+      <c r="D347" s="12"/>
+      <c r="E347" s="12"/>
     </row>
     <row r="348" spans="4:5">
-      <c r="D348" s="11"/>
-      <c r="E348" s="11"/>
+      <c r="D348" s="12"/>
+      <c r="E348" s="12"/>
     </row>
     <row r="349" spans="4:5">
-      <c r="D349" s="11"/>
-      <c r="E349" s="11"/>
+      <c r="D349" s="12"/>
+      <c r="E349" s="12"/>
     </row>
     <row r="350" spans="4:5">
-      <c r="D350" s="11"/>
-      <c r="E350" s="11"/>
+      <c r="D350" s="12"/>
+      <c r="E350" s="12"/>
     </row>
     <row r="351" spans="4:5">
-      <c r="D351" s="11"/>
-      <c r="E351" s="11"/>
+      <c r="D351" s="12"/>
+      <c r="E351" s="12"/>
     </row>
     <row r="352" spans="4:5">
-      <c r="D352" s="11"/>
-      <c r="E352" s="11"/>
+      <c r="D352" s="12"/>
+      <c r="E352" s="12"/>
     </row>
     <row r="353" spans="4:5">
-      <c r="D353" s="11"/>
-      <c r="E353" s="11"/>
+      <c r="D353" s="12"/>
+      <c r="E353" s="12"/>
     </row>
     <row r="354" spans="4:5">
-      <c r="D354" s="11"/>
-      <c r="E354" s="11"/>
+      <c r="D354" s="12"/>
+      <c r="E354" s="12"/>
     </row>
     <row r="355" spans="4:5">
-      <c r="D355" s="11"/>
-      <c r="E355" s="11"/>
+      <c r="D355" s="12"/>
+      <c r="E355" s="12"/>
     </row>
     <row r="356" spans="4:5">
-      <c r="D356" s="11"/>
-      <c r="E356" s="11"/>
+      <c r="D356" s="12"/>
+      <c r="E356" s="12"/>
     </row>
     <row r="357" spans="4:5">
-      <c r="D357" s="11"/>
-      <c r="E357" s="11"/>
+      <c r="D357" s="12"/>
+      <c r="E357" s="12"/>
     </row>
     <row r="358" spans="4:5">
-      <c r="D358" s="11"/>
-      <c r="E358" s="11"/>
+      <c r="D358" s="12"/>
+      <c r="E358" s="12"/>
     </row>
     <row r="359" spans="4:5">
-      <c r="D359" s="11"/>
-      <c r="E359" s="11"/>
+      <c r="D359" s="12"/>
+      <c r="E359" s="12"/>
     </row>
     <row r="360" spans="4:5">
-      <c r="D360" s="11"/>
-      <c r="E360" s="11"/>
+      <c r="D360" s="12"/>
+      <c r="E360" s="12"/>
     </row>
     <row r="361" spans="4:5">
-      <c r="D361" s="11"/>
-      <c r="E361" s="11"/>
+      <c r="D361" s="12"/>
+      <c r="E361" s="12"/>
     </row>
     <row r="362" spans="4:5">
-      <c r="D362" s="11"/>
-      <c r="E362" s="11"/>
+      <c r="D362" s="12"/>
+      <c r="E362" s="12"/>
     </row>
     <row r="363" spans="4:5">
-      <c r="D363" s="11"/>
-      <c r="E363" s="11"/>
+      <c r="D363" s="12"/>
+      <c r="E363" s="12"/>
     </row>
     <row r="364" spans="4:5">
-      <c r="D364" s="11"/>
-      <c r="E364" s="11"/>
+      <c r="D364" s="12"/>
+      <c r="E364" s="12"/>
     </row>
     <row r="365" spans="4:5">
-      <c r="D365" s="11"/>
-      <c r="E365" s="11"/>
+      <c r="D365" s="12"/>
+      <c r="E365" s="12"/>
     </row>
     <row r="366" spans="4:5">
-      <c r="D366" s="11"/>
-      <c r="E366" s="11"/>
+      <c r="D366" s="12"/>
+      <c r="E366" s="12"/>
     </row>
     <row r="367" spans="4:5">
-      <c r="D367" s="11"/>
-      <c r="E367" s="11"/>
+      <c r="D367" s="12"/>
+      <c r="E367" s="12"/>
     </row>
     <row r="368" spans="4:5">
-      <c r="D368" s="11"/>
-      <c r="E368" s="11"/>
+      <c r="D368" s="12"/>
+      <c r="E368" s="12"/>
     </row>
     <row r="369" spans="4:5">
-      <c r="D369" s="11"/>
-      <c r="E369" s="11"/>
+      <c r="D369" s="12"/>
+      <c r="E369" s="12"/>
     </row>
     <row r="370" spans="4:5">
-      <c r="D370" s="11"/>
-      <c r="E370" s="11"/>
+      <c r="D370" s="12"/>
+      <c r="E370" s="12"/>
     </row>
     <row r="371" spans="4:5">
-      <c r="D371" s="11"/>
-      <c r="E371" s="11"/>
+      <c r="D371" s="12"/>
+      <c r="E371" s="12"/>
     </row>
     <row r="372" spans="4:5">
-      <c r="D372" s="11"/>
-      <c r="E372" s="11"/>
+      <c r="D372" s="12"/>
+      <c r="E372" s="12"/>
     </row>
     <row r="373" spans="4:5">
-      <c r="D373" s="11"/>
-      <c r="E373" s="11"/>
+      <c r="D373" s="12"/>
+      <c r="E373" s="12"/>
     </row>
     <row r="374" spans="4:5">
-      <c r="D374" s="11"/>
-      <c r="E374" s="11"/>
+      <c r="D374" s="12"/>
+      <c r="E374" s="12"/>
     </row>
     <row r="375" spans="4:5">
-      <c r="D375" s="11"/>
-      <c r="E375" s="11"/>
+      <c r="D375" s="12"/>
+      <c r="E375" s="12"/>
     </row>
     <row r="376" spans="4:5">
-      <c r="D376" s="11"/>
-      <c r="E376" s="11"/>
+      <c r="D376" s="12"/>
+      <c r="E376" s="12"/>
     </row>
     <row r="377" spans="4:5">
-      <c r="D377" s="11"/>
-      <c r="E377" s="11"/>
+      <c r="D377" s="12"/>
+      <c r="E377" s="12"/>
     </row>
     <row r="378" spans="4:5">
-      <c r="D378" s="11"/>
-      <c r="E378" s="11"/>
+      <c r="D378" s="12"/>
+      <c r="E378" s="12"/>
     </row>
     <row r="379" spans="4:5">
-      <c r="D379" s="11"/>
-      <c r="E379" s="11"/>
+      <c r="D379" s="12"/>
+      <c r="E379" s="12"/>
     </row>
     <row r="380" spans="4:5">
-      <c r="D380" s="11"/>
-      <c r="E380" s="11"/>
+      <c r="D380" s="12"/>
+      <c r="E380" s="12"/>
     </row>
     <row r="381" spans="4:5">
-      <c r="D381" s="11"/>
-      <c r="E381" s="11"/>
+      <c r="D381" s="12"/>
+      <c r="E381" s="12"/>
     </row>
     <row r="382" spans="4:5">
-      <c r="D382" s="11"/>
-      <c r="E382" s="11"/>
+      <c r="D382" s="12"/>
+      <c r="E382" s="12"/>
     </row>
     <row r="383" spans="4:5">
-      <c r="D383" s="11"/>
-      <c r="E383" s="11"/>
+      <c r="D383" s="12"/>
+      <c r="E383" s="12"/>
     </row>
     <row r="384" spans="4:5">
-      <c r="D384" s="11"/>
-      <c r="E384" s="11"/>
+      <c r="D384" s="12"/>
+      <c r="E384" s="12"/>
     </row>
     <row r="385" spans="4:5">
-      <c r="D385" s="11"/>
-      <c r="E385" s="11"/>
+      <c r="D385" s="12"/>
+      <c r="E385" s="12"/>
     </row>
     <row r="386" spans="4:5">
-      <c r="D386" s="11"/>
-      <c r="E386" s="11"/>
+      <c r="D386" s="12"/>
+      <c r="E386" s="12"/>
     </row>
     <row r="387" spans="4:5">
-      <c r="D387" s="11"/>
-      <c r="E387" s="11"/>
+      <c r="D387" s="12"/>
+      <c r="E387" s="12"/>
     </row>
     <row r="388" spans="4:5">
-      <c r="D388" s="11"/>
-      <c r="E388" s="11"/>
+      <c r="D388" s="12"/>
+      <c r="E388" s="12"/>
     </row>
     <row r="389" spans="4:5">
-      <c r="D389" s="11"/>
-      <c r="E389" s="11"/>
+      <c r="D389" s="12"/>
+      <c r="E389" s="12"/>
     </row>
     <row r="390" spans="4:5">
-      <c r="D390" s="11"/>
-      <c r="E390" s="11"/>
+      <c r="D390" s="12"/>
+      <c r="E390" s="12"/>
     </row>
     <row r="391" spans="4:5">
-      <c r="D391" s="11"/>
-      <c r="E391" s="11"/>
+      <c r="D391" s="12"/>
+      <c r="E391" s="12"/>
     </row>
     <row r="392" spans="4:5">
-      <c r="D392" s="11"/>
-      <c r="E392" s="11"/>
+      <c r="D392" s="12"/>
+      <c r="E392" s="12"/>
     </row>
     <row r="393" spans="4:5">
-      <c r="D393" s="11"/>
-      <c r="E393" s="11"/>
+      <c r="D393" s="12"/>
+      <c r="E393" s="12"/>
     </row>
     <row r="394" spans="4:5">
-      <c r="D394" s="11"/>
-      <c r="E394" s="11"/>
+      <c r="D394" s="12"/>
+      <c r="E394" s="12"/>
     </row>
     <row r="395" spans="4:5">
-      <c r="D395" s="11"/>
-      <c r="E395" s="11"/>
+      <c r="D395" s="12"/>
+      <c r="E395" s="12"/>
     </row>
     <row r="396" spans="4:5">
-      <c r="D396" s="11"/>
-      <c r="E396" s="11"/>
+      <c r="D396" s="12"/>
+      <c r="E396" s="12"/>
     </row>
     <row r="397" spans="4:5">
-      <c r="D397" s="11"/>
-      <c r="E397" s="11"/>
+      <c r="D397" s="12"/>
+      <c r="E397" s="12"/>
     </row>
     <row r="398" spans="4:5">
-      <c r="D398" s="11"/>
-      <c r="E398" s="11"/>
+      <c r="D398" s="12"/>
+      <c r="E398" s="12"/>
     </row>
     <row r="399" spans="4:5">
-      <c r="D399" s="11"/>
-      <c r="E399" s="11"/>
+      <c r="D399" s="12"/>
+      <c r="E399" s="12"/>
     </row>
     <row r="400" spans="4:5">
-      <c r="D400" s="11"/>
-      <c r="E400" s="11"/>
+      <c r="D400" s="12"/>
+      <c r="E400" s="12"/>
     </row>
     <row r="401" spans="4:5">
-      <c r="D401" s="11"/>
-      <c r="E401" s="11"/>
+      <c r="D401" s="12"/>
+      <c r="E401" s="12"/>
     </row>
     <row r="402" spans="4:5">
-      <c r="D402" s="11"/>
-      <c r="E402" s="11"/>
+      <c r="D402" s="12"/>
+      <c r="E402" s="12"/>
     </row>
     <row r="403" spans="4:5">
-      <c r="D403" s="11"/>
-      <c r="E403" s="11"/>
+      <c r="D403" s="12"/>
+      <c r="E403" s="12"/>
     </row>
     <row r="404" spans="4:5">
-      <c r="D404" s="11"/>
-      <c r="E404" s="11"/>
+      <c r="D404" s="12"/>
+      <c r="E404" s="12"/>
     </row>
     <row r="405" spans="4:5">
-      <c r="D405" s="11"/>
-      <c r="E405" s="11"/>
+      <c r="D405" s="12"/>
+      <c r="E405" s="12"/>
     </row>
     <row r="406" spans="4:5">
-      <c r="D406" s="11"/>
-      <c r="E406" s="11"/>
+      <c r="D406" s="12"/>
+      <c r="E406" s="12"/>
     </row>
     <row r="407" spans="4:5">
-      <c r="D407" s="11"/>
-      <c r="E407" s="11"/>
+      <c r="D407" s="12"/>
+      <c r="E407" s="12"/>
     </row>
     <row r="408" spans="4:5">
-      <c r="D408" s="11"/>
-      <c r="E408" s="11"/>
+      <c r="D408" s="12"/>
+      <c r="E408" s="12"/>
     </row>
     <row r="409" spans="4:5">
-      <c r="D409" s="11"/>
-      <c r="E409" s="11"/>
+      <c r="D409" s="12"/>
+      <c r="E409" s="12"/>
     </row>
     <row r="410" spans="4:5">
-      <c r="D410" s="11"/>
-      <c r="E410" s="11"/>
+      <c r="D410" s="12"/>
+      <c r="E410" s="12"/>
     </row>
     <row r="411" spans="4:5">
-      <c r="D411" s="11"/>
-      <c r="E411" s="11"/>
+      <c r="D411" s="12"/>
+      <c r="E411" s="12"/>
     </row>
     <row r="412" spans="4:5">
-      <c r="D412" s="11"/>
-      <c r="E412" s="11"/>
+      <c r="D412" s="12"/>
+      <c r="E412" s="12"/>
     </row>
     <row r="413" spans="4:5">
-      <c r="D413" s="11"/>
-      <c r="E413" s="11"/>
+      <c r="D413" s="12"/>
+      <c r="E413" s="12"/>
     </row>
     <row r="414" spans="4:5">
-      <c r="D414" s="11"/>
-      <c r="E414" s="11"/>
+      <c r="D414" s="12"/>
+      <c r="E414" s="12"/>
     </row>
     <row r="415" spans="4:5">
-      <c r="D415" s="11"/>
-      <c r="E415" s="11"/>
+      <c r="D415" s="12"/>
+      <c r="E415" s="12"/>
     </row>
     <row r="416" spans="4:5">
-      <c r="D416" s="11"/>
-      <c r="E416" s="11"/>
+      <c r="D416" s="12"/>
+      <c r="E416" s="12"/>
     </row>
     <row r="417" spans="4:5">
-      <c r="D417" s="11"/>
-      <c r="E417" s="11"/>
+      <c r="D417" s="12"/>
+      <c r="E417" s="12"/>
     </row>
     <row r="418" spans="4:5">
-      <c r="D418" s="11"/>
-      <c r="E418" s="11"/>
+      <c r="D418" s="12"/>
+      <c r="E418" s="12"/>
     </row>
     <row r="419" spans="4:5">
-      <c r="D419" s="11"/>
-      <c r="E419" s="11"/>
+      <c r="D419" s="12"/>
+      <c r="E419" s="12"/>
     </row>
     <row r="420" spans="4:5">
-      <c r="D420" s="11"/>
-      <c r="E420" s="11"/>
+      <c r="D420" s="12"/>
+      <c r="E420" s="12"/>
     </row>
     <row r="421" spans="4:5">
-      <c r="D421" s="11"/>
-      <c r="E421" s="11"/>
+      <c r="D421" s="12"/>
+      <c r="E421" s="12"/>
     </row>
     <row r="422" spans="4:5">
-      <c r="D422" s="11"/>
-      <c r="E422" s="11"/>
+      <c r="D422" s="12"/>
+      <c r="E422" s="12"/>
     </row>
     <row r="423" spans="4:5">
-      <c r="D423" s="11"/>
-      <c r="E423" s="11"/>
+      <c r="D423" s="12"/>
+      <c r="E423" s="12"/>
     </row>
     <row r="424" spans="4:5">
-      <c r="D424" s="11"/>
-      <c r="E424" s="11"/>
+      <c r="D424" s="12"/>
+      <c r="E424" s="12"/>
     </row>
     <row r="425" spans="4:5">
-      <c r="D425" s="11"/>
-      <c r="E425" s="11"/>
+      <c r="D425" s="12"/>
+      <c r="E425" s="12"/>
     </row>
     <row r="426" spans="4:5">
-      <c r="D426" s="11"/>
-      <c r="E426" s="11"/>
+      <c r="D426" s="12"/>
+      <c r="E426" s="12"/>
     </row>
     <row r="427" spans="4:5">
-      <c r="D427" s="11"/>
-      <c r="E427" s="11"/>
+      <c r="D427" s="12"/>
+      <c r="E427" s="12"/>
     </row>
     <row r="428" spans="4:5">
-      <c r="D428" s="11"/>
-      <c r="E428" s="11"/>
+      <c r="D428" s="12"/>
+      <c r="E428" s="12"/>
     </row>
     <row r="429" spans="4:5">
-      <c r="D429" s="11"/>
-      <c r="E429" s="11"/>
+      <c r="D429" s="12"/>
+      <c r="E429" s="12"/>
     </row>
     <row r="430" spans="4:5">
-      <c r="D430" s="11"/>
-      <c r="E430" s="11"/>
+      <c r="D430" s="12"/>
+      <c r="E430" s="12"/>
     </row>
     <row r="431" spans="4:5">
-      <c r="D431" s="11"/>
-      <c r="E431" s="11"/>
+      <c r="D431" s="12"/>
+      <c r="E431" s="12"/>
     </row>
     <row r="432" spans="4:5">
-      <c r="D432" s="11"/>
-      <c r="E432" s="11"/>
+      <c r="D432" s="12"/>
+      <c r="E432" s="12"/>
     </row>
     <row r="433" spans="4:5">
-      <c r="D433" s="11"/>
-      <c r="E433" s="11"/>
+      <c r="D433" s="12"/>
+      <c r="E433" s="12"/>
     </row>
     <row r="434" spans="4:5">
-      <c r="D434" s="11"/>
-      <c r="E434" s="11"/>
+      <c r="D434" s="12"/>
+      <c r="E434" s="12"/>
     </row>
     <row r="435" spans="4:5">
-      <c r="D435" s="11"/>
-      <c r="E435" s="11"/>
+      <c r="D435" s="12"/>
+      <c r="E435" s="12"/>
     </row>
     <row r="436" spans="4:5">
-      <c r="D436" s="11"/>
-      <c r="E436" s="11"/>
+      <c r="D436" s="12"/>
+      <c r="E436" s="12"/>
     </row>
     <row r="437" spans="4:5">
-      <c r="D437" s="11"/>
-      <c r="E437" s="11"/>
+      <c r="D437" s="12"/>
+      <c r="E437" s="12"/>
     </row>
     <row r="438" spans="4:5">
-      <c r="D438" s="11"/>
-      <c r="E438" s="11"/>
+      <c r="D438" s="12"/>
+      <c r="E438" s="12"/>
     </row>
     <row r="439" spans="4:5">
-      <c r="D439" s="11"/>
-      <c r="E439" s="11"/>
+      <c r="D439" s="12"/>
+      <c r="E439" s="12"/>
     </row>
     <row r="440" spans="4:5">
-      <c r="D440" s="11"/>
-      <c r="E440" s="11"/>
+      <c r="D440" s="12"/>
+      <c r="E440" s="12"/>
     </row>
     <row r="441" spans="4:5">
-      <c r="D441" s="11"/>
-      <c r="E441" s="11"/>
+      <c r="D441" s="12"/>
+      <c r="E441" s="12"/>
     </row>
     <row r="442" spans="4:5">
-      <c r="D442" s="11"/>
-      <c r="E442" s="11"/>
+      <c r="D442" s="12"/>
+      <c r="E442" s="12"/>
     </row>
     <row r="443" spans="4:5">
-      <c r="D443" s="11"/>
-      <c r="E443" s="11"/>
+      <c r="D443" s="12"/>
+      <c r="E443" s="12"/>
     </row>
     <row r="444" spans="4:5">
-      <c r="D444" s="11"/>
-      <c r="E444" s="11"/>
+      <c r="D444" s="12"/>
+      <c r="E444" s="12"/>
     </row>
     <row r="445" spans="4:5">
-      <c r="D445" s="11"/>
-      <c r="E445" s="11"/>
+      <c r="D445" s="12"/>
+      <c r="E445" s="12"/>
     </row>
     <row r="446" spans="4:5">
-      <c r="D446" s="11"/>
-      <c r="E446" s="11"/>
+      <c r="D446" s="12"/>
+      <c r="E446" s="12"/>
     </row>
     <row r="447" spans="4:5">
-      <c r="D447" s="11"/>
-      <c r="E447" s="11"/>
+      <c r="D447" s="12"/>
+      <c r="E447" s="12"/>
     </row>
     <row r="448" spans="4:5">
-      <c r="D448" s="11"/>
-      <c r="E448" s="11"/>
+      <c r="D448" s="12"/>
+      <c r="E448" s="12"/>
     </row>
     <row r="449" spans="4:5">
-      <c r="D449" s="11"/>
-      <c r="E449" s="11"/>
+      <c r="D449" s="12"/>
+      <c r="E449" s="12"/>
     </row>
     <row r="450" spans="4:5">
-      <c r="D450" s="11"/>
-      <c r="E450" s="11"/>
+      <c r="D450" s="12"/>
+      <c r="E450" s="12"/>
     </row>
     <row r="451" spans="4:5">
-      <c r="D451" s="11"/>
-      <c r="E451" s="11"/>
+      <c r="D451" s="12"/>
+      <c r="E451" s="12"/>
     </row>
     <row r="452" spans="4:5">
-      <c r="D452" s="11"/>
-      <c r="E452" s="11"/>
+      <c r="D452" s="12"/>
+      <c r="E452" s="12"/>
     </row>
     <row r="453" spans="4:5">
-      <c r="D453" s="11"/>
-      <c r="E453" s="11"/>
+      <c r="D453" s="12"/>
+      <c r="E453" s="12"/>
     </row>
     <row r="454" spans="4:5">
-      <c r="D454" s="11"/>
-      <c r="E454" s="11"/>
+      <c r="D454" s="12"/>
+      <c r="E454" s="12"/>
     </row>
     <row r="455" spans="4:5">
-      <c r="D455" s="11"/>
-      <c r="E455" s="11"/>
+      <c r="D455" s="12"/>
+      <c r="E455" s="12"/>
     </row>
     <row r="456" spans="4:5">
-      <c r="D456" s="11"/>
-      <c r="E456" s="11"/>
+      <c r="D456" s="12"/>
+      <c r="E456" s="12"/>
     </row>
     <row r="457" spans="4:5">
-      <c r="D457" s="11"/>
-      <c r="E457" s="11"/>
+      <c r="D457" s="12"/>
+      <c r="E457" s="12"/>
     </row>
     <row r="458" spans="4:5">
-      <c r="D458" s="11"/>
-      <c r="E458" s="11"/>
+      <c r="D458" s="12"/>
+      <c r="E458" s="12"/>
     </row>
     <row r="459" spans="4:5">
-      <c r="D459" s="11"/>
-      <c r="E459" s="11"/>
+      <c r="D459" s="12"/>
+      <c r="E459" s="12"/>
     </row>
     <row r="460" spans="4:5">
-      <c r="D460" s="11"/>
-      <c r="E460" s="11"/>
+      <c r="D460" s="12"/>
+      <c r="E460" s="12"/>
     </row>
     <row r="461" spans="4:5">
-      <c r="D461" s="11"/>
-      <c r="E461" s="11"/>
+      <c r="D461" s="12"/>
+      <c r="E461" s="12"/>
     </row>
     <row r="462" spans="4:5">
-      <c r="D462" s="11"/>
-      <c r="E462" s="11"/>
+      <c r="D462" s="12"/>
+      <c r="E462" s="12"/>
     </row>
     <row r="463" spans="4:5">
-      <c r="D463" s="11"/>
-      <c r="E463" s="11"/>
+      <c r="D463" s="12"/>
+      <c r="E463" s="12"/>
     </row>
     <row r="464" spans="4:5">
-      <c r="D464" s="11"/>
-      <c r="E464" s="11"/>
+      <c r="D464" s="12"/>
+      <c r="E464" s="12"/>
     </row>
     <row r="465" spans="4:5">
-      <c r="D465" s="11"/>
-      <c r="E465" s="11"/>
+      <c r="D465" s="12"/>
+      <c r="E465" s="12"/>
     </row>
     <row r="466" spans="4:5">
-      <c r="D466" s="11"/>
-      <c r="E466" s="11"/>
+      <c r="D466" s="12"/>
+      <c r="E466" s="12"/>
     </row>
     <row r="467" spans="4:5">
-      <c r="D467" s="11"/>
-      <c r="E467" s="11"/>
+      <c r="D467" s="12"/>
+      <c r="E467" s="12"/>
     </row>
     <row r="468" spans="4:5">
-      <c r="D468" s="11"/>
-      <c r="E468" s="11"/>
+      <c r="D468" s="12"/>
+      <c r="E468" s="12"/>
     </row>
     <row r="469" spans="4:5">
-      <c r="D469" s="11"/>
-      <c r="E469" s="11"/>
+      <c r="D469" s="12"/>
+      <c r="E469" s="12"/>
     </row>
     <row r="470" spans="4:5">
-      <c r="D470" s="11"/>
-      <c r="E470" s="11"/>
+      <c r="D470" s="12"/>
+      <c r="E470" s="12"/>
     </row>
     <row r="471" spans="4:5">
-      <c r="D471" s="11"/>
-      <c r="E471" s="11"/>
+      <c r="D471" s="12"/>
+      <c r="E471" s="12"/>
     </row>
     <row r="472" spans="4:5">
-      <c r="D472" s="11"/>
-      <c r="E472" s="11"/>
+      <c r="D472" s="12"/>
+      <c r="E472" s="12"/>
     </row>
     <row r="473" spans="4:5">
-      <c r="D473" s="11"/>
-      <c r="E473" s="11"/>
+      <c r="D473" s="12"/>
+      <c r="E473" s="12"/>
     </row>
     <row r="474" spans="4:5">
-      <c r="D474" s="11"/>
-      <c r="E474" s="11"/>
+      <c r="D474" s="12"/>
+      <c r="E474" s="12"/>
     </row>
     <row r="475" spans="4:5">
-      <c r="D475" s="11"/>
-      <c r="E475" s="11"/>
+      <c r="D475" s="12"/>
+      <c r="E475" s="12"/>
     </row>
     <row r="476" spans="4:5">
-      <c r="D476" s="11"/>
-      <c r="E476" s="11"/>
+      <c r="D476" s="12"/>
+      <c r="E476" s="12"/>
     </row>
     <row r="477" spans="4:5">
-      <c r="D477" s="11"/>
-      <c r="E477" s="11"/>
+      <c r="D477" s="12"/>
+      <c r="E477" s="12"/>
     </row>
     <row r="478" spans="4:5">
-      <c r="D478" s="11"/>
-      <c r="E478" s="11"/>
+      <c r="D478" s="12"/>
+      <c r="E478" s="12"/>
     </row>
     <row r="479" spans="4:5">
-      <c r="D479" s="11"/>
-      <c r="E479" s="11"/>
+      <c r="D479" s="12"/>
+      <c r="E479" s="12"/>
     </row>
     <row r="480" spans="4:5">
-      <c r="D480" s="11"/>
-      <c r="E480" s="11"/>
+      <c r="D480" s="12"/>
+      <c r="E480" s="12"/>
     </row>
     <row r="481" spans="4:5">
-      <c r="D481" s="11"/>
-      <c r="E481" s="11"/>
+      <c r="D481" s="12"/>
+      <c r="E481" s="12"/>
     </row>
     <row r="482" spans="4:5">
-      <c r="D482" s="11"/>
-      <c r="E482" s="11"/>
+      <c r="D482" s="12"/>
+      <c r="E482" s="12"/>
     </row>
     <row r="483" spans="4:5">
-      <c r="D483" s="11"/>
-      <c r="E483" s="11"/>
+      <c r="D483" s="12"/>
+      <c r="E483" s="12"/>
     </row>
     <row r="484" spans="4:5">
-      <c r="D484" s="11"/>
-      <c r="E484" s="11"/>
+      <c r="D484" s="12"/>
+      <c r="E484" s="12"/>
     </row>
     <row r="485" spans="4:5">
-      <c r="D485" s="11"/>
-      <c r="E485" s="11"/>
+      <c r="D485" s="12"/>
+      <c r="E485" s="12"/>
     </row>
     <row r="486" spans="4:5">
-      <c r="D486" s="11"/>
-      <c r="E486" s="11"/>
+      <c r="D486" s="12"/>
+      <c r="E486" s="12"/>
     </row>
     <row r="487" spans="4:5">
-      <c r="D487" s="11"/>
-      <c r="E487" s="11"/>
+      <c r="D487" s="12"/>
+      <c r="E487" s="12"/>
     </row>
     <row r="488" spans="4:5">
-      <c r="D488" s="11"/>
-      <c r="E488" s="11"/>
+      <c r="D488" s="12"/>
+      <c r="E488" s="12"/>
     </row>
     <row r="489" spans="4:5">
-      <c r="D489" s="11"/>
-      <c r="E489" s="11"/>
+      <c r="D489" s="12"/>
+      <c r="E489" s="12"/>
     </row>
     <row r="490" spans="4:5">
-      <c r="D490" s="11"/>
-      <c r="E490" s="11"/>
+      <c r="D490" s="12"/>
+      <c r="E490" s="12"/>
     </row>
     <row r="491" spans="4:5">
-      <c r="D491" s="11"/>
-      <c r="E491" s="11"/>
+      <c r="D491" s="12"/>
+      <c r="E491" s="12"/>
     </row>
     <row r="492" spans="4:5">
-      <c r="D492" s="11"/>
-      <c r="E492" s="11"/>
+      <c r="D492" s="12"/>
+      <c r="E492" s="12"/>
     </row>
     <row r="493" spans="4:5">
-      <c r="D493" s="11"/>
-      <c r="E493" s="11"/>
+      <c r="D493" s="12"/>
+      <c r="E493" s="12"/>
     </row>
     <row r="494" spans="4:5">
-      <c r="D494" s="11"/>
-      <c r="E494" s="11"/>
+      <c r="D494" s="12"/>
+      <c r="E494" s="12"/>
     </row>
     <row r="495" spans="4:5">
-      <c r="D495" s="11"/>
-      <c r="E495" s="11"/>
+      <c r="D495" s="12"/>
+      <c r="E495" s="12"/>
     </row>
     <row r="496" spans="4:5">
-      <c r="D496" s="11"/>
-      <c r="E496" s="11"/>
+      <c r="D496" s="12"/>
+      <c r="E496" s="12"/>
     </row>
     <row r="497" spans="4:5">
-      <c r="D497" s="11"/>
-      <c r="E497" s="11"/>
+      <c r="D497" s="12"/>
+      <c r="E497" s="12"/>
     </row>
     <row r="498" spans="4:5">
-      <c r="D498" s="11"/>
-      <c r="E498" s="11"/>
+      <c r="D498" s="12"/>
+      <c r="E498" s="12"/>
     </row>
     <row r="499" spans="4:5">
-      <c r="D499" s="11"/>
-      <c r="E499" s="11"/>
+      <c r="D499" s="12"/>
+      <c r="E499" s="12"/>
     </row>
     <row r="500" spans="4:5">
-      <c r="D500" s="11"/>
-      <c r="E500" s="11"/>
+      <c r="D500" s="12"/>
+      <c r="E500" s="12"/>
     </row>
     <row r="501" spans="4:5">
-      <c r="D501" s="11"/>
-      <c r="E501" s="11"/>
+      <c r="D501" s="12"/>
+      <c r="E501" s="12"/>
     </row>
     <row r="502" spans="4:5">
-      <c r="D502" s="11"/>
-      <c r="E502" s="11"/>
+      <c r="D502" s="12"/>
+      <c r="E502" s="12"/>
     </row>
     <row r="503" spans="4:5">
-      <c r="D503" s="11"/>
-      <c r="E503" s="11"/>
+      <c r="D503" s="12"/>
+      <c r="E503" s="12"/>
     </row>
     <row r="504" spans="4:5">
-      <c r="D504" s="11"/>
-      <c r="E504" s="11"/>
+      <c r="D504" s="12"/>
+      <c r="E504" s="12"/>
     </row>
     <row r="505" spans="4:5">
-      <c r="D505" s="11"/>
-      <c r="E505" s="11"/>
+      <c r="D505" s="12"/>
+      <c r="E505" s="12"/>
     </row>
     <row r="506" spans="4:5">
-      <c r="D506" s="11"/>
-      <c r="E506" s="11"/>
+      <c r="D506" s="12"/>
+      <c r="E506" s="12"/>
     </row>
     <row r="507" spans="4:5">
-      <c r="D507" s="11"/>
-      <c r="E507" s="11"/>
+      <c r="D507" s="12"/>
+      <c r="E507" s="12"/>
     </row>
     <row r="508" spans="4:5">
-      <c r="D508" s="11"/>
-      <c r="E508" s="11"/>
+      <c r="D508" s="12"/>
+      <c r="E508" s="12"/>
     </row>
     <row r="509" spans="4:5">
-      <c r="D509" s="11"/>
-      <c r="E509" s="11"/>
+      <c r="D509" s="12"/>
+      <c r="E509" s="12"/>
     </row>
     <row r="510" spans="4:5">
-      <c r="D510" s="11"/>
-      <c r="E510" s="11"/>
+      <c r="D510" s="12"/>
+      <c r="E510" s="12"/>
     </row>
     <row r="511" spans="4:5">
-      <c r="D511" s="11"/>
-      <c r="E511" s="11"/>
+      <c r="D511" s="12"/>
+      <c r="E511" s="12"/>
     </row>
     <row r="512" spans="4:5">
-      <c r="D512" s="11"/>
-      <c r="E512" s="11"/>
+      <c r="D512" s="12"/>
+      <c r="E512" s="12"/>
     </row>
     <row r="513" spans="4:5">
-      <c r="D513" s="11"/>
-      <c r="E513" s="11"/>
+      <c r="D513" s="12"/>
+      <c r="E513" s="12"/>
     </row>
     <row r="514" spans="4:5">
-      <c r="D514" s="11"/>
-      <c r="E514" s="11"/>
+      <c r="D514" s="12"/>
+      <c r="E514" s="12"/>
     </row>
     <row r="515" spans="4:5">
-      <c r="D515" s="11"/>
-      <c r="E515" s="11"/>
+      <c r="D515" s="12"/>
+      <c r="E515" s="12"/>
     </row>
     <row r="516" spans="4:5">
-      <c r="D516" s="11"/>
-      <c r="E516" s="11"/>
+      <c r="D516" s="12"/>
+      <c r="E516" s="12"/>
     </row>
     <row r="517" spans="4:5">
-      <c r="D517" s="11"/>
-      <c r="E517" s="11"/>
+      <c r="D517" s="12"/>
+      <c r="E517" s="12"/>
     </row>
     <row r="518" spans="4:5">
-      <c r="D518" s="11"/>
-      <c r="E518" s="11"/>
+      <c r="D518" s="12"/>
+      <c r="E518" s="12"/>
     </row>
     <row r="519" spans="4:5">
-      <c r="D519" s="11"/>
-      <c r="E519" s="11"/>
+      <c r="D519" s="12"/>
+      <c r="E519" s="12"/>
     </row>
     <row r="520" spans="4:5">
-      <c r="D520" s="11"/>
-      <c r="E520" s="11"/>
+      <c r="D520" s="12"/>
+      <c r="E520" s="12"/>
     </row>
     <row r="521" spans="4:5">
-      <c r="D521" s="11"/>
-      <c r="E521" s="11"/>
+      <c r="D521" s="12"/>
+      <c r="E521" s="12"/>
     </row>
     <row r="522" spans="4:5">
-      <c r="D522" s="11"/>
-      <c r="E522" s="11"/>
+      <c r="D522" s="12"/>
+      <c r="E522" s="12"/>
     </row>
     <row r="523" spans="4:5">
-      <c r="D523" s="11"/>
-      <c r="E523" s="11"/>
+      <c r="D523" s="12"/>
+      <c r="E523" s="12"/>
     </row>
     <row r="524" spans="4:5">
-      <c r="D524" s="11"/>
-      <c r="E524" s="11"/>
+      <c r="D524" s="12"/>
+      <c r="E524" s="12"/>
     </row>
     <row r="525" spans="4:5">
-      <c r="D525" s="11"/>
-      <c r="E525" s="11"/>
+      <c r="D525" s="12"/>
+      <c r="E525" s="12"/>
     </row>
     <row r="526" spans="4:5">
-      <c r="D526" s="11"/>
-      <c r="E526" s="11"/>
+      <c r="D526" s="12"/>
+      <c r="E526" s="12"/>
     </row>
     <row r="527" spans="4:5">
-      <c r="D527" s="11"/>
-      <c r="E527" s="11"/>
+      <c r="D527" s="12"/>
+      <c r="E527" s="12"/>
     </row>
     <row r="528" spans="4:5">
-      <c r="D528" s="11"/>
-      <c r="E528" s="11"/>
+      <c r="D528" s="12"/>
+      <c r="E528" s="12"/>
     </row>
     <row r="529" spans="4:5">
-      <c r="D529" s="11"/>
-      <c r="E529" s="11"/>
+      <c r="D529" s="12"/>
+      <c r="E529" s="12"/>
     </row>
     <row r="530" spans="4:5">
-      <c r="D530" s="11"/>
-      <c r="E530" s="11"/>
+      <c r="D530" s="12"/>
+      <c r="E530" s="12"/>
     </row>
     <row r="531" spans="4:5">
-      <c r="D531" s="11"/>
-      <c r="E531" s="11"/>
+      <c r="D531" s="12"/>
+      <c r="E531" s="12"/>
     </row>
     <row r="532" spans="4:5">
-      <c r="D532" s="11"/>
-      <c r="E532" s="11"/>
+      <c r="D532" s="12"/>
+      <c r="E532" s="12"/>
     </row>
     <row r="533" spans="4:5">
-      <c r="D533" s="11"/>
-      <c r="E533" s="11"/>
+      <c r="D533" s="12"/>
+      <c r="E533" s="12"/>
     </row>
     <row r="534" spans="4:5">
-      <c r="D534" s="11"/>
-      <c r="E534" s="11"/>
+      <c r="D534" s="12"/>
+      <c r="E534" s="12"/>
     </row>
     <row r="535" spans="4:5">
-      <c r="D535" s="11"/>
-      <c r="E535" s="11"/>
+      <c r="D535" s="12"/>
+      <c r="E535" s="12"/>
     </row>
     <row r="536" spans="4:5">
-      <c r="D536" s="11"/>
-      <c r="E536" s="11"/>
+      <c r="D536" s="12"/>
+      <c r="E536" s="12"/>
     </row>
     <row r="537" spans="4:5">
-      <c r="D537" s="11"/>
-      <c r="E537" s="11"/>
+      <c r="D537" s="12"/>
+      <c r="E537" s="12"/>
     </row>
     <row r="538" spans="4:5">
-      <c r="D538" s="11"/>
-      <c r="E538" s="11"/>
+      <c r="D538" s="12"/>
+      <c r="E538" s="12"/>
     </row>
     <row r="539" spans="4:5">
-      <c r="D539" s="11"/>
-      <c r="E539" s="11"/>
+      <c r="D539" s="12"/>
+      <c r="E539" s="12"/>
     </row>
     <row r="540" spans="4:5">
-      <c r="D540" s="11"/>
-      <c r="E540" s="11"/>
+      <c r="D540" s="12"/>
+      <c r="E540" s="12"/>
     </row>
     <row r="541" spans="4:5">
-      <c r="D541" s="11"/>
-      <c r="E541" s="11"/>
+      <c r="D541" s="12"/>
+      <c r="E541" s="12"/>
     </row>
     <row r="542" spans="4:5">
-      <c r="D542" s="11"/>
-      <c r="E542" s="11"/>
+      <c r="D542" s="12"/>
+      <c r="E542" s="12"/>
     </row>
     <row r="543" spans="4:5">
-      <c r="D543" s="11"/>
-      <c r="E543" s="11"/>
+      <c r="D543" s="12"/>
+      <c r="E543" s="12"/>
     </row>
     <row r="544" spans="4:5">
-      <c r="D544" s="11"/>
-      <c r="E544" s="11"/>
+      <c r="D544" s="12"/>
+      <c r="E544" s="12"/>
     </row>
     <row r="545" spans="4:5">
-      <c r="D545" s="11"/>
-      <c r="E545" s="11"/>
+      <c r="D545" s="12"/>
+      <c r="E545" s="12"/>
     </row>
     <row r="546" spans="4:5">
-      <c r="D546" s="11"/>
-      <c r="E546" s="11"/>
+      <c r="D546" s="12"/>
+      <c r="E546" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346">
   <si>
     <t>技术方向</t>
   </si>
@@ -2039,12 +2039,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
       <t>1:lambda</t>
     </r>
     <r>
@@ -2075,6 +2069,9 @@
       </rPr>
       <t>、</t>
     </r>
+  </si>
+  <si>
+    <t>A2</t>
   </si>
   <si>
     <t>Java 9</t>
@@ -2715,8 +2712,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -2842,31 +2839,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2880,16 +2853,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2903,22 +2904,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2932,24 +2927,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2963,8 +2951,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3034,13 +3031,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3052,79 +3115,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3142,13 +3145,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3166,13 +3169,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3184,25 +3193,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3214,7 +3205,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3243,15 +3240,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3267,22 +3255,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3296,17 +3279,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3340,16 +3317,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3358,16 +3355,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3376,115 +3373,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8379,9 +8376,9 @@
   <dimension ref="A1:G224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C85" sqref="C85"/>
+      <selection pane="bottomLeft" activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -9233,7 +9230,7 @@
       <c r="C86" s="5"/>
       <c r="D86" s="6"/>
     </row>
-    <row r="87" ht="28.5" spans="1:4">
+    <row r="87" ht="28.5" spans="1:5">
       <c r="A87" s="18" t="s">
         <v>194</v>
       </c>
@@ -9245,112 +9242,115 @@
       </c>
       <c r="D87" s="11" t="s">
         <v>197</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="88" ht="18.75" spans="1:4">
       <c r="A88" s="18"/>
       <c r="B88" s="8"/>
       <c r="C88" s="9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="89" ht="18.75" spans="1:4">
       <c r="A89" s="18"/>
       <c r="B89" s="8"/>
       <c r="C89" s="9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="90" ht="18.75" spans="1:4">
       <c r="A90" s="18"/>
       <c r="B90" s="8"/>
       <c r="C90" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="91" ht="18.75" spans="1:4">
       <c r="A91" s="18"/>
       <c r="B91" s="8"/>
       <c r="C91" s="9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D91" s="6"/>
     </row>
     <row r="92" ht="27" spans="1:4">
       <c r="A92" s="18"/>
       <c r="B92" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="93" ht="21" spans="1:4">
       <c r="A93" s="18"/>
       <c r="B93" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="94" ht="18.75" spans="1:4">
       <c r="A94" s="18"/>
       <c r="B94" s="8"/>
       <c r="C94" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="95" ht="49.5" spans="1:4">
       <c r="A95" s="18"/>
       <c r="B95" s="8"/>
       <c r="C95" s="9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="96" ht="18.75" spans="1:4">
       <c r="A96" s="18"/>
       <c r="B96" s="8"/>
       <c r="C96" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="97" ht="81" spans="1:4">
       <c r="A97" s="18"/>
       <c r="B97" s="8"/>
       <c r="C97" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="98" ht="21" spans="1:4">
       <c r="A98" s="18"/>
       <c r="B98" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>77</v>
@@ -9361,7 +9361,7 @@
       <c r="A99" s="18"/>
       <c r="B99" s="8"/>
       <c r="C99" s="5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D99" s="6"/>
     </row>
@@ -9369,7 +9369,7 @@
       <c r="A100" s="18"/>
       <c r="B100" s="8"/>
       <c r="C100" s="9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D100" s="6"/>
     </row>
@@ -9378,16 +9378,16 @@
       <c r="B101" s="8"/>
       <c r="C101" s="5"/>
       <c r="D101" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="102" ht="18.75" spans="1:4">
       <c r="A102" s="18"/>
       <c r="B102" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D102" s="6"/>
     </row>
@@ -9395,7 +9395,7 @@
       <c r="A103" s="18"/>
       <c r="B103" s="8"/>
       <c r="C103" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D103" s="6"/>
     </row>
@@ -9403,7 +9403,7 @@
       <c r="A104" s="18"/>
       <c r="B104" s="8"/>
       <c r="C104" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D104" s="6"/>
     </row>
@@ -9411,7 +9411,7 @@
       <c r="A105" s="18"/>
       <c r="B105" s="8"/>
       <c r="C105" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D105" s="6"/>
     </row>
@@ -9419,17 +9419,17 @@
       <c r="A106" s="18"/>
       <c r="B106" s="8"/>
       <c r="C106" s="9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D106" s="6"/>
     </row>
     <row r="107" ht="18.75" spans="1:4">
       <c r="A107" s="18"/>
       <c r="B107" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D107" s="6"/>
     </row>
@@ -9437,17 +9437,17 @@
       <c r="A108" s="18"/>
       <c r="B108" s="8"/>
       <c r="C108" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="109" ht="18.75" spans="1:4">
       <c r="A109" s="18"/>
       <c r="B109" s="8"/>
       <c r="C109" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D109" s="6"/>
     </row>
@@ -9455,27 +9455,27 @@
       <c r="A110" s="18"/>
       <c r="B110" s="8"/>
       <c r="C110" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="111" ht="18.75" spans="1:4">
       <c r="A111" s="18"/>
       <c r="B111" s="8"/>
       <c r="C111" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="112" ht="18.75" spans="1:4">
       <c r="A112" s="18"/>
       <c r="B112" s="8"/>
       <c r="C112" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D112" s="6"/>
     </row>
@@ -9483,7 +9483,7 @@
       <c r="A113" s="18"/>
       <c r="B113" s="8"/>
       <c r="C113" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D113" s="6"/>
     </row>
@@ -9491,27 +9491,27 @@
       <c r="A114" s="18"/>
       <c r="B114" s="8"/>
       <c r="C114" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="115" ht="18.75" spans="1:4">
       <c r="A115" s="18"/>
       <c r="B115" s="8"/>
       <c r="C115" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="116" ht="33" spans="1:4">
       <c r="A116" s="18"/>
       <c r="B116" s="8"/>
       <c r="C116" s="9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D116" s="6"/>
     </row>
@@ -9519,89 +9519,89 @@
       <c r="A117" s="18"/>
       <c r="B117" s="8"/>
       <c r="C117" s="9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D117" s="6"/>
     </row>
     <row r="118" ht="42" spans="1:4">
       <c r="A118" s="18"/>
       <c r="B118" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="119" ht="18.75" spans="1:4">
       <c r="A119" s="18"/>
       <c r="B119" s="8"/>
       <c r="C119" s="9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="120" ht="27" spans="1:4">
       <c r="A120" s="18"/>
       <c r="B120" s="8"/>
       <c r="C120" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="121" ht="18.75" spans="1:4">
       <c r="A121" s="18"/>
       <c r="B121" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="122" ht="33" spans="1:4">
       <c r="A122" s="18"/>
       <c r="B122" s="8"/>
       <c r="C122" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="123" ht="33" spans="1:4">
       <c r="A123" s="18"/>
       <c r="B123" s="8"/>
       <c r="C123" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="124" ht="18.75" spans="1:4">
       <c r="A124" s="18"/>
       <c r="B124" s="8"/>
       <c r="C124" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="125" ht="33" spans="1:4">
       <c r="A125" s="18"/>
       <c r="B125" s="8"/>
       <c r="C125" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D125" s="6"/>
     </row>
@@ -9609,27 +9609,27 @@
       <c r="A126" s="18"/>
       <c r="B126" s="8"/>
       <c r="C126" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D126" s="6"/>
     </row>
     <row r="127" ht="18.75" spans="1:4">
       <c r="A127" s="18"/>
       <c r="B127" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="128" ht="18.75" spans="1:4">
       <c r="A128" s="18"/>
       <c r="B128" s="8"/>
       <c r="C128" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D128" s="6"/>
     </row>
@@ -9637,17 +9637,17 @@
       <c r="A129" s="18"/>
       <c r="B129" s="8"/>
       <c r="C129" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="130" ht="18.75" spans="1:4">
       <c r="A130" s="18"/>
       <c r="B130" s="8"/>
       <c r="C130" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D130" s="6"/>
     </row>
@@ -9655,27 +9655,27 @@
       <c r="A131" s="18"/>
       <c r="B131" s="8"/>
       <c r="C131" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="132" ht="33" spans="1:4">
       <c r="A132" s="18"/>
       <c r="B132" s="8"/>
       <c r="C132" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="133" ht="18.75" spans="1:4">
       <c r="A133" s="18"/>
       <c r="B133" s="8"/>
       <c r="C133" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D133" s="6"/>
     </row>
@@ -9683,7 +9683,7 @@
       <c r="A134" s="18"/>
       <c r="B134" s="8"/>
       <c r="C134" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D134" s="6"/>
     </row>
@@ -9691,7 +9691,7 @@
       <c r="A135" s="18"/>
       <c r="B135" s="8"/>
       <c r="C135" s="5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D135" s="6"/>
     </row>
@@ -9702,13 +9702,13 @@
     </row>
     <row r="137" ht="33" spans="1:4">
       <c r="A137" s="19" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D137" s="6"/>
     </row>
@@ -9716,67 +9716,67 @@
       <c r="A138" s="19"/>
       <c r="B138" s="8"/>
       <c r="C138" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="139" ht="18.75" spans="1:4">
       <c r="A139" s="19"/>
       <c r="B139" s="8"/>
       <c r="C139" s="9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="140" ht="18.75" spans="1:4">
       <c r="A140" s="19"/>
       <c r="B140" s="8"/>
       <c r="C140" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="141" ht="18.75" spans="1:4">
       <c r="A141" s="19"/>
       <c r="B141" s="8"/>
       <c r="C141" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="142" ht="18.75" spans="1:4">
       <c r="A142" s="19"/>
       <c r="B142" s="8"/>
       <c r="C142" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="143" ht="18.75" spans="1:4">
       <c r="A143" s="19"/>
       <c r="B143" s="8"/>
       <c r="C143" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="144" ht="18.75" spans="1:4">
       <c r="A144" s="19"/>
       <c r="B144" s="8"/>
       <c r="C144" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D144" s="6"/>
     </row>
@@ -9784,7 +9784,7 @@
       <c r="A145" s="19"/>
       <c r="B145" s="8"/>
       <c r="C145" s="5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D145" s="6"/>
     </row>
@@ -9792,7 +9792,7 @@
       <c r="A146" s="19"/>
       <c r="B146" s="8"/>
       <c r="C146" s="5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D146" s="6"/>
     </row>
@@ -9800,14 +9800,14 @@
       <c r="A147" s="19"/>
       <c r="B147" s="8"/>
       <c r="C147" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D147" s="6"/>
     </row>
     <row r="148" ht="18.75" spans="1:4">
       <c r="A148" s="19"/>
       <c r="B148" s="8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C148" s="5" t="s">
         <v>29</v>
@@ -9818,7 +9818,7 @@
       <c r="A149" s="19"/>
       <c r="B149" s="8"/>
       <c r="C149" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D149" s="6"/>
     </row>
@@ -9826,59 +9826,59 @@
       <c r="A150" s="19"/>
       <c r="B150" s="8"/>
       <c r="C150" s="9" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D150" s="11" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="151" ht="21" spans="1:4">
       <c r="A151" s="19"/>
       <c r="B151" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D151" s="11" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="152" ht="18.75" spans="1:4">
       <c r="A152" s="19"/>
       <c r="B152" s="8"/>
       <c r="C152" s="9" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D152" s="10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="153" ht="18.75" spans="1:4">
       <c r="A153" s="19"/>
       <c r="B153" s="8"/>
       <c r="C153" s="9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D153" s="10" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="154" ht="18.75" spans="1:4">
       <c r="A154" s="19"/>
       <c r="B154" s="8"/>
       <c r="C154" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D154" s="6"/>
     </row>
     <row r="155" ht="33" spans="1:4">
       <c r="A155" s="19"/>
       <c r="B155" s="8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D155" s="6"/>
     </row>
@@ -9886,20 +9886,20 @@
       <c r="A156" s="19"/>
       <c r="B156" s="8"/>
       <c r="C156" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="157" ht="18.75" spans="1:4">
       <c r="A157" s="19"/>
       <c r="B157" s="8"/>
       <c r="C157" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="158" ht="18.75" spans="2:4">
@@ -9909,60 +9909,60 @@
     </row>
     <row r="159" ht="49.5" spans="1:4">
       <c r="A159" s="20" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D159" s="6"/>
     </row>
     <row r="160" ht="33" spans="1:4">
       <c r="A160" s="20"/>
       <c r="B160" s="8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D160" s="6"/>
     </row>
     <row r="161" ht="18.75" spans="1:4">
       <c r="A161" s="20"/>
       <c r="B161" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D161" s="6"/>
     </row>
     <row r="162" ht="82.5" spans="1:4">
       <c r="A162" s="20"/>
       <c r="B162" s="8" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D162" s="6"/>
     </row>
     <row r="163" ht="33" spans="1:4">
       <c r="A163" s="20"/>
       <c r="B163" s="8" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D163" s="6"/>
     </row>
     <row r="164" ht="18.75" spans="1:4">
       <c r="A164" s="20"/>
       <c r="B164" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C164" s="5"/>
       <c r="D164" s="6"/>
@@ -9970,7 +9970,7 @@
     <row r="165" ht="18.75" spans="1:4">
       <c r="A165" s="20"/>
       <c r="B165" s="8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C165" s="5"/>
       <c r="D165" s="6"/>
@@ -9978,27 +9978,27 @@
     <row r="166" ht="49.5" spans="1:4">
       <c r="A166" s="20"/>
       <c r="B166" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D166" s="6"/>
     </row>
     <row r="167" ht="33" spans="1:4">
       <c r="A167" s="20"/>
       <c r="B167" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D167" s="6"/>
     </row>
     <row r="168" ht="18.75" spans="1:4">
       <c r="A168" s="20"/>
       <c r="B168" s="8" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C168" s="5"/>
       <c r="D168" s="6"/>
@@ -10009,76 +10009,76 @@
     </row>
     <row r="170" ht="24.75" spans="1:4">
       <c r="A170" s="21" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D170" s="6"/>
     </row>
     <row r="171" ht="16.5" spans="3:4">
       <c r="C171" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D171" s="6"/>
     </row>
     <row r="172" ht="33" spans="3:4">
       <c r="C172" s="9" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D172" s="6"/>
     </row>
     <row r="173" ht="16.5" spans="3:4">
       <c r="C173" s="9" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D173" s="6"/>
     </row>
     <row r="174" ht="16.5" spans="3:4">
       <c r="C174" s="9" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D174" s="6"/>
     </row>
     <row r="175" ht="16.5" spans="3:4">
       <c r="C175" s="9" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D175" s="6"/>
     </row>
     <row r="176" ht="16.5" spans="3:4">
       <c r="C176" s="9" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D176" s="6"/>
     </row>
     <row r="177" ht="33" spans="3:4">
       <c r="C177" s="9" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D177" s="6"/>
     </row>
     <row r="178" ht="16.5" spans="3:4">
       <c r="C178" s="9" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D178" s="6"/>
     </row>
     <row r="179" ht="16.5" spans="3:4">
       <c r="C179" s="9" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D179" s="6"/>
     </row>
     <row r="180" ht="16.5" spans="3:4">
       <c r="C180" s="9" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D180" s="6"/>
     </row>
     <row r="181" ht="16.5" spans="3:4">
       <c r="C181" s="9" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D181" s="6"/>
     </row>

--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050" activeTab="7"/>
+    <workbookView windowWidth="28080" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="A-JAVA基础" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347">
   <si>
     <t>技术方向</t>
   </si>
@@ -62,21 +62,21 @@
     <t>BiLiBiLi</t>
   </si>
   <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>Helper\A.Java\A.基础篇\E.Java8新特性</t>
+  </si>
+  <si>
+    <t>Java8编程开发入门</t>
+  </si>
+  <si>
+    <t>网易云课堂</t>
+  </si>
+  <si>
     <t>进行中</t>
   </si>
   <si>
-    <t>Stream排序</t>
-  </si>
-  <si>
-    <t>Helper\A.Java\A.基础篇\E.Java8新特性</t>
-  </si>
-  <si>
-    <t>Java8编程开发入门</t>
-  </si>
-  <si>
-    <t>网易云课堂</t>
-  </si>
-  <si>
     <t>方法的定义与使用</t>
   </si>
   <si>
@@ -86,6 +86,12 @@
     <t>23种设计模式</t>
   </si>
   <si>
+    <t>深入理解Java虚拟机（JVM性能调优+内存模型+虚拟机原理）</t>
+  </si>
+  <si>
+    <t>Helper\A.Java\A.基础篇\A.Java虚拟机</t>
+  </si>
+  <si>
     <t>精通Spring、Mybatis等开源框架，了解其运作原理</t>
   </si>
   <si>
@@ -99,9 +105,6 @@
   </si>
   <si>
     <t>bilibili</t>
-  </si>
-  <si>
-    <t>已完成</t>
   </si>
   <si>
     <t>Helper\A.Java\D.架构篇\D.设计思想\A.高可用分布式</t>
@@ -2039,6 +2042,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t>1:lambda</t>
     </r>
     <r>
@@ -2710,10 +2719,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -2838,8 +2847,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2854,36 +2872,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2898,17 +2902,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2920,16 +2930,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2944,15 +2954,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2962,6 +2964,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3031,7 +3040,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3043,7 +3052,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3055,13 +3154,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3073,13 +3172,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3091,55 +3202,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3151,67 +3220,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3240,17 +3249,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3270,20 +3273,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3303,26 +3318,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3337,16 +3337,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3355,16 +3364,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3373,115 +3382,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3960,10 +3969,10 @@
   <sheetPr/>
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4011,7 +4020,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" s="24" customFormat="1" ht="40.5" spans="1:8">
+    <row r="2" s="24" customFormat="1" ht="40.5" spans="1:9">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -4024,30 +4033,31 @@
       <c r="E2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="39"/>
+      <c r="G2" s="24" t="s">
         <v>14</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>15</v>
       </c>
       <c r="H2" s="27">
         <f ca="1">TODAY()</f>
-        <v>43424</v>
-      </c>
-    </row>
-    <row r="3" ht="40.5" spans="1:9">
+        <v>43426</v>
+      </c>
+      <c r="I2" s="40">
+        <v>43426</v>
+      </c>
+    </row>
+    <row r="3" ht="40.5" spans="1:8">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>18</v>
@@ -4058,10 +4068,11 @@
       <c r="H3" s="40">
         <v>43423</v>
       </c>
-      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="7"/>
+      <c r="A4" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="s">
         <v>20</v>
@@ -4073,15 +4084,27 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="7"/>
+    <row r="5" ht="40.5" spans="1:9">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="40">
+        <v>43426</v>
+      </c>
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9">
@@ -4567,7 +4590,7 @@
     </row>
     <row r="2" ht="27" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -4650,30 +4673,30 @@
     </row>
     <row r="2" ht="40.5" spans="1:9">
       <c r="A2" s="31" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" s="38">
         <f ca="1">TODAY()</f>
-        <v>43424</v>
+        <v>43426</v>
       </c>
       <c r="I2" s="38">
         <f ca="1">TODAY()</f>
-        <v>43424</v>
+        <v>43426</v>
       </c>
     </row>
   </sheetData>
@@ -4746,33 +4769,33 @@
     </row>
     <row r="2" ht="40.5" spans="1:9">
       <c r="A2" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F2" s="35">
         <v>3.53055555555556</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H2" s="27">
         <f ca="1">TODAY()-1</f>
-        <v>43423</v>
+        <v>43425</v>
       </c>
       <c r="I2" s="27">
         <f ca="1">TODAY()</f>
-        <v>43424</v>
+        <v>43426</v>
       </c>
     </row>
     <row r="3" spans="3:7">
@@ -6099,99 +6122,99 @@
   <sheetData>
     <row r="1" s="22" customFormat="1" spans="1:8">
       <c r="A1" s="22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" s="22" t="s">
         <v>9</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" ht="280.5" spans="1:8">
       <c r="A2" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H2" s="27">
         <f ca="1">TODAY()</f>
-        <v>43424</v>
+        <v>43426</v>
       </c>
     </row>
     <row r="3" s="23" customFormat="1" ht="66" spans="1:8">
       <c r="A3" s="28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3" s="30">
         <f ca="1">TODAY()</f>
-        <v>43424</v>
+        <v>43426</v>
       </c>
     </row>
     <row r="4" ht="165" spans="1:8">
       <c r="A4" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H4" s="27">
         <f ca="1">TODAY()</f>
-        <v>43424</v>
+        <v>43426</v>
       </c>
     </row>
     <row r="5" ht="132" spans="1:8">
       <c r="A5" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H5" s="27">
         <v>43423</v>
@@ -8375,8 +8398,8 @@
   <sheetPr/>
   <dimension ref="A1:G224"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="E87" sqref="E87"/>
     </sheetView>
@@ -8395,7 +8418,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -8404,10 +8427,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -8418,30 +8441,30 @@
     </row>
     <row r="2" ht="41" customHeight="1" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:6">
       <c r="A3" s="3"/>
       <c r="B3" s="8"/>
       <c r="C3" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F3" s="7"/>
     </row>
@@ -8449,10 +8472,10 @@
       <c r="A4" s="3"/>
       <c r="B4" s="8"/>
       <c r="C4" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F4" s="7"/>
     </row>
@@ -8460,7 +8483,7 @@
       <c r="A5" s="3"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D5" s="6"/>
       <c r="F5" s="7"/>
@@ -8469,10 +8492,10 @@
       <c r="A6" s="3"/>
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F6" s="7"/>
     </row>
@@ -8480,10 +8503,10 @@
       <c r="A7" s="3"/>
       <c r="B7" s="8"/>
       <c r="C7" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F7" s="7"/>
     </row>
@@ -8491,10 +8514,10 @@
       <c r="A8" s="3"/>
       <c r="B8" s="8"/>
       <c r="C8" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F8" s="7"/>
     </row>
@@ -8502,10 +8525,10 @@
       <c r="A9" s="3"/>
       <c r="B9" s="8"/>
       <c r="C9" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F9" s="7"/>
     </row>
@@ -8513,23 +8536,23 @@
       <c r="A10" s="3"/>
       <c r="B10" s="8"/>
       <c r="C10" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F10" s="7"/>
     </row>
     <row r="11" ht="42.75" spans="1:6">
       <c r="A11" s="3"/>
       <c r="B11" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F11" s="7"/>
     </row>
@@ -8537,10 +8560,10 @@
       <c r="A12" s="3"/>
       <c r="B12" s="13"/>
       <c r="C12" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F12" s="7"/>
     </row>
@@ -8548,10 +8571,10 @@
       <c r="A13" s="3"/>
       <c r="B13" s="8"/>
       <c r="C13" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F13" s="7"/>
     </row>
@@ -8559,10 +8582,10 @@
       <c r="A14" s="3"/>
       <c r="B14" s="8"/>
       <c r="C14" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7"/>
     </row>
@@ -8570,10 +8593,10 @@
       <c r="A15" s="3"/>
       <c r="B15" s="8"/>
       <c r="C15" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F15" s="7"/>
     </row>
@@ -8581,10 +8604,10 @@
       <c r="A16" s="3"/>
       <c r="B16" s="8"/>
       <c r="C16" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F16" s="7"/>
     </row>
@@ -8592,10 +8615,10 @@
       <c r="A17" s="3"/>
       <c r="B17" s="8"/>
       <c r="C17" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7"/>
     </row>
@@ -8603,10 +8626,10 @@
       <c r="A18" s="3"/>
       <c r="B18" s="8"/>
       <c r="C18" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F18" s="7"/>
     </row>
@@ -8614,10 +8637,10 @@
       <c r="A19" s="3"/>
       <c r="B19" s="8"/>
       <c r="C19" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F19" s="7"/>
     </row>
@@ -8625,10 +8648,10 @@
       <c r="A20" s="3"/>
       <c r="B20" s="8"/>
       <c r="C20" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F20" s="7"/>
     </row>
@@ -8636,10 +8659,10 @@
       <c r="A21" s="3"/>
       <c r="B21" s="8"/>
       <c r="C21" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F21" s="7"/>
     </row>
@@ -8647,10 +8670,10 @@
       <c r="A22" s="3"/>
       <c r="B22" s="8"/>
       <c r="C22" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F22" s="7"/>
     </row>
@@ -8658,10 +8681,10 @@
       <c r="A23" s="3"/>
       <c r="B23" s="8"/>
       <c r="C23" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F23" s="7"/>
     </row>
@@ -8669,10 +8692,10 @@
       <c r="A24" s="3"/>
       <c r="B24" s="8"/>
       <c r="C24" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F24" s="7"/>
     </row>
@@ -8680,10 +8703,10 @@
       <c r="A25" s="3"/>
       <c r="B25" s="8"/>
       <c r="C25" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F25" s="7"/>
     </row>
@@ -8691,10 +8714,10 @@
       <c r="A26" s="3"/>
       <c r="B26" s="8"/>
       <c r="C26" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F26" s="7"/>
     </row>
@@ -8702,7 +8725,7 @@
       <c r="A27" s="3"/>
       <c r="B27" s="8"/>
       <c r="C27" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D27" s="6"/>
       <c r="F27" s="7"/>
@@ -8711,10 +8734,10 @@
       <c r="A28" s="3"/>
       <c r="B28" s="8"/>
       <c r="C28" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F28" s="7"/>
     </row>
@@ -8722,10 +8745,10 @@
       <c r="A29" s="3"/>
       <c r="B29" s="8"/>
       <c r="C29" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F29" s="7"/>
     </row>
@@ -8733,10 +8756,10 @@
       <c r="A30" s="3"/>
       <c r="B30" s="8"/>
       <c r="C30" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F30" s="7"/>
     </row>
@@ -8744,10 +8767,10 @@
       <c r="A31" s="3"/>
       <c r="B31" s="8"/>
       <c r="C31" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F31" s="7"/>
     </row>
@@ -8761,10 +8784,10 @@
     <row r="33" ht="21" spans="1:6">
       <c r="A33" s="3"/>
       <c r="B33" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D33" s="6"/>
       <c r="F33" s="7"/>
@@ -8773,10 +8796,10 @@
       <c r="A34" s="3"/>
       <c r="B34" s="8"/>
       <c r="C34" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F34" s="7"/>
     </row>
@@ -8784,10 +8807,10 @@
       <c r="A35" s="3"/>
       <c r="B35" s="8"/>
       <c r="C35" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F35" s="7"/>
     </row>
@@ -8795,10 +8818,10 @@
       <c r="A36" s="3"/>
       <c r="B36" s="8"/>
       <c r="C36" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F36" s="7"/>
     </row>
@@ -8806,17 +8829,17 @@
       <c r="A37" s="3"/>
       <c r="B37" s="8"/>
       <c r="C37" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" ht="18.75" spans="1:4">
       <c r="A38" s="3"/>
       <c r="B38" s="8"/>
       <c r="C38" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D38" s="6"/>
     </row>
@@ -8824,27 +8847,27 @@
       <c r="A39" s="3"/>
       <c r="B39" s="8"/>
       <c r="C39" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" ht="40.5" spans="1:4">
       <c r="A40" s="3"/>
       <c r="B40" s="8"/>
       <c r="C40" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" ht="18.75" spans="1:4">
       <c r="A41" s="3"/>
       <c r="B41" s="8"/>
       <c r="C41" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D41" s="6"/>
     </row>
@@ -8852,7 +8875,7 @@
       <c r="A42" s="3"/>
       <c r="B42" s="8"/>
       <c r="C42" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D42" s="6"/>
     </row>
@@ -8860,7 +8883,7 @@
       <c r="A43" s="3"/>
       <c r="B43" s="8"/>
       <c r="C43" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D43" s="6"/>
     </row>
@@ -8868,7 +8891,7 @@
       <c r="A44" s="3"/>
       <c r="B44" s="8"/>
       <c r="C44" s="9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D44" s="6"/>
     </row>
@@ -8876,7 +8899,7 @@
       <c r="A45" s="3"/>
       <c r="B45" s="8"/>
       <c r="C45" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D45" s="6"/>
     </row>
@@ -8884,7 +8907,7 @@
       <c r="A46" s="3"/>
       <c r="B46" s="8"/>
       <c r="C46" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="6"/>
     </row>
@@ -8892,10 +8915,10 @@
       <c r="A47" s="3"/>
       <c r="B47" s="8"/>
       <c r="C47" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" ht="18.75" spans="2:4">
@@ -8905,13 +8928,13 @@
     </row>
     <row r="49" ht="21" spans="1:4">
       <c r="A49" s="16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="6"/>
     </row>
@@ -8919,7 +8942,7 @@
       <c r="A50" s="16"/>
       <c r="B50" s="8"/>
       <c r="C50" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D50" s="6"/>
     </row>
@@ -8927,7 +8950,7 @@
       <c r="A51" s="16"/>
       <c r="B51" s="8"/>
       <c r="C51" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D51" s="6"/>
     </row>
@@ -8935,19 +8958,19 @@
       <c r="A52" s="16"/>
       <c r="B52" s="8"/>
       <c r="C52" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" ht="21" spans="1:4">
       <c r="A53" s="16"/>
       <c r="B53" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D53" s="6"/>
     </row>
@@ -8955,17 +8978,17 @@
       <c r="A54" s="16"/>
       <c r="B54" s="8"/>
       <c r="C54" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" ht="18.75" spans="1:4">
       <c r="A55" s="16"/>
       <c r="B55" s="8"/>
       <c r="C55" s="9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D55" s="6"/>
     </row>
@@ -8973,7 +8996,7 @@
       <c r="A56" s="16"/>
       <c r="B56" s="8"/>
       <c r="C56" s="9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D56" s="6"/>
     </row>
@@ -8981,7 +9004,7 @@
       <c r="A57" s="16"/>
       <c r="B57" s="8"/>
       <c r="C57" s="9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D57" s="6"/>
     </row>
@@ -8989,27 +9012,27 @@
       <c r="A58" s="16"/>
       <c r="B58" s="8"/>
       <c r="C58" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D58" s="6"/>
     </row>
     <row r="59" ht="57" spans="1:4">
       <c r="A59" s="16"/>
       <c r="B59" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="60" ht="33" spans="1:4">
       <c r="A60" s="16"/>
       <c r="B60" s="8"/>
       <c r="C60" s="9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D60" s="6"/>
     </row>
@@ -9017,7 +9040,7 @@
       <c r="A61" s="16"/>
       <c r="B61" s="8"/>
       <c r="C61" s="9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D61" s="6"/>
     </row>
@@ -9025,27 +9048,27 @@
       <c r="A62" s="16"/>
       <c r="B62" s="8"/>
       <c r="C62" s="9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="63" ht="33" spans="1:4">
       <c r="A63" s="16"/>
       <c r="B63" s="8"/>
       <c r="C63" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="64" ht="49.5" spans="1:4">
       <c r="A64" s="16"/>
       <c r="B64" s="8"/>
       <c r="C64" s="9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D64" s="6"/>
     </row>
@@ -9053,7 +9076,7 @@
       <c r="A65" s="16"/>
       <c r="B65" s="8"/>
       <c r="C65" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D65" s="6"/>
     </row>
@@ -9061,7 +9084,7 @@
       <c r="A66" s="16"/>
       <c r="B66" s="8"/>
       <c r="C66" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D66" s="6"/>
     </row>
@@ -9069,7 +9092,7 @@
       <c r="A67" s="16"/>
       <c r="B67" s="8"/>
       <c r="C67" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D67" s="6"/>
     </row>
@@ -9077,7 +9100,7 @@
       <c r="A68" s="16"/>
       <c r="B68" s="8"/>
       <c r="C68" s="9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D68" s="6"/>
     </row>
@@ -9085,17 +9108,17 @@
       <c r="A69" s="16"/>
       <c r="B69" s="8"/>
       <c r="C69" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D69" s="6"/>
     </row>
     <row r="70" ht="21" spans="1:4">
       <c r="A70" s="16"/>
       <c r="B70" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D70" s="6"/>
     </row>
@@ -9103,7 +9126,7 @@
       <c r="A71" s="16"/>
       <c r="B71" s="8"/>
       <c r="C71" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D71" s="6"/>
     </row>
@@ -9111,7 +9134,7 @@
       <c r="A72" s="16"/>
       <c r="B72" s="8"/>
       <c r="C72" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D72" s="6"/>
     </row>
@@ -9119,7 +9142,7 @@
       <c r="A73" s="16"/>
       <c r="B73" s="8"/>
       <c r="C73" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D73" s="6"/>
     </row>
@@ -9127,7 +9150,7 @@
       <c r="A74" s="16"/>
       <c r="B74" s="8"/>
       <c r="C74" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D74" s="6"/>
     </row>
@@ -9135,7 +9158,7 @@
       <c r="A75" s="16"/>
       <c r="B75" s="8"/>
       <c r="C75" s="9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D75" s="6"/>
     </row>
@@ -9143,7 +9166,7 @@
       <c r="A76" s="16"/>
       <c r="B76" s="8"/>
       <c r="C76" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D76" s="6"/>
     </row>
@@ -9151,7 +9174,7 @@
       <c r="A77" s="16"/>
       <c r="B77" s="8"/>
       <c r="C77" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D77" s="6"/>
     </row>
@@ -9159,27 +9182,27 @@
       <c r="A78" s="16"/>
       <c r="B78" s="8"/>
       <c r="C78" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="79" ht="18.75" spans="1:4">
       <c r="A79" s="16"/>
       <c r="B79" s="8"/>
       <c r="C79" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D79" s="6"/>
     </row>
     <row r="80" ht="21" spans="1:4">
       <c r="A80" s="16"/>
       <c r="B80" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D80" s="6"/>
     </row>
@@ -9187,7 +9210,7 @@
       <c r="A81" s="16"/>
       <c r="B81" s="8"/>
       <c r="C81" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D81" s="6"/>
     </row>
@@ -9195,7 +9218,7 @@
       <c r="A82" s="16"/>
       <c r="B82" s="8"/>
       <c r="C82" s="9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D82" s="6"/>
     </row>
@@ -9203,17 +9226,17 @@
       <c r="A83" s="16"/>
       <c r="B83" s="8"/>
       <c r="C83" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D83" s="6"/>
     </row>
     <row r="84" ht="21" spans="1:4">
       <c r="A84" s="16"/>
       <c r="B84" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D84" s="6"/>
     </row>
@@ -9221,7 +9244,7 @@
       <c r="A85" s="16"/>
       <c r="B85" s="8"/>
       <c r="C85" s="9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D85" s="6"/>
     </row>
@@ -9232,128 +9255,128 @@
     </row>
     <row r="87" ht="28.5" spans="1:5">
       <c r="A87" s="18" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="88" ht="18.75" spans="1:4">
       <c r="A88" s="18"/>
       <c r="B88" s="8"/>
       <c r="C88" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="89" ht="18.75" spans="1:4">
       <c r="A89" s="18"/>
       <c r="B89" s="8"/>
       <c r="C89" s="9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="90" ht="18.75" spans="1:4">
       <c r="A90" s="18"/>
       <c r="B90" s="8"/>
       <c r="C90" s="9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="91" ht="18.75" spans="1:4">
       <c r="A91" s="18"/>
       <c r="B91" s="8"/>
       <c r="C91" s="9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D91" s="6"/>
     </row>
     <row r="92" ht="27" spans="1:4">
       <c r="A92" s="18"/>
       <c r="B92" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="93" ht="21" spans="1:4">
       <c r="A93" s="18"/>
       <c r="B93" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="94" ht="18.75" spans="1:4">
       <c r="A94" s="18"/>
       <c r="B94" s="8"/>
       <c r="C94" s="9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="95" ht="49.5" spans="1:4">
       <c r="A95" s="18"/>
       <c r="B95" s="8"/>
       <c r="C95" s="9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="96" ht="18.75" spans="1:4">
       <c r="A96" s="18"/>
       <c r="B96" s="8"/>
       <c r="C96" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="97" ht="81" spans="1:4">
       <c r="A97" s="18"/>
       <c r="B97" s="8"/>
       <c r="C97" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="98" ht="21" spans="1:4">
       <c r="A98" s="18"/>
       <c r="B98" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D98" s="6"/>
     </row>
@@ -9361,7 +9384,7 @@
       <c r="A99" s="18"/>
       <c r="B99" s="8"/>
       <c r="C99" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D99" s="6"/>
     </row>
@@ -9369,7 +9392,7 @@
       <c r="A100" s="18"/>
       <c r="B100" s="8"/>
       <c r="C100" s="9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D100" s="6"/>
     </row>
@@ -9378,16 +9401,16 @@
       <c r="B101" s="8"/>
       <c r="C101" s="5"/>
       <c r="D101" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="102" ht="18.75" spans="1:4">
       <c r="A102" s="18"/>
       <c r="B102" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D102" s="6"/>
     </row>
@@ -9395,7 +9418,7 @@
       <c r="A103" s="18"/>
       <c r="B103" s="8"/>
       <c r="C103" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D103" s="6"/>
     </row>
@@ -9403,7 +9426,7 @@
       <c r="A104" s="18"/>
       <c r="B104" s="8"/>
       <c r="C104" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D104" s="6"/>
     </row>
@@ -9411,7 +9434,7 @@
       <c r="A105" s="18"/>
       <c r="B105" s="8"/>
       <c r="C105" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D105" s="6"/>
     </row>
@@ -9419,17 +9442,17 @@
       <c r="A106" s="18"/>
       <c r="B106" s="8"/>
       <c r="C106" s="9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D106" s="6"/>
     </row>
     <row r="107" ht="18.75" spans="1:4">
       <c r="A107" s="18"/>
       <c r="B107" s="8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D107" s="6"/>
     </row>
@@ -9437,17 +9460,17 @@
       <c r="A108" s="18"/>
       <c r="B108" s="8"/>
       <c r="C108" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="109" ht="18.75" spans="1:4">
       <c r="A109" s="18"/>
       <c r="B109" s="8"/>
       <c r="C109" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D109" s="6"/>
     </row>
@@ -9455,27 +9478,27 @@
       <c r="A110" s="18"/>
       <c r="B110" s="8"/>
       <c r="C110" s="9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="111" ht="18.75" spans="1:4">
       <c r="A111" s="18"/>
       <c r="B111" s="8"/>
       <c r="C111" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="112" ht="18.75" spans="1:4">
       <c r="A112" s="18"/>
       <c r="B112" s="8"/>
       <c r="C112" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D112" s="6"/>
     </row>
@@ -9483,7 +9506,7 @@
       <c r="A113" s="18"/>
       <c r="B113" s="8"/>
       <c r="C113" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D113" s="6"/>
     </row>
@@ -9491,27 +9514,27 @@
       <c r="A114" s="18"/>
       <c r="B114" s="8"/>
       <c r="C114" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="115" ht="18.75" spans="1:4">
       <c r="A115" s="18"/>
       <c r="B115" s="8"/>
       <c r="C115" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="116" ht="33" spans="1:4">
       <c r="A116" s="18"/>
       <c r="B116" s="8"/>
       <c r="C116" s="9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D116" s="6"/>
     </row>
@@ -9519,89 +9542,89 @@
       <c r="A117" s="18"/>
       <c r="B117" s="8"/>
       <c r="C117" s="9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D117" s="6"/>
     </row>
     <row r="118" ht="42" spans="1:4">
       <c r="A118" s="18"/>
       <c r="B118" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="119" ht="18.75" spans="1:4">
       <c r="A119" s="18"/>
       <c r="B119" s="8"/>
       <c r="C119" s="9" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="120" ht="27" spans="1:4">
       <c r="A120" s="18"/>
       <c r="B120" s="8"/>
       <c r="C120" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="121" ht="18.75" spans="1:4">
       <c r="A121" s="18"/>
       <c r="B121" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="122" ht="33" spans="1:4">
       <c r="A122" s="18"/>
       <c r="B122" s="8"/>
       <c r="C122" s="5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="123" ht="33" spans="1:4">
       <c r="A123" s="18"/>
       <c r="B123" s="8"/>
       <c r="C123" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="124" ht="18.75" spans="1:4">
       <c r="A124" s="18"/>
       <c r="B124" s="8"/>
       <c r="C124" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="125" ht="33" spans="1:4">
       <c r="A125" s="18"/>
       <c r="B125" s="8"/>
       <c r="C125" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D125" s="6"/>
     </row>
@@ -9609,27 +9632,27 @@
       <c r="A126" s="18"/>
       <c r="B126" s="8"/>
       <c r="C126" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D126" s="6"/>
     </row>
     <row r="127" ht="18.75" spans="1:4">
       <c r="A127" s="18"/>
       <c r="B127" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="128" ht="18.75" spans="1:4">
       <c r="A128" s="18"/>
       <c r="B128" s="8"/>
       <c r="C128" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D128" s="6"/>
     </row>
@@ -9637,17 +9660,17 @@
       <c r="A129" s="18"/>
       <c r="B129" s="8"/>
       <c r="C129" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="130" ht="18.75" spans="1:4">
       <c r="A130" s="18"/>
       <c r="B130" s="8"/>
       <c r="C130" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D130" s="6"/>
     </row>
@@ -9655,27 +9678,27 @@
       <c r="A131" s="18"/>
       <c r="B131" s="8"/>
       <c r="C131" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="132" ht="33" spans="1:4">
       <c r="A132" s="18"/>
       <c r="B132" s="8"/>
       <c r="C132" s="9" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="133" ht="18.75" spans="1:4">
       <c r="A133" s="18"/>
       <c r="B133" s="8"/>
       <c r="C133" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D133" s="6"/>
     </row>
@@ -9683,7 +9706,7 @@
       <c r="A134" s="18"/>
       <c r="B134" s="8"/>
       <c r="C134" s="5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D134" s="6"/>
     </row>
@@ -9691,7 +9714,7 @@
       <c r="A135" s="18"/>
       <c r="B135" s="8"/>
       <c r="C135" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D135" s="6"/>
     </row>
@@ -9702,13 +9725,13 @@
     </row>
     <row r="137" ht="33" spans="1:4">
       <c r="A137" s="19" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D137" s="6"/>
     </row>
@@ -9716,67 +9739,67 @@
       <c r="A138" s="19"/>
       <c r="B138" s="8"/>
       <c r="C138" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="139" ht="18.75" spans="1:4">
       <c r="A139" s="19"/>
       <c r="B139" s="8"/>
       <c r="C139" s="9" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="140" ht="18.75" spans="1:4">
       <c r="A140" s="19"/>
       <c r="B140" s="8"/>
       <c r="C140" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="141" ht="18.75" spans="1:4">
       <c r="A141" s="19"/>
       <c r="B141" s="8"/>
       <c r="C141" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="142" ht="18.75" spans="1:4">
       <c r="A142" s="19"/>
       <c r="B142" s="8"/>
       <c r="C142" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="143" ht="18.75" spans="1:4">
       <c r="A143" s="19"/>
       <c r="B143" s="8"/>
       <c r="C143" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="144" ht="18.75" spans="1:4">
       <c r="A144" s="19"/>
       <c r="B144" s="8"/>
       <c r="C144" s="5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D144" s="6"/>
     </row>
@@ -9784,7 +9807,7 @@
       <c r="A145" s="19"/>
       <c r="B145" s="8"/>
       <c r="C145" s="5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D145" s="6"/>
     </row>
@@ -9792,7 +9815,7 @@
       <c r="A146" s="19"/>
       <c r="B146" s="8"/>
       <c r="C146" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D146" s="6"/>
     </row>
@@ -9800,17 +9823,17 @@
       <c r="A147" s="19"/>
       <c r="B147" s="8"/>
       <c r="C147" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D147" s="6"/>
     </row>
     <row r="148" ht="18.75" spans="1:4">
       <c r="A148" s="19"/>
       <c r="B148" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D148" s="6"/>
     </row>
@@ -9818,7 +9841,7 @@
       <c r="A149" s="19"/>
       <c r="B149" s="8"/>
       <c r="C149" s="5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D149" s="6"/>
     </row>
@@ -9826,59 +9849,59 @@
       <c r="A150" s="19"/>
       <c r="B150" s="8"/>
       <c r="C150" s="9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D150" s="11" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="151" ht="21" spans="1:4">
       <c r="A151" s="19"/>
       <c r="B151" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D151" s="11" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="152" ht="18.75" spans="1:4">
       <c r="A152" s="19"/>
       <c r="B152" s="8"/>
       <c r="C152" s="9" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D152" s="10" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="153" ht="18.75" spans="1:4">
       <c r="A153" s="19"/>
       <c r="B153" s="8"/>
       <c r="C153" s="9" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D153" s="10" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="154" ht="18.75" spans="1:4">
       <c r="A154" s="19"/>
       <c r="B154" s="8"/>
       <c r="C154" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D154" s="6"/>
     </row>
     <row r="155" ht="33" spans="1:4">
       <c r="A155" s="19"/>
       <c r="B155" s="8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D155" s="6"/>
     </row>
@@ -9886,20 +9909,20 @@
       <c r="A156" s="19"/>
       <c r="B156" s="8"/>
       <c r="C156" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="157" ht="18.75" spans="1:4">
       <c r="A157" s="19"/>
       <c r="B157" s="8"/>
       <c r="C157" s="5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="158" ht="18.75" spans="2:4">
@@ -9909,60 +9932,60 @@
     </row>
     <row r="159" ht="49.5" spans="1:4">
       <c r="A159" s="20" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D159" s="6"/>
     </row>
     <row r="160" ht="33" spans="1:4">
       <c r="A160" s="20"/>
       <c r="B160" s="8" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D160" s="6"/>
     </row>
     <row r="161" ht="18.75" spans="1:4">
       <c r="A161" s="20"/>
       <c r="B161" s="8" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D161" s="6"/>
     </row>
     <row r="162" ht="82.5" spans="1:4">
       <c r="A162" s="20"/>
       <c r="B162" s="8" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D162" s="6"/>
     </row>
     <row r="163" ht="33" spans="1:4">
       <c r="A163" s="20"/>
       <c r="B163" s="8" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D163" s="6"/>
     </row>
     <row r="164" ht="18.75" spans="1:4">
       <c r="A164" s="20"/>
       <c r="B164" s="8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C164" s="5"/>
       <c r="D164" s="6"/>
@@ -9970,7 +9993,7 @@
     <row r="165" ht="18.75" spans="1:4">
       <c r="A165" s="20"/>
       <c r="B165" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C165" s="5"/>
       <c r="D165" s="6"/>
@@ -9978,27 +10001,27 @@
     <row r="166" ht="49.5" spans="1:4">
       <c r="A166" s="20"/>
       <c r="B166" s="8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D166" s="6"/>
     </row>
     <row r="167" ht="33" spans="1:4">
       <c r="A167" s="20"/>
       <c r="B167" s="8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D167" s="6"/>
     </row>
     <row r="168" ht="18.75" spans="1:4">
       <c r="A168" s="20"/>
       <c r="B168" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C168" s="5"/>
       <c r="D168" s="6"/>
@@ -10009,76 +10032,76 @@
     </row>
     <row r="170" ht="24.75" spans="1:4">
       <c r="A170" s="21" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D170" s="6"/>
     </row>
     <row r="171" ht="16.5" spans="3:4">
       <c r="C171" s="9" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D171" s="6"/>
     </row>
     <row r="172" ht="33" spans="3:4">
       <c r="C172" s="9" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D172" s="6"/>
     </row>
     <row r="173" ht="16.5" spans="3:4">
       <c r="C173" s="9" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D173" s="6"/>
     </row>
     <row r="174" ht="16.5" spans="3:4">
       <c r="C174" s="9" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D174" s="6"/>
     </row>
     <row r="175" ht="16.5" spans="3:4">
       <c r="C175" s="9" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D175" s="6"/>
     </row>
     <row r="176" ht="16.5" spans="3:4">
       <c r="C176" s="9" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D176" s="6"/>
     </row>
     <row r="177" ht="33" spans="3:4">
       <c r="C177" s="9" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D177" s="6"/>
     </row>
     <row r="178" ht="16.5" spans="3:4">
       <c r="C178" s="9" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D178" s="6"/>
     </row>
     <row r="179" ht="16.5" spans="3:4">
       <c r="C179" s="9" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D179" s="6"/>
     </row>
     <row r="180" ht="16.5" spans="3:4">
       <c r="C180" s="9" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D180" s="6"/>
     </row>
     <row r="181" ht="16.5" spans="3:4">
       <c r="C181" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D181" s="6"/>
     </row>

--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -2719,10 +2719,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -2847,22 +2847,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -2871,18 +2855,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2893,18 +2877,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2923,21 +2908,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2953,8 +2937,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2963,14 +2962,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3040,7 +3040,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3052,13 +3094,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3070,19 +3112,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3094,7 +3124,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3106,7 +3178,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3118,109 +3214,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3253,7 +3253,51 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3273,36 +3317,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3318,31 +3332,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3352,10 +3352,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3364,16 +3364,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3382,115 +3382,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3972,7 +3972,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050"/>
+    <workbookView windowWidth="28080" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="A-JAVA基础" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348">
   <si>
     <t>技术方向</t>
   </si>
@@ -83,10 +83,10 @@
     <t>Helper\A.Java\A.基础篇\H.JavaSE基础</t>
   </si>
   <si>
-    <t>23种设计模式</t>
-  </si>
-  <si>
     <t>深入理解Java虚拟机（JVM性能调优+内存模型+虚拟机原理）</t>
+  </si>
+  <si>
+    <t>P11</t>
   </si>
   <si>
     <t>Helper\A.Java\A.基础篇\A.Java虚拟机</t>
@@ -268,6 +268,9 @@
 2：直接内存、堆和栈区别</t>
   </si>
   <si>
+    <t>A4</t>
+  </si>
+  <si>
     <t>1.先学习自己工作上需要用到的东西或者感兴趣的东西。
 2.其他情况就按顺序学习，务必要学明白。
 3.半辈子的事，要打好基础。</t>
@@ -2719,10 +2722,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -2847,9 +2850,24 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2857,6 +2875,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2877,9 +2903,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2894,21 +2957,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2922,44 +2971,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -2968,16 +2979,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3040,25 +3043,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3070,19 +3097,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3100,7 +3127,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3112,55 +3187,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3172,55 +3217,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3258,21 +3261,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -3293,11 +3281,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3332,17 +3341,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3352,10 +3355,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3364,16 +3367,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3382,115 +3385,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3513,6 +3516,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3561,9 +3567,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3967,12 +3970,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4020,448 +4023,435 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" s="24" customFormat="1" ht="40.5" spans="1:9">
-      <c r="A2" s="7" t="s">
+    <row r="2" s="7" customFormat="1" ht="40.5" spans="1:9">
+      <c r="A2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="39"/>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="27">
         <f ca="1">TODAY()</f>
-        <v>43426</v>
+        <v>43427</v>
       </c>
       <c r="I2" s="40">
         <v>43426</v>
       </c>
     </row>
     <row r="3" ht="40.5" spans="1:8">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H3" s="40">
         <v>43423</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="7" t="s">
+    <row r="4" ht="40.5" spans="1:9">
+      <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" ht="40.5" spans="1:9">
-      <c r="A5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7" t="s">
+      <c r="D4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7" t="s">
+      <c r="G4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="40">
+      <c r="H4" s="40">
         <v>43426</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E3 E4:E1048576">
       <formula1>"未开始,即将进行,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4692,11 +4682,11 @@
       </c>
       <c r="H2" s="38">
         <f ca="1">TODAY()</f>
-        <v>43426</v>
+        <v>43427</v>
       </c>
       <c r="I2" s="38">
         <f ca="1">TODAY()</f>
-        <v>43426</v>
+        <v>43427</v>
       </c>
     </row>
   </sheetData>
@@ -4724,15 +4714,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="24" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="24" customWidth="1"/>
-    <col min="3" max="3" width="19.625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="14" style="24" customWidth="1"/>
-    <col min="5" max="5" width="11.75" style="24" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="24" customWidth="1"/>
-    <col min="7" max="7" width="17.125" style="24" customWidth="1"/>
-    <col min="8" max="9" width="11.625" style="24" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="11.125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="11.25" style="7" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="14" style="7" customWidth="1"/>
+    <col min="5" max="5" width="11.75" style="7" customWidth="1"/>
+    <col min="6" max="6" width="14.25" style="7" customWidth="1"/>
+    <col min="7" max="7" width="17.125" style="7" customWidth="1"/>
+    <col min="8" max="9" width="11.625" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" s="33" customFormat="1" spans="1:10">
@@ -4768,19 +4758,19 @@
       </c>
     </row>
     <row r="2" ht="40.5" spans="1:9">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="35">
@@ -4791,11 +4781,11 @@
       </c>
       <c r="H2" s="27">
         <f ca="1">TODAY()-1</f>
-        <v>43425</v>
+        <v>43426</v>
       </c>
       <c r="I2" s="27">
         <f ca="1">TODAY()</f>
-        <v>43426</v>
+        <v>43427</v>
       </c>
     </row>
     <row r="3" spans="3:7">
@@ -6110,47 +6100,47 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="17.875" style="24" customWidth="1"/>
-    <col min="2" max="3" width="11.625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="41.25" style="24" customWidth="1"/>
-    <col min="5" max="5" width="43.875" style="24" customWidth="1"/>
-    <col min="6" max="6" width="30.25" style="24" customWidth="1"/>
-    <col min="7" max="7" width="12" style="24" customWidth="1"/>
-    <col min="8" max="8" width="11.625" style="24" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="17.875" style="7" customWidth="1"/>
+    <col min="2" max="3" width="11.625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="41.25" style="7" customWidth="1"/>
+    <col min="5" max="5" width="43.875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="30.25" style="7" customWidth="1"/>
+    <col min="7" max="7" width="12" style="7" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="22" customFormat="1" spans="1:8">
-      <c r="A1" s="22" t="s">
+    <row r="1" s="23" customFormat="1" spans="1:8">
+      <c r="A1" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="23" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" ht="280.5" spans="1:8">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>42</v>
       </c>
       <c r="D2" s="25" t="s">
@@ -6164,10 +6154,10 @@
       </c>
       <c r="H2" s="27">
         <f ca="1">TODAY()</f>
-        <v>43426</v>
-      </c>
-    </row>
-    <row r="3" s="23" customFormat="1" ht="66" spans="1:8">
+        <v>43427</v>
+      </c>
+    </row>
+    <row r="3" s="24" customFormat="1" ht="66" spans="1:8">
       <c r="A3" s="28" t="s">
         <v>41</v>
       </c>
@@ -6182,14 +6172,14 @@
       </c>
       <c r="H3" s="30">
         <f ca="1">TODAY()</f>
-        <v>43426</v>
+        <v>43427</v>
       </c>
     </row>
     <row r="4" ht="165" spans="1:8">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>50</v>
       </c>
       <c r="D4" s="26" t="s">
@@ -6203,7 +6193,7 @@
       </c>
       <c r="H4" s="27">
         <f ca="1">TODAY()</f>
-        <v>43426</v>
+        <v>43427</v>
       </c>
     </row>
     <row r="5" ht="132" spans="1:8">
@@ -8401,7 +8391,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E87" sqref="E87"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -8452,1385 +8442,1398 @@
       <c r="D2" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="E2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="G2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:6">
       <c r="A3" s="3"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="D3" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" ht="54" spans="1:6">
       <c r="A4" s="3"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9" t="s">
-        <v>67</v>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" ht="18.75" spans="1:6">
       <c r="A5" s="3"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9" t="s">
-        <v>69</v>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="F5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" ht="28.5" spans="1:6">
       <c r="A6" s="3"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="D6" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" ht="18.75" spans="1:6">
       <c r="A7" s="3"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="D7" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" ht="28.5" spans="1:6">
       <c r="A8" s="3"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="D8" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" ht="33" spans="1:6">
       <c r="A9" s="3"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="D9" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" ht="18.75" spans="1:6">
       <c r="A10" s="3"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="D10" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" ht="42.75" spans="1:6">
       <c r="A11" s="3"/>
-      <c r="B11" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="D11" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" ht="67.5" spans="1:6">
       <c r="A12" s="3"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="9" t="s">
-        <v>83</v>
+      <c r="B12" s="14"/>
+      <c r="C12" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F12" s="7"/>
+        <v>85</v>
+      </c>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" ht="18.75" spans="1:6">
       <c r="A13" s="3"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="11" t="s">
+      <c r="B13" s="9"/>
+      <c r="C13" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="D13" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" ht="18.75" spans="1:6">
       <c r="A14" s="3"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9" t="s">
-        <v>87</v>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F14" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" ht="81" spans="1:6">
       <c r="A15" s="3"/>
-      <c r="B15" s="8"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F15" s="7"/>
+        <v>91</v>
+      </c>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" ht="18.75" spans="1:6">
       <c r="A16" s="3"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D16" s="10" t="s">
+      <c r="B16" s="9"/>
+      <c r="C16" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="D16" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="8"/>
     </row>
     <row r="17" ht="42.75" spans="1:6">
       <c r="A17" s="3"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17" s="11" t="s">
+      <c r="B17" s="9"/>
+      <c r="C17" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="D17" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" ht="18.75" spans="1:6">
       <c r="A18" s="3"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18" s="10" t="s">
+      <c r="B18" s="9"/>
+      <c r="C18" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="7"/>
+      <c r="D18" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" ht="67.5" spans="1:6">
       <c r="A19" s="3"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9" t="s">
-        <v>97</v>
+      <c r="B19" s="9"/>
+      <c r="C19" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F19" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="F19" s="8"/>
     </row>
     <row r="20" ht="54" spans="1:6">
       <c r="A20" s="3"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9" t="s">
-        <v>99</v>
+      <c r="B20" s="9"/>
+      <c r="C20" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F20" s="7"/>
+        <v>101</v>
+      </c>
+      <c r="F20" s="8"/>
     </row>
     <row r="21" ht="27" spans="1:6">
       <c r="A21" s="3"/>
-      <c r="B21" s="8"/>
+      <c r="B21" s="9"/>
       <c r="C21" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F21" s="7"/>
+        <v>103</v>
+      </c>
+      <c r="F21" s="8"/>
     </row>
     <row r="22" ht="18.75" spans="1:6">
       <c r="A22" s="3"/>
-      <c r="B22" s="8"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="F22" s="7"/>
+        <v>105</v>
+      </c>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" ht="54" spans="1:6">
       <c r="A23" s="3"/>
-      <c r="B23" s="8"/>
+      <c r="B23" s="9"/>
       <c r="C23" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F23" s="7"/>
+        <v>107</v>
+      </c>
+      <c r="F23" s="8"/>
     </row>
     <row r="24" ht="18.75" spans="1:6">
       <c r="A24" s="3"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9" t="s">
-        <v>107</v>
+      <c r="B24" s="9"/>
+      <c r="C24" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F24" s="7"/>
+        <v>109</v>
+      </c>
+      <c r="F24" s="8"/>
     </row>
     <row r="25" ht="18.75" spans="1:6">
       <c r="A25" s="3"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D25" s="14" t="s">
+      <c r="B25" s="9"/>
+      <c r="C25" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F25" s="7"/>
+      <c r="D25" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" s="8"/>
     </row>
     <row r="26" ht="18.75" spans="1:6">
       <c r="A26" s="3"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D26" s="15" t="s">
+      <c r="B26" s="9"/>
+      <c r="C26" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="F26" s="7"/>
+      <c r="D26" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26" s="8"/>
     </row>
     <row r="27" ht="18.75" spans="1:6">
       <c r="A27" s="3"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="9" t="s">
-        <v>113</v>
+      <c r="B27" s="9"/>
+      <c r="C27" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="D27" s="6"/>
-      <c r="F27" s="7"/>
+      <c r="F27" s="8"/>
     </row>
     <row r="28" ht="18.75" spans="1:6">
       <c r="A28" s="3"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D28" s="10" t="s">
+      <c r="B28" s="9"/>
+      <c r="C28" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="F28" s="7"/>
+      <c r="D28" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F28" s="8"/>
     </row>
     <row r="29" ht="18.75" spans="1:6">
       <c r="A29" s="3"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D29" s="10" t="s">
+      <c r="B29" s="9"/>
+      <c r="C29" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="F29" s="7"/>
+      <c r="D29" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F29" s="8"/>
     </row>
     <row r="30" ht="18.75" spans="1:6">
       <c r="A30" s="3"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D30" s="10" t="s">
+      <c r="B30" s="9"/>
+      <c r="C30" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F30" s="7"/>
+      <c r="D30" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="F30" s="8"/>
     </row>
     <row r="31" ht="18.75" spans="1:6">
       <c r="A31" s="3"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D31" s="11" t="s">
+      <c r="B31" s="9"/>
+      <c r="C31" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="F31" s="7"/>
+      <c r="D31" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F31" s="8"/>
     </row>
     <row r="32" ht="18.75" spans="1:6">
       <c r="A32" s="3"/>
-      <c r="B32" s="8"/>
+      <c r="B32" s="9"/>
       <c r="C32" s="5"/>
       <c r="D32" s="6"/>
-      <c r="F32" s="7"/>
+      <c r="F32" s="8"/>
     </row>
     <row r="33" ht="21" spans="1:6">
       <c r="A33" s="3"/>
       <c r="B33" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C33" s="9" t="s">
         <v>123</v>
       </c>
+      <c r="C33" s="10" t="s">
+        <v>124</v>
+      </c>
       <c r="D33" s="6"/>
-      <c r="F33" s="7"/>
+      <c r="F33" s="8"/>
     </row>
     <row r="34" ht="28.5" spans="1:6">
       <c r="A34" s="3"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D34" s="11" t="s">
+      <c r="B34" s="9"/>
+      <c r="C34" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="F34" s="7"/>
+      <c r="D34" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F34" s="8"/>
     </row>
     <row r="35" ht="18.75" spans="1:6">
       <c r="A35" s="3"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D35" s="10" t="s">
+      <c r="B35" s="9"/>
+      <c r="C35" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="F35" s="7"/>
+      <c r="D35" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F35" s="8"/>
     </row>
     <row r="36" ht="42.75" spans="1:6">
       <c r="A36" s="3"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="D36" s="10" t="s">
+      <c r="B36" s="9"/>
+      <c r="C36" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="F36" s="7"/>
+      <c r="D36" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F36" s="8"/>
     </row>
     <row r="37" ht="27.75" spans="1:4">
       <c r="A37" s="3"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D37" s="11" t="s">
+      <c r="B37" s="9"/>
+      <c r="C37" s="10" t="s">
         <v>131</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="38" ht="18.75" spans="1:4">
       <c r="A38" s="3"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="9" t="s">
-        <v>132</v>
+      <c r="B38" s="9"/>
+      <c r="C38" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="D38" s="6"/>
     </row>
     <row r="39" ht="28.5" spans="1:4">
       <c r="A39" s="3"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="D39" s="11" t="s">
+      <c r="B39" s="9"/>
+      <c r="C39" s="10" t="s">
         <v>134</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="40" ht="40.5" spans="1:4">
       <c r="A40" s="3"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="9" t="s">
-        <v>135</v>
+      <c r="B40" s="9"/>
+      <c r="C40" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41" ht="18.75" spans="1:4">
       <c r="A41" s="3"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="9" t="s">
-        <v>137</v>
+      <c r="B41" s="9"/>
+      <c r="C41" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="D41" s="6"/>
     </row>
     <row r="42" ht="18.75" spans="1:4">
       <c r="A42" s="3"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="9" t="s">
-        <v>138</v>
+      <c r="B42" s="9"/>
+      <c r="C42" s="10" t="s">
+        <v>139</v>
       </c>
       <c r="D42" s="6"/>
     </row>
     <row r="43" ht="18.75" spans="1:4">
       <c r="A43" s="3"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="9" t="s">
-        <v>139</v>
+      <c r="B43" s="9"/>
+      <c r="C43" s="10" t="s">
+        <v>140</v>
       </c>
       <c r="D43" s="6"/>
     </row>
     <row r="44" ht="18.75" spans="1:4">
       <c r="A44" s="3"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="9" t="s">
-        <v>140</v>
+      <c r="B44" s="9"/>
+      <c r="C44" s="10" t="s">
+        <v>141</v>
       </c>
       <c r="D44" s="6"/>
     </row>
     <row r="45" ht="18.75" spans="1:4">
       <c r="A45" s="3"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="9" t="s">
-        <v>141</v>
+      <c r="B45" s="9"/>
+      <c r="C45" s="10" t="s">
+        <v>142</v>
       </c>
       <c r="D45" s="6"/>
     </row>
     <row r="46" ht="33" spans="1:4">
       <c r="A46" s="3"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="9" t="s">
-        <v>142</v>
+      <c r="B46" s="9"/>
+      <c r="C46" s="10" t="s">
+        <v>143</v>
       </c>
       <c r="D46" s="6"/>
     </row>
     <row r="47" ht="18.75" spans="1:4">
       <c r="A47" s="3"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="D47" s="10" t="s">
+      <c r="B47" s="9"/>
+      <c r="C47" s="10" t="s">
         <v>144</v>
       </c>
+      <c r="D47" s="11" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="48" ht="18.75" spans="2:4">
-      <c r="B48" s="8"/>
+      <c r="B48" s="9"/>
       <c r="C48" s="5"/>
       <c r="D48" s="6"/>
     </row>
     <row r="49" ht="21" spans="1:4">
-      <c r="A49" s="16" t="s">
-        <v>145</v>
+      <c r="A49" s="17" t="s">
+        <v>146</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C49" s="9" t="s">
         <v>147</v>
       </c>
+      <c r="C49" s="10" t="s">
+        <v>148</v>
+      </c>
       <c r="D49" s="6"/>
     </row>
     <row r="50" ht="33" spans="1:4">
-      <c r="A50" s="16"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="9" t="s">
-        <v>148</v>
+      <c r="A50" s="17"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="10" t="s">
+        <v>149</v>
       </c>
       <c r="D50" s="6"/>
     </row>
     <row r="51" ht="18.75" spans="1:4">
-      <c r="A51" s="16"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="9" t="s">
-        <v>149</v>
+      <c r="A51" s="17"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="10" t="s">
+        <v>150</v>
       </c>
       <c r="D51" s="6"/>
     </row>
     <row r="52" ht="18.75" spans="1:4">
-      <c r="A52" s="16"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="D52" s="10" t="s">
+      <c r="A52" s="17"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="10" t="s">
         <v>151</v>
       </c>
+      <c r="D52" s="11" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="53" ht="21" spans="1:4">
-      <c r="A53" s="16"/>
+      <c r="A53" s="17"/>
       <c r="B53" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C53" s="9" t="s">
         <v>153</v>
       </c>
+      <c r="C53" s="10" t="s">
+        <v>154</v>
+      </c>
       <c r="D53" s="6"/>
     </row>
     <row r="54" ht="18.75" spans="1:4">
-      <c r="A54" s="16"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="D54" s="10" t="s">
+      <c r="A54" s="17"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="10" t="s">
         <v>155</v>
       </c>
+      <c r="D54" s="11" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="55" ht="18.75" spans="1:4">
-      <c r="A55" s="16"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="9" t="s">
-        <v>156</v>
+      <c r="A55" s="17"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="10" t="s">
+        <v>157</v>
       </c>
       <c r="D55" s="6"/>
     </row>
     <row r="56" ht="18.75" spans="1:4">
-      <c r="A56" s="16"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="9" t="s">
-        <v>157</v>
+      <c r="A56" s="17"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="D56" s="6"/>
     </row>
     <row r="57" ht="33" spans="1:4">
-      <c r="A57" s="16"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="9" t="s">
-        <v>158</v>
+      <c r="A57" s="17"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="10" t="s">
+        <v>159</v>
       </c>
       <c r="D57" s="6"/>
     </row>
     <row r="58" ht="18.75" spans="1:4">
-      <c r="A58" s="16"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="9" t="s">
-        <v>159</v>
+      <c r="A58" s="17"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="10" t="s">
+        <v>160</v>
       </c>
       <c r="D58" s="6"/>
     </row>
     <row r="59" ht="57" spans="1:4">
-      <c r="A59" s="16"/>
+      <c r="A59" s="17"/>
       <c r="B59" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C59" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="C59" s="10" t="s">
         <v>162</v>
       </c>
+      <c r="D59" s="11" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="60" ht="33" spans="1:4">
-      <c r="A60" s="16"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="9" t="s">
-        <v>163</v>
+      <c r="A60" s="17"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="10" t="s">
+        <v>164</v>
       </c>
       <c r="D60" s="6"/>
     </row>
     <row r="61" ht="33" spans="1:4">
-      <c r="A61" s="16"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="9" t="s">
-        <v>164</v>
+      <c r="A61" s="17"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="10" t="s">
+        <v>165</v>
       </c>
       <c r="D61" s="6"/>
     </row>
     <row r="62" ht="18.75" spans="1:4">
-      <c r="A62" s="16"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="D62" s="11" t="s">
+      <c r="A62" s="17"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="10" t="s">
         <v>166</v>
       </c>
+      <c r="D62" s="12" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="63" ht="33" spans="1:4">
-      <c r="A63" s="16"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="D63" s="17" t="s">
+      <c r="A63" s="17"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="10" t="s">
         <v>168</v>
       </c>
+      <c r="D63" s="18" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="64" ht="49.5" spans="1:4">
-      <c r="A64" s="16"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="9" t="s">
-        <v>169</v>
+      <c r="A64" s="17"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="10" t="s">
+        <v>170</v>
       </c>
       <c r="D64" s="6"/>
     </row>
     <row r="65" ht="18.75" spans="1:4">
-      <c r="A65" s="16"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="9" t="s">
-        <v>170</v>
+      <c r="A65" s="17"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="10" t="s">
+        <v>171</v>
       </c>
       <c r="D65" s="6"/>
     </row>
     <row r="66" ht="18.75" spans="1:4">
-      <c r="A66" s="16"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="9" t="s">
-        <v>171</v>
+      <c r="A66" s="17"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="10" t="s">
+        <v>172</v>
       </c>
       <c r="D66" s="6"/>
     </row>
     <row r="67" ht="18.75" spans="1:4">
-      <c r="A67" s="16"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="9" t="s">
-        <v>172</v>
+      <c r="A67" s="17"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="10" t="s">
+        <v>173</v>
       </c>
       <c r="D67" s="6"/>
     </row>
     <row r="68" ht="18.75" spans="1:4">
-      <c r="A68" s="16"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="9" t="s">
-        <v>173</v>
+      <c r="A68" s="17"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="10" t="s">
+        <v>174</v>
       </c>
       <c r="D68" s="6"/>
     </row>
     <row r="69" ht="18.75" spans="1:4">
-      <c r="A69" s="16"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="9" t="s">
-        <v>174</v>
+      <c r="A69" s="17"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="10" t="s">
+        <v>175</v>
       </c>
       <c r="D69" s="6"/>
     </row>
     <row r="70" ht="21" spans="1:4">
-      <c r="A70" s="16"/>
+      <c r="A70" s="17"/>
       <c r="B70" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C70" s="9" t="s">
         <v>176</v>
       </c>
+      <c r="C70" s="10" t="s">
+        <v>177</v>
+      </c>
       <c r="D70" s="6"/>
     </row>
     <row r="71" ht="18.75" spans="1:4">
-      <c r="A71" s="16"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="9" t="s">
-        <v>177</v>
+      <c r="A71" s="17"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="10" t="s">
+        <v>178</v>
       </c>
       <c r="D71" s="6"/>
     </row>
     <row r="72" ht="18.75" spans="1:4">
-      <c r="A72" s="16"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="9" t="s">
-        <v>178</v>
+      <c r="A72" s="17"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="10" t="s">
+        <v>179</v>
       </c>
       <c r="D72" s="6"/>
     </row>
     <row r="73" ht="18.75" spans="1:4">
-      <c r="A73" s="16"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="9" t="s">
-        <v>179</v>
+      <c r="A73" s="17"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="10" t="s">
+        <v>180</v>
       </c>
       <c r="D73" s="6"/>
     </row>
     <row r="74" ht="18.75" spans="1:4">
-      <c r="A74" s="16"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="9" t="s">
-        <v>180</v>
+      <c r="A74" s="17"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="10" t="s">
+        <v>181</v>
       </c>
       <c r="D74" s="6"/>
     </row>
     <row r="75" ht="18.75" spans="1:4">
-      <c r="A75" s="16"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="9" t="s">
-        <v>181</v>
+      <c r="A75" s="17"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="10" t="s">
+        <v>182</v>
       </c>
       <c r="D75" s="6"/>
     </row>
     <row r="76" ht="18.75" spans="1:4">
-      <c r="A76" s="16"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="9" t="s">
-        <v>182</v>
+      <c r="A76" s="17"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="10" t="s">
+        <v>183</v>
       </c>
       <c r="D76" s="6"/>
     </row>
     <row r="77" ht="18.75" spans="1:4">
-      <c r="A77" s="16"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="9" t="s">
-        <v>183</v>
+      <c r="A77" s="17"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="10" t="s">
+        <v>184</v>
       </c>
       <c r="D77" s="6"/>
     </row>
     <row r="78" ht="18.75" spans="1:4">
-      <c r="A78" s="16"/>
-      <c r="B78" s="8"/>
-      <c r="C78" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D78" s="11" t="s">
+      <c r="A78" s="17"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="10" t="s">
         <v>185</v>
       </c>
+      <c r="D78" s="12" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="79" ht="18.75" spans="1:4">
-      <c r="A79" s="16"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="9" t="s">
-        <v>186</v>
+      <c r="A79" s="17"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="10" t="s">
+        <v>187</v>
       </c>
       <c r="D79" s="6"/>
     </row>
     <row r="80" ht="21" spans="1:4">
-      <c r="A80" s="16"/>
+      <c r="A80" s="17"/>
       <c r="B80" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C80" s="9" t="s">
         <v>188</v>
       </c>
+      <c r="C80" s="10" t="s">
+        <v>189</v>
+      </c>
       <c r="D80" s="6"/>
     </row>
     <row r="81" ht="18.75" spans="1:4">
-      <c r="A81" s="16"/>
-      <c r="B81" s="8"/>
-      <c r="C81" s="9" t="s">
-        <v>189</v>
+      <c r="A81" s="17"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="10" t="s">
+        <v>190</v>
       </c>
       <c r="D81" s="6"/>
     </row>
     <row r="82" ht="18.75" spans="1:4">
-      <c r="A82" s="16"/>
-      <c r="B82" s="8"/>
-      <c r="C82" s="9" t="s">
-        <v>190</v>
+      <c r="A82" s="17"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="10" t="s">
+        <v>191</v>
       </c>
       <c r="D82" s="6"/>
     </row>
     <row r="83" ht="18.75" spans="1:4">
-      <c r="A83" s="16"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="9" t="s">
-        <v>191</v>
+      <c r="A83" s="17"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="10" t="s">
+        <v>192</v>
       </c>
       <c r="D83" s="6"/>
     </row>
     <row r="84" ht="21" spans="1:4">
-      <c r="A84" s="16"/>
+      <c r="A84" s="17"/>
       <c r="B84" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C84" s="9" t="s">
         <v>193</v>
       </c>
+      <c r="C84" s="10" t="s">
+        <v>194</v>
+      </c>
       <c r="D84" s="6"/>
     </row>
     <row r="85" ht="18.75" spans="1:4">
-      <c r="A85" s="16"/>
-      <c r="B85" s="8"/>
-      <c r="C85" s="9" t="s">
-        <v>194</v>
+      <c r="A85" s="17"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="10" t="s">
+        <v>195</v>
       </c>
       <c r="D85" s="6"/>
     </row>
     <row r="86" ht="18.75" spans="2:4">
-      <c r="B86" s="8"/>
+      <c r="B86" s="9"/>
       <c r="C86" s="5"/>
       <c r="D86" s="6"/>
     </row>
     <row r="87" ht="28.5" spans="1:5">
-      <c r="A87" s="18" t="s">
-        <v>195</v>
+      <c r="A87" s="19" t="s">
+        <v>196</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C87" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="D87" s="11" t="s">
+      <c r="C87" s="10" t="s">
         <v>198</v>
       </c>
+      <c r="D87" s="12" t="s">
+        <v>199</v>
+      </c>
       <c r="E87" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="88" ht="18.75" spans="1:4">
-      <c r="A88" s="18"/>
-      <c r="B88" s="8"/>
-      <c r="C88" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D88" s="11" t="s">
+      <c r="A88" s="19"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="10" t="s">
         <v>201</v>
       </c>
+      <c r="D88" s="12" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="89" ht="18.75" spans="1:4">
-      <c r="A89" s="18"/>
-      <c r="B89" s="8"/>
-      <c r="C89" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D89" s="10" t="s">
+      <c r="A89" s="19"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="10" t="s">
         <v>203</v>
       </c>
+      <c r="D89" s="11" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="90" ht="18.75" spans="1:4">
-      <c r="A90" s="18"/>
-      <c r="B90" s="8"/>
-      <c r="C90" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="D90" s="10" t="s">
+      <c r="A90" s="19"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="10" t="s">
         <v>205</v>
       </c>
+      <c r="D90" s="11" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="91" ht="18.75" spans="1:4">
-      <c r="A91" s="18"/>
-      <c r="B91" s="8"/>
-      <c r="C91" s="9" t="s">
-        <v>206</v>
+      <c r="A91" s="19"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="10" t="s">
+        <v>207</v>
       </c>
       <c r="D91" s="6"/>
     </row>
     <row r="92" ht="27" spans="1:4">
-      <c r="A92" s="18"/>
+      <c r="A92" s="19"/>
       <c r="B92" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="93" ht="21" spans="1:4">
-      <c r="A93" s="18"/>
+      <c r="A93" s="19"/>
       <c r="B93" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C93" s="9" t="s">
         <v>210</v>
       </c>
+      <c r="C93" s="10" t="s">
+        <v>211</v>
+      </c>
       <c r="D93" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="94" ht="18.75" spans="1:4">
-      <c r="A94" s="18"/>
-      <c r="B94" s="8"/>
-      <c r="C94" s="9" t="s">
-        <v>212</v>
+      <c r="A94" s="19"/>
+      <c r="B94" s="9"/>
+      <c r="C94" s="10" t="s">
+        <v>213</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="95" ht="49.5" spans="1:4">
-      <c r="A95" s="18"/>
-      <c r="B95" s="8"/>
-      <c r="C95" s="9" t="s">
-        <v>214</v>
+      <c r="A95" s="19"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="10" t="s">
+        <v>215</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="96" ht="18.75" spans="1:4">
-      <c r="A96" s="18"/>
-      <c r="B96" s="8"/>
+      <c r="A96" s="19"/>
+      <c r="B96" s="9"/>
       <c r="C96" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="97" ht="81" spans="1:4">
-      <c r="A97" s="18"/>
-      <c r="B97" s="8"/>
+      <c r="A97" s="19"/>
+      <c r="B97" s="9"/>
       <c r="C97" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="98" ht="21" spans="1:4">
-      <c r="A98" s="18"/>
+      <c r="A98" s="19"/>
       <c r="B98" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D98" s="6"/>
     </row>
     <row r="99" ht="18.75" spans="1:4">
-      <c r="A99" s="18"/>
-      <c r="B99" s="8"/>
+      <c r="A99" s="19"/>
+      <c r="B99" s="9"/>
       <c r="C99" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D99" s="6"/>
     </row>
     <row r="100" ht="18.75" spans="1:4">
-      <c r="A100" s="18"/>
-      <c r="B100" s="8"/>
-      <c r="C100" s="9" t="s">
-        <v>222</v>
+      <c r="A100" s="19"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="10" t="s">
+        <v>223</v>
       </c>
       <c r="D100" s="6"/>
     </row>
     <row r="101" ht="27" spans="1:4">
-      <c r="A101" s="18"/>
-      <c r="B101" s="8"/>
+      <c r="A101" s="19"/>
+      <c r="B101" s="9"/>
       <c r="C101" s="5"/>
       <c r="D101" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="102" ht="18.75" spans="1:4">
-      <c r="A102" s="18"/>
-      <c r="B102" s="8" t="s">
-        <v>224</v>
+      <c r="A102" s="19"/>
+      <c r="B102" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D102" s="6"/>
     </row>
     <row r="103" ht="18.75" spans="1:4">
-      <c r="A103" s="18"/>
-      <c r="B103" s="8"/>
+      <c r="A103" s="19"/>
+      <c r="B103" s="9"/>
       <c r="C103" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D103" s="6"/>
     </row>
     <row r="104" ht="18.75" spans="1:4">
-      <c r="A104" s="18"/>
-      <c r="B104" s="8"/>
+      <c r="A104" s="19"/>
+      <c r="B104" s="9"/>
       <c r="C104" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D104" s="6"/>
     </row>
     <row r="105" ht="18.75" spans="1:4">
-      <c r="A105" s="18"/>
-      <c r="B105" s="8"/>
+      <c r="A105" s="19"/>
+      <c r="B105" s="9"/>
       <c r="C105" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D105" s="6"/>
     </row>
     <row r="106" ht="18.75" spans="1:4">
-      <c r="A106" s="18"/>
-      <c r="B106" s="8"/>
-      <c r="C106" s="9" t="s">
-        <v>229</v>
+      <c r="A106" s="19"/>
+      <c r="B106" s="9"/>
+      <c r="C106" s="10" t="s">
+        <v>230</v>
       </c>
       <c r="D106" s="6"/>
     </row>
     <row r="107" ht="18.75" spans="1:4">
-      <c r="A107" s="18"/>
-      <c r="B107" s="8" t="s">
-        <v>230</v>
+      <c r="A107" s="19"/>
+      <c r="B107" s="9" t="s">
+        <v>231</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D107" s="6"/>
     </row>
     <row r="108" ht="18.75" spans="1:4">
-      <c r="A108" s="18"/>
-      <c r="B108" s="8"/>
+      <c r="A108" s="19"/>
+      <c r="B108" s="9"/>
       <c r="C108" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="109" ht="18.75" spans="1:4">
-      <c r="A109" s="18"/>
-      <c r="B109" s="8"/>
+      <c r="A109" s="19"/>
+      <c r="B109" s="9"/>
       <c r="C109" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D109" s="6"/>
     </row>
     <row r="110" ht="18.75" spans="1:4">
-      <c r="A110" s="18"/>
-      <c r="B110" s="8"/>
-      <c r="C110" s="9" t="s">
-        <v>235</v>
+      <c r="A110" s="19"/>
+      <c r="B110" s="9"/>
+      <c r="C110" s="10" t="s">
+        <v>236</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="111" ht="18.75" spans="1:4">
-      <c r="A111" s="18"/>
-      <c r="B111" s="8"/>
+      <c r="A111" s="19"/>
+      <c r="B111" s="9"/>
       <c r="C111" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="112" ht="18.75" spans="1:4">
-      <c r="A112" s="18"/>
-      <c r="B112" s="8"/>
+      <c r="A112" s="19"/>
+      <c r="B112" s="9"/>
       <c r="C112" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D112" s="6"/>
     </row>
     <row r="113" ht="18.75" spans="1:4">
-      <c r="A113" s="18"/>
-      <c r="B113" s="8"/>
+      <c r="A113" s="19"/>
+      <c r="B113" s="9"/>
       <c r="C113" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D113" s="6"/>
     </row>
     <row r="114" ht="18.75" spans="1:4">
-      <c r="A114" s="18"/>
-      <c r="B114" s="8"/>
+      <c r="A114" s="19"/>
+      <c r="B114" s="9"/>
       <c r="C114" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="115" ht="18.75" spans="1:4">
-      <c r="A115" s="18"/>
-      <c r="B115" s="8"/>
+      <c r="A115" s="19"/>
+      <c r="B115" s="9"/>
       <c r="C115" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="D115" s="11" t="s">
         <v>244</v>
       </c>
+      <c r="D115" s="12" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="116" ht="33" spans="1:4">
-      <c r="A116" s="18"/>
-      <c r="B116" s="8"/>
-      <c r="C116" s="9" t="s">
-        <v>245</v>
+      <c r="A116" s="19"/>
+      <c r="B116" s="9"/>
+      <c r="C116" s="10" t="s">
+        <v>246</v>
       </c>
       <c r="D116" s="6"/>
     </row>
     <row r="117" ht="18.75" spans="1:4">
-      <c r="A117" s="18"/>
-      <c r="B117" s="8"/>
-      <c r="C117" s="9" t="s">
-        <v>246</v>
+      <c r="A117" s="19"/>
+      <c r="B117" s="9"/>
+      <c r="C117" s="10" t="s">
+        <v>247</v>
       </c>
       <c r="D117" s="6"/>
     </row>
     <row r="118" ht="42" spans="1:4">
-      <c r="A118" s="18"/>
+      <c r="A118" s="19"/>
       <c r="B118" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="119" ht="18.75" spans="1:4">
-      <c r="A119" s="18"/>
-      <c r="B119" s="8"/>
-      <c r="C119" s="9" t="s">
-        <v>250</v>
+      <c r="A119" s="19"/>
+      <c r="B119" s="9"/>
+      <c r="C119" s="10" t="s">
+        <v>251</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="120" ht="27" spans="1:4">
-      <c r="A120" s="18"/>
-      <c r="B120" s="8"/>
+      <c r="A120" s="19"/>
+      <c r="B120" s="9"/>
       <c r="C120" s="5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="121" ht="18.75" spans="1:4">
-      <c r="A121" s="18"/>
-      <c r="B121" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="C121" s="9" t="s">
+      <c r="A121" s="19"/>
+      <c r="B121" s="9" t="s">
         <v>255</v>
       </c>
+      <c r="C121" s="10" t="s">
+        <v>256</v>
+      </c>
       <c r="D121" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="122" ht="33" spans="1:4">
-      <c r="A122" s="18"/>
-      <c r="B122" s="8"/>
+      <c r="A122" s="19"/>
+      <c r="B122" s="9"/>
       <c r="C122" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="123" ht="33" spans="1:4">
-      <c r="A123" s="18"/>
-      <c r="B123" s="8"/>
+      <c r="A123" s="19"/>
+      <c r="B123" s="9"/>
       <c r="C123" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="124" ht="18.75" spans="1:4">
-      <c r="A124" s="18"/>
-      <c r="B124" s="8"/>
+      <c r="A124" s="19"/>
+      <c r="B124" s="9"/>
       <c r="C124" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="125" ht="33" spans="1:4">
-      <c r="A125" s="18"/>
-      <c r="B125" s="8"/>
+      <c r="A125" s="19"/>
+      <c r="B125" s="9"/>
       <c r="C125" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D125" s="6"/>
     </row>
     <row r="126" ht="18.75" spans="1:4">
-      <c r="A126" s="18"/>
-      <c r="B126" s="8"/>
+      <c r="A126" s="19"/>
+      <c r="B126" s="9"/>
       <c r="C126" s="5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D126" s="6"/>
     </row>
     <row r="127" ht="18.75" spans="1:4">
-      <c r="A127" s="18"/>
-      <c r="B127" s="8" t="s">
-        <v>265</v>
+      <c r="A127" s="19"/>
+      <c r="B127" s="9" t="s">
+        <v>266</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="128" ht="18.75" spans="1:4">
-      <c r="A128" s="18"/>
-      <c r="B128" s="8"/>
+      <c r="A128" s="19"/>
+      <c r="B128" s="9"/>
       <c r="C128" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D128" s="6"/>
     </row>
     <row r="129" ht="18.75" spans="1:4">
-      <c r="A129" s="18"/>
-      <c r="B129" s="8"/>
+      <c r="A129" s="19"/>
+      <c r="B129" s="9"/>
       <c r="C129" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="130" ht="18.75" spans="1:4">
-      <c r="A130" s="18"/>
-      <c r="B130" s="8"/>
+      <c r="A130" s="19"/>
+      <c r="B130" s="9"/>
       <c r="C130" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D130" s="6"/>
     </row>
     <row r="131" ht="18.75" spans="1:4">
-      <c r="A131" s="18"/>
-      <c r="B131" s="8"/>
+      <c r="A131" s="19"/>
+      <c r="B131" s="9"/>
       <c r="C131" s="5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="132" ht="33" spans="1:4">
-      <c r="A132" s="18"/>
-      <c r="B132" s="8"/>
-      <c r="C132" s="9" t="s">
-        <v>274</v>
+      <c r="A132" s="19"/>
+      <c r="B132" s="9"/>
+      <c r="C132" s="10" t="s">
+        <v>275</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="133" ht="18.75" spans="1:4">
-      <c r="A133" s="18"/>
-      <c r="B133" s="8"/>
+      <c r="A133" s="19"/>
+      <c r="B133" s="9"/>
       <c r="C133" s="5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D133" s="6"/>
     </row>
     <row r="134" ht="33" spans="1:4">
-      <c r="A134" s="18"/>
-      <c r="B134" s="8"/>
+      <c r="A134" s="19"/>
+      <c r="B134" s="9"/>
       <c r="C134" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D134" s="6"/>
     </row>
     <row r="135" ht="33" spans="1:4">
-      <c r="A135" s="18"/>
-      <c r="B135" s="8"/>
+      <c r="A135" s="19"/>
+      <c r="B135" s="9"/>
       <c r="C135" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D135" s="6"/>
     </row>
     <row r="136" ht="18.75" spans="2:4">
-      <c r="B136" s="8"/>
+      <c r="B136" s="9"/>
       <c r="C136" s="5"/>
       <c r="D136" s="6"/>
     </row>
     <row r="137" ht="33" spans="1:4">
-      <c r="A137" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="B137" s="8" t="s">
+      <c r="A137" s="20" t="s">
         <v>280</v>
       </c>
+      <c r="B137" s="9" t="s">
+        <v>281</v>
+      </c>
       <c r="C137" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D137" s="6"/>
     </row>
     <row r="138" ht="18.75" spans="1:4">
-      <c r="A138" s="19"/>
-      <c r="B138" s="8"/>
+      <c r="A138" s="20"/>
+      <c r="B138" s="9"/>
       <c r="C138" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="139" ht="18.75" spans="1:4">
-      <c r="A139" s="19"/>
-      <c r="B139" s="8"/>
-      <c r="C139" s="9" t="s">
-        <v>284</v>
+      <c r="A139" s="20"/>
+      <c r="B139" s="9"/>
+      <c r="C139" s="10" t="s">
+        <v>285</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="140" ht="18.75" spans="1:4">
-      <c r="A140" s="19"/>
-      <c r="B140" s="8"/>
+      <c r="A140" s="20"/>
+      <c r="B140" s="9"/>
       <c r="C140" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="141" ht="18.75" spans="1:4">
-      <c r="A141" s="19"/>
-      <c r="B141" s="8"/>
+      <c r="A141" s="20"/>
+      <c r="B141" s="9"/>
       <c r="C141" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="142" ht="18.75" spans="1:4">
-      <c r="A142" s="19"/>
-      <c r="B142" s="8"/>
+      <c r="A142" s="20"/>
+      <c r="B142" s="9"/>
       <c r="C142" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D142" s="10" t="s">
         <v>291</v>
       </c>
+      <c r="D142" s="11" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="143" ht="18.75" spans="1:4">
-      <c r="A143" s="19"/>
-      <c r="B143" s="8"/>
+      <c r="A143" s="20"/>
+      <c r="B143" s="9"/>
       <c r="C143" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="144" ht="18.75" spans="1:4">
-      <c r="A144" s="19"/>
-      <c r="B144" s="8"/>
+      <c r="A144" s="20"/>
+      <c r="B144" s="9"/>
       <c r="C144" s="5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D144" s="6"/>
     </row>
     <row r="145" ht="18.75" spans="1:4">
-      <c r="A145" s="19"/>
-      <c r="B145" s="8"/>
+      <c r="A145" s="20"/>
+      <c r="B145" s="9"/>
       <c r="C145" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D145" s="6"/>
     </row>
     <row r="146" ht="18.75" spans="1:4">
-      <c r="A146" s="19"/>
-      <c r="B146" s="8"/>
+      <c r="A146" s="20"/>
+      <c r="B146" s="9"/>
       <c r="C146" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D146" s="6"/>
     </row>
     <row r="147" ht="18.75" spans="1:4">
-      <c r="A147" s="19"/>
-      <c r="B147" s="8"/>
+      <c r="A147" s="20"/>
+      <c r="B147" s="9"/>
       <c r="C147" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D147" s="6"/>
     </row>
     <row r="148" ht="18.75" spans="1:4">
-      <c r="A148" s="19"/>
-      <c r="B148" s="8" t="s">
-        <v>298</v>
+      <c r="A148" s="20"/>
+      <c r="B148" s="9" t="s">
+        <v>299</v>
       </c>
       <c r="C148" s="5" t="s">
         <v>30</v>
@@ -9838,190 +9841,190 @@
       <c r="D148" s="6"/>
     </row>
     <row r="149" ht="18.75" spans="1:4">
-      <c r="A149" s="19"/>
-      <c r="B149" s="8"/>
+      <c r="A149" s="20"/>
+      <c r="B149" s="9"/>
       <c r="C149" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D149" s="6"/>
     </row>
     <row r="150" ht="18.75" spans="1:4">
-      <c r="A150" s="19"/>
-      <c r="B150" s="8"/>
-      <c r="C150" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="D150" s="11" t="s">
+      <c r="A150" s="20"/>
+      <c r="B150" s="9"/>
+      <c r="C150" s="10" t="s">
         <v>301</v>
       </c>
+      <c r="D150" s="12" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="151" ht="21" spans="1:4">
-      <c r="A151" s="19"/>
+      <c r="A151" s="20"/>
       <c r="B151" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="C151" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="D151" s="11" t="s">
+      <c r="C151" s="10" t="s">
         <v>304</v>
       </c>
+      <c r="D151" s="12" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="152" ht="18.75" spans="1:4">
-      <c r="A152" s="19"/>
-      <c r="B152" s="8"/>
-      <c r="C152" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="D152" s="10" t="s">
+      <c r="A152" s="20"/>
+      <c r="B152" s="9"/>
+      <c r="C152" s="10" t="s">
         <v>306</v>
       </c>
+      <c r="D152" s="11" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="153" ht="18.75" spans="1:4">
-      <c r="A153" s="19"/>
-      <c r="B153" s="8"/>
-      <c r="C153" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="D153" s="10" t="s">
+      <c r="A153" s="20"/>
+      <c r="B153" s="9"/>
+      <c r="C153" s="10" t="s">
         <v>308</v>
       </c>
+      <c r="D153" s="11" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="154" ht="18.75" spans="1:4">
-      <c r="A154" s="19"/>
-      <c r="B154" s="8"/>
+      <c r="A154" s="20"/>
+      <c r="B154" s="9"/>
       <c r="C154" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D154" s="6"/>
     </row>
     <row r="155" ht="33" spans="1:4">
-      <c r="A155" s="19"/>
-      <c r="B155" s="8" t="s">
-        <v>310</v>
+      <c r="A155" s="20"/>
+      <c r="B155" s="9" t="s">
+        <v>311</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D155" s="6"/>
     </row>
     <row r="156" ht="18.75" spans="1:4">
-      <c r="A156" s="19"/>
-      <c r="B156" s="8"/>
+      <c r="A156" s="20"/>
+      <c r="B156" s="9"/>
       <c r="C156" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="157" ht="18.75" spans="1:4">
-      <c r="A157" s="19"/>
-      <c r="B157" s="8"/>
+      <c r="A157" s="20"/>
+      <c r="B157" s="9"/>
       <c r="C157" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="158" ht="18.75" spans="2:4">
-      <c r="B158" s="8"/>
+      <c r="B158" s="9"/>
       <c r="C158" s="5"/>
       <c r="D158" s="6"/>
     </row>
     <row r="159" ht="49.5" spans="1:4">
-      <c r="A159" s="20" t="s">
-        <v>316</v>
-      </c>
-      <c r="B159" s="8" t="s">
+      <c r="A159" s="21" t="s">
         <v>317</v>
       </c>
+      <c r="B159" s="9" t="s">
+        <v>318</v>
+      </c>
       <c r="C159" s="5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D159" s="6"/>
     </row>
     <row r="160" ht="33" spans="1:4">
-      <c r="A160" s="20"/>
-      <c r="B160" s="8" t="s">
-        <v>319</v>
+      <c r="A160" s="21"/>
+      <c r="B160" s="9" t="s">
+        <v>320</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D160" s="6"/>
     </row>
     <row r="161" ht="18.75" spans="1:4">
-      <c r="A161" s="20"/>
-      <c r="B161" s="8" t="s">
-        <v>321</v>
+      <c r="A161" s="21"/>
+      <c r="B161" s="9" t="s">
+        <v>322</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D161" s="6"/>
     </row>
     <row r="162" ht="82.5" spans="1:4">
-      <c r="A162" s="20"/>
-      <c r="B162" s="8" t="s">
-        <v>323</v>
+      <c r="A162" s="21"/>
+      <c r="B162" s="9" t="s">
+        <v>324</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D162" s="6"/>
     </row>
     <row r="163" ht="33" spans="1:4">
-      <c r="A163" s="20"/>
-      <c r="B163" s="8" t="s">
-        <v>325</v>
+      <c r="A163" s="21"/>
+      <c r="B163" s="9" t="s">
+        <v>326</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D163" s="6"/>
     </row>
     <row r="164" ht="18.75" spans="1:4">
-      <c r="A164" s="20"/>
-      <c r="B164" s="8" t="s">
-        <v>327</v>
+      <c r="A164" s="21"/>
+      <c r="B164" s="9" t="s">
+        <v>328</v>
       </c>
       <c r="C164" s="5"/>
       <c r="D164" s="6"/>
     </row>
     <row r="165" ht="18.75" spans="1:4">
-      <c r="A165" s="20"/>
-      <c r="B165" s="8" t="s">
-        <v>328</v>
+      <c r="A165" s="21"/>
+      <c r="B165" s="9" t="s">
+        <v>329</v>
       </c>
       <c r="C165" s="5"/>
       <c r="D165" s="6"/>
     </row>
     <row r="166" ht="49.5" spans="1:4">
-      <c r="A166" s="20"/>
-      <c r="B166" s="8" t="s">
-        <v>329</v>
+      <c r="A166" s="21"/>
+      <c r="B166" s="9" t="s">
+        <v>330</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D166" s="6"/>
     </row>
     <row r="167" ht="33" spans="1:4">
-      <c r="A167" s="20"/>
-      <c r="B167" s="8" t="s">
-        <v>331</v>
+      <c r="A167" s="21"/>
+      <c r="B167" s="9" t="s">
+        <v>332</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D167" s="6"/>
     </row>
     <row r="168" ht="18.75" spans="1:4">
-      <c r="A168" s="20"/>
-      <c r="B168" s="8" t="s">
-        <v>333</v>
+      <c r="A168" s="21"/>
+      <c r="B168" s="9" t="s">
+        <v>334</v>
       </c>
       <c r="C168" s="5"/>
       <c r="D168" s="6"/>
@@ -10031,77 +10034,77 @@
       <c r="D169" s="6"/>
     </row>
     <row r="170" ht="24.75" spans="1:4">
-      <c r="A170" s="21" t="s">
-        <v>334</v>
-      </c>
-      <c r="C170" s="9" t="s">
+      <c r="A170" s="22" t="s">
         <v>335</v>
       </c>
+      <c r="C170" s="10" t="s">
+        <v>336</v>
+      </c>
       <c r="D170" s="6"/>
     </row>
     <row r="171" ht="16.5" spans="3:4">
-      <c r="C171" s="9" t="s">
-        <v>336</v>
+      <c r="C171" s="10" t="s">
+        <v>337</v>
       </c>
       <c r="D171" s="6"/>
     </row>
     <row r="172" ht="33" spans="3:4">
-      <c r="C172" s="9" t="s">
-        <v>337</v>
+      <c r="C172" s="10" t="s">
+        <v>338</v>
       </c>
       <c r="D172" s="6"/>
     </row>
     <row r="173" ht="16.5" spans="3:4">
-      <c r="C173" s="9" t="s">
-        <v>338</v>
+      <c r="C173" s="10" t="s">
+        <v>339</v>
       </c>
       <c r="D173" s="6"/>
     </row>
     <row r="174" ht="16.5" spans="3:4">
-      <c r="C174" s="9" t="s">
-        <v>339</v>
+      <c r="C174" s="10" t="s">
+        <v>340</v>
       </c>
       <c r="D174" s="6"/>
     </row>
     <row r="175" ht="16.5" spans="3:4">
-      <c r="C175" s="9" t="s">
-        <v>340</v>
+      <c r="C175" s="10" t="s">
+        <v>341</v>
       </c>
       <c r="D175" s="6"/>
     </row>
     <row r="176" ht="16.5" spans="3:4">
-      <c r="C176" s="9" t="s">
-        <v>341</v>
+      <c r="C176" s="10" t="s">
+        <v>342</v>
       </c>
       <c r="D176" s="6"/>
     </row>
     <row r="177" ht="33" spans="3:4">
-      <c r="C177" s="9" t="s">
-        <v>342</v>
+      <c r="C177" s="10" t="s">
+        <v>343</v>
       </c>
       <c r="D177" s="6"/>
     </row>
     <row r="178" ht="16.5" spans="3:4">
-      <c r="C178" s="9" t="s">
-        <v>343</v>
+      <c r="C178" s="10" t="s">
+        <v>344</v>
       </c>
       <c r="D178" s="6"/>
     </row>
     <row r="179" ht="16.5" spans="3:4">
-      <c r="C179" s="9" t="s">
-        <v>344</v>
+      <c r="C179" s="10" t="s">
+        <v>345</v>
       </c>
       <c r="D179" s="6"/>
     </row>
     <row r="180" ht="16.5" spans="3:4">
-      <c r="C180" s="9" t="s">
-        <v>345</v>
+      <c r="C180" s="10" t="s">
+        <v>346</v>
       </c>
       <c r="D180" s="6"/>
     </row>
     <row r="181" ht="16.5" spans="3:4">
-      <c r="C181" s="9" t="s">
-        <v>346</v>
+      <c r="C181" s="10" t="s">
+        <v>347</v>
       </c>
       <c r="D181" s="6"/>
     </row>
@@ -10235,12 +10238,14 @@
       <c r="D224" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
     <mergeCell ref="A2:A47"/>
     <mergeCell ref="A49:A85"/>
     <mergeCell ref="A87:A135"/>
     <mergeCell ref="A137:A157"/>
     <mergeCell ref="A159:A168"/>
+    <mergeCell ref="E2:E10"/>
+    <mergeCell ref="F2:F10"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F10 F11:F1048576">

--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="12630"/>
+    <workbookView windowWidth="28695" windowHeight="12630" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="A-JAVA基础" sheetId="2" r:id="rId1"/>
@@ -2722,10 +2722,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -2850,11 +2850,34 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2867,15 +2890,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2889,40 +2904,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2940,24 +2934,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2971,16 +2979,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3043,7 +3043,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3055,13 +3055,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3073,7 +3139,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3085,61 +3163,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3151,79 +3217,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3255,43 +3255,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3312,16 +3277,45 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3341,11 +3335,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3355,10 +3355,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3367,16 +3367,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3385,115 +3385,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3972,10 +3972,10 @@
   <sheetPr/>
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4042,7 +4042,7 @@
       </c>
       <c r="H2" s="27">
         <f ca="1">TODAY()</f>
-        <v>43427</v>
+        <v>43437</v>
       </c>
       <c r="I2" s="40">
         <v>43426</v>
@@ -4682,11 +4682,11 @@
       </c>
       <c r="H2" s="38">
         <f ca="1">TODAY()</f>
-        <v>43427</v>
+        <v>43437</v>
       </c>
       <c r="I2" s="38">
         <f ca="1">TODAY()</f>
-        <v>43427</v>
+        <v>43437</v>
       </c>
     </row>
   </sheetData>
@@ -4781,11 +4781,11 @@
       </c>
       <c r="H2" s="27">
         <f ca="1">TODAY()-1</f>
-        <v>43426</v>
+        <v>43436</v>
       </c>
       <c r="I2" s="27">
         <f ca="1">TODAY()</f>
-        <v>43427</v>
+        <v>43437</v>
       </c>
     </row>
     <row r="3" spans="3:7">
@@ -6095,7 +6095,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="$A4:$XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -6154,7 +6154,7 @@
       </c>
       <c r="H2" s="27">
         <f ca="1">TODAY()</f>
-        <v>43427</v>
+        <v>43437</v>
       </c>
     </row>
     <row r="3" s="24" customFormat="1" ht="66" spans="1:8">
@@ -6172,7 +6172,7 @@
       </c>
       <c r="H3" s="30">
         <f ca="1">TODAY()</f>
-        <v>43427</v>
+        <v>43437</v>
       </c>
     </row>
     <row r="4" ht="165" spans="1:8">
@@ -6193,7 +6193,7 @@
       </c>
       <c r="H4" s="27">
         <f ca="1">TODAY()</f>
-        <v>43427</v>
+        <v>43437</v>
       </c>
     </row>
     <row r="5" ht="132" spans="1:8">
@@ -8388,10 +8388,10 @@
   <sheetPr/>
   <dimension ref="A1:G224"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2:E10"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
